--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Active/5. Python/Products/Internal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{F68EE3AD-11B1-452B-AF99-73E6C463B1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D7B6E7-B19A-4F1B-BB59-D1518EC8741F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -636,363 +636,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4159586587</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4052933724</v>
         <stp/>
         <stp>BDP|11316537394346266156</stp>
+        <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
-        <tr r="D34" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4016452353</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3755102091</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4258437220</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3526799445</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
+        <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
-        <tr r="D22" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3061536089</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3687811279</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
+        <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
-        <tr r="D11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3467834163</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4193630035</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3563491055</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
+        <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
-        <tr r="D20" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3656568859</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
+        <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
-        <tr r="D10" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3736136693</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
+        <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
-        <tr r="D23" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3343541757</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3303592432</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3508931427</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3830882724</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
+        <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
-        <tr r="D37" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3146898140</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3955277495</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4122465900</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3204869748</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3955877710</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
+        <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
-        <tr r="D16" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3674443791</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
+        <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
-        <tr r="D36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3399122789</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3180139193</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3443067216</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3900268944</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3378270919</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3484310251</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3675578134</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3978005801</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3718789926</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3761613374</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4220887046</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3719680330</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
+        <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
-        <tr r="D24" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3063506770</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3934517974</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
+        <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
-        <tr r="D19" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4091085395</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3769694135</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3415225956</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3558831771</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3534255469</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3463389649</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3603283039</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3057192674</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3571519739</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
+        <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
-        <tr r="D12" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3952669701</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4025698893</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3525670451</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3211236987</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
+        <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
-        <tr r="D38" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3585614781</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3474769959</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3419999418</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4043188856</v>
         <stp/>
         <stp>BDP|11312433118967844720</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4082155302</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4156650273</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1000,461 +1000,461 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4274436500</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
+        <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
-        <tr r="D21" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3968980334</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3787714942</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3981445522</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3687530580</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3352499469</v>
         <stp/>
         <stp>BDP|4815331587855686712</stp>
+        <tr r="D26" s="5"/>
         <tr r="E26" s="5"/>
-        <tr r="D26" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3662630944</v>
         <stp/>
         <stp>BDP|3749360003508400549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3202226595</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3707150500</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3228951401</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3653731076</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="D33" s="5"/>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4213359451</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3104056422</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3176554980</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4236479756</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3328024176</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3775441845</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3596705017</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3406189732</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3977784873</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3573483964</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
+        <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
-        <tr r="D40" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3183571187</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3921203432</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3579013659</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3867178650</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4074553314</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3374569707</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3609565118</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4172411643</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3371159924</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3258411423</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3809034759</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3881584996</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3322323702</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3950404832</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3856129824</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3640678042</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3468020936</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3338002761</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3905618936</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3607453653</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3985044672</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3318673969</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4097069534</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4289187044</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3726733293</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4044270582</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4255870625</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3696601120</v>
         <stp/>
         <stp>BDP|2000433777166414735</stp>
+        <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
-        <tr r="D35" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3920110318</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
+        <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
-        <tr r="D39" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3888519432</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4086814927</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
+        <tr r="D27" s="5"/>
         <tr r="E27" s="5"/>
-        <tr r="D27" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3190933655</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4156443706</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4068522719</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3347850565</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4286366233</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4188784125</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3345291538</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3543393867</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4234676696</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4202102901</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3855081949</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4104764188</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4184204435</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
+        <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
-        <tr r="D15" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4000201159</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
+        <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
-        <tr r="D14" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3750660427</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3550288904</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
+        <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
-        <tr r="D13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3704148458</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3368142883</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3664580742</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3646503066</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4044764634</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
+        <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
-        <tr r="D18" s="5"/>
       </tp>
     </main>
   </volType>
@@ -1784,13 +1784,13 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1880,14 +1880,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,43 +1898,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.82</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>3.1640000000000001</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1983,14 +1983,14 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2013,13 +2013,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.1913999999999998</v>
+        <v>4.1994999999999996</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2028,13 +2028,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.9514999999999998</v>
+        <v>3.9784999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2043,13 +2043,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.8683999999999998</v>
+        <v>3.9064999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2058,13 +2058,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.8165</v>
+        <v>3.8672</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2073,13 +2073,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.7887</v>
+        <v>3.8491</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2088,13 +2088,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.7770000000000001</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2103,13 +2103,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7725</v>
+        <v>3.8466999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2118,13 +2118,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7732999999999999</v>
+        <v>3.8513999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2133,13 +2133,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.7772999999999999</v>
+        <v>3.8584000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2148,13 +2148,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.7839999999999998</v>
+        <v>3.8668</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2163,13 +2163,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.14</v>
+        <v>3.137</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2178,13 +2178,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.9679000000000002</v>
+        <v>2.976</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2193,13 +2193,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.9119999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2208,13 +2208,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.8902000000000001</v>
+        <v>2.9035000000000002</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2223,13 +2223,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.8925999999999998</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2238,13 +2238,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.9285999999999999</v>
+        <v>2.9420000000000002</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2253,13 +2253,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.9716999999999998</v>
+        <v>2.9882</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2268,13 +2268,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>3.0225</v>
+        <v>3.036</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2283,13 +2283,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.0666000000000002</v>
+        <v>3.0819999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2298,13 +2298,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.1038999999999999</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2313,13 +2313,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.4039999999999999</v>
+        <v>2.3957999999999999</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.1960000000000002</v>
+        <v>2.1878000000000002</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2343,13 +2343,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.1688000000000001</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2358,13 +2358,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.1760000000000002</v>
+        <v>2.1539999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2373,13 +2373,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.1968999999999999</v>
+        <v>2.1671</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2388,13 +2388,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.2172999999999998</v>
+        <v>2.1876000000000002</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.2385000000000002</v>
+        <v>2.2134999999999998</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2418,13 +2418,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.2648000000000001</v>
+        <v>2.2376999999999998</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2433,13 +2433,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2909999999999999</v>
+        <v>2.2652000000000001</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2448,13 +2448,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.3163</v>
+        <v>2.2905000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2463,13 +2463,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.4085000000000001</v>
+        <v>4.4344999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2478,13 +2478,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.2045500000000002</v>
+        <v>4.2515000000000001</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2493,13 +2493,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.1124999999999998</v>
+        <v>4.1585999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2508,13 +2508,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>4.0439999999999996</v>
+        <v>4.09185</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2523,13 +2523,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>4.0006000000000004</v>
+        <v>4.0444500000000003</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.9695499999999999</v>
+        <v>4.0155000000000003</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9609999999999999</v>
+        <v>4.00075</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2568,13 +2568,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9605000000000001</v>
+        <v>3.9981499999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2583,13 +2583,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>3.9645000000000001</v>
+        <v>4.0065</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2598,13 +2598,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>3.9806499999999998</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2613,13 +2613,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.41499999999999998</v>
+        <v>0.43625000000000003</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.50375000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2643,13 +2643,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.5575</v>
+        <v>0.58625000000000005</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2658,13 +2658,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.60124999999999995</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2673,13 +2673,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.64624999999999999</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2688,13 +2688,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.69499999999999995</v>
+        <v>0.71375</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2703,13 +2703,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.75124999999999997</v>
+        <v>0.76624999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2718,13 +2718,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.81125000000000003</v>
+        <v>0.82125000000000004</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2733,13 +2733,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>0.87375000000000003</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2748,13 +2748,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>0.94001000000000001</v>
+        <v>0.94874999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2763,13 +2763,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>4.2606999999999999</v>
+        <v>4.2274000000000003</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2778,13 +2778,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>4.08087</v>
+        <v>4.0420199999999999</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2793,13 +2793,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.2386299999999997</v>
+        <v>4.2213000000000003</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2808,13 +2808,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.24</v>
+        <v>4.2272999999999996</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2823,13 +2823,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.2818800000000001</v>
+        <v>4.2747999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2838,13 +2838,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.3414999999999999</v>
+        <v>4.34</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2853,13 +2853,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.4024999999999999</v>
+        <v>4.4050000000000002</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2868,13 +2868,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.46</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2883,13 +2883,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.5119999999999996</v>
+        <v>4.5187999999999997</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.556</v>
+        <v>4.5637999999999996</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2917,15 +2917,15 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2948,13 +2948,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6042000000000001</v>
+        <v>3.6865999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2963,13 +2963,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7082999999999999</v>
+        <v>3.8207</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2978,13 +2978,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.16377</v>
+        <v>3.1843900000000001</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.6756500000000001</v>
+        <v>3.6993399999999999</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3008,13 +3008,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.3391000000000002</v>
+        <v>2.2978000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3023,13 +3023,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.5547</v>
+        <v>2.5276000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9169999999999998</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3053,13 +3053,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.0190000000000001</v>
+        <v>4.0518999999999998</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3068,13 +3068,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.80469999999999997</v>
+        <v>0.79959999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3083,13 +3083,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.2956000000000001</v>
+        <v>1.2726</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3098,13 +3098,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.2626999999999997</v>
+        <v>4.2693000000000003</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.8948999999999998</v>
+        <v>4.8956999999999997</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3132,14 +3132,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3150,73 +3150,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.5754999999999999</v>
+        <v>3.6233</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>3.12941</v>
+        <v>3.1491899999999999</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.2010000000000001</v>
+        <v>2.1753999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.0907</v>
+        <v>4.1492000000000004</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.66459999999999997</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>4.0403000000000002</v>
+        <v>3.9980000000000002</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3232,20 +3232,20 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3277,17 +3277,17 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xll.BDP(F2,"px_last")</f>
-        <v>4.5910000000000002</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(F2,"px_last")</f>
-        <v>4.5910000000000002</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3299,17 +3299,17 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.4059999999999997</v>
+        <v>4.375</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.4059999999999997</v>
+        <v>4.375</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3321,17 +3321,17 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.258</v>
+        <v>4.242</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.258</v>
+        <v>4.242</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3343,17 +3343,17 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.08</v>
+        <v>4.0910000000000002</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.08</v>
+        <v>4.0910000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3365,17 +3365,17 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>3.95</v>
+        <v>3.9779999999999998</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>3.95</v>
+        <v>3.9779999999999998</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3387,17 +3387,17 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.8279999999999998</v>
+        <v>3.86</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.8279999999999998</v>
+        <v>3.86</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3409,17 +3409,17 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3431,17 +3431,17 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6949999999999998</v>
+        <v>3.7279999999999998</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6949999999999998</v>
+        <v>3.7279999999999998</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3453,17 +3453,17 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4279999999999999</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4279999999999999</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="F10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3475,17 +3475,17 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
-        <v>3.202</v>
+        <v>3.169</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
-        <v>3.202</v>
+        <v>3.169</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3497,17 +3497,17 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>2.9990000000000001</v>
+        <v>3.02</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>2.9990000000000001</v>
+        <v>3.02</v>
       </c>
       <c r="F12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3519,17 +3519,17 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.9130000000000003</v>
+        <v>2.91</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.9130000000000003</v>
+        <v>2.91</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3541,17 +3541,17 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.86</v>
+        <v>2.879</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.86</v>
+        <v>2.879</v>
       </c>
       <c r="F14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3563,17 +3563,17 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8620000000000001</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8620000000000001</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3585,17 +3585,17 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.81</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.81</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3607,18 +3607,18 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.81</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.81</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
-        <v>2.8439999999999999</v>
+        <v>2.871</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
-        <v>2.8439999999999999</v>
+        <v>2.871</v>
       </c>
       <c r="F18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3652,17 +3652,17 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5819999999999999</v>
+        <v>2.5869999999999997</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5819999999999999</v>
+        <v>2.5869999999999997</v>
       </c>
       <c r="F19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3674,17 +3674,17 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.39</v>
+        <v>2.343</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.39</v>
+        <v>2.343</v>
       </c>
       <c r="F20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.1589999999999998</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.1589999999999998</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3718,17 +3718,17 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>2.016</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>2.016</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3740,17 +3740,17 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.9609999999999999</v>
+        <v>1.958</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.9609999999999999</v>
+        <v>1.958</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3762,17 +3762,17 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9790000000000001</v>
+        <v>1.982</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9790000000000001</v>
+        <v>1.982</v>
       </c>
       <c r="F24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3784,18 +3784,18 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.9790000000000001</v>
+        <v>1.982</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.9790000000000001</v>
+        <v>1.982</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3807,17 +3807,17 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
-        <v>4.7229999999999999</v>
+        <v>4.7130000000000001</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
-        <v>4.7229999999999999</v>
+        <v>4.7130000000000001</v>
       </c>
       <c r="F26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.BDP(F27,"px_last")</f>
-        <v>4.6379999999999999</v>
+        <v>4.6390000000000002</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(F27,"px_last")</f>
-        <v>4.6379999999999999</v>
+        <v>4.6390000000000002</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3851,17 +3851,17 @@
       </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xll.BDP(F28,"px_last")</f>
-        <v>4.4459999999999997</v>
+        <v>4.4530000000000003</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(F28,"px_last")</f>
-        <v>4.4459999999999997</v>
+        <v>4.4530000000000003</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3873,17 +3873,17 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F29,"px_last")</f>
-        <v>4.33</v>
+        <v>4.3609999999999998</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F29,"px_last")</f>
-        <v>4.33</v>
+        <v>4.3609999999999998</v>
       </c>
       <c r="F29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F30,"px_last")</f>
-        <v>4.1500000000000004</v>
+        <v>4.165</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F30,"px_last")</f>
-        <v>4.1500000000000004</v>
+        <v>4.165</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3917,17 +3917,17 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F31,"px_last")</f>
-        <v>4.0999999999999996</v>
+        <v>4.1509999999999998</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F31,"px_last")</f>
-        <v>4.0999999999999996</v>
+        <v>4.1509999999999998</v>
       </c>
       <c r="F31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3939,17 +3939,17 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F32,"px_last")</f>
-        <v>4.016</v>
+        <v>4.048</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F32,"px_last")</f>
-        <v>4.016</v>
+        <v>4.048</v>
       </c>
       <c r="F32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3961,17 +3961,17 @@
       </c>
       <c r="D33" cm="1">
         <f t="array" ref="D33">_xll.BDP(F33,"px_last")</f>
-        <v>3.9670000000000001</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F33,"px_last")</f>
-        <v>3.9670000000000001</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="F33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3983,17 +3983,17 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.29499999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.29499999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="F34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4005,17 +4005,17 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.38700000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.38700000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.39900000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.39900000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="F36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4049,17 +4049,17 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.44600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.44600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.47699999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.47699999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4093,17 +4093,17 @@
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.504</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.504</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4115,17 +4115,17 @@
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.52800000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.52800000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="F40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -4137,18 +4137,18 @@
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.52800000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.52800000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="D42" cm="1">
         <f t="array" ref="D42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3310000000000004</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3310000000000004</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="F42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.3049999999999997</v>
+        <v>4.2930000000000001</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.3049999999999997</v>
+        <v>4.2930000000000001</v>
       </c>
       <c r="F43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4204,17 +4204,17 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2229999999999999</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2229999999999999</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4226,17 +4226,17 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1760000000000002</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1760000000000002</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="F45" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4248,17 +4248,17 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0629999999999997</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0629999999999997</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="F46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4270,17 +4270,17 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>4.0650000000000004</v>
+        <v>3.984</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>4.0650000000000004</v>
+        <v>3.984</v>
       </c>
       <c r="F47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9290000000000003</v>
+        <v>3.91</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9290000000000003</v>
+        <v>3.91</v>
       </c>
       <c r="F48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4314,11 +4314,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8679999999999999</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8679999999999999</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="F49" t="s">
         <v>166</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -636,363 +636,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4159586587</v>
+        <v>#N/A Requesting Data...3653864509</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4052933724</v>
+        <v>#N/A Requesting Data...3012665162</v>
         <stp/>
         <stp>BDP|11316537394346266156</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4016452353</v>
+        <v>#N/A Requesting Data...4059129853</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3755102091</v>
+        <v>#N/A Requesting Data...2899830861</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258437220</v>
+        <v>#N/A Requesting Data...3661562081</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3526799445</v>
+        <v>#N/A Requesting Data...2977359924</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3061536089</v>
+        <v>#N/A Requesting Data...2407558991</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3687811279</v>
+        <v>#N/A Requesting Data...2979399835</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3467834163</v>
+        <v>#N/A Requesting Data...4228622331</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4193630035</v>
+        <v>#N/A Requesting Data...3735417693</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3563491055</v>
+        <v>#N/A Requesting Data...3387342138</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3656568859</v>
+        <v>#N/A Requesting Data...3120408045</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3736136693</v>
+        <v>#N/A Requesting Data...3479155717</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3343541757</v>
+        <v>#N/A Requesting Data...3185977422</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3303592432</v>
+        <v>#N/A Requesting Data...4036520988</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3508931427</v>
+        <v>#N/A Requesting Data...3146830147</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3830882724</v>
+        <v>#N/A Requesting Data...3634266024</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3146898140</v>
+        <v>#N/A Requesting Data...3621481554</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3955277495</v>
+        <v>#N/A Requesting Data...3898133905</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4122465900</v>
+        <v>#N/A Requesting Data...3366225511</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3204869748</v>
+        <v>#N/A Requesting Data...3927371073</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3955877710</v>
+        <v>#N/A Requesting Data...2827784456</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3674443791</v>
+        <v>#N/A Requesting Data...3798397334</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3399122789</v>
+        <v>#N/A Requesting Data...3300524558</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3180139193</v>
+        <v>#N/A Requesting Data...3685203110</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3443067216</v>
+        <v>#N/A Requesting Data...2539368183</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3900268944</v>
+        <v>#N/A Requesting Data...3024766276</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3378270919</v>
+        <v>#N/A Requesting Data...3963817382</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3484310251</v>
+        <v>#N/A Requesting Data...2762765396</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3675578134</v>
+        <v>#N/A Requesting Data...4052680346</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3978005801</v>
+        <v>#N/A Requesting Data...3403705318</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3718789926</v>
+        <v>#N/A Requesting Data...4268595977</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3761613374</v>
+        <v>#N/A Requesting Data...3835379341</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220887046</v>
+        <v>#N/A Requesting Data...3492106792</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3719680330</v>
+        <v>#N/A Requesting Data...3631196480</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3063506770</v>
+        <v>#N/A Requesting Data...3965769364</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3934517974</v>
+        <v>#N/A Requesting Data...3646308437</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4091085395</v>
+        <v>#N/A Requesting Data...4280874886</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769694135</v>
+        <v>#N/A Requesting Data...2902984675</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3415225956</v>
+        <v>#N/A Requesting Data...3475988921</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3558831771</v>
+        <v>#N/A Requesting Data...4205267798</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3534255469</v>
+        <v>#N/A Requesting Data...3887128312</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3463389649</v>
+        <v>#N/A Requesting Data...3720302145</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3603283039</v>
+        <v>#N/A Requesting Data...3719737879</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3057192674</v>
+        <v>#N/A Requesting Data...3723665193</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3571519739</v>
+        <v>#N/A Requesting Data...2422532322</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3952669701</v>
+        <v>#N/A Requesting Data...4157080189</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4025698893</v>
+        <v>#N/A Requesting Data...3906592971</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3525670451</v>
+        <v>#N/A Requesting Data...2533353732</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3211236987</v>
+        <v>#N/A Requesting Data...4023127344</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3585614781</v>
+        <v>#N/A Requesting Data...3070112318</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3474769959</v>
+        <v>#N/A Requesting Data...3494155597</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3419999418</v>
+        <v>#N/A Requesting Data...3483616417</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4043188856</v>
+        <v>#N/A Requesting Data...2821429709</v>
         <stp/>
         <stp>BDP|11312433118967844720</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4082155302</v>
+        <v>#N/A Requesting Data...3279431354</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4156650273</v>
+        <v>#N/A Requesting Data...4032073662</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1000,457 +1000,457 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4274436500</v>
+        <v>#N/A Requesting Data...3179797813</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3968980334</v>
+        <v>#N/A Requesting Data...3640278803</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3787714942</v>
+        <v>#N/A Requesting Data...2538685741</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3981445522</v>
+        <v>#N/A Requesting Data...3823870001</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3687530580</v>
+        <v>#N/A Requesting Data...3348769567</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3352499469</v>
+        <v>#N/A Requesting Data...3571868887</v>
         <stp/>
         <stp>BDP|4815331587855686712</stp>
         <tr r="D26" s="5"/>
         <tr r="E26" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3662630944</v>
+        <v>#N/A Requesting Data...2654790064</v>
         <stp/>
         <stp>BDP|3749360003508400549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3202226595</v>
+        <v>#N/A Requesting Data...2866673938</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3707150500</v>
+        <v>#N/A Requesting Data...3679259169</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3228951401</v>
+        <v>#N/A Requesting Data...3779057058</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3653731076</v>
+        <v>#N/A Requesting Data...4289421714</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="D33" s="5"/>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213359451</v>
+        <v>#N/A Requesting Data...4232826118</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104056422</v>
+        <v>#N/A Requesting Data...3973705578</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3176554980</v>
+        <v>#N/A Requesting Data...4277429467</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236479756</v>
+        <v>#N/A Requesting Data...2797462621</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3328024176</v>
+        <v>#N/A Requesting Data...4270000702</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3775441845</v>
+        <v>#N/A Requesting Data...3811728437</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3596705017</v>
+        <v>#N/A Requesting Data...2607220419</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3406189732</v>
+        <v>#N/A Requesting Data...2643814007</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3977784873</v>
+        <v>#N/A Requesting Data...2633243729</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3573483964</v>
+        <v>#N/A Requesting Data...2536060864</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3183571187</v>
+        <v>#N/A Requesting Data...3754509812</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3921203432</v>
+        <v>#N/A Requesting Data...2635916457</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3579013659</v>
+        <v>#N/A Requesting Data...3447793569</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3867178650</v>
+        <v>#N/A Requesting Data...2827924710</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4074553314</v>
+        <v>#N/A Requesting Data...4169406193</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3374569707</v>
+        <v>#N/A Requesting Data...3771783144</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3609565118</v>
+        <v>#N/A Requesting Data...2823635794</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4172411643</v>
+        <v>#N/A Requesting Data...3060933267</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3371159924</v>
+        <v>#N/A Requesting Data...2799096986</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3258411423</v>
+        <v>#N/A Requesting Data...3601565478</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3809034759</v>
+        <v>#N/A Requesting Data...3837719288</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3881584996</v>
+        <v>#N/A Requesting Data...3473531872</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3322323702</v>
+        <v>#N/A Requesting Data...2790938741</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950404832</v>
+        <v>#N/A Requesting Data...3972168987</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3856129824</v>
+        <v>#N/A Requesting Data...3063681866</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3640678042</v>
+        <v>#N/A Requesting Data...2978279316</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3468020936</v>
+        <v>#N/A Requesting Data...3139876186</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338002761</v>
+        <v>#N/A Requesting Data...3047841477</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3905618936</v>
+        <v>#N/A Requesting Data...2946521825</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3607453653</v>
+        <v>#N/A Requesting Data...4220623875</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3985044672</v>
+        <v>#N/A Requesting Data...4063195620</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3318673969</v>
+        <v>#N/A Requesting Data...2997626296</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097069534</v>
+        <v>#N/A Requesting Data...3340381671</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289187044</v>
+        <v>#N/A Requesting Data...2615926812</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3726733293</v>
+        <v>#N/A Requesting Data...4072803178</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4044270582</v>
+        <v>#N/A Requesting Data...3684700877</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4255870625</v>
+        <v>#N/A Requesting Data...3611984709</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3696601120</v>
+        <v>#N/A Requesting Data...4087011389</v>
         <stp/>
         <stp>BDP|2000433777166414735</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3920110318</v>
+        <v>#N/A Requesting Data...2742839113</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3888519432</v>
+        <v>#N/A Requesting Data...2931623449</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086814927</v>
+        <v>#N/A Requesting Data...2522850524</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D27" s="5"/>
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190933655</v>
+        <v>#N/A Requesting Data...2781515297</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4156443706</v>
+        <v>#N/A Requesting Data...2730388307</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4068522719</v>
+        <v>#N/A Requesting Data...3422603432</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3347850565</v>
+        <v>#N/A Requesting Data...3779944772</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286366233</v>
+        <v>#N/A Requesting Data...2560609236</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188784125</v>
+        <v>#N/A Requesting Data...2576232920</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3345291538</v>
+        <v>#N/A Requesting Data...3792530704</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3543393867</v>
+        <v>#N/A Requesting Data...3215139149</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234676696</v>
+        <v>#N/A Requesting Data...3597949169</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4202102901</v>
+        <v>#N/A Requesting Data...2921915666</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3855081949</v>
+        <v>#N/A Requesting Data...3078218272</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4104764188</v>
+        <v>#N/A Requesting Data...3195732298</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4184204435</v>
+        <v>#N/A Requesting Data...4009640808</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000201159</v>
+        <v>#N/A Requesting Data...2614703798</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3750660427</v>
+        <v>#N/A Requesting Data...3562675517</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3550288904</v>
+        <v>#N/A Requesting Data...3721503839</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3704148458</v>
+        <v>#N/A Requesting Data...2547238539</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3368142883</v>
+        <v>#N/A Requesting Data...3806044870</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3664580742</v>
+        <v>#N/A Requesting Data...3741424602</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646503066</v>
+        <v>#N/A Requesting Data...3639203342</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4044764634</v>
+        <v>#N/A Requesting Data...2559827478</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>4.2274000000000003</v>
+        <v>4.2265499999999996</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>4.0420199999999999</v>
+        <v>4.0419799999999997</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.2213000000000003</v>
+        <v>4.2192499999999997</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.2272999999999996</v>
+        <v>4.2244999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.2747999999999999</v>
+        <v>4.2725</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1349999999999998</v>
+        <v>4.133</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1349999999999998</v>
+        <v>4.133</v>
       </c>
       <c r="F45" t="s">
         <v>162</v>
@@ -4314,11 +4314,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8780000000000001</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8780000000000001</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="F49" t="s">
         <v>166</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191141CC-80BC-4A68-84AA-A15B7A7F2E20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" firstSheet="1" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>Country_ID</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Subjective_Rate</t>
   </si>
   <si>
-    <t>US0AFR NOV2024 Index</t>
-  </si>
-  <si>
     <t>US0AFR DEC2024 Index</t>
   </si>
   <si>
@@ -497,9 +494,6 @@
     <t>EZ0BFR SEP2025 Index</t>
   </si>
   <si>
-    <t>GB0BFR NOV2024 Index</t>
-  </si>
-  <si>
     <t>GB0BFR DEC2024 Index</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
     <t>JP0BFR SEP2025 Index</t>
   </si>
   <si>
-    <t>AU0BFR NOV2024 Index</t>
-  </si>
-  <si>
     <t>AU0BFR DEC2024 Index</t>
   </si>
   <si>
@@ -564,6 +555,12 @@
   </si>
   <si>
     <t>AU0BFR SEP2025 Index</t>
+  </si>
+  <si>
+    <t>US0AFR OCT2025 Index</t>
+  </si>
+  <si>
+    <t>AU0BFR NOV2025 Index</t>
   </si>
 </sst>
 </file>
@@ -636,363 +633,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3653864509</v>
+        <v>#N/A Requesting Data...2475703371</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3012665162</v>
+        <v>#N/A Requesting Data...2530583717</v>
         <stp/>
         <stp>BDP|11316537394346266156</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4059129853</v>
+        <v>#N/A Requesting Data...2627515028</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2899830861</v>
+        <v>#N/A Requesting Data...4286090305</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3661562081</v>
+        <v>#N/A Requesting Data...3957160213</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2977359924</v>
+        <v>#N/A Requesting Data...2530565864</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2407558991</v>
+        <v>#N/A Requesting Data...2723589125</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2979399835</v>
+        <v>#N/A Requesting Data...3558387062</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
+        <tr r="E11" s="5"/>
         <tr r="D11" s="5"/>
-        <tr r="E11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4228622331</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3146933319</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
+        <tr r="E32" s="5"/>
         <tr r="D32" s="5"/>
-        <tr r="E32" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3735417693</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3283590240</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
-        <tr r="D3" s="5"/>
-        <tr r="E3" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3387342138</v>
+        <tr r="D2" s="5"/>
+        <tr r="E2" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4155379521</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3120408045</v>
+        <v>#N/A Requesting Data...3616828082</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3479155717</v>
+        <v>#N/A Requesting Data...3757835441</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3185977422</v>
+        <v>#N/A Requesting Data...3738418920</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4036520988</v>
+        <v>#N/A Requesting Data...3156920488</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3146830147</v>
+        <v>#N/A Requesting Data...4086421867</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3634266024</v>
+        <v>#N/A Requesting Data...3060208878</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3621481554</v>
+        <v>#N/A Requesting Data...3952262627</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
-        <tr r="D5" s="5"/>
-        <tr r="E5" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3898133905</v>
+        <tr r="D4" s="5"/>
+        <tr r="E4" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4005565935</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3366225511</v>
+        <v>#N/A Requesting Data...2764665678</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3927371073</v>
+        <v>#N/A Requesting Data...2317877677</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2827784456</v>
+        <v>#N/A Requesting Data...3813006119</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3798397334</v>
+        <v>#N/A Requesting Data...2706576704</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3300524558</v>
+        <v>#N/A Requesting Data...3922234858</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
-        <tr r="D48" s="5"/>
-        <tr r="E48" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3685203110</v>
+        <tr r="D47" s="5"/>
+        <tr r="E47" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3814509102</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2539368183</v>
+        <v>#N/A Requesting Data...2615189330</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3024766276</v>
+        <v>#N/A Requesting Data...3133499959</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963817382</v>
+        <v>#N/A Requesting Data...3768859911</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
+        <tr r="E28" s="5"/>
         <tr r="D28" s="5"/>
-        <tr r="E28" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2762765396</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3222716224</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4052680346</v>
+        <v>#N/A Requesting Data...4277457062</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3403705318</v>
+        <v>#N/A Requesting Data...2677860343</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4268595977</v>
+        <v>#N/A Requesting Data...3748715969</v>
+        <stp/>
+        <stp>BDP|17627982810519040564</stp>
+        <tr r="D49" s="5"/>
+        <tr r="E49" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2998515838</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3835379341</v>
+        <v>#N/A Requesting Data...2853416160</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3492106792</v>
+        <v>#N/A Requesting Data...2417181601</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3631196480</v>
+        <v>#N/A Requesting Data...2623361505</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965769364</v>
+        <v>#N/A Requesting Data...3708814815</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646308437</v>
+        <v>#N/A Requesting Data...4049254491</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280874886</v>
+        <v>#N/A Requesting Data...3924287404</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2902984675</v>
+        <v>#N/A Requesting Data...3001777222</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3475988921</v>
+        <v>#N/A Requesting Data...3646664842</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
-        <tr r="D9" s="5"/>
-        <tr r="E9" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4205267798</v>
+        <tr r="D8" s="5"/>
+        <tr r="E8" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4071291620</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3887128312</v>
+        <v>#N/A Requesting Data...3536622623</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
-        <tr r="D45" s="5"/>
-        <tr r="E45" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3720302145</v>
+        <tr r="E44" s="5"/>
+        <tr r="D44" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3705307290</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3719737879</v>
+        <v>#N/A Requesting Data...2794583160</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3723665193</v>
+        <v>#N/A Requesting Data...2673456796</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2422532322</v>
+        <v>#N/A Requesting Data...2802737382</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4157080189</v>
+        <v>#N/A Requesting Data...2585170234</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906592971</v>
+        <v>#N/A Requesting Data...3908369038</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
-        <tr r="D6" s="5"/>
-        <tr r="E6" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2533353732</v>
+        <tr r="E5" s="5"/>
+        <tr r="D5" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2694822823</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4023127344</v>
+        <v>#N/A Requesting Data...2664178054</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3070112318</v>
+        <v>#N/A Requesting Data...3604546680</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3494155597</v>
+        <v>#N/A Requesting Data...2970922464</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
-        <tr r="D47" s="5"/>
-        <tr r="E47" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3483616417</v>
+        <tr r="E46" s="5"/>
+        <tr r="D46" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2504121915</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
-        <tr r="D43" s="5"/>
-        <tr r="E43" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2821429709</v>
-        <stp/>
-        <stp>BDP|11312433118967844720</stp>
+        <tr r="E42" s="5"/>
         <tr r="D42" s="5"/>
-        <tr r="E42" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3279431354</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3834916950</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4032073662</v>
+        <v>#N/A Requesting Data...3510952158</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1000,457 +997,451 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3179797813</v>
+        <v>#N/A Requesting Data...3104347896</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3640278803</v>
+        <v>#N/A Requesting Data...3576078859</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2538685741</v>
+        <v>#N/A Requesting Data...3880736996</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3823870001</v>
+        <v>#N/A Requesting Data...4232761919</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3348769567</v>
+        <v>#N/A Requesting Data...2487431058</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3571868887</v>
-        <stp/>
-        <stp>BDP|4815331587855686712</stp>
-        <tr r="D26" s="5"/>
-        <tr r="E26" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2654790064</v>
-        <stp/>
-        <stp>BDP|3749360003508400549</stp>
-        <tr r="D2" s="5"/>
-        <tr r="E2" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2866673938</v>
+        <v>#N/A Requesting Data...4060991190</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3679259169</v>
+        <v>#N/A Requesting Data...2996427840</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779057058</v>
+        <v>#N/A Requesting Data...2988578853</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289421714</v>
+        <v>#N/A Requesting Data...4260336900</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
-        <tr r="D33" s="5"/>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232826118</v>
+        <v>#N/A Requesting Data...3463669866</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973705578</v>
+        <v>#N/A Requesting Data...2803501494</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
-        <tr r="D46" s="5"/>
-        <tr r="E46" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4277429467</v>
+        <tr r="D45" s="5"/>
+        <tr r="E45" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3033924664</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
-        <tr r="D44" s="5"/>
-        <tr r="E44" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2797462621</v>
+        <tr r="D43" s="5"/>
+        <tr r="E43" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3893663819</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4270000702</v>
+        <v>#N/A Requesting Data...4254419952</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3811728437</v>
+        <v>#N/A Requesting Data...4041646289</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2607220419</v>
+        <v>#N/A Requesting Data...3039610279</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643814007</v>
+        <v>#N/A Requesting Data...3811261098</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2633243729</v>
+        <v>#N/A Requesting Data...3612792615</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2536060864</v>
+        <v>#N/A Requesting Data...3431277616</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3754509812</v>
+        <v>#N/A Requesting Data...3156310286</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2635916457</v>
+        <v>#N/A Requesting Data...3842782705</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
-        <tr r="D7" s="5"/>
-        <tr r="E7" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3447793569</v>
+        <tr r="D6" s="5"/>
+        <tr r="E6" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3980983683</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
-        <tr r="D49" s="5"/>
-        <tr r="E49" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2827924710</v>
+        <tr r="E48" s="5"/>
+        <tr r="D48" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4028998277</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169406193</v>
+        <v>#N/A Requesting Data...3353379344</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3771783144</v>
+        <v>#N/A Requesting Data...3963740229</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2823635794</v>
+        <v>#N/A Requesting Data...3986538106</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060933267</v>
+        <v>#N/A Requesting Data...3840725325</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2799096986</v>
+        <v>#N/A Requesting Data...3342953346</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3601565478</v>
+        <v>#N/A Requesting Data...4168213609</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3837719288</v>
+        <v>#N/A Requesting Data...2507552103</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3473531872</v>
+        <v>#N/A Requesting Data...3548466218</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2790938741</v>
+        <v>#N/A Requesting Data...3261184039</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972168987</v>
+        <v>#N/A Requesting Data...3571395033</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3063681866</v>
+        <v>#N/A Requesting Data...3682051510</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2978279316</v>
+        <v>#N/A Requesting Data...3774356779</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3139876186</v>
+        <v>#N/A Requesting Data...3516913130</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3047841477</v>
+        <v>#N/A Requesting Data...3399000677</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2946521825</v>
+        <v>#N/A Requesting Data...3144242234</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220623875</v>
+        <v>#N/A Requesting Data...3919508510</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063195620</v>
+        <v>#N/A Requesting Data...3590328103</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2997626296</v>
+        <v>#N/A Requesting Data...3180115327</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340381671</v>
+        <v>#N/A Requesting Data...4152592354</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2615926812</v>
+        <v>#N/A Requesting Data...2845658991</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4072803178</v>
+        <v>#N/A Requesting Data...3488190233</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3684700877</v>
+        <v>#N/A Requesting Data...3446232711</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3611984709</v>
+        <v>#N/A Requesting Data...2619010872</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087011389</v>
+        <v>#N/A Requesting Data...3515166167</v>
         <stp/>
         <stp>BDP|2000433777166414735</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2742839113</v>
+        <v>#N/A Requesting Data...3100174373</v>
+        <stp/>
+        <stp>BDP|3591145557994463349</stp>
+        <tr r="E9" s="5"/>
+        <tr r="D9" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3374040985</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2931623449</v>
+        <v>#N/A Requesting Data...3268246353</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2522850524</v>
+        <v>#N/A Requesting Data...3435531626</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
+        <tr r="E26" s="5"/>
+        <tr r="D26" s="5"/>
         <tr r="D27" s="5"/>
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2781515297</v>
+        <v>#N/A Requesting Data...3454219010</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
-        <tr r="D8" s="5"/>
-        <tr r="E8" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2730388307</v>
+        <tr r="E7" s="5"/>
+        <tr r="D7" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2834728214</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3422603432</v>
+        <v>#N/A Requesting Data...3808621576</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779944772</v>
+        <v>#N/A Requesting Data...3270128985</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2560609236</v>
+        <v>#N/A Requesting Data...4087956963</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2576232920</v>
+        <v>#N/A Requesting Data...3686302608</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3792530704</v>
+        <v>#N/A Requesting Data...3238645550</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3215139149</v>
+        <v>#N/A Requesting Data...2718358181</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3597949169</v>
+        <v>#N/A Requesting Data...2644695022</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2921915666</v>
+        <v>#N/A Requesting Data...3441146855</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3078218272</v>
+        <v>#N/A Requesting Data...2881490138</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
-        <tr r="D4" s="5"/>
-        <tr r="E4" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3195732298</v>
+        <tr r="E3" s="5"/>
+        <tr r="D3" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3112420596</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009640808</v>
+        <v>#N/A Requesting Data...3990169646</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2614703798</v>
+        <v>#N/A Requesting Data...3726914282</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3562675517</v>
+        <v>#N/A Requesting Data...2788956348</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3721503839</v>
+        <v>#N/A Requesting Data...2868570327</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
+        <tr r="E13" s="5"/>
         <tr r="D13" s="5"/>
-        <tr r="E13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2547238539</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3882062674</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3806044870</v>
+        <v>#N/A Requesting Data...3168831154</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3741424602</v>
+        <v>#N/A Requesting Data...3717009129</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3639203342</v>
+        <v>#N/A Requesting Data...3018821691</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2559827478</v>
+        <v>#N/A Requesting Data...3944171773</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1904,7 +1895,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.9000000000000004</v>
+        <v>4.82</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1916,7 +1907,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1928,7 +1919,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>3.1549999999999998</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1940,7 +1931,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2013,7 +2004,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.1994999999999996</v>
+        <v>4.2862</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2028,7 +2019,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.9784999999999999</v>
+        <v>4.0525000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2043,7 +2034,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.9064999999999999</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2058,7 +2049,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.8672</v>
+        <v>3.8969</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2073,7 +2064,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.8491</v>
+        <v>3.859</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2088,7 +2079,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.8450000000000002</v>
+        <v>3.8407</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2103,7 +2094,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8466999999999998</v>
+        <v>3.8309000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2118,7 +2109,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.8513999999999999</v>
+        <v>3.8271000000000002</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2133,7 +2124,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.8584000000000001</v>
+        <v>3.8281999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2148,7 +2139,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.8668</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2163,7 +2154,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.137</v>
+        <v>3.125</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2178,7 +2169,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.976</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2193,7 +2184,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.93</v>
+        <v>2.9134000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2208,7 +2199,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.9035000000000002</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2223,7 +2214,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.9079999999999999</v>
+        <v>2.8690000000000002</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2238,7 +2229,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.9420000000000002</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2253,7 +2244,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.9882</v>
+        <v>2.927</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2268,7 +2259,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>3.036</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2283,7 +2274,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.0819999999999999</v>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2298,7 +2289,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.1230000000000002</v>
+        <v>3.03</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2313,7 +2304,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.3957999999999999</v>
+        <v>2.2688000000000001</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2328,7 +2319,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.1878000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2343,7 +2334,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.1619999999999999</v>
+        <v>2.0145</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2358,7 +2349,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.1539999999999999</v>
+        <v>2.0266000000000002</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2373,7 +2364,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.1671</v>
+        <v>2.0451999999999999</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2388,7 +2379,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.1876000000000002</v>
+        <v>2.0695999999999999</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2403,7 +2394,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.2134999999999998</v>
+        <v>2.0943000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2418,7 +2409,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.2376999999999998</v>
+        <v>2.1215999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2433,7 +2424,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2652000000000001</v>
+        <v>2.1494</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2448,7 +2439,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.2905000000000002</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2463,7 +2454,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.4344999999999999</v>
+        <v>4.4339000000000004</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2478,7 +2469,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.2515000000000001</v>
+        <v>4.2565400000000002</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2493,7 +2484,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.1585999999999999</v>
+        <v>4.1585000000000001</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2508,7 +2499,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>4.09185</v>
+        <v>4.0820499999999997</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2523,7 +2514,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>4.0444500000000003</v>
+        <v>4.0274999999999999</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2538,7 +2529,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>4.0155000000000003</v>
+        <v>3.992</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -2553,7 +2544,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>4.00075</v>
+        <v>3.9725000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -2568,7 +2559,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9981499999999999</v>
+        <v>3.9681999999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -2583,7 +2574,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.0065</v>
+        <v>3.9727299999999999</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -2598,7 +2589,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.0199999999999996</v>
+        <v>3.98332</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -2613,7 +2604,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.43625000000000003</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2628,7 +2619,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.52500000000000002</v>
+        <v>0.57374999999999998</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -2643,7 +2634,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.58625000000000005</v>
+        <v>0.62875000000000003</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2658,7 +2649,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.62749999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2673,7 +2664,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.66749999999999998</v>
+        <v>0.71125000000000005</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2688,7 +2679,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.71375</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2703,7 +2694,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.76624999999999999</v>
+        <v>0.8075</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2718,7 +2709,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.82125000000000004</v>
+        <v>0.86375000000000002</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2733,7 +2724,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>0.88124999999999998</v>
+        <v>0.92374999999999996</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2748,7 +2739,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>0.94874999999999998</v>
+        <v>0.98875000000000002</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2763,7 +2754,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>4.2265499999999996</v>
+        <v>4.2801299999999998</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2778,7 +2769,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>4.0419799999999997</v>
+        <v>4.1233899999999997</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2793,7 +2784,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.2192499999999997</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2808,7 +2799,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.2244999999999999</v>
+        <v>4.3002500000000001</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2823,7 +2814,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.2725</v>
+        <v>4.3375000000000004</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2838,7 +2829,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.34</v>
+        <v>4.3925000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2853,7 +2844,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.4050000000000002</v>
+        <v>4.4512499999999999</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2868,7 +2859,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.4649999999999999</v>
+        <v>4.5075000000000003</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2883,7 +2874,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.5187999999999997</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2898,7 +2889,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.5637999999999996</v>
+        <v>4.6035000000000004</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2948,7 +2939,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6865999999999999</v>
+        <v>3.6537000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2963,7 +2954,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.8207</v>
+        <v>3.7301000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2978,7 +2969,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.1843900000000001</v>
+        <v>3.1132499999999999</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -2993,7 +2984,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.6993399999999999</v>
+        <v>3.5422199999999999</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -3008,7 +2999,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.2978000000000001</v>
+        <v>2.1932</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3023,7 +3014,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.5276000000000001</v>
+        <v>2.4192999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3038,7 +3029,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9569999999999999</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3053,7 +3044,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.0518999999999998</v>
+        <v>3.9931000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3068,7 +3059,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.79959999999999998</v>
+        <v>0.86280000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3083,7 +3074,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.2726</v>
+        <v>1.3269</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3098,7 +3089,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.2693000000000003</v>
+        <v>4.3226000000000004</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3113,7 +3104,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.8956999999999997</v>
+        <v>4.9283999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3156,7 +3147,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.6233</v>
+        <v>3.6894999999999998</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3168,7 +3159,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>3.1491899999999999</v>
+        <v>3.17333</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3180,7 +3171,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.1753999999999998</v>
+        <v>2.0139</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3192,7 +3183,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.1492000000000004</v>
+        <v>4.1590999999999996</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -3204,7 +3195,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.67600000000000005</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3216,7 +3207,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.9980000000000002</v>
+        <v>4.1132</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3232,7 +3223,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,15 +3264,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45603</v>
+        <v>45644</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xll.BDP(F2,"px_last")</f>
-        <v>4.5869999999999997</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(F2,"px_last")</f>
-        <v>4.5869999999999997</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
@@ -3295,15 +3286,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45644</v>
+        <v>45686</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.375</v>
+        <v>4.327</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.375</v>
+        <v>4.327</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
@@ -3317,15 +3308,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>45686</v>
+        <v>45735</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.242</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.242</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -3339,15 +3330,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>45735</v>
+        <v>45784</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.0910000000000002</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.0910000000000002</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -3361,15 +3352,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45784</v>
+        <v>45826</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>3.9779999999999998</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>3.9779999999999998</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -3383,15 +3374,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>45826</v>
+        <v>45868</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.86</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.86</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -3405,15 +3396,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>45868</v>
+        <v>45917</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.79</v>
+        <v>3.883</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.79</v>
+        <v>3.883</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -3427,18 +3418,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>45917</v>
+        <v>45959</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.7279999999999998</v>
+        <v>3.8449999999999998</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.7279999999999998</v>
+        <v>3.8449999999999998</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,14 +3444,14 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4129999999999998</v>
+        <v>3.41</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4129999999999998</v>
+        <v>3.41</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,14 +3466,14 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
-        <v>3.169</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
-        <v>3.169</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,14 +3488,14 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>3.02</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>3.02</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,14 +3510,14 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.91</v>
+        <v>2.9290000000000003</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.91</v>
+        <v>2.9290000000000003</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,14 +3532,14 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.879</v>
+        <v>2.8970000000000002</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.879</v>
+        <v>2.8970000000000002</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,14 +3554,14 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8580000000000001</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8580000000000001</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,14 +3576,14 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.8420000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.8420000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,11 +3598,11 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.8420000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.8420000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
@@ -3630,14 +3621,14 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
-        <v>2.871</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
-        <v>2.871</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,14 +3643,14 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5869999999999997</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5869999999999997</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,14 +3665,14 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.343</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.343</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,14 +3687,14 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.1970000000000001</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.1970000000000001</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,14 +3709,14 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>2.0099999999999998</v>
+        <v>1.835</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>2.0099999999999998</v>
+        <v>1.835</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,14 +3731,14 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.958</v>
+        <v>1.81</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.958</v>
+        <v>1.81</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,14 +3753,14 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.982</v>
+        <v>1.81</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.982</v>
+        <v>1.81</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,11 +3775,11 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.982</v>
+        <v>1.81</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.982</v>
+        <v>1.81</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
@@ -3803,18 +3794,18 @@
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>45603</v>
+        <v>45645</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
-        <v>4.7130000000000001</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
-        <v>4.7130000000000001</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,18 +3816,18 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>45645</v>
+        <v>45694</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" ref="D27">_xll.BDP(F27,"px_last")</f>
-        <v>4.6390000000000002</v>
+        <f t="array" ref="D27">_xll.BDP(F26,"px_last")</f>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E27" cm="1">
-        <f t="array" ref="E27">_xll.BDP(F27,"px_last")</f>
-        <v>4.6390000000000002</v>
+        <f t="array" ref="E27">_xll.BDP(F26,"px_last")</f>
+        <v>4.6449999999999996</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,18 +3838,18 @@
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>45694</v>
+        <v>45736</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" ref="D28">_xll.BDP(F28,"px_last")</f>
-        <v>4.4530000000000003</v>
+        <f t="array" ref="D28">_xll.BDP(F27,"px_last")</f>
+        <v>4.4649999999999999</v>
       </c>
       <c r="E28" cm="1">
-        <f t="array" ref="E28">_xll.BDP(F28,"px_last")</f>
-        <v>4.4530000000000003</v>
+        <f t="array" ref="E28">_xll.BDP(F27,"px_last")</f>
+        <v>4.4649999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3869,18 +3860,18 @@
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>45736</v>
+        <v>45785</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" ref="D29">_xll.BDP(F29,"px_last")</f>
-        <v>4.3609999999999998</v>
+        <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
+        <v>4.375</v>
       </c>
       <c r="E29" cm="1">
-        <f t="array" ref="E29">_xll.BDP(F29,"px_last")</f>
-        <v>4.3609999999999998</v>
+        <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
+        <v>4.375</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,18 +3882,18 @@
         <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>45785</v>
+        <v>45827</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" ref="D30">_xll.BDP(F30,"px_last")</f>
-        <v>4.165</v>
+        <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
+        <v>4.2359999999999998</v>
       </c>
       <c r="E30" cm="1">
-        <f t="array" ref="E30">_xll.BDP(F30,"px_last")</f>
-        <v>4.165</v>
+        <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
+        <v>4.2359999999999998</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,18 +3904,18 @@
         <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>45827</v>
+        <v>45876</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" ref="D31">_xll.BDP(F31,"px_last")</f>
-        <v>4.1509999999999998</v>
+        <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
+        <v>4.1870000000000003</v>
       </c>
       <c r="E31" cm="1">
-        <f t="array" ref="E31">_xll.BDP(F31,"px_last")</f>
-        <v>4.1509999999999998</v>
+        <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
+        <v>4.1870000000000003</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,18 +3926,18 @@
         <v>7</v>
       </c>
       <c r="C32" s="3">
-        <v>45876</v>
+        <v>45918</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" ref="D32">_xll.BDP(F32,"px_last")</f>
-        <v>4.048</v>
+        <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
+        <v>4.1059999999999999</v>
       </c>
       <c r="E32" cm="1">
-        <f t="array" ref="E32">_xll.BDP(F32,"px_last")</f>
-        <v>4.048</v>
+        <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
+        <v>4.1059999999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,18 +3948,20 @@
         <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>45918</v>
-      </c>
-      <c r="D33" cm="1">
-        <f t="array" ref="D33">_xll.BDP(F33,"px_last")</f>
-        <v>4.0270000000000001</v>
+        <f>C32+42</f>
+        <v>45960</v>
+      </c>
+      <c r="D33">
+        <f>D32</f>
+        <v>4.1059999999999999</v>
       </c>
       <c r="E33" cm="1">
-        <f t="array" ref="E33">_xll.BDP(F33,"px_last")</f>
-        <v>4.0270000000000001</v>
-      </c>
-      <c r="F33" t="s">
-        <v>151</v>
+        <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="F33" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3983,14 +3976,14 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.316</v>
+        <v>0.34</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.316</v>
+        <v>0.34</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,14 +3998,14 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.40100000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.40100000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,14 +4020,14 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.42899999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.42899999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4049,14 +4042,14 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.49399999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.49399999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,14 +4064,14 @@
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.5</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.5</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4093,14 +4086,14 @@
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.52300000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.52300000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,14 +4108,14 @@
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.56399999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.56399999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,11 +4130,11 @@
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.56399999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.56399999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
@@ -4156,18 +4149,18 @@
         <v>1</v>
       </c>
       <c r="C42" s="3">
-        <v>45601</v>
+        <v>45636</v>
       </c>
       <c r="D42" cm="1">
         <f t="array" ref="D42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3289999999999997</v>
+        <v>4.3070000000000004</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3289999999999997</v>
+        <v>4.3070000000000004</v>
       </c>
       <c r="F42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4178,18 +4171,18 @@
         <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>45636</v>
+        <v>45706</v>
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2930000000000001</v>
+        <v>4.2460000000000004</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2930000000000001</v>
+        <v>4.2460000000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4200,18 +4193,18 @@
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>45706</v>
+        <v>45748</v>
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2069999999999999</v>
+        <v>4.2080000000000002</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2069999999999999</v>
+        <v>4.2080000000000002</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,18 +4215,18 @@
         <v>4</v>
       </c>
       <c r="C45" s="3">
-        <v>45748</v>
+        <v>45797</v>
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>4.133</v>
+        <v>4.1189999999999998</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>4.133</v>
+        <v>4.1189999999999998</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,18 +4237,18 @@
         <v>5</v>
       </c>
       <c r="C46" s="3">
-        <v>45797</v>
+        <v>45846</v>
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0330000000000004</v>
+        <v>4.077</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0330000000000004</v>
+        <v>4.077</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4266,18 +4259,18 @@
         <v>6</v>
       </c>
       <c r="C47" s="3">
-        <v>45846</v>
+        <v>45881</v>
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.984</v>
+        <v>3.99</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.984</v>
+        <v>3.99</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,18 +4281,18 @@
         <v>7</v>
       </c>
       <c r="C48" s="3">
-        <v>45881</v>
+        <v>45930</v>
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.91</v>
+        <v>3.9470000000000001</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.91</v>
+        <v>3.9470000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,18 +4303,18 @@
         <v>8</v>
       </c>
       <c r="C49" s="3">
-        <v>45930</v>
+        <v>45965</v>
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8719999999999999</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.8719999999999999</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191141CC-80BC-4A68-84AA-A15B7A7F2E20}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" firstSheet="1" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-28880" yWindow="-16310" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -633,363 +633,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2475703371</v>
+        <v>#N/A Requesting Data...4064300539</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2530583717</v>
+        <v>#N/A Requesting Data...3850429194</v>
         <stp/>
         <stp>BDP|11316537394346266156</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2627515028</v>
+        <v>#N/A Requesting Data...3668097010</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286090305</v>
+        <v>#N/A Requesting Data...4193541352</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3957160213</v>
+        <v>#N/A Requesting Data...4260306273</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2530565864</v>
+        <v>#N/A Requesting Data...3630048233</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2723589125</v>
+        <v>#N/A Requesting Data...3621488848</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3558387062</v>
+        <v>#N/A Requesting Data...3844415558</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
+        <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
-        <tr r="D11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3146933319</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3956857664</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
+        <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
-        <tr r="D32" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3283590240</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3884743846</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4155379521</v>
+        <v>#N/A Requesting Data...3926674420</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3616828082</v>
+        <v>#N/A Requesting Data...3922501133</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3757835441</v>
+        <v>#N/A Requesting Data...4197742542</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3738418920</v>
+        <v>#N/A Requesting Data...3796231362</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3156920488</v>
+        <v>#N/A Requesting Data...3701394200</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086421867</v>
+        <v>#N/A Requesting Data...4250011532</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060208878</v>
+        <v>#N/A Requesting Data...4049354352</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3952262627</v>
+        <v>#N/A Requesting Data...4257891314</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005565935</v>
+        <v>#N/A Requesting Data...4110757591</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2764665678</v>
+        <v>#N/A Requesting Data...3972486937</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2317877677</v>
+        <v>#N/A Requesting Data...3657172856</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3813006119</v>
+        <v>#N/A Requesting Data...3909062603</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2706576704</v>
+        <v>#N/A Requesting Data...4226745406</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922234858</v>
+        <v>#N/A Requesting Data...4108886150</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3814509102</v>
+        <v>#N/A Requesting Data...4148273748</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2615189330</v>
+        <v>#N/A Requesting Data...3669929937</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3133499959</v>
+        <v>#N/A Requesting Data...3879548313</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3768859911</v>
+        <v>#N/A Requesting Data...4107771351</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
+        <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
-        <tr r="D28" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3222716224</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3852419214</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277457062</v>
+        <v>#N/A Requesting Data...3675849807</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2677860343</v>
+        <v>#N/A Requesting Data...4059125733</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3748715969</v>
+        <v>#N/A Requesting Data...4154924643</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2998515838</v>
+        <v>#N/A Requesting Data...4100636680</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2853416160</v>
+        <v>#N/A Requesting Data...3870929976</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2417181601</v>
+        <v>#N/A Requesting Data...3710889505</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2623361505</v>
+        <v>#N/A Requesting Data...4166357033</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3708814815</v>
+        <v>#N/A Requesting Data...3973050986</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4049254491</v>
+        <v>#N/A Requesting Data...3938428805</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3924287404</v>
+        <v>#N/A Requesting Data...4266840958</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3001777222</v>
+        <v>#N/A Requesting Data...3973618987</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646664842</v>
+        <v>#N/A Requesting Data...3667311823</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4071291620</v>
+        <v>#N/A Requesting Data...4264406527</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3536622623</v>
+        <v>#N/A Requesting Data...3895140661</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
+        <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
-        <tr r="D44" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3705307290</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3959948029</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2794583160</v>
+        <v>#N/A Requesting Data...4088140681</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2673456796</v>
+        <v>#N/A Requesting Data...3998747665</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2802737382</v>
+        <v>#N/A Requesting Data...3899276864</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2585170234</v>
+        <v>#N/A Requesting Data...3874543597</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3908369038</v>
+        <v>#N/A Requesting Data...3966378242</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
+        <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
-        <tr r="D5" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2694822823</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3720317656</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2664178054</v>
+        <v>#N/A Requesting Data...4216577413</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3604546680</v>
+        <v>#N/A Requesting Data...4170204401</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2970922464</v>
+        <v>#N/A Requesting Data...4219404148</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
+        <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
-        <tr r="D46" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2504121915</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4114521145</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
+        <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
-        <tr r="D42" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3834916950</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3862810104</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3510952158</v>
+        <v>#N/A Requesting Data...4234203015</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -997,451 +997,451 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3104347896</v>
+        <v>#N/A Requesting Data...3732339823</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3576078859</v>
+        <v>#N/A Requesting Data...4118367376</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3880736996</v>
+        <v>#N/A Requesting Data...3675578201</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232761919</v>
+        <v>#N/A Requesting Data...3994615543</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2487431058</v>
+        <v>#N/A Requesting Data...4176370666</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4060991190</v>
+        <v>#N/A Requesting Data...4120891108</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2996427840</v>
+        <v>#N/A Requesting Data...4071044203</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2988578853</v>
+        <v>#N/A Requesting Data...3859987367</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260336900</v>
+        <v>#N/A Requesting Data...3824418920</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3463669866</v>
+        <v>#N/A Requesting Data...4062357711</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803501494</v>
+        <v>#N/A Requesting Data...3817805923</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3033924664</v>
+        <v>#N/A Requesting Data...4008995574</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3893663819</v>
+        <v>#N/A Requesting Data...4261507387</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4254419952</v>
+        <v>#N/A Requesting Data...3895793360</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4041646289</v>
+        <v>#N/A Requesting Data...3937126300</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3039610279</v>
+        <v>#N/A Requesting Data...3747352965</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3811261098</v>
+        <v>#N/A Requesting Data...3722605290</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3612792615</v>
+        <v>#N/A Requesting Data...4223395928</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3431277616</v>
+        <v>#N/A Requesting Data...3767252897</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3156310286</v>
+        <v>#N/A Requesting Data...4071624445</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842782705</v>
+        <v>#N/A Requesting Data...3769610460</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3980983683</v>
+        <v>#N/A Requesting Data...3974953488</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
+        <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
-        <tr r="D48" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4028998277</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3917258110</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3353379344</v>
+        <v>#N/A Requesting Data...3803530930</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963740229</v>
+        <v>#N/A Requesting Data...3989138345</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3986538106</v>
+        <v>#N/A Requesting Data...3759051992</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3840725325</v>
+        <v>#N/A Requesting Data...3820735003</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3342953346</v>
+        <v>#N/A Requesting Data...3981431768</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4168213609</v>
+        <v>#N/A Requesting Data...4023271886</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2507552103</v>
+        <v>#N/A Requesting Data...4052234871</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3548466218</v>
+        <v>#N/A Requesting Data...3988617404</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3261184039</v>
+        <v>#N/A Requesting Data...3807345789</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3571395033</v>
+        <v>#N/A Requesting Data...4169900891</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3682051510</v>
+        <v>#N/A Requesting Data...3904526969</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3774356779</v>
+        <v>#N/A Requesting Data...3751925554</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3516913130</v>
+        <v>#N/A Requesting Data...4020695005</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3399000677</v>
+        <v>#N/A Requesting Data...3941020357</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3144242234</v>
+        <v>#N/A Requesting Data...4194789486</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3919508510</v>
+        <v>#N/A Requesting Data...3913060634</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3590328103</v>
+        <v>#N/A Requesting Data...4137771600</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3180115327</v>
+        <v>#N/A Requesting Data...4088616839</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4152592354</v>
+        <v>#N/A Requesting Data...4120598829</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2845658991</v>
+        <v>#N/A Requesting Data...3803155542</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3488190233</v>
+        <v>#N/A Requesting Data...3780190398</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3446232711</v>
+        <v>#N/A Requesting Data...3912048672</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2619010872</v>
+        <v>#N/A Requesting Data...4280183200</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3515166167</v>
+        <v>#N/A Requesting Data...4273080841</v>
         <stp/>
         <stp>BDP|2000433777166414735</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3100174373</v>
+        <v>#N/A Requesting Data...3868095476</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
+        <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
-        <tr r="D9" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3374040985</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3815618575</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3268246353</v>
+        <v>#N/A Requesting Data...4080426849</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3435531626</v>
+        <v>#N/A Requesting Data...4292860029</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
-        <tr r="E26" s="5"/>
         <tr r="D26" s="5"/>
         <tr r="D27" s="5"/>
+        <tr r="E26" s="5"/>
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3454219010</v>
+        <v>#N/A Requesting Data...3905928719</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
+        <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
-        <tr r="D7" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2834728214</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3825146629</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3808621576</v>
+        <v>#N/A Requesting Data...4059457581</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3270128985</v>
+        <v>#N/A Requesting Data...3835961777</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087956963</v>
+        <v>#N/A Requesting Data...4215870212</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3686302608</v>
+        <v>#N/A Requesting Data...3964566261</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3238645550</v>
+        <v>#N/A Requesting Data...4131825752</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2718358181</v>
+        <v>#N/A Requesting Data...4160375515</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2644695022</v>
+        <v>#N/A Requesting Data...3773685571</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3441146855</v>
+        <v>#N/A Requesting Data...3906497676</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2881490138</v>
+        <v>#N/A Requesting Data...4188340166</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
+        <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
-        <tr r="D3" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3112420596</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4012149644</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990169646</v>
+        <v>#N/A Requesting Data...4261926358</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3726914282</v>
+        <v>#N/A Requesting Data...3809864766</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2788956348</v>
+        <v>#N/A Requesting Data...3897554996</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2868570327</v>
+        <v>#N/A Requesting Data...4248241021</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
+        <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
-        <tr r="D13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3882062674</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4002348851</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3168831154</v>
+        <v>#N/A Requesting Data...4158367515</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3717009129</v>
+        <v>#N/A Requesting Data...3969729882</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3018821691</v>
+        <v>#N/A Requesting Data...4232790639</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3944171773</v>
+        <v>#N/A Requesting Data...3788449435</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1771,17 +1771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1871,14 +1871,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,43 +1889,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.82</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>3.1629999999999998</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1974,14 +1974,14 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2004,13 +2004,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.2862</v>
+        <v>4.3129999999999997</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2019,13 +2019,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.0525000000000002</v>
+        <v>4.1269999999999998</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2034,13 +2034,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.9569999999999999</v>
+        <v>4.0381999999999998</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2049,13 +2049,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.8969</v>
+        <v>3.9784000000000002</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2064,13 +2064,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.859</v>
+        <v>3.9409000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2079,13 +2079,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.8407</v>
+        <v>3.9224999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2094,13 +2094,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8309000000000002</v>
+        <v>3.9125999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2109,13 +2109,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.8271000000000002</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2124,13 +2124,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.8281999999999998</v>
+        <v>3.9095</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2139,13 +2139,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.8319999999999999</v>
+        <v>3.9131</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2154,13 +2154,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.125</v>
+        <v>3.28</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2169,13 +2169,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.9820000000000002</v>
+        <v>3.1943000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2184,13 +2184,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.9134000000000002</v>
+        <v>3.1419000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2199,13 +2199,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.8759999999999999</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.8690000000000002</v>
+        <v>3.0964999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2229,13 +2229,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.8940000000000001</v>
+        <v>3.1112000000000002</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.927</v>
+        <v>3.1423999999999999</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2259,13 +2259,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.9620000000000002</v>
+        <v>3.1785999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2274,13 +2274,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.0049999999999999</v>
+        <v>3.2147999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2289,13 +2289,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.03</v>
+        <v>3.2467999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2304,13 +2304,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.2688000000000001</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2319,13 +2319,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.04</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2334,13 +2334,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.0145</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2349,13 +2349,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.0266000000000002</v>
+        <v>2.0352999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2364,13 +2364,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.0451999999999999</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2379,13 +2379,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.0695999999999999</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2394,13 +2394,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.0943000000000001</v>
+        <v>2.1116999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2409,13 +2409,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.1215999999999999</v>
+        <v>2.145</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.1494</v>
+        <v>2.1715</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2439,13 +2439,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.1749999999999998</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2454,13 +2454,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.4339000000000004</v>
+        <v>4.4279500000000001</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2469,13 +2469,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.2565400000000002</v>
+        <v>4.2210200000000002</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2484,13 +2484,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.1585000000000001</v>
+        <v>4.1130100000000001</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2499,13 +2499,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>4.0820499999999997</v>
+        <v>4.0410000000000004</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2514,13 +2514,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>4.0274999999999999</v>
+        <v>3.9928499999999998</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2529,13 +2529,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.992</v>
+        <v>3.96245</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2544,13 +2544,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9725000000000001</v>
+        <v>3.9485000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2559,13 +2559,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9681999999999999</v>
+        <v>3.9464999999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>3.9727299999999999</v>
+        <v>3.9544999999999999</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2589,13 +2589,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>3.98332</v>
+        <v>3.968</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2604,13 +2604,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.47749999999999998</v>
+        <v>0.54374999999999996</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2619,13 +2619,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.57374999999999998</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.62875000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.67</v>
+        <v>0.75375000000000003</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2664,13 +2664,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.71125000000000005</v>
+        <v>0.79500499999999996</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2679,13 +2679,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.75624999999999998</v>
+        <v>0.84125000000000005</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2694,13 +2694,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.8075</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2709,13 +2709,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.86375000000000002</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2724,13 +2724,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>0.92374999999999996</v>
+        <v>1.0062500000000001</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2739,13 +2739,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>0.98875000000000002</v>
+        <v>1.07</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2754,13 +2754,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>4.2801299999999998</v>
+        <v>4.2670000000000003</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2769,13 +2769,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>4.1233899999999997</v>
+        <v>4.1055000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2784,13 +2784,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.3019999999999996</v>
+        <v>4.2718999999999996</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2799,13 +2799,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.3002500000000001</v>
+        <v>4.2698</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2814,13 +2814,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.3375000000000004</v>
+        <v>4.30349</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2829,13 +2829,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.3925000000000001</v>
+        <v>4.3550000000000004</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2844,13 +2844,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.4512499999999999</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2859,13 +2859,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.5075000000000003</v>
+        <v>4.4651699999999996</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2874,13 +2874,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.5599999999999996</v>
+        <v>4.5137499999999999</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.6035000000000004</v>
+        <v>4.5555000000000003</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2908,15 +2908,15 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2939,13 +2939,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6537000000000002</v>
+        <v>3.7461000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7301000000000002</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2969,13 +2969,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.1132499999999999</v>
+        <v>3.3513999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2984,13 +2984,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.5422199999999999</v>
+        <v>3.7486700000000002</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2999,13 +2999,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.1932</v>
+        <v>2.214</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3014,13 +3014,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.4192999999999998</v>
+        <v>2.4683000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3029,13 +3029,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9249999999999998</v>
+        <v>3.8913000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3044,13 +3044,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.9931000000000001</v>
+        <v>4.0010000000000003</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3059,13 +3059,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.86280000000000001</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3074,13 +3074,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.3269</v>
+        <v>1.4144000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3089,13 +3089,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.3226000000000004</v>
+        <v>4.2777000000000003</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.9283999999999999</v>
+        <v>4.8696999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3123,14 +3123,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3141,73 +3141,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.6894999999999998</v>
+        <v>3.7852999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>3.17333</v>
+        <v>3.44556</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.0139</v>
+        <v>2.0566</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.1590999999999996</v>
+        <v>4.0818000000000003</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.73799999999999999</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>4.1132</v>
+        <v>4.0955000000000004</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3222,21 +3222,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3268,17 +3268,17 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xll.BDP(F2,"px_last")</f>
-        <v>4.4130000000000003</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(F2,"px_last")</f>
-        <v>4.4130000000000003</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3290,17 +3290,17 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.327</v>
+        <v>4.383</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.327</v>
+        <v>4.383</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3312,17 +3312,17 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.1900000000000004</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.1900000000000004</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3334,17 +3334,17 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.1159999999999997</v>
+        <v>4.1840000000000002</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.1159999999999997</v>
+        <v>4.1840000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.0049999999999999</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.0049999999999999</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3378,17 +3378,17 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9449999999999998</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9449999999999998</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3400,17 +3400,17 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.883</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.883</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3422,17 +3422,17 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.8449999999999998</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.8449999999999998</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3444,17 +3444,17 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.BDP(F10,"px_last")</f>
-        <v>3.41</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(F10,"px_last")</f>
-        <v>3.41</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
-        <v>3.1779999999999999</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
-        <v>3.1779999999999999</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3488,17 +3488,17 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>3.0379999999999998</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>3.0379999999999998</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3510,17 +3510,17 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.9290000000000003</v>
+        <v>3.1360000000000001</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.9290000000000003</v>
+        <v>3.1360000000000001</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3532,17 +3532,17 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.8970000000000002</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.8970000000000002</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8730000000000002</v>
+        <v>3.0859999999999999</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.8730000000000002</v>
+        <v>3.0859999999999999</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.8679999999999999</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.8679999999999999</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3598,18 +3598,18 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.8679999999999999</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.8679999999999999</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3621,17 +3621,17 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
-        <v>2.8730000000000002</v>
+        <v>2.871</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
-        <v>2.8730000000000002</v>
+        <v>2.871</v>
       </c>
       <c r="F18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3643,17 +3643,17 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5609999999999999</v>
+        <v>2.5789999999999997</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5609999999999999</v>
+        <v>2.5789999999999997</v>
       </c>
       <c r="F19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3665,17 +3665,17 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2250000000000001</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2250000000000001</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.0790000000000002</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.0790000000000002</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3709,17 +3709,17 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.835</v>
+        <v>1.9529999999999998</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.835</v>
+        <v>1.9529999999999998</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3731,17 +3731,17 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3753,17 +3753,17 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.81</v>
+        <v>1.7850000000000001</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.81</v>
+        <v>1.7850000000000001</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3775,18 +3775,18 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.81</v>
+        <v>1.7850000000000001</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.81</v>
+        <v>1.7850000000000001</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3798,17 +3798,17 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6449999999999996</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6449999999999996</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3820,17 +3820,17 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6449999999999996</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6449999999999996</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3842,17 +3842,17 @@
       </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xll.BDP(F27,"px_last")</f>
-        <v>4.4649999999999999</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(F27,"px_last")</f>
-        <v>4.4649999999999999</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3864,17 +3864,17 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
-        <v>4.375</v>
+        <v>4.399</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
-        <v>4.375</v>
+        <v>4.399</v>
       </c>
       <c r="F29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2359999999999998</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2359999999999998</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3908,17 +3908,17 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1870000000000003</v>
+        <v>4.202</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1870000000000003</v>
+        <v>4.202</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3930,17 +3930,17 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1059999999999999</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1059999999999999</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3953,18 +3953,18 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>4.1059999999999999</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.0620000000000003</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.34</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.34</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3998,17 +3998,17 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4020,17 +4020,17 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.45200000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.45200000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="F36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.502</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.502</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -4064,17 +4064,17 @@
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.56299999999999994</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.56299999999999994</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4086,17 +4086,17 @@
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.58399999999999996</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.58399999999999996</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="F39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.61599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.61599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5</v>
       </c>
@@ -4130,18 +4130,18 @@
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.61599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.61599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4153,17 +4153,17 @@
       </c>
       <c r="D42" cm="1">
         <f t="array" ref="D42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3070000000000004</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3070000000000004</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="F42" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4175,17 +4175,17 @@
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2460000000000004</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2460000000000004</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="F43" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4197,17 +4197,17 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2080000000000002</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2080000000000002</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4219,17 +4219,17 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1189999999999998</v>
+        <v>4.1340000000000003</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1189999999999998</v>
+        <v>4.1340000000000003</v>
       </c>
       <c r="F45" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>4.077</v>
+        <v>4.0629999999999997</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>4.077</v>
+        <v>4.0629999999999997</v>
       </c>
       <c r="F46" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4263,17 +4263,17 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.99</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.99</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="F47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4285,17 +4285,17 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9470000000000001</v>
+        <v>3.9220000000000002</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9470000000000001</v>
+        <v>3.9220000000000002</v>
       </c>
       <c r="F48" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.9140000000000001</v>
+        <v>3.915</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.9140000000000001</v>
+        <v>3.915</v>
       </c>
       <c r="F49" t="s">
         <v>165</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191141CC-80BC-4A68-84AA-A15B7A7F2E20}"/>
   <bookViews>
-    <workbookView xWindow="-28880" yWindow="-16310" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-5300" yWindow="-16310" windowWidth="38620" windowHeight="15820" activeTab="1" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -633,363 +633,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4064300539</v>
+        <v>#N/A Requesting Data...3812113062</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3850429194</v>
+        <v>#N/A Requesting Data...4287486693</v>
         <stp/>
         <stp>BDP|11316537394346266156</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3668097010</v>
+        <v>#N/A Requesting Data...4118201532</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4193541352</v>
+        <v>#N/A Requesting Data...4087061867</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260306273</v>
+        <v>#N/A Requesting Data...3843918160</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3630048233</v>
+        <v>#N/A Requesting Data...3915268364</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3621488848</v>
+        <v>#N/A Requesting Data...4156289064</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3844415558</v>
+        <v>#N/A Requesting Data...3842444404</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3956857664</v>
+        <v>#N/A Requesting Data...3857256606</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3884743846</v>
+        <v>#N/A Requesting Data...4202603469</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3926674420</v>
+        <v>#N/A Requesting Data...4108198579</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922501133</v>
+        <v>#N/A Requesting Data...3927269863</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4197742542</v>
+        <v>#N/A Requesting Data...3977082244</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3796231362</v>
+        <v>#N/A Requesting Data...3893592900</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3701394200</v>
+        <v>#N/A Requesting Data...3972139926</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4250011532</v>
+        <v>#N/A Requesting Data...4245099528</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4049354352</v>
+        <v>#N/A Requesting Data...4168434826</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4257891314</v>
+        <v>#N/A Requesting Data...4125934643</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110757591</v>
+        <v>#N/A Requesting Data...4085355003</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972486937</v>
+        <v>#N/A Requesting Data...4177541671</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3657172856</v>
+        <v>#N/A Requesting Data...4125585339</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3909062603</v>
+        <v>#N/A Requesting Data...3935083117</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4226745406</v>
+        <v>#N/A Requesting Data...4097118294</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4108886150</v>
+        <v>#N/A Requesting Data...3833954942</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4148273748</v>
+        <v>#N/A Requesting Data...4157110003</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3669929937</v>
+        <v>#N/A Requesting Data...4217446089</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3879548313</v>
+        <v>#N/A Requesting Data...3965312039</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4107771351</v>
+        <v>#N/A Requesting Data...3900015082</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3852419214</v>
+        <v>#N/A Requesting Data...3965192155</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3675849807</v>
+        <v>#N/A Requesting Data...3943178589</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4059125733</v>
+        <v>#N/A Requesting Data...4159048160</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4154924643</v>
+        <v>#N/A Requesting Data...4006928710</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4100636680</v>
+        <v>#N/A Requesting Data...3892819547</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3870929976</v>
+        <v>#N/A Requesting Data...3973645377</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3710889505</v>
+        <v>#N/A Requesting Data...4214830983</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4166357033</v>
+        <v>#N/A Requesting Data...4234985472</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973050986</v>
+        <v>#N/A Requesting Data...3897875443</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3938428805</v>
+        <v>#N/A Requesting Data...3981595723</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4266840958</v>
+        <v>#N/A Requesting Data...4280159355</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973618987</v>
+        <v>#N/A Requesting Data...4047053823</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3667311823</v>
+        <v>#N/A Requesting Data...4159227924</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264406527</v>
+        <v>#N/A Requesting Data...3917901864</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3895140661</v>
+        <v>#N/A Requesting Data...4005656094</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3959948029</v>
+        <v>#N/A Requesting Data...3956303309</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4088140681</v>
+        <v>#N/A Requesting Data...4184633540</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3998747665</v>
+        <v>#N/A Requesting Data...4174527565</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3899276864</v>
+        <v>#N/A Requesting Data...4074152509</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3874543597</v>
+        <v>#N/A Requesting Data...4281659424</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3966378242</v>
+        <v>#N/A Requesting Data...4264445430</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3720317656</v>
+        <v>#N/A Requesting Data...4105121548</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4216577413</v>
+        <v>#N/A Requesting Data...4234936902</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4170204401</v>
+        <v>#N/A Requesting Data...3906624436</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219404148</v>
+        <v>#N/A Requesting Data...4013481388</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114521145</v>
+        <v>#N/A Requesting Data...3921330156</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3862810104</v>
+        <v>#N/A Requesting Data...4143349933</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234203015</v>
+        <v>#N/A Requesting Data...4176604361</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -997,317 +997,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3732339823</v>
+        <v>#N/A Requesting Data...3967949669</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4118367376</v>
+        <v>#N/A Requesting Data...4222474675</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3675578201</v>
+        <v>#N/A Requesting Data...4135007269</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3994615543</v>
+        <v>#N/A Requesting Data...4017032253</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176370666</v>
+        <v>#N/A Requesting Data...4229442109</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120891108</v>
+        <v>#N/A Requesting Data...4033828239</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4071044203</v>
+        <v>#N/A Requesting Data...4109460816</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3859987367</v>
+        <v>#N/A Requesting Data...4053848242</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3824418920</v>
+        <v>#N/A Requesting Data...4033562918</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4062357711</v>
+        <v>#N/A Requesting Data...4008987759</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3817805923</v>
+        <v>#N/A Requesting Data...4063277480</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008995574</v>
+        <v>#N/A Requesting Data...3997310684</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261507387</v>
+        <v>#N/A Requesting Data...4126235698</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3895793360</v>
+        <v>#N/A Requesting Data...3943240256</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3937126300</v>
+        <v>#N/A Requesting Data...4204433062</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747352965</v>
+        <v>#N/A Requesting Data...4248751084</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3722605290</v>
+        <v>#N/A Requesting Data...4008548174</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4223395928</v>
+        <v>#N/A Requesting Data...4244045118</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3767252897</v>
+        <v>#N/A Requesting Data...4020459649</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4071624445</v>
+        <v>#N/A Requesting Data...4213859681</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769610460</v>
+        <v>#N/A Requesting Data...4089537680</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3974953488</v>
+        <v>#N/A Requesting Data...4150621498</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3917258110</v>
+        <v>#N/A Requesting Data...4239678870</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3803530930</v>
+        <v>#N/A Requesting Data...3930271282</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3989138345</v>
+        <v>#N/A Requesting Data...4083920710</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3759051992</v>
+        <v>#N/A Requesting Data...4232112561</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3820735003</v>
+        <v>#N/A Requesting Data...3969556206</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3981431768</v>
+        <v>#N/A Requesting Data...3942876567</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4023271886</v>
+        <v>#N/A Requesting Data...4015144504</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4052234871</v>
+        <v>#N/A Requesting Data...4098977278</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3988617404</v>
+        <v>#N/A Requesting Data...4025356506</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3807345789</v>
+        <v>#N/A Requesting Data...3949928415</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169900891</v>
+        <v>#N/A Requesting Data...3956910827</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3904526969</v>
+        <v>#N/A Requesting Data...4210347664</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751925554</v>
+        <v>#N/A Requesting Data...4051807353</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020695005</v>
+        <v>#N/A Requesting Data...4211266555</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3941020357</v>
+        <v>#N/A Requesting Data...4055126563</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4194789486</v>
+        <v>#N/A Requesting Data...4158879807</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3913060634</v>
+        <v>#N/A Requesting Data...4036963934</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4137771600</v>
+        <v>#N/A Requesting Data...4128303123</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4088616839</v>
+        <v>#N/A Requesting Data...4063077522</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120598829</v>
+        <v>#N/A Requesting Data...4288303640</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3803155542</v>
+        <v>#N/A Requesting Data...4243991909</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3780190398</v>
+        <v>#N/A Requesting Data...4202529978</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3912048672</v>
+        <v>#N/A Requesting Data...3989997302</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280183200</v>
+        <v>#N/A Requesting Data...4097675915</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4273080841</v>
+        <v>#N/A Requesting Data...4201235052</v>
         <stp/>
         <stp>BDP|2000433777166414735</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3868095476</v>
+        <v>#N/A Requesting Data...4199425711</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3815618575</v>
+        <v>#N/A Requesting Data...4175284187</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4080426849</v>
+        <v>#N/A Requesting Data...4208509589</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292860029</v>
+        <v>#N/A Requesting Data...4162907319</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1316,132 +1316,134 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3905928719</v>
+        <v>#N/A Requesting Data...4253519765</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3825146629</v>
+        <v>#N/A Requesting Data...4279809494</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4059457581</v>
+        <v>#N/A Requesting Data...4108995755</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3835961777</v>
+        <v>#N/A Requesting Data...4257110531</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4215870212</v>
+        <v>#N/A Requesting Data...4285031768</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3964566261</v>
+        <v>#N/A Requesting Data...4058500589</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4131825752</v>
+        <v>#N/A Requesting Data...4101468023</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4160375515</v>
+        <v>#N/A Requesting Data...4185821235</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3773685571</v>
+        <v>#N/A Requesting Data...3995242666</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906497676</v>
+        <v>#N/A Requesting Data...4223772995</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188340166</v>
+        <v>#N/A Requesting Data...4229759255</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4012149644</v>
+        <v>#N/A Requesting Data...4247528335</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261926358</v>
+        <v>#N/A Requesting Data...4223838713</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3809864766</v>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...4227710467</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3897554996</v>
+        <v>#N/A Requesting Data...4029191446</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4248241021</v>
+        <v>#N/A Requesting Data...4207351530</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4002348851</v>
+        <v>#N/A Requesting Data...4007686473</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4158367515</v>
+        <v>#N/A Requesting Data...4290543025</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969729882</v>
+        <v>#N/A Requesting Data...4078877049</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232790639</v>
+        <v>#N/A Requesting Data...4025241730</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3788449435</v>
+        <v>#N/A Requesting Data...4268977263</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1771,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1867,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992270A5-B610-400C-B523-89B3353E85B2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1895,7 +1897,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.5600000000000005</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1919,7 +1921,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>3.1669999999999998</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1970,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59ED007-8941-4023-BA18-698652E71C62}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.3129999999999997</v>
+        <v>4.1421000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2019,7 +2021,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.1269999999999998</v>
+        <v>3.97</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2034,7 +2036,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>4.0381999999999998</v>
+        <v>3.8898000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2049,7 +2051,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.9784000000000002</v>
+        <v>3.835</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.9409000000000001</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2079,7 +2081,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.9224999999999999</v>
+        <v>3.7845</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2094,7 +2096,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9125999999999999</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2109,7 +2111,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.9089999999999998</v>
+        <v>3.774</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.9095</v>
+        <v>3.778</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2139,7 +2141,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.9131</v>
+        <v>3.7835000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2154,7 +2156,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.28</v>
+        <v>2.9355000000000002</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2169,7 +2171,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>3.1943000000000001</v>
+        <v>2.7719999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2184,7 +2186,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>3.1419000000000001</v>
+        <v>2.7124999999999999</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2199,7 +2201,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>3.1059999999999999</v>
+        <v>2.6844999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2214,7 +2216,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>3.0964999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2229,7 +2231,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>3.1112000000000002</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2244,7 +2246,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>3.1423999999999999</v>
+        <v>2.7496999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>3.1785999999999999</v>
+        <v>2.794</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2274,7 +2276,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.2147999999999999</v>
+        <v>2.8384999999999998</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2289,7 +2291,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.2467999999999999</v>
+        <v>2.8767999999999998</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2304,7 +2306,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.2410000000000001</v>
+        <v>2.1032999999999999</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2319,7 +2321,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.0379999999999998</v>
+        <v>1.8785000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2334,7 +2336,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.0209999999999999</v>
+        <v>1.841</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2349,7 +2351,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.0352999999999999</v>
+        <v>1.8516999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.0539999999999998</v>
+        <v>1.871</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2379,7 +2381,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.0859999999999999</v>
+        <v>1.897</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2394,7 +2396,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.1116999999999999</v>
+        <v>1.9247000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2409,7 +2411,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.145</v>
+        <v>1.9543999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2424,7 +2426,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.1715</v>
+        <v>1.9867999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2439,7 +2441,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.2029999999999998</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2454,7 +2456,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.4279500000000001</v>
+        <v>4.3490000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2469,7 +2471,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.2210200000000002</v>
+        <v>4.10595</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2484,7 +2486,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.1130100000000001</v>
+        <v>3.9704999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2499,7 +2501,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>4.0410000000000004</v>
+        <v>3.8929999999999998</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2514,7 +2516,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.9928499999999998</v>
+        <v>3.8454999999999999</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2529,7 +2531,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.96245</v>
+        <v>3.819</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -2544,7 +2546,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9485000000000001</v>
+        <v>3.8085</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -2559,7 +2561,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9464999999999999</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -2574,7 +2576,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>3.9544999999999999</v>
+        <v>3.8275000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -2589,7 +2591,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>3.968</v>
+        <v>3.8489499999999999</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -2604,7 +2606,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.54374999999999996</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2619,7 +2621,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.64875000000000005</v>
+        <v>0.62649999999999995</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -2634,7 +2636,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2649,7 +2651,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.75375000000000003</v>
+        <v>0.73375000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2664,7 +2666,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.79500499999999996</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2679,7 +2681,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.84125000000000005</v>
+        <v>0.81850000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2694,7 +2696,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.89249999999999996</v>
+        <v>0.86624999999999996</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2709,7 +2711,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.94750000000000001</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2724,7 +2726,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.0062500000000001</v>
+        <v>0.97124999999999995</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2739,7 +2741,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2754,7 +2756,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>4.2670000000000003</v>
+        <v>3.9984000000000002</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2769,7 +2771,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>4.1055000000000001</v>
+        <v>3.7534000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2784,7 +2786,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.2718999999999996</v>
+        <v>3.9075000000000002</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2799,7 +2801,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.2698</v>
+        <v>3.9020000000000001</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2814,7 +2816,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.30349</v>
+        <v>3.9390000000000001</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2829,7 +2831,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.3550000000000004</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2844,7 +2846,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.4109999999999996</v>
+        <v>4.0587499999999999</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2859,7 +2861,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.4651699999999996</v>
+        <v>4.1195000000000004</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2874,7 +2876,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.5137499999999999</v>
+        <v>4.1745000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.5555000000000003</v>
+        <v>4.2225000000000001</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2939,7 +2941,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.7461000000000002</v>
+        <v>3.6206999999999998</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.8130000000000002</v>
+        <v>3.7031000000000001</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2969,7 +2971,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.3513999999999999</v>
+        <v>2.93926</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -2984,7 +2986,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.7486700000000002</v>
+        <v>3.42869</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -2999,7 +3001,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.214</v>
+        <v>2.0049000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3014,7 +3016,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.4683000000000002</v>
+        <v>2.2875999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3029,7 +3031,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8913000000000002</v>
+        <v>3.7263999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3044,7 +3046,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.0010000000000003</v>
+        <v>3.9184999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3059,7 +3061,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.96230000000000004</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3074,7 +3076,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.4144000000000001</v>
+        <v>1.3395999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3089,7 +3091,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.2777000000000003</v>
+        <v>3.8980000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.8696999999999999</v>
+        <v>4.5666000000000002</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3147,7 +3149,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.7852999999999999</v>
+        <v>3.6692999999999998</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3159,7 +3161,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>3.44556</v>
+        <v>2.9409399999999999</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3171,7 +3173,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.0566</v>
+        <v>1.8117000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.0818000000000003</v>
+        <v>3.9024000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -3195,7 +3197,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.83409999999999995</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3207,7 +3209,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>4.0955000000000004</v>
+        <v>3.6454</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3222,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3268,11 +3270,11 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xll.BDP(F2,"px_last")</f>
-        <v>4.4359999999999999</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(F2,"px_last")</f>
-        <v>4.4359999999999999</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
@@ -3290,11 +3292,11 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.383</v>
+        <v>4.2869999999999999</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.383</v>
+        <v>4.2869999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
@@ -3312,11 +3314,11 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.2480000000000002</v>
+        <v>4.141</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.2480000000000002</v>
+        <v>4.141</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -3334,11 +3336,11 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.1840000000000002</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.1840000000000002</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -3356,11 +3358,11 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.0679999999999996</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.0679999999999996</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -3378,11 +3380,11 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.0119999999999996</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.0119999999999996</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -3400,11 +3402,11 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.9550000000000001</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.9550000000000001</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -3422,11 +3424,11 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9180000000000001</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9180000000000001</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="F9" t="s">
         <v>164</v>
@@ -3444,11 +3446,11 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4849999999999999</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(F10,"px_last")</f>
-        <v>3.4849999999999999</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
@@ -3466,11 +3468,11 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
-        <v>3.2879999999999998</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
-        <v>3.2879999999999998</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
@@ -3488,11 +3490,11 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>3.1970000000000001</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>3.1970000000000001</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -3510,11 +3512,11 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>3.1360000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>3.1360000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
@@ -3532,11 +3534,11 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>3.1080000000000001</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>3.1080000000000001</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
@@ -3554,11 +3556,11 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>3.0859999999999999</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>3.0859999999999999</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
@@ -3576,11 +3578,11 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>3.0350000000000001</v>
+        <v>2.718</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>3.0350000000000001</v>
+        <v>2.718</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -3598,11 +3600,11 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>3.0350000000000001</v>
+        <v>2.718</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>3.0350000000000001</v>
+        <v>2.718</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
@@ -3621,11 +3623,11 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
-        <v>2.871</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
-        <v>2.871</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="F18" t="s">
         <v>136</v>
@@ -3643,11 +3645,11 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5789999999999997</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5789999999999997</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="F19" t="s">
         <v>137</v>
@@ -3665,11 +3667,11 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2679999999999998</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2679999999999998</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -3687,11 +3689,11 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.0259999999999998</v>
+        <v>2</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.0259999999999998</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
@@ -3709,11 +3711,11 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9529999999999998</v>
+        <v>1.829</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9529999999999998</v>
+        <v>1.829</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
@@ -3731,11 +3733,11 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.823</v>
+        <v>1.738</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.823</v>
+        <v>1.738</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3753,11 +3755,11 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7850000000000001</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7850000000000001</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -3775,11 +3777,11 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.7850000000000001</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.7850000000000001</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
@@ -3798,11 +3800,11 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6740000000000004</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6740000000000004</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3820,11 +3822,11 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6740000000000004</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6740000000000004</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -3842,11 +3844,11 @@
       </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xll.BDP(F27,"px_last")</f>
-        <v>4.5250000000000004</v>
+        <v>4.4909999999999997</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(F27,"px_last")</f>
-        <v>4.5250000000000004</v>
+        <v>4.4909999999999997</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3864,11 +3866,11 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
-        <v>4.399</v>
+        <v>4.4050000000000002</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
-        <v>4.399</v>
+        <v>4.4050000000000002</v>
       </c>
       <c r="F29" t="s">
         <v>146</v>
@@ -3886,11 +3888,11 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2939999999999996</v>
+        <v>4.2379999999999995</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2939999999999996</v>
+        <v>4.2379999999999995</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
@@ -3908,11 +3910,11 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.202</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.202</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
@@ -3930,11 +3932,11 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1079999999999997</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1079999999999997</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
@@ -3953,11 +3955,11 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>4.1079999999999997</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.0709999999999997</v>
+        <v>3.99</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
@@ -3976,11 +3978,11 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.38400000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.38400000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
@@ -3998,11 +4000,11 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.442</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.442</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
@@ -4020,11 +4022,11 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.496</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.496</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F36" t="s">
         <v>152</v>
@@ -4042,11 +4044,11 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.56999999999999995</v>
+        <v>0.503</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.56999999999999995</v>
+        <v>0.503</v>
       </c>
       <c r="F37" t="s">
         <v>153</v>
@@ -4064,11 +4066,11 @@
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.61299999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.61299999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
@@ -4086,11 +4088,11 @@
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.66800000000000004</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.66800000000000004</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="F39" t="s">
         <v>155</v>
@@ -4108,11 +4110,11 @@
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.67</v>
+        <v>0.623</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.67</v>
+        <v>0.623</v>
       </c>
       <c r="F40" t="s">
         <v>156</v>
@@ -4130,11 +4132,11 @@
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.67</v>
+        <v>0.623</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.67</v>
+        <v>0.623</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
@@ -4153,11 +4155,11 @@
       </c>
       <c r="D42" cm="1">
         <f t="array" ref="D42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3179999999999996</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xll.BDP(F42,"px_last")</f>
-        <v>4.3179999999999996</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="F42" t="s">
         <v>157</v>
@@ -4175,11 +4177,11 @@
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2549999999999999</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.2549999999999999</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="F43" t="s">
         <v>158</v>
@@ -4197,11 +4199,11 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2149999999999999</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.2149999999999999</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>159</v>
@@ -4219,11 +4221,11 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1340000000000003</v>
+        <v>3.76</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>4.1340000000000003</v>
+        <v>3.76</v>
       </c>
       <c r="F45" t="s">
         <v>160</v>
@@ -4241,11 +4243,11 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0629999999999997</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>4.0629999999999997</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="F46" t="s">
         <v>161</v>
@@ -4263,11 +4265,11 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>4.0309999999999997</v>
+        <v>3.6120000000000001</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>4.0309999999999997</v>
+        <v>3.6120000000000001</v>
       </c>
       <c r="F47" t="s">
         <v>162</v>
@@ -4285,11 +4287,11 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9220000000000002</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.9220000000000002</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="F48" t="s">
         <v>163</v>
@@ -4307,11 +4309,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.915</v>
+        <v>3.5220000000000002</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.915</v>
+        <v>3.5220000000000002</v>
       </c>
       <c r="F49" t="s">
         <v>165</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191141CC-80BC-4A68-84AA-A15B7A7F2E20}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479BCD13-2487-4D2C-8A63-067AA4456221}"/>
   <bookViews>
-    <workbookView xWindow="-5300" yWindow="-16310" windowWidth="38620" windowHeight="15820" activeTab="1" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -515,12 +515,6 @@
     <t>GB0BFR SEP2025 Index</t>
   </si>
   <si>
-    <t>JP0BFR DEC2024 Index</t>
-  </si>
-  <si>
-    <t>JP0BFR JAN2025 Index</t>
-  </si>
-  <si>
     <t>JP0BFR MAR2025 Index</t>
   </si>
   <si>
@@ -561,6 +555,12 @@
   </si>
   <si>
     <t>AU0BFR NOV2025 Index</t>
+  </si>
+  <si>
+    <t>JP0BFR OCT2025 Index</t>
+  </si>
+  <si>
+    <t>JP0BFR DEC2025 Index</t>
   </si>
 </sst>
 </file>
@@ -633,363 +633,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3812113062</v>
+        <v>#N/A Requesting Data...347792757</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287486693</v>
-        <stp/>
-        <stp>BDP|11316537394346266156</stp>
-        <tr r="D34" s="5"/>
-        <tr r="E34" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4118201532</v>
+        <v>#N/A Requesting Data...3433138367</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087061867</v>
+        <v>#N/A Requesting Data...2512572082</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3843918160</v>
+        <v>#N/A Requesting Data...3491969935</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3915268364</v>
+        <v>#N/A Requesting Data...1561927525</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4156289064</v>
+        <v>#N/A Requesting Data...1616168108</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842444404</v>
+        <v>#N/A Requesting Data...2103287295</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3857256606</v>
+        <v>#N/A Requesting Data...329192047</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4202603469</v>
+        <v>#N/A Requesting Data...914559162</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4108198579</v>
+        <v>#N/A Requesting Data...2892700216</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3927269863</v>
+        <v>#N/A Requesting Data...2790261771</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3977082244</v>
+        <v>#N/A Requesting Data...3507201742</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3893592900</v>
+        <v>#N/A Requesting Data...360488428</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972139926</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|13450628562303537946</stp>
+        <tr r="D40" s="5"/>
+        <tr r="E40" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...814373420</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245099528</v>
+        <v>#N/A Requesting Data...1408032099</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4168434826</v>
+        <v>#N/A Requesting Data...1265519021</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
-        <tr r="D37" s="5"/>
-        <tr r="E37" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4125934643</v>
+        <tr r="D35" s="5"/>
+        <tr r="E35" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3259859916</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4085355003</v>
+        <v>#N/A Requesting Data...3556549347</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4177541671</v>
+        <v>#N/A Requesting Data...1769349089</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4125585339</v>
+        <v>#N/A Requesting Data...2250391039</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3935083117</v>
+        <v>#N/A Requesting Data...482898293</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097118294</v>
+        <v>#N/A Requesting Data...2816796243</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
-        <tr r="D36" s="5"/>
-        <tr r="E36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3833954942</v>
+        <tr r="D34" s="5"/>
+        <tr r="E34" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3777743005</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4157110003</v>
+        <v>#N/A Requesting Data...3546829948</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217446089</v>
+        <v>#N/A Requesting Data...412902913</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965312039</v>
+        <v>#N/A Requesting Data...2213463708</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3900015082</v>
+        <v>#N/A Requesting Data...2589240666</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965192155</v>
+        <v>#N/A Requesting Data...2304319790</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943178589</v>
+        <v>#N/A Requesting Data...3797805770</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4159048160</v>
+        <v>#N/A Requesting Data...1447751492</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4006928710</v>
+        <v>#N/A Requesting Data...1135300390</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3892819547</v>
+        <v>#N/A Requesting Data...352728364</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973645377</v>
+        <v>#N/A Requesting Data...1085486660</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4214830983</v>
+        <v>#N/A Requesting Data...2220140151</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234985472</v>
+        <v>#N/A Requesting Data...1158004797</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3897875443</v>
+        <v>#N/A Requesting Data...2778057022</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3981595723</v>
+        <v>#N/A Requesting Data...1186338630</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280159355</v>
+        <v>#N/A Requesting Data...556388016</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4047053823</v>
+        <v>#N/A Requesting Data...830243568</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4159227924</v>
+        <v>#N/A Requesting Data...2749105591</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3917901864</v>
+        <v>#N/A Requesting Data...1602089496</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005656094</v>
+        <v>#N/A Requesting Data...3440750664</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3956303309</v>
+        <v>#N/A Requesting Data...458033747</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4184633540</v>
+        <v>#N/A Requesting Data...1144196092</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174527565</v>
+        <v>#N/A Requesting Data...1073107516</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4074152509</v>
+        <v>#N/A Requesting Data...1419587190</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4281659424</v>
+        <v>#N/A Requesting Data...379895173</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264445430</v>
+        <v>#N/A Requesting Data...771500356</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4105121548</v>
+        <v>#N/A Requesting Data...4277882271</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234936902</v>
+        <v>#N/A Requesting Data...525668487</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
-        <tr r="D38" s="5"/>
-        <tr r="E38" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3906624436</v>
+        <tr r="D36" s="5"/>
+        <tr r="E36" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3087909157</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4013481388</v>
+        <v>#N/A Requesting Data...555450094</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3921330156</v>
+        <v>#N/A Requesting Data...2034746265</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4143349933</v>
+        <v>#N/A Requesting Data...558402668</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176604361</v>
+        <v>#N/A Requesting Data...3104091543</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -997,317 +997,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3967949669</v>
+        <v>#N/A Requesting Data...2797972060</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4222474675</v>
+        <v>#N/A Requesting Data...3370528220</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4135007269</v>
+        <v>#N/A Requesting Data...3867124195</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4017032253</v>
+        <v>#N/A Requesting Data...2612563069</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4229442109</v>
+        <v>#N/A Requesting Data...3116552608</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4033828239</v>
+        <v>#N/A Requesting Data...746971097</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4109460816</v>
+        <v>#N/A Requesting Data...1300469499</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4053848242</v>
+        <v>#N/A Requesting Data...1386808292</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4033562918</v>
+        <v>#N/A Requesting Data...1540973009</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008987759</v>
+        <v>#N/A Requesting Data...1634084057</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063277480</v>
+        <v>#N/A Requesting Data...776865657</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3997310684</v>
+        <v>#N/A Requesting Data...1900667158</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4126235698</v>
+        <v>#N/A Requesting Data...3793390074</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943240256</v>
+        <v>#N/A Requesting Data...1550384201</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4204433062</v>
+        <v>#N/A Requesting Data...931032745</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4248751084</v>
+        <v>#N/A Requesting Data...2988812419</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008548174</v>
+        <v>#N/A Requesting Data...4031707994</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4244045118</v>
+        <v>#N/A Requesting Data...2955510772</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020459649</v>
+        <v>#N/A Requesting Data...2427651341</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
-        <tr r="D40" s="5"/>
-        <tr r="E40" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4213859681</v>
+        <tr r="D38" s="5"/>
+        <tr r="E38" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2691774218</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4089537680</v>
+        <v>#N/A Requesting Data...3791478157</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4150621498</v>
+        <v>#N/A Requesting Data...2804502072</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4239678870</v>
+        <v>#N/A Requesting Data...1889956922</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3930271282</v>
+        <v>#N/A Requesting Data...1788904371</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4083920710</v>
+        <v>#N/A Requesting Data...1697019649</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232112561</v>
+        <v>#N/A Requesting Data...3567749512</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969556206</v>
+        <v>#N/A Requesting Data...3406368106</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3942876567</v>
+        <v>#N/A Requesting Data...1942076910</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4015144504</v>
+        <v>#N/A Requesting Data...1698169154</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4098977278</v>
+        <v>#N/A Requesting Data...862268957</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4025356506</v>
+        <v>#N/A Requesting Data...2403971255</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3949928415</v>
+        <v>#N/A Requesting Data...2808825242</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3956910827</v>
+        <v>#N/A Requesting Data...1445790923</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210347664</v>
+        <v>#N/A Requesting Data...3430401986</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4051807353</v>
+        <v>#N/A Requesting Data...2541102704</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211266555</v>
+        <v>#N/A Requesting Data...4237123676</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4055126563</v>
+        <v>#N/A Requesting Data...2897548095</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4158879807</v>
+        <v>#N/A Requesting Data...2601777842</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4036963934</v>
+        <v>#N/A Requesting Data...1732123746</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4128303123</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|5347784287029030441</stp>
+        <tr r="D39" s="5"/>
+        <tr r="E39" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2156270706</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063077522</v>
+        <v>#N/A Requesting Data...1290972301</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288303640</v>
+        <v>#N/A Requesting Data...2462145151</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243991909</v>
+        <v>#N/A Requesting Data...789819377</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4202529978</v>
+        <v>#N/A Requesting Data...2712058380</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3989997302</v>
+        <v>#N/A Requesting Data...3737305290</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097675915</v>
+        <v>#N/A Requesting Data...1320626600</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4201235052</v>
-        <stp/>
-        <stp>BDP|2000433777166414735</stp>
-        <tr r="D35" s="5"/>
-        <tr r="E35" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4199425711</v>
+        <v>#N/A Requesting Data...2608318201</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4175284187</v>
+        <v>#N/A Requesting Data...2908665565</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
-        <tr r="D39" s="5"/>
-        <tr r="E39" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4208509589</v>
+        <tr r="D37" s="5"/>
+        <tr r="E37" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3496584206</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162907319</v>
+        <v>#N/A Requesting Data...3315762884</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1316,134 +1316,132 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253519765</v>
+        <v>#N/A Requesting Data...3901095036</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279809494</v>
+        <v>#N/A Requesting Data...1021789136</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4108995755</v>
+        <v>#N/A Requesting Data...2753868100</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4257110531</v>
+        <v>#N/A Requesting Data...4125470729</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4285031768</v>
+        <v>#N/A Requesting Data...1174615462</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4058500589</v>
+        <v>#N/A Requesting Data...2094067688</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4101468023</v>
+        <v>#N/A Requesting Data...2956273115</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4185821235</v>
+        <v>#N/A Requesting Data...1283661706</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3995242666</v>
+        <v>#N/A Requesting Data...2559822172</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4223772995</v>
+        <v>#N/A Requesting Data...819879561</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4229759255</v>
+        <v>#N/A Requesting Data...827313740</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4247528335</v>
+        <v>#N/A Requesting Data...3406326538</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4223838713</v>
+        <v>#N/A Requesting Data...3998730958</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Requesting Data...4227710467</v>
+      <tp t="s">
+        <v>#N/A Requesting Data...2383604499</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4029191446</v>
+        <v>#N/A Requesting Data...2059204409</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207351530</v>
+        <v>#N/A Requesting Data...4277551116</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4007686473</v>
+        <v>#N/A Requesting Data...1802179554</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290543025</v>
+        <v>#N/A Requesting Data...2931658905</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4078877049</v>
+        <v>#N/A Requesting Data...3450008666</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4025241730</v>
+        <v>#N/A Requesting Data...3312419070</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4268977263</v>
+        <v>#N/A Requesting Data...1982581856</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1773,17 +1771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1869,18 +1867,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992270A5-B610-400C-B523-89B3353E85B2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,67 +1889,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.6399999999999997</v>
+        <v>4.34</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>3.1629999999999998</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.7</v>
+        <v>4.4541000000000004</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.22700000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1972,18 +1970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59ED007-8941-4023-BA18-698652E71C62}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2006,13 +2004,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.1421000000000001</v>
+        <v>4.2917500000000004</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2021,13 +2019,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.97</v>
+        <v>4.2096999999999998</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2036,13 +2034,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.8898000000000001</v>
+        <v>4.1909000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2051,13 +2049,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.835</v>
+        <v>4.1878000000000002</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2066,13 +2064,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.8010000000000002</v>
+        <v>4.19095</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2081,13 +2079,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.7845</v>
+        <v>4.1974999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2096,13 +2094,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7770000000000001</v>
+        <v>4.2042999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2111,13 +2109,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.774</v>
+        <v>4.2100499999999998</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2126,13 +2124,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.778</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2141,13 +2139,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.7835000000000001</v>
+        <v>4.2255000000000003</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2156,13 +2154,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.9355000000000002</v>
+        <v>2.7275</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2171,13 +2169,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.7719999999999998</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2186,13 +2184,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.7124999999999999</v>
+        <v>2.6326999999999998</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2201,13 +2199,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.6844999999999999</v>
+        <v>2.641</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2216,13 +2214,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.68</v>
+        <v>2.6724999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2231,13 +2229,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.7080000000000002</v>
+        <v>2.7185000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2246,13 +2244,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.7496999999999998</v>
+        <v>2.7749000000000001</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2261,13 +2259,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.794</v>
+        <v>2.8290999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2276,13 +2274,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.8384999999999998</v>
+        <v>2.8818000000000001</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2291,13 +2289,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.8767999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2306,13 +2304,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.1032999999999999</v>
+        <v>2.1315</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2321,13 +2319,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.8785000000000001</v>
+        <v>2.04575</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2336,13 +2334,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.841</v>
+        <v>2.0647500000000001</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2351,13 +2349,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>1.8516999999999999</v>
+        <v>2.10175</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2366,13 +2364,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>1.871</v>
+        <v>2.1313</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2381,13 +2379,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>1.897</v>
+        <v>2.1630500000000001</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2396,13 +2394,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>1.9247000000000001</v>
+        <v>2.1915</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2411,13 +2409,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>1.9543999999999999</v>
+        <v>2.2201</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2426,13 +2424,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>1.9867999999999999</v>
+        <v>2.2511999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2441,13 +2439,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.0139999999999998</v>
+        <v>2.28525</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2456,13 +2454,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.3490000000000002</v>
+        <v>4.1735199999999999</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2471,13 +2469,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.10595</v>
+        <v>4.0273500000000002</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2486,13 +2484,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.9704999999999999</v>
+        <v>3.972</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2501,13 +2499,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.8929999999999998</v>
+        <v>3.9516</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2516,13 +2514,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.8454999999999999</v>
+        <v>3.9516499999999999</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2531,13 +2529,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.819</v>
+        <v>3.9542999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2546,13 +2544,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.8085</v>
+        <v>3.9620000000000002</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2561,13 +2559,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.8130000000000002</v>
+        <v>3.9811000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2576,13 +2574,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>3.8275000000000001</v>
+        <v>4.0067599999999999</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2591,13 +2589,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>3.8489499999999999</v>
+        <v>4.0369999999999999</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2606,13 +2604,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.50649999999999995</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2621,13 +2619,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.62649999999999995</v>
+        <v>0.8075</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2636,13 +2634,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.69</v>
+        <v>0.89375000000000004</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2651,13 +2649,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.73375000000000001</v>
+        <v>0.95374999999999999</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2666,13 +2664,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.77375000000000005</v>
+        <v>1.0037499999999999</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2681,13 +2679,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.81850000000000001</v>
+        <v>1.0525</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2696,13 +2694,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.86624999999999996</v>
+        <v>1.105</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2711,13 +2709,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.91874999999999996</v>
+        <v>1.1575</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2726,13 +2724,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>0.97124999999999995</v>
+        <v>1.211249</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2741,13 +2739,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.03</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2756,13 +2754,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.9984000000000002</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2771,13 +2769,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.7534000000000001</v>
+        <v>3.8637100000000002</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2786,13 +2784,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.9075000000000002</v>
+        <v>4.0904999999999996</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2801,13 +2799,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.9020000000000001</v>
+        <v>4.1262999999999996</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2816,13 +2814,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.9390000000000001</v>
+        <v>4.1847500000000002</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2831,13 +2829,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.9950000000000001</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2846,13 +2844,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.0587499999999999</v>
+        <v>4.3274999999999997</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2861,13 +2859,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.1195000000000004</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2876,13 +2874,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.1745000000000001</v>
+        <v>4.4550000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2891,7 +2889,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.2225000000000001</v>
+        <v>4.5067000000000004</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2910,15 +2908,15 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2941,13 +2939,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6206999999999998</v>
+        <v>4.1349</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2956,13 +2954,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7031000000000001</v>
+        <v>4.218</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2971,13 +2969,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>2.93926</v>
+        <v>3.0182199999999999</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2986,13 +2984,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.42869</v>
+        <v>3.5490200000000001</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3001,13 +2999,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.0049000000000001</v>
+        <v>2.3212000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3016,13 +3014,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.2875999999999999</v>
+        <v>2.5392999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3031,13 +3029,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7263999999999999</v>
+        <v>3.9603999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3046,13 +3044,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.9184999999999999</v>
+        <v>4.1980000000000004</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3061,13 +3059,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.91590000000000005</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3076,13 +3074,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.3395999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3091,13 +3089,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.8980000000000001</v>
+        <v>4.2573999999999996</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3106,7 +3104,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.5666000000000002</v>
+        <v>4.9070999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3125,14 +3123,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3143,73 +3141,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.6692999999999998</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.9409399999999999</v>
+        <v>2.8904800000000002</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.8117000000000001</v>
+        <v>2.1726999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.9024000000000001</v>
+        <v>3.9678</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.81589999999999996</v>
+        <v>1.0378000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.6454</v>
+        <v>3.9952999999999999</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3224,21 +3222,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3292,17 +3290,17 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.2869999999999999</v>
+        <v>4.327</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.2869999999999999</v>
+        <v>4.327</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3314,17 +3312,17 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.141</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.141</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3336,17 +3334,17 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.0599999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.0599999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3358,17 +3356,17 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>3.9489999999999998</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>3.9489999999999998</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3380,17 +3378,17 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.8820000000000001</v>
+        <v>4.202</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.8820000000000001</v>
+        <v>4.202</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3402,17 +3400,17 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.8220000000000001</v>
+        <v>4.1340000000000003</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.8220000000000001</v>
+        <v>4.1340000000000003</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3424,17 +3422,17 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.7829999999999999</v>
+        <v>4.093</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.7829999999999999</v>
+        <v>4.093</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3468,17 +3466,17 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
-        <v>3.1040000000000001</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
-        <v>3.1040000000000001</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3490,17 +3488,17 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>2.9729999999999999</v>
+        <v>2.891</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>2.9729999999999999</v>
+        <v>2.891</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3512,17 +3510,17 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.875</v>
+        <v>2.7669999999999999</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.875</v>
+        <v>2.7669999999999999</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3534,17 +3532,17 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.7970000000000002</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.7970000000000002</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3556,17 +3554,17 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.7330000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.7330000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3578,17 +3576,17 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.718</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.718</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3600,18 +3598,18 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.718</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.718</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3623,17 +3621,17 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
-        <v>2.9020000000000001</v>
+        <v>2.8970000000000002</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
-        <v>2.9020000000000001</v>
+        <v>2.8970000000000002</v>
       </c>
       <c r="F18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3645,17 +3643,17 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5910000000000002</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
-        <v>2.5910000000000002</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="F19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3667,17 +3665,17 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2530000000000001</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.2530000000000001</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3689,17 +3687,17 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3711,17 +3709,17 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.829</v>
+        <v>2.105</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.829</v>
+        <v>2.105</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3733,17 +3731,17 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.738</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.738</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3755,17 +3753,17 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.6800000000000002</v>
+        <v>1.9609999999999999</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.6800000000000002</v>
+        <v>1.9609999999999999</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3777,18 +3775,18 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.6800000000000002</v>
+        <v>1.9609999999999999</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.6800000000000002</v>
+        <v>1.9609999999999999</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3800,17 +3798,17 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6850000000000005</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
-        <v>4.6850000000000005</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3822,17 +3820,17 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6850000000000005</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(F26,"px_last")</f>
-        <v>4.6850000000000005</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3844,17 +3842,17 @@
       </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xll.BDP(F27,"px_last")</f>
-        <v>4.4909999999999997</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(F27,"px_last")</f>
-        <v>4.4909999999999997</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3866,17 +3864,17 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
-        <v>4.4050000000000002</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
-        <v>4.4050000000000002</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="F29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3888,17 +3886,17 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2379999999999995</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2379999999999995</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3910,17 +3908,17 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1539999999999999</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1539999999999999</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3932,17 +3930,17 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0289999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0289999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3955,18 +3953,18 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>4.0289999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>3.99</v>
+        <v>3.91</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3974,21 +3972,21 @@
         <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>45645</v>
+        <v>45735</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.26500000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.26500000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3996,21 +3994,21 @@
         <v>2</v>
       </c>
       <c r="C35" s="3">
-        <v>45681</v>
+        <v>45778</v>
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.40899999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.40899999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4018,21 +4016,21 @@
         <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>45735</v>
+        <v>45825</v>
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.45500000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.45500000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="F36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4040,21 +4038,21 @@
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>45778</v>
+        <v>45869</v>
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.503</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.503</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -4062,21 +4060,21 @@
         <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>45825</v>
+        <v>45919</v>
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.54200000000000004</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.54200000000000004</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4084,21 +4082,21 @@
         <v>6</v>
       </c>
       <c r="C39" s="3">
-        <v>45869</v>
+        <v>45960</v>
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.60799999999999998</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.60799999999999998</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4106,21 +4104,21 @@
         <v>7</v>
       </c>
       <c r="C40" s="3">
-        <v>45919</v>
+        <v>46010</v>
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.623</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.623</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -4128,22 +4126,23 @@
         <v>8</v>
       </c>
       <c r="C41" s="3">
-        <v>45961</v>
+        <f>+C40+42</f>
+        <v>46052</v>
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.623</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.623</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4162,10 +4161,10 @@
         <v>4.3239999999999998</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4177,17 +4176,17 @@
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.1619999999999999</v>
+        <v>4.1269999999999998</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.1619999999999999</v>
+        <v>4.1269999999999998</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4199,17 +4198,17 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>3.9969999999999999</v>
+        <v>4.0490000000000004</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>3.9969999999999999</v>
+        <v>4.0490000000000004</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4221,17 +4220,17 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.76</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.76</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4243,17 +4242,17 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6890000000000001</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6890000000000001</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4265,17 +4264,17 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6120000000000001</v>
+        <v>3.6909999999999998</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6120000000000001</v>
+        <v>3.6909999999999998</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4287,17 +4286,17 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3580000000000001</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3580000000000001</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4309,14 +4308,14 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.5220000000000002</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.5220000000000002</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479BCD13-2487-4D2C-8A63-067AA4456221}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -633,363 +633,363 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...347792757</v>
+        <v>#N/A Requesting Data...2214632516</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3433138367</v>
+        <v>#N/A Requesting Data...1860246351</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2512572082</v>
+        <v>#N/A Requesting Data...1814468326</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3491969935</v>
+        <v>#N/A Requesting Data...3617699925</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1561927525</v>
+        <v>#N/A Requesting Data...2841338668</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1616168108</v>
+        <v>#N/A Requesting Data...4163932370</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2103287295</v>
+        <v>#N/A Requesting Data...1909822290</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...329192047</v>
+        <v>#N/A Requesting Data...2407981857</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...914559162</v>
+        <v>#N/A Requesting Data...4207521580</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2892700216</v>
+        <v>#N/A Requesting Data...1281902195</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2790261771</v>
+        <v>#N/A Requesting Data...3583674512</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3507201742</v>
+        <v>#N/A Requesting Data...3882411213</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...360488428</v>
+        <v>#N/A Requesting Data...3470504657</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4213202942</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D40" s="5"/>
         <tr r="E40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...814373420</v>
+        <v>#N/A Requesting Data...3130242105</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1408032099</v>
+        <v>#N/A Requesting Data...3731272572</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1265519021</v>
+        <v>#N/A Requesting Data...2544591048</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3259859916</v>
+        <v>#N/A Requesting Data...3376618693</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3556549347</v>
+        <v>#N/A Requesting Data...3610382236</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1769349089</v>
+        <v>#N/A Requesting Data...3086102992</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2250391039</v>
+        <v>#N/A Requesting Data...1813229612</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...482898293</v>
+        <v>#N/A Requesting Data...1849695695</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2816796243</v>
+        <v>#N/A Requesting Data...1244566956</v>
         <stp/>
         <stp>BDP|15017812733893555171</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3777743005</v>
+        <v>#N/A Requesting Data...1290647179</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3546829948</v>
+        <v>#N/A Requesting Data...1836336045</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...412902913</v>
+        <v>#N/A Requesting Data...1753920920</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2213463708</v>
+        <v>#N/A Requesting Data...1503194790</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2589240666</v>
+        <v>#N/A Requesting Data...3462813112</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2304319790</v>
+        <v>#N/A Requesting Data...1976464136</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3797805770</v>
+        <v>#N/A Requesting Data...3850362911</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1447751492</v>
+        <v>#N/A Requesting Data...2772043672</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1135300390</v>
+        <v>#N/A Requesting Data...3499423235</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...352728364</v>
+        <v>#N/A Requesting Data...2206868980</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1085486660</v>
+        <v>#N/A Requesting Data...3934719969</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2220140151</v>
+        <v>#N/A Requesting Data...2837000991</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1158004797</v>
+        <v>#N/A Requesting Data...4140393787</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2778057022</v>
+        <v>#N/A Requesting Data...2089282842</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1186338630</v>
+        <v>#N/A Requesting Data...3114549627</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...556388016</v>
+        <v>#N/A Requesting Data...3433673885</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...830243568</v>
+        <v>#N/A Requesting Data...4253602652</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2749105591</v>
+        <v>#N/A Requesting Data...3484724311</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1602089496</v>
+        <v>#N/A Requesting Data...2837877715</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3440750664</v>
+        <v>#N/A Requesting Data...2304720984</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...458033747</v>
+        <v>#N/A Requesting Data...3351605616</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1144196092</v>
+        <v>#N/A Requesting Data...1868366446</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1073107516</v>
+        <v>#N/A Requesting Data...1544968542</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1419587190</v>
+        <v>#N/A Requesting Data...1393187069</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...379895173</v>
+        <v>#N/A Requesting Data...4294775573</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...771500356</v>
+        <v>#N/A Requesting Data...1935139172</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277882271</v>
+        <v>#N/A Requesting Data...3414572156</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...525668487</v>
+        <v>#N/A Requesting Data...3447652724</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3087909157</v>
+        <v>#N/A Requesting Data...3550379680</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...555450094</v>
+        <v>#N/A Requesting Data...1968359243</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2034746265</v>
+        <v>#N/A Requesting Data...2282650086</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...558402668</v>
+        <v>#N/A Requesting Data...2323785122</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104091543</v>
+        <v>#N/A Requesting Data...2729654383</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -997,317 +997,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2797972060</v>
+        <v>#N/A Requesting Data...3654294594</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3370528220</v>
+        <v>#N/A Requesting Data...4117144235</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3867124195</v>
+        <v>#N/A Requesting Data...2268459171</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2612563069</v>
+        <v>#N/A Requesting Data...2909972419</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3116552608</v>
+        <v>#N/A Requesting Data...3093113348</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...746971097</v>
+        <v>#N/A Requesting Data...3524912112</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1300469499</v>
+        <v>#N/A Requesting Data...2367369998</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1386808292</v>
+        <v>#N/A Requesting Data...1242718299</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1540973009</v>
+        <v>#N/A Requesting Data...2636787616</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1634084057</v>
+        <v>#N/A Requesting Data...3472263845</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...776865657</v>
+        <v>#N/A Requesting Data...1660664890</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1900667158</v>
+        <v>#N/A Requesting Data...1826273455</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3793390074</v>
+        <v>#N/A Requesting Data...1433082276</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1550384201</v>
+        <v>#N/A Requesting Data...2979469164</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...931032745</v>
+        <v>#N/A Requesting Data...1605221085</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2988812419</v>
+        <v>#N/A Requesting Data...3772110378</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4031707994</v>
+        <v>#N/A Requesting Data...3904542229</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2955510772</v>
+        <v>#N/A Requesting Data...3049318540</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2427651341</v>
+        <v>#N/A Requesting Data...2267123511</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2691774218</v>
+        <v>#N/A Requesting Data...3103702310</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3791478157</v>
+        <v>#N/A Requesting Data...4259245622</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2804502072</v>
+        <v>#N/A Requesting Data...1309202829</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1889956922</v>
+        <v>#N/A Requesting Data...4123494205</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1788904371</v>
+        <v>#N/A Requesting Data...3987249167</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1697019649</v>
+        <v>#N/A Requesting Data...2533987061</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3567749512</v>
+        <v>#N/A Requesting Data...2479699554</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3406368106</v>
+        <v>#N/A Requesting Data...2718455127</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1942076910</v>
+        <v>#N/A Requesting Data...2324188819</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1698169154</v>
+        <v>#N/A Requesting Data...3990585172</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...862268957</v>
+        <v>#N/A Requesting Data...4015928748</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2403971255</v>
+        <v>#N/A Requesting Data...2368272580</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2808825242</v>
+        <v>#N/A Requesting Data...3560216333</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1445790923</v>
+        <v>#N/A Requesting Data...1774567772</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3430401986</v>
+        <v>#N/A Requesting Data...3330692663</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2541102704</v>
+        <v>#N/A Requesting Data...3009360214</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4237123676</v>
+        <v>#N/A Requesting Data...3260549510</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2897548095</v>
+        <v>#N/A Requesting Data...4113604725</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2601777842</v>
+        <v>#N/A Requesting Data...2348529124</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1732123746</v>
+        <v>#N/A Requesting Data...2616203786</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3218693756</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2156270706</v>
+        <v>#N/A Requesting Data...3507278781</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1290972301</v>
+        <v>#N/A Requesting Data...1807135718</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2462145151</v>
+        <v>#N/A Requesting Data...3500041247</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...789819377</v>
+        <v>#N/A Requesting Data...2928380312</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2712058380</v>
+        <v>#N/A Requesting Data...1964895789</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3737305290</v>
+        <v>#N/A Requesting Data...2895984025</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1320626600</v>
+        <v>#N/A Requesting Data...3883124864</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2608318201</v>
+        <v>#N/A Requesting Data...1764722295</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2908665565</v>
+        <v>#N/A Requesting Data...2282340456</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3496584206</v>
+        <v>#N/A Requesting Data...1997707171</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3315762884</v>
+        <v>#N/A Requesting Data...3688414710</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1316,132 +1316,132 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3901095036</v>
+        <v>#N/A Requesting Data...3411394393</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1021789136</v>
+        <v>#N/A Requesting Data...3314816126</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2753868100</v>
+        <v>#N/A Requesting Data...1521932009</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4125470729</v>
+        <v>#N/A Requesting Data...2697358298</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1174615462</v>
+        <v>#N/A Requesting Data...3291027811</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2094067688</v>
+        <v>#N/A Requesting Data...2131184760</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2956273115</v>
+        <v>#N/A Requesting Data...1418282300</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1283661706</v>
+        <v>#N/A Requesting Data...2724287091</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2559822172</v>
+        <v>#N/A Requesting Data...2874049894</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...819879561</v>
+        <v>#N/A Requesting Data...2070046723</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...827313740</v>
+        <v>#N/A Requesting Data...3545399003</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3406326538</v>
+        <v>#N/A Requesting Data...1927640155</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3998730958</v>
+        <v>#N/A Requesting Data...1409151383</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2383604499</v>
+        <v>#N/A Requesting Data...1629961750</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2059204409</v>
+        <v>#N/A Requesting Data...3469195588</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277551116</v>
+        <v>#N/A Requesting Data...3456929811</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1802179554</v>
+        <v>#N/A Requesting Data...2741997191</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2931658905</v>
+        <v>#N/A Requesting Data...2292819112</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3450008666</v>
+        <v>#N/A Requesting Data...4137654899</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3312419070</v>
+        <v>#N/A Requesting Data...3247845877</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1982581856</v>
+        <v>#N/A Requesting Data...1635140292</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.6659999999999999</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.4541000000000004</v>
+        <v>4.4542999999999999</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.48499999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"PX_LAST")</f>
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.2917500000000004</v>
+        <v>4.1771000000000003</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.2096999999999998</v>
+        <v>4.0422500000000001</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>4.1909000000000001</v>
+        <v>3.9998399999999998</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>4.1878000000000002</v>
+        <v>3.9894500000000002</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>4.19095</v>
+        <v>3.9902000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>4.1974999999999998</v>
+        <v>3.9965000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>4.2042999999999999</v>
+        <v>4.0046499999999998</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.2100499999999998</v>
+        <v>4.0139500000000004</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>4.2169999999999996</v>
+        <v>4.02386</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>4.2255000000000003</v>
+        <v>4.0357399999999997</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.7275</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.6429999999999998</v>
+        <v>2.6355</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.6326999999999998</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.641</v>
+        <v>2.6263999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.6724999999999999</v>
+        <v>2.6543000000000001</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.7185000000000001</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.7749000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.8290999999999999</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.8818000000000001</v>
+        <v>2.8500999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.9279999999999999</v>
+        <v>2.8944999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.1315</v>
+        <v>2.10825</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.04575</v>
+        <v>2.02075</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.0647500000000001</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.10175</v>
+        <v>2.0836999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.1313</v>
+        <v>2.1189499999999999</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.1630500000000001</v>
+        <v>2.1511999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.1915</v>
+        <v>2.1848000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.2201</v>
+        <v>2.21855</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2511999999999999</v>
+        <v>2.2522500000000001</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.28525</v>
+        <v>2.2745000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.1735199999999999</v>
+        <v>4.21469</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.0273500000000002</v>
+        <v>4.0856500000000002</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.972</v>
+        <v>4.0339799999999997</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.9516</v>
+        <v>4.0054600000000002</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.9516499999999999</v>
+        <v>3.99255</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.9542999999999999</v>
+        <v>3.9921000000000002</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9620000000000002</v>
+        <v>4.0045000000000002</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9811000000000001</v>
+        <v>4.0239900000000004</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.0067599999999999</v>
+        <v>4.0489300000000004</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.0369999999999999</v>
+        <v>4.0793100000000004</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.65749999999999997</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.8075</v>
+        <v>0.81</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.89375000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.95374999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>1.0037499999999999</v>
+        <v>0.99475000000000002</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.0525</v>
+        <v>1.046</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.105</v>
+        <v>1.09975</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.1575</v>
+        <v>1.15225</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.211249</v>
+        <v>1.20475</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.2675000000000001</v>
+        <v>1.275625</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.9409999999999998</v>
+        <v>3.8982600000000001</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.8637100000000002</v>
+        <v>3.823</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.0904999999999996</v>
+        <v>4.0350999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.1262999999999996</v>
+        <v>4.0666000000000002</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.1847500000000002</v>
+        <v>4.1215999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.2549999999999999</v>
+        <v>4.1935000000000002</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.3274999999999997</v>
+        <v>4.2634999999999996</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.3949999999999996</v>
+        <v>4.3285</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.4550000000000001</v>
+        <v>4.3875000000000002</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.5067000000000004</v>
+        <v>4.4367999999999999</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.1349</v>
+        <v>3.8997999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.218</v>
+        <v>4.0408999999999997</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.0182199999999999</v>
+        <v>2.9923600000000001</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.5490200000000001</v>
+        <v>3.4972699999999999</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.3212000000000002</v>
+        <v>2.3184</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.5392999999999999</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9603999999999999</v>
+        <v>3.9878</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.1980000000000004</v>
+        <v>4.2408999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.1819999999999999</v>
+        <v>1.1613</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.5840000000000001</v>
+        <v>1.6129</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.2573999999999996</v>
+        <v>4.1863000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.9070999999999998</v>
+        <v>4.8258000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>4.0330000000000004</v>
+        <v>3.7980999999999998</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.8904800000000002</v>
+        <v>2.8804099999999999</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.1726999999999999</v>
+        <v>2.1208</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.9678</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>1.0378000000000001</v>
+        <v>1.0279</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.9952999999999999</v>
+        <v>3.9617</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.29</v>
+        <v>4.2510000000000003</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.29</v>
+        <v>4.2510000000000003</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -3356,11 +3356,11 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.2409999999999997</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.2409999999999997</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.202</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.202</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1340000000000003</v>
+        <v>3.996</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1340000000000003</v>
+        <v>3.996</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>4.093</v>
+        <v>3.9430000000000001</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>4.093</v>
+        <v>3.9430000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>162</v>
@@ -3488,11 +3488,11 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>2.891</v>
+        <v>2.911</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>2.891</v>
+        <v>2.911</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -3510,11 +3510,11 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.7669999999999999</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.7669999999999999</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
@@ -3532,11 +3532,11 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.6930000000000001</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.6930000000000001</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.645</v>
+        <v>2.641</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.645</v>
+        <v>2.641</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
@@ -3576,11 +3576,11 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.5979999999999999</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.5979999999999999</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -3598,11 +3598,11 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.5979999999999999</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.5979999999999999</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
@@ -3665,11 +3665,11 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.4239999999999999</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.4239999999999999</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.2919999999999998</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.2919999999999998</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>2.105</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>2.105</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>2.0030000000000001</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>2.0030000000000001</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3753,11 +3753,11 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9609999999999999</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9609999999999999</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.9609999999999999</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.9609999999999999</v>
+        <v>1.9449999999999998</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
@@ -3864,11 +3864,11 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
-        <v>4.3920000000000003</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
-        <v>4.3920000000000003</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="F29" t="s">
         <v>146</v>
@@ -3886,11 +3886,11 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.1929999999999996</v>
+        <v>4.298</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.1929999999999996</v>
+        <v>4.298</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1180000000000003</v>
+        <v>4.1890000000000001</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1180000000000003</v>
+        <v>4.1890000000000001</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
@@ -3930,11 +3930,11 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>3.99</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>3.99</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>3.99</v>
+        <v>4.0819999999999999</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>3.91</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48399999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48399999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
@@ -3998,11 +3998,11 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.55200000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.55200000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
@@ -4020,11 +4020,11 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.59899999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.59899999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="F36" t="s">
         <v>152</v>
@@ -4042,11 +4042,11 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.69299999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.69299999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="F37" t="s">
         <v>153</v>
@@ -4064,11 +4064,11 @@
       </c>
       <c r="D38" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.71699999999999997</v>
+        <v>0.748</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.71699999999999997</v>
+        <v>0.748</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
@@ -4086,11 +4086,11 @@
       </c>
       <c r="D39" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.79100000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.79100000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F39" t="s">
         <v>164</v>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="D40" cm="1">
         <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.79800000000000004</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.79800000000000004</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="F40" t="s">
         <v>165</v>
@@ -4131,11 +4131,11 @@
       </c>
       <c r="D41">
         <f>D40</f>
-        <v>0.79800000000000004</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>0.79800000000000004</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="F41" t="e">
         <f>NA()</f>
@@ -4176,11 +4176,11 @@
       </c>
       <c r="D43" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
-        <v>4.1269999999999998</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
-        <v>4.1269999999999998</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="F43" t="s">
         <v>156</v>
@@ -4198,11 +4198,11 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0490000000000004</v>
+        <v>4.0529999999999999</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0490000000000004</v>
+        <v>4.0529999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>157</v>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.8719999999999999</v>
+        <v>3.887</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.8719999999999999</v>
+        <v>3.887</v>
       </c>
       <c r="F45" t="s">
         <v>158</v>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8410000000000002</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8410000000000002</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="F46" t="s">
         <v>159</v>
@@ -4264,11 +4264,11 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6909999999999998</v>
+        <v>3.694</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6909999999999998</v>
+        <v>3.694</v>
       </c>
       <c r="F47" t="s">
         <v>160</v>
@@ -4286,11 +4286,11 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.6760000000000002</v>
+        <v>3.669</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.6760000000000002</v>
+        <v>3.669</v>
       </c>
       <c r="F48" t="s">
         <v>161</v>
@@ -4308,11 +4308,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.6070000000000002</v>
+        <v>3.625</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.6070000000000002</v>
+        <v>3.625</v>
       </c>
       <c r="F49" t="s">
         <v>163</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479BCD13-2487-4D2C-8A63-067AA4456221}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5189E38F-158F-4BF8-848E-82924E4574FB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
   <si>
     <t>Country_ID</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>GB0BFR SEP2025 Index</t>
-  </si>
-  <si>
-    <t>JP0BFR MAR2025 Index</t>
   </si>
   <si>
     <t>JP0BFR MAY2025 Index</t>
@@ -584,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -604,13 +607,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,363 +638,356 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2214632516</v>
+        <v>#N/A Requesting Data...4154566763</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1860246351</v>
+        <v>#N/A Requesting Data...3470081573</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1814468326</v>
+        <v>#N/A Requesting Data...4024448418</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617699925</v>
+        <v>#N/A Requesting Data...1780308517</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2841338668</v>
+        <v>#N/A Requesting Data...3269996493</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4163932370</v>
+        <v>#N/A Requesting Data...2305026958</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1909822290</v>
+        <v>#N/A Requesting Data...3544646791</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2407981857</v>
+        <v>#N/A Requesting Data...2324715367</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207521580</v>
+        <v>#N/A Requesting Data...2874707788</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1281902195</v>
+        <v>#N/A Requesting Data...4009018295</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3583674512</v>
+        <v>#N/A Requesting Data...2994486912</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3882411213</v>
+        <v>#N/A Requesting Data...2032916554</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3470504657</v>
+        <v>#N/A Requesting Data...3782322449</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213202942</v>
+        <v>#N/A Requesting Data...2643617145</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
-        <tr r="D40" s="5"/>
-        <tr r="E40" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3130242105</v>
+        <tr r="D39" s="5"/>
+        <tr r="E39" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3976881568</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3731272572</v>
+        <v>#N/A Requesting Data...2562341087</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2544591048</v>
+        <v>#N/A Requesting Data...2744685410</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
-        <tr r="D35" s="5"/>
-        <tr r="E35" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3376618693</v>
+        <tr r="D34" s="5"/>
+        <tr r="E34" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2077347497</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3610382236</v>
+        <v>#N/A Requesting Data...3210582845</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3086102992</v>
+        <v>#N/A Requesting Data...4114203392</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1813229612</v>
+        <v>#N/A Requesting Data...1986288960</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1849695695</v>
+        <v>#N/A Requesting Data...1933816652</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1244566956</v>
-        <stp/>
-        <stp>BDP|15017812733893555171</stp>
-        <tr r="D34" s="5"/>
-        <tr r="E34" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...1290647179</v>
+        <v>#N/A Requesting Data...4279814791</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1836336045</v>
+        <v>#N/A Requesting Data...3296806045</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1753920920</v>
+        <v>#N/A Requesting Data...3250419998</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1503194790</v>
+        <v>#N/A Requesting Data...3741250974</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3462813112</v>
+        <v>#N/A Requesting Data...2817742395</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1976464136</v>
+        <v>#N/A Requesting Data...3986385421</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3850362911</v>
+        <v>#N/A Requesting Data...2979070290</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2772043672</v>
+        <v>#N/A Requesting Data...3728100169</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3499423235</v>
+        <v>#N/A Requesting Data...2967390931</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2206868980</v>
+        <v>#N/A Requesting Data...3582368651</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3934719969</v>
+        <v>#N/A Requesting Data...3451978682</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2837000991</v>
+        <v>#N/A Requesting Data...2659180037</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4140393787</v>
+        <v>#N/A Requesting Data...3926540909</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2089282842</v>
+        <v>#N/A Requesting Data...2842436295</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3114549627</v>
+        <v>#N/A Requesting Data...4101122111</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3433673885</v>
+        <v>#N/A Requesting Data...2942086402</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253602652</v>
+        <v>#N/A Requesting Data...2602295547</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3484724311</v>
+        <v>#N/A Requesting Data...2943148287</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2837877715</v>
+        <v>#N/A Requesting Data...3716572007</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2304720984</v>
+        <v>#N/A Requesting Data...3550346998</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3351605616</v>
+        <v>#N/A Requesting Data...2441175191</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1868366446</v>
+        <v>#N/A Requesting Data...2026548096</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1544968542</v>
+        <v>#N/A Requesting Data...3962484158</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1393187069</v>
+        <v>#N/A Requesting Data...3438664124</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294775573</v>
+        <v>#N/A Requesting Data...3759550535</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1935139172</v>
+        <v>#N/A Requesting Data...3831161240</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3414572156</v>
+        <v>#N/A Requesting Data...2908344501</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3447652724</v>
+        <v>#N/A Requesting Data...2131463495</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
-        <tr r="D36" s="5"/>
-        <tr r="E36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3550379680</v>
+        <tr r="D35" s="5"/>
+        <tr r="E35" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3031659913</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1968359243</v>
+        <v>#N/A Requesting Data...2563177639</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2282650086</v>
+        <v>#N/A Requesting Data...4064146843</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2323785122</v>
+        <v>#N/A Requesting Data...3317440564</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2729654383</v>
+        <v>#N/A Requesting Data...2480230832</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -997,317 +995,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3654294594</v>
+        <v>#N/A Requesting Data...2037217503</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4117144235</v>
+        <v>#N/A Requesting Data...3078902986</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2268459171</v>
+        <v>#N/A Requesting Data...4193621912</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2909972419</v>
+        <v>#N/A Requesting Data...3729757502</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3093113348</v>
+        <v>#N/A Requesting Data...2792003038</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3524912112</v>
+        <v>#N/A Requesting Data...1905926307</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2367369998</v>
+        <v>#N/A Requesting Data...1996418917</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1242718299</v>
+        <v>#N/A Requesting Data...3747206514</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2636787616</v>
+        <v>#N/A Requesting Data...1893936881</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3472263845</v>
+        <v>#N/A Requesting Data...3216822942</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1660664890</v>
+        <v>#N/A Requesting Data...3083531498</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1826273455</v>
+        <v>#N/A Requesting Data...2901595866</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1433082276</v>
+        <v>#N/A Requesting Data...2478661586</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2979469164</v>
+        <v>#N/A Requesting Data...2547637410</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1605221085</v>
+        <v>#N/A Requesting Data...2154532375</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3772110378</v>
+        <v>#N/A Requesting Data...4034314732</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3904542229</v>
+        <v>#N/A Requesting Data...2371726295</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3049318540</v>
+        <v>#N/A Requesting Data...2921514214</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2267123511</v>
+        <v>#N/A Requesting Data...3692720688</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
-        <tr r="D38" s="5"/>
-        <tr r="E38" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3103702310</v>
+        <tr r="D37" s="5"/>
+        <tr r="E37" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4063067282</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4259245622</v>
+        <v>#N/A Requesting Data...4013342261</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1309202829</v>
+        <v>#N/A Requesting Data...2411919155</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4123494205</v>
+        <v>#N/A Requesting Data...3695582652</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3987249167</v>
+        <v>#N/A Requesting Data...1877648285</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2533987061</v>
+        <v>#N/A Requesting Data...3387948079</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2479699554</v>
+        <v>#N/A Requesting Data...2442246816</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2718455127</v>
+        <v>#N/A Requesting Data...3369520162</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2324188819</v>
+        <v>#N/A Requesting Data...3970033721</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990585172</v>
+        <v>#N/A Requesting Data...3434966527</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4015928748</v>
+        <v>#N/A Requesting Data...3374323025</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2368272580</v>
+        <v>#N/A Requesting Data...3037319748</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3560216333</v>
+        <v>#N/A Requesting Data...3574685549</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1774567772</v>
+        <v>#N/A Requesting Data...1930739721</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3330692663</v>
+        <v>#N/A Requesting Data...1872839526</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3009360214</v>
+        <v>#N/A Requesting Data...2654544172</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3260549510</v>
+        <v>#N/A Requesting Data...2300489264</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4113604725</v>
+        <v>#N/A Requesting Data...2529417650</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2348529124</v>
+        <v>#N/A Requesting Data...3797229913</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2616203786</v>
+        <v>#N/A Requesting Data...3526838617</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3218693756</v>
+        <v>#N/A Requesting Data...2158584841</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
-        <tr r="D39" s="5"/>
-        <tr r="E39" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3507278781</v>
+        <tr r="D38" s="5"/>
+        <tr r="E38" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4057660972</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1807135718</v>
+        <v>#N/A Requesting Data...2287015127</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3500041247</v>
+        <v>#N/A Requesting Data...3195108429</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2928380312</v>
+        <v>#N/A Requesting Data...3167970131</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1964895789</v>
+        <v>#N/A Requesting Data...2855957333</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2895984025</v>
+        <v>#N/A Requesting Data...3304993331</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3883124864</v>
+        <v>#N/A Requesting Data...3836610281</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1764722295</v>
+        <v>#N/A Requesting Data...2236724757</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2282340456</v>
+        <v>#N/A Requesting Data...3327773459</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
-        <tr r="D37" s="5"/>
-        <tr r="E37" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...1997707171</v>
+        <tr r="D36" s="5"/>
+        <tr r="E36" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1998781549</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3688414710</v>
+        <v>#N/A Requesting Data...3060076441</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1316,132 +1314,134 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3411394393</v>
+        <v>#N/A Requesting Data...2162992911</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3314816126</v>
+        <v>#N/A Requesting Data...3718436637</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1521932009</v>
+        <v>#N/A Requesting Data...3220572601</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697358298</v>
+        <v>#N/A Requesting Data...2573625985</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3291027811</v>
+        <v>#N/A Requesting Data...1984637074</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2131184760</v>
+        <v>#N/A Requesting Data...4246741162</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1418282300</v>
+        <v>#N/A Requesting Data...1950634881</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2724287091</v>
+        <v>#N/A Requesting Data...3714815619</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2874049894</v>
+        <v>#N/A Requesting Data...3747853386</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2070046723</v>
+        <v>#N/A Requesting Data...3636078805</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3545399003</v>
+        <v>#N/A Requesting Data...3414516921</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1927640155</v>
+        <v>#N/A Requesting Data...4106443637</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1409151383</v>
+        <v>#N/A Requesting Data...3103845659</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...1629961750</v>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...4011261230</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3469195588</v>
+        <v>#N/A Requesting Data...3512937910</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3456929811</v>
+        <v>#N/A Requesting Data...3838779548</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2741997191</v>
+        <v>#N/A Requesting Data...3213442946</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2292819112</v>
+        <v>#N/A Requesting Data...2774750285</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4137654899</v>
+        <v>#N/A Requesting Data...3313405300</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3247845877</v>
+        <v>#N/A Requesting Data...4269417403</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1635140292</v>
+        <v>#N/A Requesting Data...3295659202</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.33</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.6669999999999998</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.4542999999999999</v>
+        <v>4.4556000000000004</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47799999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.1771000000000003</v>
+        <v>3.9841899999999999</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.0422500000000001</v>
+        <v>3.7385000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.9998399999999998</v>
+        <v>3.6672500000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.9894500000000002</v>
+        <v>3.6597499999999998</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.9902000000000002</v>
+        <v>3.6736499999999999</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.9965000000000002</v>
+        <v>3.69787</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>4.0046499999999998</v>
+        <v>3.7235299999999998</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.0139500000000004</v>
+        <v>3.7483</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>4.02386</v>
+        <v>3.7729499999999998</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>4.0357399999999997</v>
+        <v>3.7980999999999998</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.7225000000000001</v>
+        <v>2.448</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.6355</v>
+        <v>2.3664999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.6190000000000002</v>
+        <v>2.3713000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.6263999999999998</v>
+        <v>2.3925999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.6543000000000001</v>
+        <v>2.4346000000000001</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.6970000000000001</v>
+        <v>2.4964</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.7480000000000002</v>
+        <v>2.5665</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.8010000000000002</v>
+        <v>2.6345000000000001</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.8500999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.8944999999999999</v>
+        <v>2.7559999999999998</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>2.10825</v>
+        <v>1.984</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>2.02075</v>
+        <v>1.9368799999999999</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.0369999999999999</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.0836999999999999</v>
+        <v>2.10175</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.1189499999999999</v>
+        <v>2.18215</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.1511999999999998</v>
+        <v>2.2570000000000001</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.1848000000000001</v>
+        <v>2.3249</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.21855</v>
+        <v>2.3873000000000002</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2522500000000001</v>
+        <v>2.444</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.2745000000000002</v>
+        <v>2.4950999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.21469</v>
+        <v>4.181</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.0856500000000002</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.0339799999999997</v>
+        <v>4.00535</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>4.0054600000000002</v>
+        <v>3.9992999999999999</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.99255</v>
+        <v>4.0110000000000001</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.9921000000000002</v>
+        <v>4.0305</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>4.0045000000000002</v>
+        <v>4.0601000000000003</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>4.0239900000000004</v>
+        <v>4.0944000000000003</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.0489300000000004</v>
+        <v>4.1319999999999997</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.0793100000000004</v>
+        <v>4.1740000000000004</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.67625000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.81</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.88900000000000001</v>
+        <v>0.97124999999999995</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.94399999999999995</v>
+        <v>1.0337499999999999</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.99475000000000002</v>
+        <v>1.086249</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.046</v>
+        <v>1.13625</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.09975</v>
+        <v>1.1875</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.15225</v>
+        <v>1.24125</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.20475</v>
+        <v>1.2975000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.275625</v>
+        <v>1.3587499999999999</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.8982600000000001</v>
+        <v>3.7524999999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.823</v>
+        <v>3.605</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>4.0350999999999999</v>
+        <v>3.8254999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>4.0666000000000002</v>
+        <v>3.85</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>4.1215999999999999</v>
+        <v>3.91</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>4.1935000000000002</v>
+        <v>3.9874999999999998</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.2634999999999996</v>
+        <v>4.0664999999999996</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.3285</v>
+        <v>4.1425000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.3875000000000002</v>
+        <v>4.2038000000000002</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.4367999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.8997999999999999</v>
+        <v>3.5752000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.0408999999999997</v>
+        <v>3.8881000000000001</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>2.9923600000000001</v>
+        <v>2.8073199999999998</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.4972699999999999</v>
+        <v>3.4494799999999999</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.3184</v>
+        <v>2.4971000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.5680000000000001</v>
+        <v>2.964</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9878</v>
+        <v>4.0491000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.2408999999999999</v>
+        <v>4.4234</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.1613</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.6129</v>
+        <v>1.6876</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.1863000000000001</v>
+        <v>3.9538000000000002</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.8258000000000001</v>
+        <v>4.6878000000000002</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.7980999999999998</v>
+        <v>3.3820000000000001</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.8804099999999999</v>
+        <v>2.6148699999999998</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.1208</v>
+        <v>2.0977999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.0309999999999997</v>
+        <v>4.0057999999999998</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>1.0279</v>
+        <v>1.1164000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.9617</v>
+        <v>3.6511</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3222,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.3239999999999998</v>
+        <v>4.327</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.3239999999999998</v>
+        <v>4.327</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.2510000000000003</v>
+        <v>4.2690000000000001</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.2510000000000003</v>
+        <v>4.2690000000000001</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -3356,11 +3356,11 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1520000000000001</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1520000000000001</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.0880000000000001</v>
+        <v>3.9379999999999997</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.0880000000000001</v>
+        <v>3.9379999999999997</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.996</v>
+        <v>3.7720000000000002</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.996</v>
+        <v>3.7720000000000002</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -3422,14 +3422,14 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9430000000000001</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9430000000000001</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,11 +3488,11 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
-        <v>2.911</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
-        <v>2.911</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -3510,11 +3510,11 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.7949999999999999</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.7949999999999999</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
@@ -3532,11 +3532,11 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.7189999999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.7189999999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.641</v>
+        <v>2.448</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.641</v>
+        <v>2.448</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
@@ -3576,11 +3576,11 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.6120000000000001</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.6120000000000001</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -3598,11 +3598,11 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.6120000000000001</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.6120000000000001</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
@@ -3665,11 +3665,11 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
-        <v>2.4380000000000002</v>
+        <v>2.415</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
-        <v>2.4380000000000002</v>
+        <v>2.415</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.2349999999999999</v>
+        <v>2.206</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.2349999999999999</v>
+        <v>2.206</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>2.1080000000000001</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>2.1080000000000001</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.9950000000000001</v>
+        <v>1.962</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.9950000000000001</v>
+        <v>1.962</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3753,11 +3753,11 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9449999999999998</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.9449999999999998</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.9449999999999998</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.9449999999999998</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
@@ -3864,11 +3864,11 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
-        <v>4.4329999999999998</v>
+        <v>4.452</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
-        <v>4.4329999999999998</v>
+        <v>4.452</v>
       </c>
       <c r="F29" t="s">
         <v>146</v>
@@ -3886,11 +3886,11 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.298</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.298</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1890000000000001</v>
+        <v>4.2279999999999998</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1890000000000001</v>
+        <v>4.2279999999999998</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
@@ -3930,11 +3930,11 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0819999999999999</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0819999999999999</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>4.0819999999999999</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.0149999999999997</v>
+        <v>4.05</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
@@ -3965,179 +3965,181 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="3">
-        <v>45735</v>
-      </c>
-      <c r="D34" cm="1">
+      <c r="C34" s="5">
+        <v>45778</v>
+      </c>
+      <c r="D34" s="4" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="E34" cm="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E34" s="4" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="F34" t="s">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
-        <v>45778</v>
-      </c>
-      <c r="D35" cm="1">
+      <c r="C35" s="5">
+        <v>45825</v>
+      </c>
+      <c r="D35" s="4" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E35" cm="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E35" s="4" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F35" t="s">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
-        <v>45825</v>
-      </c>
-      <c r="D36" cm="1">
+      <c r="C36" s="5">
+        <v>45869</v>
+      </c>
+      <c r="D36" s="4" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.623</v>
-      </c>
-      <c r="E36" cm="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E36" s="4" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.623</v>
-      </c>
-      <c r="F36" t="s">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
-        <v>45869</v>
-      </c>
-      <c r="D37" cm="1">
+      <c r="C37" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D37" s="4" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="E37" cm="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E37" s="4" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="F37" t="s">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="3">
-        <v>45919</v>
-      </c>
-      <c r="D38" cm="1">
+      <c r="C38" s="5">
+        <v>45960</v>
+      </c>
+      <c r="D38" s="4" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.748</v>
-      </c>
-      <c r="E38" cm="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E38" s="4" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.748</v>
-      </c>
-      <c r="F38" t="s">
-        <v>154</v>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>45960</v>
-      </c>
-      <c r="D39" cm="1">
+      <c r="C39" s="5">
+        <v>46010</v>
+      </c>
+      <c r="D39" s="4" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.75</v>
-      </c>
-      <c r="E39" cm="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E39" s="4" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.75</v>
-      </c>
-      <c r="F39" t="s">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>7</v>
       </c>
-      <c r="C40" s="3">
-        <v>46010</v>
-      </c>
-      <c r="D40" cm="1">
-        <f t="array" ref="D40">_xll.BDP(F40,"px_last")</f>
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="E40" cm="1">
-        <f t="array" ref="E40">_xll.BDP(F40,"px_last")</f>
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="F40" t="s">
-        <v>165</v>
+      <c r="C40" s="5">
+        <f>C39+42</f>
+        <v>46052</v>
+      </c>
+      <c r="D40" s="4">
+        <f>D39</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E40" s="4">
+        <f>E39</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F40" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>5</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>8</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <f>+C40+42</f>
-        <v>46052</v>
-      </c>
-      <c r="D41">
+        <v>46094</v>
+      </c>
+      <c r="D41" s="4">
         <f>D40</f>
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="E41">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E41" s="4">
         <f>E40</f>
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="F41" t="e">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F41" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>4.3239999999999998</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,7 +4185,7 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4198,14 +4200,14 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0529999999999999</v>
+        <v>4.0659999999999998</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0529999999999999</v>
+        <v>4.0659999999999998</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,14 +4222,14 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.887</v>
+        <v>3.899</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.887</v>
+        <v>3.899</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,14 +4244,14 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8180000000000001</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8180000000000001</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,14 +4266,14 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.694</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.694</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4286,14 +4288,14 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.669</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.669</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,14 +4310,14 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.625</v>
+        <v>3.4180000000000001</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.625</v>
+        <v>3.4180000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -638,356 +638,356 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4154566763</v>
+        <v>#N/A Requesting Data...3117825244</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3470081573</v>
+        <v>#N/A Requesting Data...4252349729</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4024448418</v>
+        <v>#N/A Requesting Data...3618130466</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1780308517</v>
+        <v>#N/A Requesting Data...3248576956</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3269996493</v>
+        <v>#N/A Requesting Data...3434697686</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2305026958</v>
+        <v>#N/A Requesting Data...4263170832</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3544646791</v>
+        <v>#N/A Requesting Data...4275924971</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2324715367</v>
+        <v>#N/A Requesting Data...3419325463</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2874707788</v>
+        <v>#N/A Requesting Data...3814218326</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009018295</v>
+        <v>#N/A Requesting Data...4111622833</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2994486912</v>
+        <v>#N/A Requesting Data...3725275338</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2032916554</v>
+        <v>#N/A Requesting Data...3402459546</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3782322449</v>
+        <v>#N/A Requesting Data...4212937144</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643617145</v>
+        <v>#N/A Requesting Data...3785141164</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3976881568</v>
+        <v>#N/A Requesting Data...4169862898</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2562341087</v>
+        <v>#N/A Requesting Data...4160186182</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2744685410</v>
+        <v>#N/A Requesting Data...3416800275</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2077347497</v>
+        <v>#N/A Requesting Data...3471590435</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3210582845</v>
+        <v>#N/A Requesting Data...3113442004</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114203392</v>
+        <v>#N/A Requesting Data...3420093243</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1986288960</v>
+        <v>#N/A Requesting Data...3161825150</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1933816652</v>
+        <v>#N/A Requesting Data...3244936614</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279814791</v>
+        <v>#N/A Requesting Data...3624568188</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3296806045</v>
+        <v>#N/A Requesting Data...3985615687</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3250419998</v>
+        <v>#N/A Requesting Data...3557711477</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3741250974</v>
+        <v>#N/A Requesting Data...4165320427</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2817742395</v>
+        <v>#N/A Requesting Data...3897679747</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3986385421</v>
+        <v>#N/A Requesting Data...3697412263</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2979070290</v>
+        <v>#N/A Requesting Data...3215683248</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3728100169</v>
+        <v>#N/A Requesting Data...3662269497</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2967390931</v>
+        <v>#N/A Requesting Data...4104091330</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3582368651</v>
+        <v>#N/A Requesting Data...3906124854</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3451978682</v>
+        <v>#N/A Requesting Data...3463665737</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2659180037</v>
+        <v>#N/A Requesting Data...4097937697</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3926540909</v>
+        <v>#N/A Requesting Data...3758626894</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2842436295</v>
+        <v>#N/A Requesting Data...4208665686</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4101122111</v>
+        <v>#N/A Requesting Data...3945274793</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2942086402</v>
+        <v>#N/A Requesting Data...3994946045</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2602295547</v>
+        <v>#N/A Requesting Data...3558937327</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2943148287</v>
+        <v>#N/A Requesting Data...3329290632</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3716572007</v>
+        <v>#N/A Requesting Data...3888651685</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3550346998</v>
+        <v>#N/A Requesting Data...4041338573</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2441175191</v>
+        <v>#N/A Requesting Data...3255673010</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2026548096</v>
+        <v>#N/A Requesting Data...3764112380</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3962484158</v>
+        <v>#N/A Requesting Data...3389672690</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3438664124</v>
+        <v>#N/A Requesting Data...3426649739</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3759550535</v>
+        <v>#N/A Requesting Data...4174503280</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3831161240</v>
+        <v>#N/A Requesting Data...4051887720</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2908344501</v>
+        <v>#N/A Requesting Data...3425544373</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2131463495</v>
+        <v>#N/A Requesting Data...4123479313</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3031659913</v>
+        <v>#N/A Requesting Data...4085541022</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2563177639</v>
+        <v>#N/A Requesting Data...3417922435</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4064146843</v>
+        <v>#N/A Requesting Data...3950816768</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3317440564</v>
+        <v>#N/A Requesting Data...3368904634</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2480230832</v>
+        <v>#N/A Requesting Data...4090463591</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -995,317 +995,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2037217503</v>
+        <v>#N/A Requesting Data...3884316285</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3078902986</v>
+        <v>#N/A Requesting Data...3432688685</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4193621912</v>
+        <v>#N/A Requesting Data...3845674828</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3729757502</v>
+        <v>#N/A Requesting Data...3895857969</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2792003038</v>
+        <v>#N/A Requesting Data...3425135097</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1905926307</v>
+        <v>#N/A Requesting Data...3257688765</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1996418917</v>
+        <v>#N/A Requesting Data...3841347828</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747206514</v>
+        <v>#N/A Requesting Data...3608615287</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1893936881</v>
+        <v>#N/A Requesting Data...4058930576</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3216822942</v>
+        <v>#N/A Requesting Data...3987135330</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3083531498</v>
+        <v>#N/A Requesting Data...3340638378</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2901595866</v>
+        <v>#N/A Requesting Data...3838161713</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2478661586</v>
+        <v>#N/A Requesting Data...3485204742</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2547637410</v>
+        <v>#N/A Requesting Data...3265932039</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2154532375</v>
+        <v>#N/A Requesting Data...3667665881</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4034314732</v>
+        <v>#N/A Requesting Data...3692250694</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2371726295</v>
+        <v>#N/A Requesting Data...3414585822</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2921514214</v>
+        <v>#N/A Requesting Data...3775024836</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3692720688</v>
+        <v>#N/A Requesting Data...3744884903</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063067282</v>
+        <v>#N/A Requesting Data...3304791988</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4013342261</v>
+        <v>#N/A Requesting Data...3518823554</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2411919155</v>
+        <v>#N/A Requesting Data...3513709341</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3695582652</v>
+        <v>#N/A Requesting Data...3422017265</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1877648285</v>
+        <v>#N/A Requesting Data...3421352290</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3387948079</v>
+        <v>#N/A Requesting Data...3309716627</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2442246816</v>
+        <v>#N/A Requesting Data...4207060065</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3369520162</v>
+        <v>#N/A Requesting Data...3973363850</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3970033721</v>
+        <v>#N/A Requesting Data...4178278049</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3434966527</v>
+        <v>#N/A Requesting Data...3719110869</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3374323025</v>
+        <v>#N/A Requesting Data...3523984190</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3037319748</v>
+        <v>#N/A Requesting Data...3241781639</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3574685549</v>
+        <v>#N/A Requesting Data...4286665268</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1930739721</v>
+        <v>#N/A Requesting Data...3378680672</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1872839526</v>
+        <v>#N/A Requesting Data...3474505272</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2654544172</v>
+        <v>#N/A Requesting Data...3559541688</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2300489264</v>
+        <v>#N/A Requesting Data...3402070573</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2529417650</v>
+        <v>#N/A Requesting Data...4212776483</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3797229913</v>
+        <v>#N/A Requesting Data...3460272864</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3526838617</v>
+        <v>#N/A Requesting Data...3496213271</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2158584841</v>
+        <v>#N/A Requesting Data...4172262300</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4057660972</v>
+        <v>#N/A Requesting Data...3831573012</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2287015127</v>
+        <v>#N/A Requesting Data...4194055659</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3195108429</v>
+        <v>#N/A Requesting Data...4007067008</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3167970131</v>
+        <v>#N/A Requesting Data...3834764503</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2855957333</v>
+        <v>#N/A Requesting Data...3333724241</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3304993331</v>
+        <v>#N/A Requesting Data...4219098090</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3836610281</v>
+        <v>#N/A Requesting Data...3803292427</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2236724757</v>
+        <v>#N/A Requesting Data...3553304003</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3327773459</v>
+        <v>#N/A Requesting Data...3976546949</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1998781549</v>
+        <v>#N/A Requesting Data...3245000493</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060076441</v>
+        <v>#N/A Requesting Data...3479277440</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1314,134 +1314,132 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2162992911</v>
+        <v>#N/A Requesting Data...3935753887</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3718436637</v>
+        <v>#N/A Requesting Data...4191065018</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3220572601</v>
+        <v>#N/A Requesting Data...3842460844</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2573625985</v>
+        <v>#N/A Requesting Data...4181081628</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1984637074</v>
+        <v>#N/A Requesting Data...3949649937</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4246741162</v>
+        <v>#N/A Requesting Data...3468510577</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1950634881</v>
+        <v>#N/A Requesting Data...3632801245</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3714815619</v>
+        <v>#N/A Requesting Data...3517619389</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747853386</v>
+        <v>#N/A Requesting Data...4024027945</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3636078805</v>
+        <v>#N/A Requesting Data...3822482869</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3414516921</v>
+        <v>#N/A Requesting Data...4289379338</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4106443637</v>
+        <v>#N/A Requesting Data...3323986788</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3103845659</v>
+        <v>#N/A Requesting Data...3340913355</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Requesting Data...4011261230</v>
+      <tp t="s">
+        <v>#N/A Requesting Data...4144684070</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3512937910</v>
+        <v>#N/A Requesting Data...3895673244</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3838779548</v>
+        <v>#N/A Requesting Data...3651052240</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3213442946</v>
+        <v>#N/A Requesting Data...4291345172</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2774750285</v>
+        <v>#N/A Requesting Data...3447690023</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3313405300</v>
+        <v>#N/A Requesting Data...3795133082</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269417403</v>
+        <v>#N/A Requesting Data...4055014217</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3295659202</v>
+        <v>#N/A Requesting Data...3693290968</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1772,7 +1770,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59ED007-8941-4023-BA18-698652E71C62}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2769,7 +2767,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.605</v>
+        <v>3.6036000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2784,7 +2782,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.8254999999999999</v>
+        <v>3.8195000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2799,7 +2797,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.85</v>
+        <v>3.8494999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2829,7 +2827,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.9874999999999998</v>
+        <v>3.9875500000000001</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2844,7 +2842,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.0664999999999996</v>
+        <v>4.0662500000000001</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2859,7 +2857,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.1425000000000001</v>
+        <v>4.1390000000000002</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2874,7 +2872,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.2038000000000002</v>
+        <v>4.2039999999999997</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2889,7 +2887,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.26</v>
+        <v>4.2613000000000003</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -3222,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,11 +3420,11 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6749999999999998</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6749999999999998</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="F9" t="s">
         <v>161</v>
@@ -4222,11 +4220,11 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.899</v>
+        <v>3.8980000000000001</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.899</v>
+        <v>3.8980000000000001</v>
       </c>
       <c r="F45" t="s">
         <v>157</v>
@@ -4244,11 +4242,11 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8159999999999998</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8159999999999998</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="F46" t="s">
         <v>158</v>
@@ -4266,11 +4264,11 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6360000000000001</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6360000000000001</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="F47" t="s">
         <v>159</v>
@@ -4288,11 +4286,11 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.4910000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.4910000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="F48" t="s">
         <v>160</v>
@@ -4310,11 +4308,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.4180000000000001</v>
+        <v>3.4089999999999998</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.4180000000000001</v>
+        <v>3.4089999999999998</v>
       </c>
       <c r="F49" t="s">
         <v>162</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5189E38F-158F-4BF8-848E-82924E4574FB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -638,356 +638,356 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3117825244</v>
+        <v>#N/A Requesting Data...2364396905</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252349729</v>
+        <v>#N/A Requesting Data...3762082867</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3618130466</v>
+        <v>#N/A Requesting Data...2218034814</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3248576956</v>
+        <v>#N/A Requesting Data...2459295838</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3434697686</v>
+        <v>#N/A Requesting Data...2877851048</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263170832</v>
+        <v>#N/A Requesting Data...2259480180</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4275924971</v>
+        <v>#N/A Requesting Data...4104199016</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3419325463</v>
+        <v>#N/A Requesting Data...2135151499</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3814218326</v>
+        <v>#N/A Requesting Data...2831159414</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4111622833</v>
+        <v>#N/A Requesting Data...3623532198</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3725275338</v>
+        <v>#N/A Requesting Data...2003965263</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3402459546</v>
+        <v>#N/A Requesting Data...3118324843</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212937144</v>
+        <v>#N/A Requesting Data...3673276301</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3785141164</v>
+        <v>#N/A Requesting Data...2616155785</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D39" s="5"/>
         <tr r="E39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169862898</v>
+        <v>#N/A Requesting Data...3970963847</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4160186182</v>
+        <v>#N/A Requesting Data...3331523555</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3416800275</v>
+        <v>#N/A Requesting Data...3307891339</v>
         <stp/>
         <stp>BDP|13870423089736060710</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3471590435</v>
+        <v>#N/A Requesting Data...3539258144</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3113442004</v>
+        <v>#N/A Requesting Data...3804635726</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3420093243</v>
+        <v>#N/A Requesting Data...2465241516</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3161825150</v>
+        <v>#N/A Requesting Data...3378010892</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3244936614</v>
+        <v>#N/A Requesting Data...3607467463</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3624568188</v>
+        <v>#N/A Requesting Data...3965141789</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3985615687</v>
+        <v>#N/A Requesting Data...3507167519</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3557711477</v>
+        <v>#N/A Requesting Data...2749360671</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4165320427</v>
+        <v>#N/A Requesting Data...2473307434</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3897679747</v>
+        <v>#N/A Requesting Data...3950031561</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697412263</v>
+        <v>#N/A Requesting Data...3093943075</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3215683248</v>
+        <v>#N/A Requesting Data...3771627818</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3662269497</v>
+        <v>#N/A Requesting Data...4016218695</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4104091330</v>
+        <v>#N/A Requesting Data...2610114689</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906124854</v>
+        <v>#N/A Requesting Data...3369316642</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3463665737</v>
+        <v>#N/A Requesting Data...4263625544</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097937697</v>
+        <v>#N/A Requesting Data...3805738376</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758626894</v>
+        <v>#N/A Requesting Data...3559481727</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4208665686</v>
+        <v>#N/A Requesting Data...2723034831</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3945274793</v>
+        <v>#N/A Requesting Data...3694125957</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3994946045</v>
+        <v>#N/A Requesting Data...2167641639</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3558937327</v>
+        <v>#N/A Requesting Data...3334058080</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3329290632</v>
+        <v>#N/A Requesting Data...2882313647</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3888651685</v>
+        <v>#N/A Requesting Data...2435012359</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4041338573</v>
+        <v>#N/A Requesting Data...3567978228</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3255673010</v>
+        <v>#N/A Requesting Data...2839578776</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3764112380</v>
+        <v>#N/A Requesting Data...2055247695</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3389672690</v>
+        <v>#N/A Requesting Data...4236646519</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3426649739</v>
+        <v>#N/A Requesting Data...2763721148</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174503280</v>
+        <v>#N/A Requesting Data...2456088486</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4051887720</v>
+        <v>#N/A Requesting Data...2907130224</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3425544373</v>
+        <v>#N/A Requesting Data...4047875477</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4123479313</v>
+        <v>#N/A Requesting Data...3922549409</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4085541022</v>
+        <v>#N/A Requesting Data...2698850471</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3417922435</v>
+        <v>#N/A Requesting Data...2462482762</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950816768</v>
+        <v>#N/A Requesting Data...3999242261</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3368904634</v>
+        <v>#N/A Requesting Data...3501688515</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4090463591</v>
+        <v>#N/A Requesting Data...3712020823</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -995,317 +995,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3884316285</v>
+        <v>#N/A Requesting Data...2611054439</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3432688685</v>
+        <v>#N/A Requesting Data...2788967169</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3845674828</v>
+        <v>#N/A Requesting Data...4214987151</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3895857969</v>
+        <v>#N/A Requesting Data...2487804940</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3425135097</v>
+        <v>#N/A Requesting Data...3697467986</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3257688765</v>
+        <v>#N/A Requesting Data...3319707646</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3841347828</v>
+        <v>#N/A Requesting Data...3272922168</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3608615287</v>
+        <v>#N/A Requesting Data...3828432246</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4058930576</v>
+        <v>#N/A Requesting Data...2260214760</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3987135330</v>
+        <v>#N/A Requesting Data...2621251137</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340638378</v>
+        <v>#N/A Requesting Data...3617483143</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3838161713</v>
+        <v>#N/A Requesting Data...3288370459</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3485204742</v>
+        <v>#N/A Requesting Data...3966558863</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3265932039</v>
+        <v>#N/A Requesting Data...2230477378</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3667665881</v>
+        <v>#N/A Requesting Data...3404518458</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3692250694</v>
+        <v>#N/A Requesting Data...3723210019</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3414585822</v>
+        <v>#N/A Requesting Data...2583400182</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3775024836</v>
+        <v>#N/A Requesting Data...3141847731</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3744884903</v>
+        <v>#N/A Requesting Data...2526154690</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3304791988</v>
+        <v>#N/A Requesting Data...4206005309</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3518823554</v>
+        <v>#N/A Requesting Data...3414344535</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3513709341</v>
+        <v>#N/A Requesting Data...3321434915</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3422017265</v>
+        <v>#N/A Requesting Data...2156786037</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3421352290</v>
+        <v>#N/A Requesting Data...2790211979</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3309716627</v>
+        <v>#N/A Requesting Data...3823592131</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207060065</v>
+        <v>#N/A Requesting Data...3857568727</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973363850</v>
+        <v>#N/A Requesting Data...3933290419</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4178278049</v>
+        <v>#N/A Requesting Data...3628130923</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3719110869</v>
+        <v>#N/A Requesting Data...3245748911</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3523984190</v>
+        <v>#N/A Requesting Data...4198194521</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3241781639</v>
+        <v>#N/A Requesting Data...3817156072</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286665268</v>
+        <v>#N/A Requesting Data...2462503373</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3378680672</v>
+        <v>#N/A Requesting Data...4230104891</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3474505272</v>
+        <v>#N/A Requesting Data...2788696431</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3559541688</v>
+        <v>#N/A Requesting Data...3454027463</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3402070573</v>
+        <v>#N/A Requesting Data...3206107026</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212776483</v>
+        <v>#N/A Requesting Data...2888565637</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3460272864</v>
+        <v>#N/A Requesting Data...2722694259</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3496213271</v>
+        <v>#N/A Requesting Data...2910866608</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4172262300</v>
+        <v>#N/A Requesting Data...2439980816</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3831573012</v>
+        <v>#N/A Requesting Data...2553462563</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4194055659</v>
+        <v>#N/A Requesting Data...2263704245</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4007067008</v>
+        <v>#N/A Requesting Data...2284808606</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3834764503</v>
+        <v>#N/A Requesting Data...2106472821</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3333724241</v>
+        <v>#N/A Requesting Data...3353623309</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219098090</v>
+        <v>#N/A Requesting Data...2788916810</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3803292427</v>
+        <v>#N/A Requesting Data...4126346233</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3553304003</v>
+        <v>#N/A Requesting Data...2747915787</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3976546949</v>
+        <v>#N/A Requesting Data...4282673760</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3245000493</v>
+        <v>#N/A Requesting Data...3240995343</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3479277440</v>
+        <v>#N/A Requesting Data...3160707101</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1314,132 +1314,132 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3935753887</v>
+        <v>#N/A Requesting Data...3910267999</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191065018</v>
+        <v>#N/A Requesting Data...2961153508</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842460844</v>
+        <v>#N/A Requesting Data...3360236378</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4181081628</v>
+        <v>#N/A Requesting Data...3797030365</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3949649937</v>
+        <v>#N/A Requesting Data...3697173589</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3468510577</v>
+        <v>#N/A Requesting Data...3849816488</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3632801245</v>
+        <v>#N/A Requesting Data...2725527873</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3517619389</v>
+        <v>#N/A Requesting Data...2556334803</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4024027945</v>
+        <v>#N/A Requesting Data...2380440573</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3822482869</v>
+        <v>#N/A Requesting Data...2945813295</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289379338</v>
+        <v>#N/A Requesting Data...2137509199</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3323986788</v>
+        <v>#N/A Requesting Data...3645677724</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340913355</v>
+        <v>#N/A Requesting Data...3184682209</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4144684070</v>
+        <v>#N/A Requesting Data...2388529088</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3895673244</v>
+        <v>#N/A Requesting Data...3912481324</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3651052240</v>
+        <v>#N/A Requesting Data...2543776824</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291345172</v>
+        <v>#N/A Requesting Data...3257423241</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3447690023</v>
+        <v>#N/A Requesting Data...2338789131</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3795133082</v>
+        <v>#N/A Requesting Data...3697527669</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4055014217</v>
+        <v>#N/A Requesting Data...2586657117</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3693290968</v>
+        <v>#N/A Requesting Data...2790666692</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.3600000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.4556000000000004</v>
+        <v>4.4589999999999996</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47699999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.9841899999999999</v>
+        <v>3.8687499999999999</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7385000000000002</v>
+        <v>3.5594999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.6672500000000001</v>
+        <v>3.5121500000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.6597499999999998</v>
+        <v>3.5421299999999998</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.6736499999999999</v>
+        <v>3.5988500000000001</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.69787</v>
+        <v>3.6551999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7235299999999998</v>
+        <v>3.7064499999999998</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7483</v>
+        <v>3.7574000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.7729499999999998</v>
+        <v>3.8058000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.7980999999999998</v>
+        <v>3.8446500000000001</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.448</v>
+        <v>2.4584000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.3664999999999998</v>
+        <v>2.3759999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.3713000000000002</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.3925999999999998</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.4346000000000001</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.4964</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.5665</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.6345000000000001</v>
+        <v>2.7907000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.6989999999999998</v>
+        <v>2.8662000000000001</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.7559999999999998</v>
+        <v>2.9293</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.984</v>
+        <v>1.6990099999999999</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.9368799999999999</v>
+        <v>1.6305499999999999</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>2.0099999999999998</v>
+        <v>1.722</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.10175</v>
+        <v>1.8323499999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.18215</v>
+        <v>1.9343999999999999</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.2570000000000001</v>
+        <v>2.0278999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.3249</v>
+        <v>2.1114999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.3873000000000002</v>
+        <v>2.1871499999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.444</v>
+        <v>2.2541000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.4950999999999999</v>
+        <v>2.3091499999999998</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.181</v>
+        <v>3.851</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>4.0430000000000001</v>
+        <v>3.65571</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>4.00535</v>
+        <v>3.62635</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.9992999999999999</v>
+        <v>3.6535000000000002</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>4.0110000000000001</v>
+        <v>3.7035</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>4.0305</v>
+        <v>3.7645</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>4.0601000000000003</v>
+        <v>3.8340000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>4.0944000000000003</v>
+        <v>3.9066399999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.1319999999999997</v>
+        <v>3.97749</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.1740000000000004</v>
+        <v>4.0454800000000004</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.70599999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.86499999999999999</v>
+        <v>0.62624999999999997</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.97124999999999995</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>1.0337499999999999</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>1.086249</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.13625</v>
+        <v>0.8</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.1875</v>
+        <v>0.85375000000000001</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.24125</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.2975000000000001</v>
+        <v>0.97687500000000005</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.3587499999999999</v>
+        <v>1.0462499999999999</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.7524999999999999</v>
+        <v>3.3704999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.6036000000000001</v>
+        <v>3.1995</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.8195000000000001</v>
+        <v>3.4645000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.8494999999999999</v>
+        <v>3.5487500000000001</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.91</v>
+        <v>3.66425</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.9875500000000001</v>
+        <v>3.7374999999999998</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.0662500000000001</v>
+        <v>3.8515000000000001</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.1390000000000002</v>
+        <v>3.9525000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.2039999999999997</v>
+        <v>4.04</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.2613000000000003</v>
+        <v>4.1391999999999998</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.5752000000000002</v>
+        <v>3.5768</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.8881000000000001</v>
+        <v>4.0869</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>2.8073199999999998</v>
+        <v>2.9552299999999998</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.4494799999999999</v>
+        <v>3.7236699999999998</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.4971000000000001</v>
+        <v>2.2875999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.964</v>
+        <v>2.8426</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>4.0491000000000001</v>
+        <v>3.8068</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.4234</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.2775000000000001</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.6876</v>
+        <v>1.3963000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.9538000000000002</v>
+        <v>3.8121999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.6878000000000002</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.3820000000000001</v>
+        <v>3.1505000000000001</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.6148699999999998</v>
+        <v>2.6235300000000001</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.0977999999999999</v>
+        <v>1.792</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>4.0057999999999998</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>1.1164000000000001</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.6511</v>
+        <v>3.2595999999999998</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,11 +3332,11 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.2690000000000001</v>
+        <v>4.3079999999999998</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.2690000000000001</v>
+        <v>4.3079999999999998</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -3354,11 +3354,11 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1040000000000001</v>
+        <v>4.1769999999999996</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1040000000000001</v>
+        <v>4.1769999999999996</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -3376,11 +3376,11 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9379999999999997</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9379999999999997</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.7720000000000002</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.7720000000000002</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -3420,11 +3420,11 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6720000000000002</v>
+        <v>3.6619999999999999</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6720000000000002</v>
+        <v>3.6619999999999999</v>
       </c>
       <c r="F9" t="s">
         <v>161</v>
@@ -3508,11 +3508,11 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
-        <v>2.6720000000000002</v>
+        <v>2.677</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
-        <v>2.6720000000000002</v>
+        <v>2.677</v>
       </c>
       <c r="F13" t="s">
         <v>132</v>
@@ -3530,11 +3530,11 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.5499999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.5499999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
@@ -3552,11 +3552,11 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.448</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.448</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
@@ -3574,11 +3574,11 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.3490000000000002</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.3490000000000002</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -3596,11 +3596,11 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.3490000000000002</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.3490000000000002</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
-        <v>2.206</v>
+        <v>2.17</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
-        <v>2.206</v>
+        <v>2.17</v>
       </c>
       <c r="F21" t="s">
         <v>140</v>
@@ -3707,11 +3707,11 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>2.0449999999999999</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>2.0449999999999999</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
@@ -3729,11 +3729,11 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.962</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.962</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.8780000000000001</v>
+        <v>1.617</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.8780000000000001</v>
+        <v>1.617</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -3773,11 +3773,11 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.8780000000000001</v>
+        <v>1.617</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.8780000000000001</v>
+        <v>1.617</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
@@ -3884,11 +3884,11 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2839999999999998</v>
+        <v>4.1959999999999997</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.2839999999999998</v>
+        <v>4.1959999999999997</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
@@ -3906,11 +3906,11 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.2279999999999998</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.2279999999999998</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
@@ -3928,11 +3928,11 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1020000000000003</v>
+        <v>3.8689999999999998</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1020000000000003</v>
+        <v>3.8689999999999998</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>4.1020000000000003</v>
+        <v>3.8689999999999998</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.05</v>
+        <v>3.746</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D34" s="4" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.53600000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E34" s="4" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.53600000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>150</v>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="D35" s="4" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.61399999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E35" s="4" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.61399999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>151</v>
@@ -4018,11 +4018,11 @@
       </c>
       <c r="D36" s="4" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.69199999999999995</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="E36" s="4" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.69199999999999995</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>152</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="D37" s="4" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.70099999999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E37" s="4" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.70099999999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>153</v>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="D38" s="4" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.77300000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E38" s="4" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.77300000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>163</v>
@@ -4084,11 +4084,11 @@
       </c>
       <c r="D39" s="4" cm="1">
         <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E39" s="4" cm="1">
         <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>164</v>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="D40" s="4">
         <f>D39</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E40" s="4">
         <f>E39</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F40" s="4" t="e">
         <f>NA()</f>
@@ -4131,11 +4131,11 @@
       </c>
       <c r="D41" s="4">
         <f>D40</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E41" s="4">
         <f>E40</f>
-        <v>0.79600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F41" s="4" t="e">
         <f>NA()</f>
@@ -4198,11 +4198,11 @@
       </c>
       <c r="D44" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0659999999999998</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
-        <v>4.0659999999999998</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="F44" t="s">
         <v>156</v>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.8980000000000001</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.8980000000000001</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="F45" t="s">
         <v>157</v>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8149999999999999</v>
+        <v>3.56</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.8149999999999999</v>
+        <v>3.56</v>
       </c>
       <c r="F46" t="s">
         <v>158</v>
@@ -4264,11 +4264,11 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6280000000000001</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6280000000000001</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="F47" t="s">
         <v>159</v>
@@ -4286,11 +4286,11 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.49</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.49</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="F48" t="s">
         <v>160</v>
@@ -4308,11 +4308,11 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.4089999999999998</v>
+        <v>2.8129999999999997</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.4089999999999998</v>
+        <v>2.8129999999999997</v>
       </c>
       <c r="F49" t="s">
         <v>162</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5189E38F-158F-4BF8-848E-82924E4574FB}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11878FD0-E7DE-491B-A0EA-6882C770EFAA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
   <si>
     <t>Country_ID</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>GB0BFR SEP2025 Index</t>
-  </si>
-  <si>
-    <t>JP0BFR MAY2025 Index</t>
   </si>
   <si>
     <t>JP0BFR JUN2025 Index</t>
@@ -638,356 +635,349 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2364396905</v>
+        <v>#N/A Requesting Data...2316018647</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3762082867</v>
+        <v>#N/A Requesting Data...1624475419</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2218034814</v>
+        <v>#N/A Requesting Data...1998503823</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2459295838</v>
+        <v>#N/A Requesting Data...2869490401</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2877851048</v>
+        <v>#N/A Requesting Data...1280743279</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2259480180</v>
+        <v>#N/A Requesting Data...2121030468</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4104199016</v>
+        <v>#N/A Requesting Data...1912342772</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2135151499</v>
+        <v>#N/A Requesting Data...2047485134</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2831159414</v>
+        <v>#N/A Requesting Data...3041772100</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3623532198</v>
+        <v>#N/A Requesting Data...3025679646</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2003965263</v>
+        <v>#N/A Requesting Data...3470831104</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3118324843</v>
+        <v>#N/A Requesting Data...2329984693</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3673276301</v>
+        <v>#N/A Requesting Data...1956923106</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2616155785</v>
+        <v>#N/A Requesting Data...1719816367</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
-        <tr r="D39" s="5"/>
-        <tr r="E39" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3970963847</v>
+        <tr r="D38" s="5"/>
+        <tr r="E38" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2260505746</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3331523555</v>
+        <v>#N/A Requesting Data...3165314108</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3307891339</v>
-        <stp/>
-        <stp>BDP|13870423089736060710</stp>
-        <tr r="D34" s="5"/>
-        <tr r="E34" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3539258144</v>
+        <v>#N/A Requesting Data...1519155895</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3804635726</v>
+        <v>#N/A Requesting Data...1211355629</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2465241516</v>
+        <v>#N/A Requesting Data...3147832624</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3378010892</v>
+        <v>#N/A Requesting Data...2132698476</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3607467463</v>
+        <v>#N/A Requesting Data...3077809620</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965141789</v>
+        <v>#N/A Requesting Data...3176362029</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3507167519</v>
+        <v>#N/A Requesting Data...2114972403</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2749360671</v>
+        <v>#N/A Requesting Data...2202913297</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2473307434</v>
+        <v>#N/A Requesting Data...2613617542</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950031561</v>
+        <v>#N/A Requesting Data...2617994699</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3093943075</v>
+        <v>#N/A Requesting Data...2031538676</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3771627818</v>
+        <v>#N/A Requesting Data...2986011162</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4016218695</v>
+        <v>#N/A Requesting Data...1350576515</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2610114689</v>
+        <v>#N/A Requesting Data...3767779281</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3369316642</v>
+        <v>#N/A Requesting Data...3866615821</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263625544</v>
+        <v>#N/A Requesting Data...3366931569</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3805738376</v>
+        <v>#N/A Requesting Data...3680026591</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3559481727</v>
+        <v>#N/A Requesting Data...3310336353</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2723034831</v>
+        <v>#N/A Requesting Data...3671383084</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3694125957</v>
+        <v>#N/A Requesting Data...3645120054</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2167641639</v>
+        <v>#N/A Requesting Data...2900371753</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3334058080</v>
+        <v>#N/A Requesting Data...3249794181</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2882313647</v>
+        <v>#N/A Requesting Data...1545544021</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2435012359</v>
+        <v>#N/A Requesting Data...4292332776</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3567978228</v>
+        <v>#N/A Requesting Data...2768362116</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2839578776</v>
+        <v>#N/A Requesting Data...2936875540</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2055247695</v>
+        <v>#N/A Requesting Data...1566336892</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236646519</v>
+        <v>#N/A Requesting Data...1267241380</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2763721148</v>
+        <v>#N/A Requesting Data...3975194354</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2456088486</v>
+        <v>#N/A Requesting Data...4036303531</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2907130224</v>
+        <v>#N/A Requesting Data...4127221147</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4047875477</v>
+        <v>#N/A Requesting Data...3946271138</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922549409</v>
+        <v>#N/A Requesting Data...3984213742</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
-        <tr r="D35" s="5"/>
-        <tr r="E35" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2698850471</v>
+        <tr r="D34" s="5"/>
+        <tr r="E34" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2833801168</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2462482762</v>
+        <v>#N/A Requesting Data...1856422526</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3999242261</v>
+        <v>#N/A Requesting Data...2860223023</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3501688515</v>
+        <v>#N/A Requesting Data...3310473013</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3712020823</v>
+        <v>#N/A Requesting Data...3587495301</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -995,317 +985,317 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2611054439</v>
+        <v>#N/A Requesting Data...4147352437</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2788967169</v>
+        <v>#N/A Requesting Data...1581025330</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4214987151</v>
+        <v>#N/A Requesting Data...2466811122</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2487804940</v>
+        <v>#N/A Requesting Data...2634472547</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697467986</v>
+        <v>#N/A Requesting Data...3717326584</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3319707646</v>
+        <v>#N/A Requesting Data...2671757128</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3272922168</v>
+        <v>#N/A Requesting Data...4222907119</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3828432246</v>
+        <v>#N/A Requesting Data...3255003812</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2260214760</v>
+        <v>#N/A Requesting Data...3656944252</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2621251137</v>
+        <v>#N/A Requesting Data...3786215613</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617483143</v>
+        <v>#N/A Requesting Data...3409099128</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3288370459</v>
+        <v>#N/A Requesting Data...3188688739</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3966558863</v>
+        <v>#N/A Requesting Data...2350345157</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2230477378</v>
+        <v>#N/A Requesting Data...3124944591</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3404518458</v>
+        <v>#N/A Requesting Data...3097820614</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3723210019</v>
+        <v>#N/A Requesting Data...1344465522</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2583400182</v>
+        <v>#N/A Requesting Data...2434678767</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3141847731</v>
+        <v>#N/A Requesting Data...1634298681</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2526154690</v>
+        <v>#N/A Requesting Data...3934030535</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
-        <tr r="D37" s="5"/>
-        <tr r="E37" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4206005309</v>
+        <tr r="D36" s="5"/>
+        <tr r="E36" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3572200316</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3414344535</v>
+        <v>#N/A Requesting Data...1644304075</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3321434915</v>
+        <v>#N/A Requesting Data...4205624753</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2156786037</v>
+        <v>#N/A Requesting Data...1459090916</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2790211979</v>
+        <v>#N/A Requesting Data...3280698447</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3823592131</v>
+        <v>#N/A Requesting Data...3351235949</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3857568727</v>
+        <v>#N/A Requesting Data...3637671636</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3933290419</v>
+        <v>#N/A Requesting Data...3948082099</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3628130923</v>
+        <v>#N/A Requesting Data...2966600736</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3245748911</v>
+        <v>#N/A Requesting Data...3504998197</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4198194521</v>
+        <v>#N/A Requesting Data...1671975423</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3817156072</v>
+        <v>#N/A Requesting Data...4030401074</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2462503373</v>
+        <v>#N/A Requesting Data...1431427680</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4230104891</v>
+        <v>#N/A Requesting Data...1266755080</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2788696431</v>
+        <v>#N/A Requesting Data...3594068746</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3454027463</v>
+        <v>#N/A Requesting Data...3074061855</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3206107026</v>
+        <v>#N/A Requesting Data...4096459263</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2888565637</v>
+        <v>#N/A Requesting Data...2144088474</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2722694259</v>
+        <v>#N/A Requesting Data...3640899665</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2910866608</v>
+        <v>#N/A Requesting Data...4069232527</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2439980816</v>
+        <v>#N/A Requesting Data...1462450908</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
-        <tr r="D38" s="5"/>
-        <tr r="E38" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2553462563</v>
+        <tr r="D37" s="5"/>
+        <tr r="E37" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2772936158</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2263704245</v>
+        <v>#N/A Requesting Data...4006975492</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2284808606</v>
+        <v>#N/A Requesting Data...4012017121</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2106472821</v>
+        <v>#N/A Requesting Data...1917552451</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3353623309</v>
+        <v>#N/A Requesting Data...2161744224</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2788916810</v>
+        <v>#N/A Requesting Data...3697846788</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4126346233</v>
+        <v>#N/A Requesting Data...2662547592</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2747915787</v>
+        <v>#N/A Requesting Data...3855959564</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4282673760</v>
+        <v>#N/A Requesting Data...1642807280</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
-        <tr r="D36" s="5"/>
-        <tr r="E36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3240995343</v>
+        <tr r="D35" s="5"/>
+        <tr r="E35" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3519714265</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3160707101</v>
+        <v>#N/A Requesting Data...1747667648</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1314,132 +1304,132 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3910267999</v>
+        <v>#N/A Requesting Data...4164649567</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2961153508</v>
+        <v>#N/A Requesting Data...2975056733</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3360236378</v>
+        <v>#N/A Requesting Data...4198415369</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3797030365</v>
+        <v>#N/A Requesting Data...1297103059</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697173589</v>
+        <v>#N/A Requesting Data...1346316536</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849816488</v>
+        <v>#N/A Requesting Data...2969535510</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2725527873</v>
+        <v>#N/A Requesting Data...2603249568</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2556334803</v>
+        <v>#N/A Requesting Data...4244540502</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2380440573</v>
+        <v>#N/A Requesting Data...1347637161</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2945813295</v>
+        <v>#N/A Requesting Data...3770267829</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2137509199</v>
+        <v>#N/A Requesting Data...1502931385</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3645677724</v>
+        <v>#N/A Requesting Data...3772966815</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3184682209</v>
+        <v>#N/A Requesting Data...3539306371</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2388529088</v>
+        <v>#N/A Requesting Data...1351548608</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3912481324</v>
+        <v>#N/A Requesting Data...1482997981</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2543776824</v>
+        <v>#N/A Requesting Data...2747223300</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3257423241</v>
+        <v>#N/A Requesting Data...3071703427</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2338789131</v>
+        <v>#N/A Requesting Data...3396361361</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697527669</v>
+        <v>#N/A Requesting Data...2293648742</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2586657117</v>
+        <v>#N/A Requesting Data...2372142720</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2790666692</v>
+        <v>#N/A Requesting Data...3601363594</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
@@ -1769,17 +1759,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1801,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1812,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1845,7 +1835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1866,17 +1856,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,67 +1877,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.32</v>
+        <v>4.29</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.4169999999999998</v>
+        <v>2.1709999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.4589999999999996</v>
+        <v>4.2108999999999996</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47599999999999998</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1969,17 +1959,17 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2002,13 +1992,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.8687499999999999</v>
+        <v>4.0599299999999996</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2017,13 +2007,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.5594999999999999</v>
+        <v>3.7466900000000001</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2032,13 +2022,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.5121500000000001</v>
+        <v>3.67042</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2047,13 +2037,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.5421299999999998</v>
+        <v>3.67265</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2062,13 +2052,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.5988500000000001</v>
+        <v>3.7054499999999999</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2077,13 +2067,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.6551999999999998</v>
+        <v>3.75535</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2092,13 +2082,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7064499999999998</v>
+        <v>3.8076500000000002</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2107,13 +2097,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7574000000000001</v>
+        <v>3.8564500000000002</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2122,13 +2112,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.8058000000000001</v>
+        <v>3.9028499999999999</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2137,13 +2127,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.8446500000000001</v>
+        <v>3.9474</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2152,13 +2142,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.4584000000000001</v>
+        <v>2.5074999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2167,13 +2157,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.3759999999999999</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2182,13 +2172,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.4049999999999998</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2197,13 +2187,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.4550000000000001</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2212,13 +2202,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.5249999999999999</v>
+        <v>2.6545999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2227,13 +2217,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.6110000000000002</v>
+        <v>2.7332000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2242,13 +2232,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.7029999999999998</v>
+        <v>2.8168000000000002</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2257,13 +2247,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.7907000000000002</v>
+        <v>2.8974000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2272,13 +2262,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.8662000000000001</v>
+        <v>2.9695</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2287,13 +2277,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.9293</v>
+        <v>3.0316000000000001</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2302,13 +2292,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.6990099999999999</v>
+        <v>1.772</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2317,13 +2307,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.6305499999999999</v>
+        <v>1.76</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2332,13 +2322,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.722</v>
+        <v>1.851</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2347,13 +2337,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>1.8323499999999999</v>
+        <v>1.9519</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2362,13 +2352,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>1.9343999999999999</v>
+        <v>2.0446499999999999</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2377,13 +2367,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.0278999999999998</v>
+        <v>2.1310500000000001</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2392,13 +2382,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.1114999999999999</v>
+        <v>2.2108500000000002</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2407,13 +2397,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.1871499999999999</v>
+        <v>2.2831999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2422,13 +2412,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2541000000000002</v>
+        <v>2.3494000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2437,13 +2427,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.3091499999999998</v>
+        <v>2.4079999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2452,13 +2442,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>3.851</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2467,13 +2457,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>3.65571</v>
+        <v>3.8639999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2482,13 +2472,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.62635</v>
+        <v>3.8422499999999999</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2497,13 +2487,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.6535000000000002</v>
+        <v>3.86</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2512,13 +2502,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.7035</v>
+        <v>3.8995000000000002</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2527,13 +2517,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.7645</v>
+        <v>3.9492500000000001</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2542,13 +2532,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.8340000000000001</v>
+        <v>4.00725</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2557,13 +2547,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9066399999999999</v>
+        <v>4.0705</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2572,13 +2562,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>3.97749</v>
+        <v>4.133</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2587,13 +2577,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.0454800000000004</v>
+        <v>4.194</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2602,13 +2592,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.57999999999999996</v>
+        <v>0.60250000000000004</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2617,13 +2607,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.62624999999999997</v>
+        <v>0.71625000000000005</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2632,13 +2622,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.67249999999999999</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2647,13 +2637,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.70750000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2662,13 +2652,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.75249999999999995</v>
+        <v>0.92125000000000001</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2677,13 +2667,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.8</v>
+        <v>0.98375000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2692,13 +2682,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>0.85375000000000001</v>
+        <v>1.05125</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2707,13 +2697,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>0.91249999999999998</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2722,13 +2712,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>0.97687500000000005</v>
+        <v>1.1924999999999999</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2737,13 +2727,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.0462499999999999</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2752,13 +2742,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.3704999999999998</v>
+        <v>3.4090799999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2767,13 +2757,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.1995</v>
+        <v>3.31785</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2782,13 +2772,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.4645000000000001</v>
+        <v>3.5871</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2797,13 +2787,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.5487500000000001</v>
+        <v>3.6788099999999999</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2812,13 +2802,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.66425</v>
+        <v>3.7900999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2827,13 +2817,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.7374999999999998</v>
+        <v>3.9064999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2842,13 +2832,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>3.8515000000000001</v>
+        <v>4.0188800000000002</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2857,13 +2847,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>3.9525000000000001</v>
+        <v>4.1176500000000003</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2872,13 +2862,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.04</v>
+        <v>4.2050000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2887,7 +2877,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.1391999999999998</v>
+        <v>4.2802699999999998</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -2906,15 +2896,15 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2937,13 +2927,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.5768</v>
+        <v>3.6261000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2952,13 +2942,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.0869</v>
+        <v>4.1928999999999998</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2967,13 +2957,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>2.9552299999999998</v>
+        <v>3.0942599999999998</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2982,13 +2972,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.7236699999999998</v>
+        <v>3.7968799999999998</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2997,13 +2987,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.2875999999999999</v>
+        <v>2.3816000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3012,13 +3002,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.8426</v>
+        <v>2.9373</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3027,13 +3017,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8068</v>
+        <v>3.9889000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3042,13 +3032,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.5110000000000001</v>
+        <v>4.6003999999999996</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3057,13 +3047,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>0.88060000000000005</v>
+        <v>1.0986</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3072,13 +3062,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.3963000000000001</v>
+        <v>1.6716</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3087,13 +3077,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.8121999999999998</v>
+        <v>3.9746000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3102,7 +3092,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.7309999999999999</v>
+        <v>4.8822000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3118,17 +3108,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3139,73 +3129,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.1505000000000001</v>
+        <v>3.3005</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.6235300000000001</v>
+        <v>2.8165900000000001</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.792</v>
+        <v>1.9380999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.5880000000000001</v>
+        <v>3.8382000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.72760000000000002</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.2595999999999998</v>
+        <v>3.4817999999999998</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3220,21 +3210,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3276,7 +3266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3288,17 +3278,17 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
-        <v>4.327</v>
+        <v>4.3280000000000003</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
-        <v>4.327</v>
+        <v>4.3280000000000003</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3320,7 +3310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3332,17 +3322,17 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
-        <v>4.3079999999999998</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
-        <v>4.3079999999999998</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3354,17 +3344,17 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1769999999999996</v>
+        <v>4.3140000000000001</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.1769999999999996</v>
+        <v>4.3140000000000001</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3376,17 +3366,17 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9830000000000001</v>
+        <v>4.2530000000000001</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>3.9830000000000001</v>
+        <v>4.2530000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3398,17 +3388,17 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>3.8050000000000002</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>3.8050000000000002</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3420,17 +3410,17 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6619999999999999</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.6619999999999999</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3452,7 +3442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3474,7 +3464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3496,7 +3486,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3518,7 +3508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3530,17 +3520,17 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.61</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.61</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3552,17 +3542,17 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.4969999999999999</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.4969999999999999</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3574,17 +3564,17 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.3959999999999999</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.3959999999999999</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3596,18 +3586,18 @@
       </c>
       <c r="D17">
         <f>D16</f>
-        <v>2.3959999999999999</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="E17">
         <f>E16</f>
-        <v>2.3959999999999999</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="F17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3651,7 +3641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3673,7 +3663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3695,7 +3685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3707,17 +3697,17 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9300000000000002</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9300000000000002</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3729,17 +3719,17 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.7669999999999999</v>
+        <v>1.879</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.7669999999999999</v>
+        <v>1.879</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3751,17 +3741,17 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.617</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.617</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3773,18 +3763,18 @@
       </c>
       <c r="D25">
         <f>D24</f>
-        <v>1.617</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="E25">
         <f>E24</f>
-        <v>1.617</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="F25" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3806,7 +3796,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3828,7 +3818,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3850,7 +3840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3872,7 +3862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3884,17 +3874,17 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
-        <v>4.1959999999999997</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
-        <v>4.1959999999999997</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="F30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3906,17 +3896,17 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.0730000000000004</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.0730000000000004</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="F31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3928,17 +3918,17 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>3.8689999999999998</v>
+        <v>4.056</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>3.8689999999999998</v>
+        <v>4.056</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3951,18 +3941,18 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>3.8689999999999998</v>
+        <v>4.056</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>3.746</v>
+        <v>3.9910000000000001</v>
       </c>
       <c r="F33" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -3974,17 +3964,17 @@
       </c>
       <c r="D34" s="4" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48099999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="E34" s="4" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48099999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -3996,17 +3986,17 @@
       </c>
       <c r="D35" s="4" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E35" s="4" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -4018,17 +4008,17 @@
       </c>
       <c r="D36" s="4" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.55100000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E36" s="4" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.55100000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -4040,17 +4030,17 @@
       </c>
       <c r="D37" s="4" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.59099999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E37" s="4" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.59099999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -4062,17 +4052,17 @@
       </c>
       <c r="D38" s="4" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.61399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E38" s="4" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.61399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -4080,21 +4070,22 @@
         <v>6</v>
       </c>
       <c r="C39" s="5">
-        <v>46010</v>
-      </c>
-      <c r="D39" s="4" cm="1">
-        <f t="array" ref="D39">_xll.BDP(F39,"px_last")</f>
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="E39" s="4" cm="1">
-        <f t="array" ref="E39">_xll.BDP(F39,"px_last")</f>
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+C38+42</f>
+        <v>46002</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D39</f>
+        <v>0.65</v>
+      </c>
+      <c r="F39" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -4103,22 +4094,21 @@
       </c>
       <c r="C40" s="5">
         <f>C39+42</f>
-        <v>46052</v>
+        <v>46044</v>
       </c>
       <c r="D40" s="4">
-        <f>D39</f>
-        <v>0.61399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E40" s="4">
-        <f>E39</f>
-        <v>0.61399999999999999</v>
+        <f>D40</f>
+        <v>0.68</v>
       </c>
       <c r="F40" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -4127,22 +4117,21 @@
       </c>
       <c r="C41" s="5">
         <f>+C40+42</f>
-        <v>46094</v>
+        <v>46086</v>
       </c>
       <c r="D41" s="4">
-        <f>D40</f>
-        <v>0.61399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E41" s="4">
-        <f>E40</f>
-        <v>0.61399999999999999</v>
+        <f>D41</f>
+        <v>0.72</v>
       </c>
       <c r="F41" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4161,10 +4150,10 @@
         <v>4.3239999999999998</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4183,10 +4172,10 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4205,10 +4194,10 @@
         <v>4.0709999999999997</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4220,17 +4209,17 @@
       </c>
       <c r="D45" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
-        <v>3.7589999999999999</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
-        <v>3.7589999999999999</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4242,17 +4231,17 @@
       </c>
       <c r="D46" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.56</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.56</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4264,17 +4253,17 @@
       </c>
       <c r="D47" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.2669999999999999</v>
+        <v>3.43</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.2669999999999999</v>
+        <v>3.43</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4286,17 +4275,17 @@
       </c>
       <c r="D48" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.0379999999999998</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.0379999999999998</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4308,14 +4297,14 @@
       </c>
       <c r="D49" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>2.8129999999999997</v>
+        <v>3.1829999999999998</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>2.8129999999999997</v>
+        <v>3.1829999999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11878FD0-E7DE-491B-A0EA-6882C770EFAA}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078751BB-F21F-4B32-991E-8C6819EB67BA}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
   <si>
     <t>Country_ID</t>
   </si>
@@ -555,13 +555,133 @@
   </si>
   <si>
     <t>JP0BFR DEC2025 Index</t>
+  </si>
+  <si>
+    <t>SE0BFR JUN2025 Index</t>
+  </si>
+  <si>
+    <t>SE0BFR AUG2025 Index</t>
+  </si>
+  <si>
+    <t>SE0BFR SEP2025 Index</t>
+  </si>
+  <si>
+    <t>SE0BFR NOV2025 Index</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>SEKOIS</t>
+  </si>
+  <si>
+    <t>NOKOIS</t>
+  </si>
+  <si>
+    <t>STIB1D Index</t>
+  </si>
+  <si>
+    <t>NOWA Index</t>
+  </si>
+  <si>
+    <t>SKSWTN1 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN2 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN3 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN4 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN5 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN6 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN7 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN8 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN9 Curncy</t>
+  </si>
+  <si>
+    <t>SKSWTN10 Curncy</t>
+  </si>
+  <si>
+    <t>NKS1Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS2Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS4Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS5Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS6Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS7Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS8Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS9Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS10Y Curncy</t>
+  </si>
+  <si>
+    <t>NKS3Y curncy</t>
+  </si>
+  <si>
+    <t>SD0348FS 2Y3Y BLC Curncy</t>
+  </si>
+  <si>
+    <t>SD0348FS 5Y5Y BLC Curncy</t>
+  </si>
+  <si>
+    <t>SD0312FS 2Y3Y BLC Curncy</t>
+  </si>
+  <si>
+    <t>SD0313FS 5Y5Y BLC Curncy</t>
+  </si>
+  <si>
+    <t>SD0347FC 21M3M BLC Curncy</t>
+  </si>
+  <si>
+    <t>SD0312FC 21M3M BLC Curncy</t>
+  </si>
+  <si>
+    <t>NO0BFR JUN2025 Index</t>
+  </si>
+  <si>
+    <t>NO0BFR AUG2025 Index</t>
+  </si>
+  <si>
+    <t>NO0BFR SEP2025 Index</t>
+  </si>
+  <si>
+    <t>NO0BFR NOV2025 Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +697,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +725,55 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -600,25 +781,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,349 +845,433 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2316018647</v>
+        <v>#N/A Requesting Data...4116051317</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1624475419</v>
+        <v>#N/A Requesting Data...3811081505</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1998503823</v>
+        <v>#N/A Requesting Data...3681743520</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2869490401</v>
+        <v>#N/A Requesting Data...3684860104</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1280743279</v>
+        <v>#N/A Requesting Data...4009928748</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2121030468</v>
+        <v>#N/A Requesting Data...3906531125</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1912342772</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|11386130649106637983</stp>
+        <tr r="D59" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4200452690</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2047485134</v>
+        <v>#N/A Requesting Data...3975910891</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3041772100</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|13871096504043191898</stp>
+        <tr r="B9" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3833016720</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3025679646</v>
+        <v>#N/A Requesting Data...3779839940</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3470831104</v>
+        <v>#N/A Requesting Data...4219480175</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2329984693</v>
+        <v>#N/A Requesting Data...3707048952</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1956923106</v>
+        <v>#N/A Requesting Data...4166326722</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1719816367</v>
+        <v>#N/A Requesting Data...3869705238</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2260505746</v>
+        <v>#N/A Requesting Data...3898292512</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3165314108</v>
+        <v>#N/A Requesting Data...3962423847</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1519155895</v>
+        <v>#N/A Requesting Data...3800366298</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1211355629</v>
+        <v>#N/A Requesting Data...3837722375</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3147832624</v>
+        <v>#N/A Requesting Data...3734295915</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2132698476</v>
+        <v>#N/A Requesting Data...4242876346</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3077809620</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|17880537498901096542</stp>
+        <tr r="C14" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3746625647</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3176362029</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|12231332781916058360</stp>
+        <tr r="C72" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4023743938</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2114972403</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|13869588079434430802</stp>
+        <tr r="C16" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3907022615</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2202913297</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|12019636457207532493</stp>
+        <tr r="D52" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4139148147</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2613617542</v>
+        <v>#N/A Requesting Data...4224342732</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2617994699</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|11785014485858726384</stp>
+        <tr r="C70" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|16223409921160501246</stp>
+        <tr r="D60" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3842948727</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2031538676</v>
+        <v>#N/A Requesting Data...3754720032</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2986011162</v>
+        <v>#N/A Requesting Data...4208955940</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1350576515</v>
+        <v>#N/A Requesting Data...3786081112</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3767779281</v>
+        <v>#N/A Requesting Data...3920312073</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3866615821</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|12578146028776474412</stp>
+        <tr r="C81" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3849633172</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3366931569</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|15261231244487562713</stp>
+        <tr r="C66" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4135141179</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3680026591</v>
+        <v>#N/A Requesting Data...4289598680</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3310336353</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|11158606637492074557</stp>
+        <tr r="D51" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3868299463</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3671383084</v>
+        <v>#N/A Requesting Data...3892050395</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3645120054</v>
+        <v>#N/A Requesting Data...3943950605</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2900371753</v>
+        <v>#N/A Requesting Data...4010126655</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3249794181</v>
+        <v>#N/A Requesting Data...4071258601</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1545544021</v>
+        <v>#N/A Requesting Data...4102331391</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292332776</v>
+        <v>#N/A Requesting Data...4191589405</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2768362116</v>
+        <v>#N/A Requesting Data...3932220947</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2936875540</v>
+        <v>#N/A Requesting Data...3861500603</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1566336892</v>
+        <v>#N/A Requesting Data...3975873703</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1267241380</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|14931566239030452488</stp>
+        <tr r="C64" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3943683142</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3975194354</v>
+        <v>#N/A Requesting Data...4081202524</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4036303531</v>
+        <v>#N/A Requesting Data...4143666588</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4127221147</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|11720130691358617769</stp>
+        <tr r="D50" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4019547470</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3946271138</v>
+        <v>#N/A Requesting Data...4176461666</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3984213742</v>
+        <v>#N/A Requesting Data...4221505773</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2833801168</v>
+        <v>#N/A Requesting Data...3987353915</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1856422526</v>
+        <v>#N/A Requesting Data...3893426701</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2860223023</v>
+        <v>#N/A Requesting Data...3786137129</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3310473013</v>
+        <v>#N/A Requesting Data...4254361504</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3587495301</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|16768894010998168234</stp>
+        <tr r="C78" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4228517414</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -985,317 +1279,395 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4147352437</v>
+        <v>#N/A Requesting Data...3874328867</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1581025330</v>
+        <v>#N/A Requesting Data...3844745788</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2466811122</v>
+        <v>#N/A Requesting Data...3904626165</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2634472547</v>
+        <v>#N/A Requesting Data...3808829636</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3717326584</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|8921779427646662792</stp>
+        <tr r="C63" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3815331561</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2671757128</v>
+        <v>#N/A Requesting Data...4141950530</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4222907119</v>
+        <v>#N/A Requesting Data...4075210444</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3255003812</v>
+        <v>#N/A Requesting Data...3922660947</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3656944252</v>
+        <v>#N/A Requesting Data...4122333946</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3786215613</v>
+        <v>#N/A Requesting Data...4009623268</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3409099128</v>
+        <v>#N/A Requesting Data...4217309732</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3188688739</v>
+        <v>#N/A Requesting Data...3984105944</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2350345157</v>
+        <v>#N/A Requesting Data...3831012105</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3124944591</v>
+        <v>#N/A Requesting Data...4174479928</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3097820614</v>
+        <v>#N/A Requesting Data...3945310718</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1344465522</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|1228635045269913210</stp>
+        <tr r="D58" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4092658881</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2434678767</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|8582355928430667071</stp>
+        <tr r="C15" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4025346250</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1634298681</v>
+        <v>#N/A Requesting Data...4073935078</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3934030535</v>
+        <v>#N/A Requesting Data...3989548364</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572200316</v>
+        <v>#N/A Requesting Data...3983626597</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1644304075</v>
+        <v>#N/A Requesting Data...4093972753</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205624753</v>
+        <v>#N/A Requesting Data...3949548634</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1459090916</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|8747495145653745050</stp>
+        <tr r="C68" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|1293585490094706218</stp>
+        <tr r="C76" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|7000625624158715023</stp>
+        <tr r="C65" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3972615043</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3280698447</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|4043002694661424764</stp>
+        <tr r="C80" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3917692301</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3351235949</v>
+        <v>#N/A Requesting Data...3872261375</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3637671636</v>
+        <v>#N/A Requesting Data...3909390939</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3948082099</v>
+        <v>#N/A Requesting Data...4291000810</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2966600736</v>
+        <v>#N/A Requesting Data...4139826941</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3504998197</v>
+        <v>#N/A Requesting Data...3889586583</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1671975423</v>
+        <v>#N/A Requesting Data...4080010622</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4030401074</v>
+        <v>#N/A Requesting Data...4203145581</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1431427680</v>
+        <v>#N/A Requesting Data...4101319738</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1266755080</v>
+        <v>#N/A Requesting Data...4155914467</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3594068746</v>
+        <v>#N/A Requesting Data...3864904875</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3074061855</v>
+        <v>#N/A Requesting Data...3957593133</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4096459263</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|9451317392726401317</stp>
+        <tr r="C62" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3978551796</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2144088474</v>
+        <v>#N/A Requesting Data...3989786885</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3640899665</v>
+        <v>#N/A Requesting Data...4286681121</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4069232527</v>
+        <v>#N/A Requesting Data...4196208773</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1462450908</v>
+        <v>#N/A Requesting Data...4292100305</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2772936158</v>
+        <v>#N/A Requesting Data...3888638854</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4006975492</v>
+        <v>#N/A Requesting Data...3952477441</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4012017121</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|2495735351850072786</stp>
+        <tr r="B9" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3899665264</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917552451</v>
+        <v>#N/A Requesting Data...4161298711</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2161744224</v>
+        <v>#N/A Requesting Data...3980321408</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697846788</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|1112019130066735499</stp>
+        <tr r="C69" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3934423191</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2662547592</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|5904043058468966806</stp>
+        <tr r="B8" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4213786091</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3855959564</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|3606548583877679962</stp>
+        <tr r="C75" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4148558078</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1642807280</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|1388314034007359610</stp>
+        <tr r="C17" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4290596872</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3519714265</v>
+        <v>#N/A Requesting Data...4167779526</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1747667648</v>
+        <v>#N/A Requesting Data...4233523816</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1304,136 +1676,190 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4164649567</v>
+        <v>#N/A Requesting Data...4144407344</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2975056733</v>
+        <v>#N/A Requesting Data...4205037106</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4198415369</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|3478533777803090302</stp>
+        <tr r="D53" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3969138546</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1297103059</v>
+        <v>#N/A Requesting Data...4087061882</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1346316536</v>
+        <v>#N/A Requesting Data...3990766199</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2969535510</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|5596311615892120727</stp>
+        <tr r="C71" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4209361757</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2603249568</v>
+        <v>#N/A Requesting Data...4072821021</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4244540502</v>
+        <v>#N/A Requesting Data...4258766762</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1347637161</v>
+        <v>#N/A Requesting Data...4039191291</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3770267829</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|4548559138812342366</stp>
+        <tr r="C74" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|2937347805593295188</stp>
+        <tr r="B8" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3951131322</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1502931385</v>
+        <v>#N/A Requesting Data...3961588372</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3772966815</v>
+        <v>#N/A Requesting Data...4166952655</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3539306371</v>
+        <v>#N/A Requesting Data...3960242880</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1351548608</v>
+        <v>#N/A Requesting Data...4101831033</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1482997981</v>
+        <v>#N/A Requesting Data...4259958613</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2747223300</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|698640909269571851</stp>
+        <tr r="C67" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4201012237</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3071703427</v>
+        <v>#N/A Requesting Data...4210760447</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3396361361</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|769230224156311022</stp>
+        <tr r="D61" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4253675707</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2293648742</v>
+        <v>#N/A Requesting Data...4145808945</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2372142720</v>
+        <v>#N/A Requesting Data...3969308272</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3601363594</v>
+        <v>#N/A Requesting Data...4205002920</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|831042661121373939</stp>
+        <tr r="C79" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|259036188629559998</stp>
+        <tr r="C77" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|220174318258124269</stp>
+        <tr r="C73" s="3"/>
       </tp>
     </main>
   </volType>
@@ -1757,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1846,6 +2272,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1853,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992270A5-B610-400C-B523-89B3353E85B2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,6 +2397,30 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">_xll.BDP(C8,"PX_LAST")</f>
+        <v>2.246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">_xll.BDP(C9,"PX_LAST")</f>
+        <v>4.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1956,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59ED007-8941-4023-BA18-698652E71C62}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1992,7 +2464,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.0599299999999996</v>
+        <v>4.0661300000000002</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2007,7 +2479,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7466900000000001</v>
+        <v>3.7558600000000002</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2022,7 +2494,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.67042</v>
+        <v>3.68045</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2037,7 +2509,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.67265</v>
+        <v>3.6844000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2052,7 +2524,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.7054499999999999</v>
+        <v>3.71827</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2067,7 +2539,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.75535</v>
+        <v>3.7686199999999999</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2082,7 +2554,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8076500000000002</v>
+        <v>3.82125</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2097,7 +2569,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.8564500000000002</v>
+        <v>3.8702399999999999</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2112,7 +2584,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.9028499999999999</v>
+        <v>3.9169</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2127,7 +2599,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.9474</v>
+        <v>3.9617</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2592,7 +3064,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.60250000000000004</v>
+        <v>0.60234500000000002</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -2622,7 +3094,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.79500000000000004</v>
+        <v>0.79499500000000001</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2637,7 +3109,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.86</v>
+        <v>0.85624999999999996</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -2652,7 +3124,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.92125000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -2667,7 +3139,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.98375000000000001</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -2682,7 +3154,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.05125</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2697,7 +3169,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.1200000000000001</v>
+        <v>1.1174999999999999</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2727,7 +3199,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.2675000000000001</v>
+        <v>1.268745</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -2742,7 +3214,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.4090799999999999</v>
+        <v>3.4157299999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -2757,7 +3229,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.31785</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -2772,7 +3244,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.5871</v>
+        <v>3.6051000000000002</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -2787,7 +3259,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.6788099999999999</v>
+        <v>3.6979299999999999</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -2802,7 +3274,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.7900999999999998</v>
+        <v>3.8104300000000002</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2817,7 +3289,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.9064999999999999</v>
+        <v>3.93</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -2832,7 +3304,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.0188800000000002</v>
+        <v>4.0425000000000004</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -2847,7 +3319,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.1176500000000003</v>
+        <v>4.141</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -2862,7 +3334,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.2050000000000001</v>
+        <v>4.2285000000000004</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -2877,10 +3349,310 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.2802699999999998</v>
+        <v>4.3054800000000002</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" cm="1">
+        <f t="array" ref="C62">_xll.BDP(D62,"px_last")</f>
+        <v>2.012</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" cm="1">
+        <f t="array" ref="C63">_xll.BDP(D63,"px_last")</f>
+        <v>2.012</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" cm="1">
+        <f t="array" ref="C64">_xll.BDP(D64,"px_last")</f>
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" cm="1">
+        <f t="array" ref="C65">_xll.BDP(D65,"px_last")</f>
+        <v>2.1713</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" cm="1">
+        <f t="array" ref="C66">_xll.BDP(D66,"px_last")</f>
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" cm="1">
+        <f t="array" ref="C67">_xll.BDP(D67,"px_last")</f>
+        <v>2.335</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" cm="1">
+        <f t="array" ref="C68">_xll.BDP(D68,"px_last")</f>
+        <v>2.4089499999999999</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" cm="1">
+        <f t="array" ref="C69">_xll.BDP(D69,"px_last")</f>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" cm="1">
+        <f t="array" ref="C70">_xll.BDP(D70,"px_last")</f>
+        <v>2.52765</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" cm="1">
+        <f t="array" ref="C71">_xll.BDP(D71,"px_last")</f>
+        <v>2.57355</v>
+      </c>
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" cm="1">
+        <f t="array" ref="C72">_xll.BDP(D72,"px_last")</f>
+        <v>4.2590000000000003</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" cm="1">
+        <f t="array" ref="C73">_xll.BDP(D73,"px_last")</f>
+        <v>3.9565000000000001</v>
+      </c>
+      <c r="D73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" cm="1">
+        <f t="array" ref="C74">_xll.BDP(D74,"px_last")</f>
+        <v>3.8488000000000002</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" cm="1">
+        <f t="array" ref="C75">_xll.BDP(D75,"px_last")</f>
+        <v>3.7925</v>
+      </c>
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" cm="1">
+        <f t="array" ref="C76">_xll.BDP(D76,"px_last")</f>
+        <v>3.7683499999999999</v>
+      </c>
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" cm="1">
+        <f t="array" ref="C77">_xll.BDP(D77,"px_last")</f>
+        <v>3.76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" cm="1">
+        <f t="array" ref="C78">_xll.BDP(D78,"px_last")</f>
+        <v>3.76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" cm="1">
+        <f t="array" ref="C79">_xll.BDP(D79,"px_last")</f>
+        <v>3.76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" cm="1">
+        <f t="array" ref="C80">_xll.BDP(D80,"px_last")</f>
+        <v>3.76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" cm="1">
+        <f t="array" ref="C81">_xll.BDP(D81,"px_last")</f>
+        <v>3.7570000000000001</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2890,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE34D6BF-AAFB-495B-A8B4-E2034395BF7C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2927,7 +3699,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6261000000000001</v>
+        <v>3.6442999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2942,7 +3714,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.1928999999999998</v>
+        <v>4.2064000000000004</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -2987,7 +3759,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.3816000000000002</v>
+        <v>2.379</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3047,7 +3819,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.0986</v>
+        <v>1.1007</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3062,7 +3834,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.6716</v>
+        <v>1.6779999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3077,7 +3849,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.9746000000000001</v>
+        <v>4.0004</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3092,10 +3864,70 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.8822000000000001</v>
+        <v>4.9123000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
+        <v>2.6457000000000002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
+        <v>3.1507000000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
+        <v>3.8482699999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
+        <v>4.1087899999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3105,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9DAF2F-926A-4013-B7CC-3545FD151A73}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,7 +3967,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.3005</v>
+        <v>3.3067000000000002</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3159,7 +3991,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.9380999999999999</v>
+        <v>1.9431</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -3183,7 +4015,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.91269999999999996</v>
+        <v>0.91279999999999994</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3195,10 +4027,34 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.4817999999999998</v>
+        <v>3.5038</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">_xll.BDP(C8,"px_last")</f>
+        <v>2.3626499999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">_xll.BDP(C9,"px_last")</f>
+        <v>3.7989600000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3208,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3220,8 +4076,9 @@
     <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3245,1066 +4102,1428 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>45644</v>
       </c>
-      <c r="D2" cm="1">
+      <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">_xll.BDP(F2,"px_last")</f>
         <v>4.3360000000000003</v>
       </c>
-      <c r="E2" cm="1">
+      <c r="E2" s="9" cm="1">
         <f t="array" ref="E2">_xll.BDP(F2,"px_last")</f>
         <v>4.3360000000000003</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>45686</v>
       </c>
-      <c r="D3" cm="1">
+      <c r="D3" s="9" cm="1">
         <f t="array" ref="D3">_xll.BDP(F3,"px_last")</f>
         <v>4.3280000000000003</v>
       </c>
-      <c r="E3" cm="1">
+      <c r="E3" s="9" cm="1">
         <f t="array" ref="E3">_xll.BDP(F3,"px_last")</f>
         <v>4.3280000000000003</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>45735</v>
       </c>
-      <c r="D4" cm="1">
+      <c r="D4" s="9" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
         <v>4.327</v>
       </c>
-      <c r="E4" cm="1">
+      <c r="E4" s="9" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
         <v>4.327</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>45784</v>
       </c>
-      <c r="D5" cm="1">
+      <c r="D5" s="9" cm="1">
         <f t="array" ref="D5">_xll.BDP(F5,"px_last")</f>
         <v>4.3250000000000002</v>
       </c>
-      <c r="E5" cm="1">
+      <c r="E5" s="9" cm="1">
         <f t="array" ref="E5">_xll.BDP(F5,"px_last")</f>
         <v>4.3250000000000002</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>45826</v>
       </c>
-      <c r="D6" cm="1">
+      <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
         <v>4.3140000000000001</v>
       </c>
-      <c r="E6" cm="1">
+      <c r="E6" s="9" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
         <v>4.3140000000000001</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>45868</v>
       </c>
-      <c r="D7" cm="1">
+      <c r="D7" s="9" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
         <v>4.2530000000000001</v>
       </c>
-      <c r="E7" cm="1">
+      <c r="E7" s="9" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
         <v>4.2530000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>45917</v>
       </c>
-      <c r="D8" cm="1">
+      <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="E8" cm="1">
+        <v>4.1150000000000002</v>
+      </c>
+      <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="F8" t="s">
+        <v>4.1150000000000002</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>45959</v>
       </c>
-      <c r="D9" cm="1">
+      <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9729999999999999</v>
-      </c>
-      <c r="E9" cm="1">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="E9" s="9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9729999999999999</v>
-      </c>
-      <c r="F9" t="s">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>45637</v>
       </c>
-      <c r="D10" cm="1">
+      <c r="D10" s="10" cm="1">
         <f t="array" ref="D10">_xll.BDP(F10,"px_last")</f>
         <v>3.3370000000000002</v>
       </c>
-      <c r="E10" cm="1">
+      <c r="E10" s="10" cm="1">
         <f t="array" ref="E10">_xll.BDP(F10,"px_last")</f>
         <v>3.3370000000000002</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>45686</v>
       </c>
-      <c r="D11" cm="1">
+      <c r="D11" s="10" cm="1">
         <f t="array" ref="D11">_xll.BDP(F11,"px_last")</f>
         <v>3.0579999999999998</v>
       </c>
-      <c r="E11" cm="1">
+      <c r="E11" s="10" cm="1">
         <f t="array" ref="E11">_xll.BDP(F11,"px_last")</f>
         <v>3.0579999999999998</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>45728</v>
       </c>
-      <c r="D12" cm="1">
+      <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_xll.BDP(F12,"px_last")</f>
         <v>2.7589999999999999</v>
       </c>
-      <c r="E12" cm="1">
+      <c r="E12" s="10" cm="1">
         <f t="array" ref="E12">_xll.BDP(F12,"px_last")</f>
         <v>2.7589999999999999</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>45763</v>
       </c>
-      <c r="D13" cm="1">
+      <c r="D13" s="10" cm="1">
         <f t="array" ref="D13">_xll.BDP(F13,"px_last")</f>
         <v>2.677</v>
       </c>
-      <c r="E13" cm="1">
+      <c r="E13" s="10" cm="1">
         <f t="array" ref="E13">_xll.BDP(F13,"px_last")</f>
         <v>2.677</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>45812</v>
       </c>
-      <c r="D14" cm="1">
+      <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
         <v>2.6790000000000003</v>
       </c>
-      <c r="E14" cm="1">
+      <c r="E14" s="10" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
         <v>2.6790000000000003</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>45868</v>
       </c>
-      <c r="D15" cm="1">
+      <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
         <v>2.5640000000000001</v>
       </c>
-      <c r="E15" cm="1">
+      <c r="E15" s="10" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
         <v>2.5640000000000001</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>45917</v>
       </c>
-      <c r="D16" cm="1">
+      <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
         <v>2.4689999999999999</v>
       </c>
-      <c r="E16" cm="1">
+      <c r="E16" s="10" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
         <v>2.4689999999999999</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>45959</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <f>D16</f>
         <v>2.4689999999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="10">
         <f>E16</f>
         <v>2.4689999999999999</v>
       </c>
-      <c r="F17" t="e">
+      <c r="F17" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>45638</v>
       </c>
-      <c r="D18" cm="1">
+      <c r="D18" s="11" cm="1">
         <f t="array" ref="D18">_xll.BDP(F18,"px_last")</f>
         <v>2.8970000000000002</v>
       </c>
-      <c r="E18" cm="1">
+      <c r="E18" s="11" cm="1">
         <f t="array" ref="E18">_xll.BDP(F18,"px_last")</f>
         <v>2.8970000000000002</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="11">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>45687</v>
       </c>
-      <c r="D19" cm="1">
+      <c r="D19" s="11" cm="1">
         <f t="array" ref="D19">_xll.BDP(F19,"px_last")</f>
         <v>2.6680000000000001</v>
       </c>
-      <c r="E19" cm="1">
+      <c r="E19" s="11" cm="1">
         <f t="array" ref="E19">_xll.BDP(F19,"px_last")</f>
         <v>2.6680000000000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>45722</v>
       </c>
-      <c r="D20" cm="1">
+      <c r="D20" s="11" cm="1">
         <f t="array" ref="D20">_xll.BDP(F20,"px_last")</f>
         <v>2.415</v>
       </c>
-      <c r="E20" cm="1">
+      <c r="E20" s="11" cm="1">
         <f t="array" ref="E20">_xll.BDP(F20,"px_last")</f>
         <v>2.415</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>45764</v>
       </c>
-      <c r="D21" cm="1">
+      <c r="D21" s="11" cm="1">
         <f t="array" ref="D21">_xll.BDP(F21,"px_last")</f>
         <v>2.17</v>
       </c>
-      <c r="E21" cm="1">
+      <c r="E21" s="11" cm="1">
         <f t="array" ref="E21">_xll.BDP(F21,"px_last")</f>
         <v>2.17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="11">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="11">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>45813</v>
       </c>
-      <c r="D22" cm="1">
+      <c r="D22" s="11" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
         <v>1.9379999999999999</v>
       </c>
-      <c r="E22" cm="1">
+      <c r="E22" s="11" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
         <v>1.9379999999999999</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="11">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>45862</v>
       </c>
-      <c r="D23" cm="1">
+      <c r="D23" s="11" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
         <v>1.879</v>
       </c>
-      <c r="E23" cm="1">
+      <c r="E23" s="11" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
         <v>1.879</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>45911</v>
       </c>
-      <c r="D24" cm="1">
+      <c r="D24" s="11" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
         <v>1.7450000000000001</v>
       </c>
-      <c r="E24" cm="1">
+      <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
         <v>1.7450000000000001</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>8</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>45953</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>D24</f>
         <v>1.7450000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>E24</f>
         <v>1.7450000000000001</v>
       </c>
-      <c r="F25" t="e">
+      <c r="F25" s="11" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>4</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>45645</v>
       </c>
-      <c r="D26" cm="1">
+      <c r="D26" s="12" cm="1">
         <f t="array" ref="D26">_xll.BDP(F26,"px_last")</f>
         <v>4.6980000000000004</v>
       </c>
-      <c r="E26" cm="1">
+      <c r="E26" s="12" cm="1">
         <f t="array" ref="E26">_xll.BDP(F26,"px_last")</f>
         <v>4.6980000000000004</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>45694</v>
       </c>
-      <c r="D27" cm="1">
+      <c r="D27" s="12" cm="1">
         <f t="array" ref="D27">_xll.BDP(F26,"px_last")</f>
         <v>4.6980000000000004</v>
       </c>
-      <c r="E27" cm="1">
+      <c r="E27" s="12" cm="1">
         <f t="array" ref="E27">_xll.BDP(F26,"px_last")</f>
         <v>4.6980000000000004</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="12">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>45736</v>
       </c>
-      <c r="D28" cm="1">
+      <c r="D28" s="12" cm="1">
         <f t="array" ref="D28">_xll.BDP(F27,"px_last")</f>
         <v>4.4569999999999999</v>
       </c>
-      <c r="E28" cm="1">
+      <c r="E28" s="12" cm="1">
         <f t="array" ref="E28">_xll.BDP(F27,"px_last")</f>
         <v>4.4569999999999999</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>45785</v>
       </c>
-      <c r="D29" cm="1">
+      <c r="D29" s="12" cm="1">
         <f t="array" ref="D29">_xll.BDP(F28,"px_last")</f>
         <v>4.452</v>
       </c>
-      <c r="E29" cm="1">
+      <c r="E29" s="12" cm="1">
         <f t="array" ref="E29">_xll.BDP(F28,"px_last")</f>
         <v>4.452</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="A30" s="12">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="12">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>45827</v>
       </c>
-      <c r="D30" cm="1">
+      <c r="D30" s="12" cm="1">
         <f t="array" ref="D30">_xll.BDP(F29,"px_last")</f>
         <v>4.1970000000000001</v>
       </c>
-      <c r="E30" cm="1">
+      <c r="E30" s="12" cm="1">
         <f t="array" ref="E30">_xll.BDP(F29,"px_last")</f>
         <v>4.1970000000000001</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>6</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>45876</v>
       </c>
-      <c r="D31" cm="1">
+      <c r="D31" s="12" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
         <v>4.1920000000000002</v>
       </c>
-      <c r="E31" cm="1">
+      <c r="E31" s="12" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
         <v>4.1920000000000002</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="12">
         <v>7</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>45918</v>
       </c>
-      <c r="D32" cm="1">
+      <c r="D32" s="12" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
         <v>4.056</v>
       </c>
-      <c r="E32" cm="1">
+      <c r="E32" s="12" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
         <v>4.056</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="12">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f>C32+42</f>
         <v>45960</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="12">
         <f>D32</f>
         <v>4.056</v>
       </c>
-      <c r="E33" cm="1">
+      <c r="E33" s="12" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
         <v>3.9910000000000001</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F33" s="12" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>45778</v>
       </c>
-      <c r="D34" s="4" cm="1">
+      <c r="D34" s="3" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
         <v>0.48</v>
       </c>
-      <c r="E34" s="4" cm="1">
+      <c r="E34" s="3" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
         <v>0.48</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>5</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>45825</v>
       </c>
-      <c r="D35" s="4" cm="1">
+      <c r="D35" s="3" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
         <v>0.50600000000000001</v>
       </c>
-      <c r="E35" s="4" cm="1">
+      <c r="E35" s="3" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
         <v>0.50600000000000001</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>45869</v>
       </c>
-      <c r="D36" s="4" cm="1">
+      <c r="D36" s="3" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="E36" s="4" cm="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E36" s="3" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>45919</v>
       </c>
-      <c r="D37" s="4" cm="1">
+      <c r="D37" s="3" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="E37" s="4" cm="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E37" s="3" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="F37" s="4" t="s">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>45960</v>
       </c>
-      <c r="D38" s="4" cm="1">
+      <c r="D38" s="3" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.65</v>
-      </c>
-      <c r="E38" s="4" cm="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E38" s="3" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.65</v>
-      </c>
-      <c r="F38" s="4" t="s">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>5</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>6</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f>+C38+42</f>
         <v>46002</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.65</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f>D39</f>
         <v>0.65</v>
       </c>
-      <c r="F39" s="4" t="e">
+      <c r="F39" s="3" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>5</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>7</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f>C39+42</f>
         <v>46044</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>0.68</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f>D40</f>
         <v>0.68</v>
       </c>
-      <c r="F40" s="4" t="e">
+      <c r="F40" s="3" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>8</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f>+C40+42</f>
         <v>46086</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>0.72</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <f>D41</f>
         <v>0.72</v>
       </c>
-      <c r="F41" s="4" t="e">
+      <c r="F41" s="3" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>6</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>45636</v>
       </c>
-      <c r="D42" cm="1">
+      <c r="D42" s="6" cm="1">
         <f t="array" ref="D42">_xll.BDP(F42,"px_last")</f>
         <v>4.3239999999999998</v>
       </c>
-      <c r="E42" cm="1">
+      <c r="E42" s="6" cm="1">
         <f t="array" ref="E42">_xll.BDP(F42,"px_last")</f>
         <v>4.3239999999999998</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
         <v>6</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>45706</v>
       </c>
-      <c r="D43" cm="1">
+      <c r="D43" s="6" cm="1">
         <f t="array" ref="D43">_xll.BDP(F43,"px_last")</f>
         <v>4.1180000000000003</v>
       </c>
-      <c r="E43" cm="1">
+      <c r="E43" s="6" cm="1">
         <f t="array" ref="E43">_xll.BDP(F43,"px_last")</f>
         <v>4.1180000000000003</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>6</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>3</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>45748</v>
       </c>
-      <c r="D44" cm="1">
+      <c r="D44" s="6" cm="1">
         <f t="array" ref="D44">_xll.BDP(F44,"px_last")</f>
         <v>4.0709999999999997</v>
       </c>
-      <c r="E44" cm="1">
+      <c r="E44" s="6" cm="1">
         <f t="array" ref="E44">_xll.BDP(F44,"px_last")</f>
         <v>4.0709999999999997</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>4</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>45797</v>
       </c>
-      <c r="D45" cm="1">
+      <c r="D45" s="6" cm="1">
         <f t="array" ref="D45">_xll.BDP(F45,"px_last")</f>
         <v>3.8380000000000001</v>
       </c>
-      <c r="E45" cm="1">
+      <c r="E45" s="6" cm="1">
         <f t="array" ref="E45">_xll.BDP(F45,"px_last")</f>
         <v>3.8380000000000001</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>5</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>45846</v>
       </c>
-      <c r="D46" cm="1">
+      <c r="D46" s="6" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
         <v>3.6680000000000001</v>
       </c>
-      <c r="E46" cm="1">
+      <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
         <v>3.6680000000000001</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>6</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>45881</v>
       </c>
-      <c r="D47" cm="1">
+      <c r="D47" s="6" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.43</v>
-      </c>
-      <c r="E47" cm="1">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.43</v>
-      </c>
-      <c r="F47" t="s">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>7</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>45930</v>
       </c>
-      <c r="D48" cm="1">
+      <c r="D48" s="6" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="E48" cm="1">
+        <v>3.347</v>
+      </c>
+      <c r="E48" s="6" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="F48" t="s">
+        <v>3.347</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>8</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>45965</v>
       </c>
-      <c r="D49" cm="1">
+      <c r="D49" s="6" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="E49" cm="1">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="F49" t="s">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>161</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45826</v>
+      </c>
+      <c r="D50" s="7" cm="1">
+        <f t="array" ref="D50">_xll.BDP(F50,"px_last")</f>
+        <v>2.14</v>
+      </c>
+      <c r="E50" s="7">
+        <f>D50</f>
+        <v>2.14</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45889</v>
+      </c>
+      <c r="D51" s="7" cm="1">
+        <f t="array" ref="D51">_xll.BDP(F51,"px_last")</f>
+        <v>2.028</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" ref="E51:E65" si="0">D51</f>
+        <v>2.028</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45923</v>
+      </c>
+      <c r="D52" s="7" cm="1">
+        <f t="array" ref="D52">_xll.BDP(F52,"px_last")</f>
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45966</v>
+      </c>
+      <c r="D53" s="7" cm="1">
+        <f t="array" ref="D53">_xll.BDP(F53,"px_last")</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4">
+        <f>C53+42</f>
+        <v>46008</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="F54" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4">
+        <f>+C54+42</f>
+        <v>46050</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="F55" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4">
+        <f>+C55+42</f>
+        <v>46092</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="0"/>
+        <v>1.94</v>
+      </c>
+      <c r="F56" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4">
+        <f>+C56+42</f>
+        <v>46134</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F57" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
+        <v>8</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45827</v>
+      </c>
+      <c r="D58" s="8" cm="1">
+        <f t="array" ref="D58">_xll.BDP(F58,"px_last")</f>
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
+        <v>8</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45883</v>
+      </c>
+      <c r="D59" s="8" cm="1">
+        <f t="array" ref="D59">_xll.BDP(F59,"px_last")</f>
+        <v>4.601</v>
+      </c>
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>4.601</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>8</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45918</v>
+      </c>
+      <c r="D60" s="8" cm="1">
+        <f t="array" ref="D60">_xll.BDP(F60,"px_last")</f>
+        <v>4.2590000000000003</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2590000000000003</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
+        <v>8</v>
+      </c>
+      <c r="B61" s="8">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4">
+        <v>45967</v>
+      </c>
+      <c r="D61" s="8" cm="1">
+        <f t="array" ref="D61">_xll.BDP(F61,"px_last")</f>
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
+        <v>8</v>
+      </c>
+      <c r="B62" s="8">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4">
+        <f>+C61+42</f>
+        <v>46009</v>
+      </c>
+      <c r="D62" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F62" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
+        <v>8</v>
+      </c>
+      <c r="B63" s="8">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4">
+        <f>+C62+42</f>
+        <v>46051</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="F63" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
+        <v>8</v>
+      </c>
+      <c r="B64" s="8">
+        <v>7</v>
+      </c>
+      <c r="C64" s="4">
+        <f>+C63+42</f>
+        <v>46093</v>
+      </c>
+      <c r="D64" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>3.92</v>
+      </c>
+      <c r="F64" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
+        <v>8</v>
+      </c>
+      <c r="B65" s="8">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4">
+        <f>+C64+42</f>
+        <v>46135</v>
+      </c>
+      <c r="D65" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="F65" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078751BB-F21F-4B32-991E-8C6819EB67BA}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9981F660-C42E-4076-8116-28476F303F27}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -845,433 +845,433 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4116051317</v>
+        <v>#N/A Requesting Data...529496946</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3811081505</v>
+        <v>#N/A Requesting Data...3383064467</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3681743520</v>
+        <v>#N/A Requesting Data...4002704340</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3684860104</v>
+        <v>#N/A Requesting Data...2165580514</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009928748</v>
+        <v>#N/A Requesting Data...2988212259</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906531125</v>
+        <v>#N/A Requesting Data...4205777891</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1792311589</v>
         <stp/>
         <stp>BDP|11386130649106637983</stp>
         <tr r="D59" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4200452690</v>
+        <v>#N/A Requesting Data...3097236435</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3975910891</v>
+        <v>#N/A Requesting Data...2494703088</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1119562330</v>
         <stp/>
         <stp>BDP|13871096504043191898</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3833016720</v>
+        <v>#N/A Requesting Data...1256064705</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779839940</v>
+        <v>#N/A Requesting Data...3129422565</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219480175</v>
+        <v>#N/A Requesting Data...2220998991</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3707048952</v>
+        <v>#N/A Requesting Data...1963175841</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4166326722</v>
+        <v>#N/A Requesting Data...892938973</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3869705238</v>
+        <v>#N/A Requesting Data...4193381322</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3898292512</v>
+        <v>#N/A Requesting Data...1205078908</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3962423847</v>
+        <v>#N/A Requesting Data...3865552164</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3800366298</v>
+        <v>#N/A Requesting Data...397682069</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3837722375</v>
+        <v>#N/A Requesting Data...4043135535</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3734295915</v>
+        <v>#N/A Requesting Data...3477152025</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4242876346</v>
+        <v>#N/A Requesting Data...4191751679</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1564279291</v>
         <stp/>
         <stp>BDP|17880537498901096542</stp>
         <tr r="C14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3746625647</v>
+        <v>#N/A Requesting Data...3396565329</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4243625879</v>
         <stp/>
         <stp>BDP|12231332781916058360</stp>
         <tr r="C72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4023743938</v>
+        <v>#N/A Requesting Data...3784976354</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1132645575</v>
         <stp/>
         <stp>BDP|13869588079434430802</stp>
         <tr r="C16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3907022615</v>
+        <v>#N/A Requesting Data...961819118</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2666437570</v>
         <stp/>
         <stp>BDP|12019636457207532493</stp>
         <tr r="D52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4139148147</v>
+        <v>#N/A Requesting Data...2476153619</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4224342732</v>
+        <v>#N/A Requesting Data...1839393111</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...723081996</v>
         <stp/>
         <stp>BDP|11785014485858726384</stp>
         <tr r="C70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3133567415</v>
         <stp/>
         <stp>BDP|16223409921160501246</stp>
         <tr r="D60" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842948727</v>
+        <v>#N/A Requesting Data...3128605575</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3754720032</v>
+        <v>#N/A Requesting Data...948542563</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4208955940</v>
+        <v>#N/A Requesting Data...1733532667</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3786081112</v>
+        <v>#N/A Requesting Data...2172262069</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3920312073</v>
+        <v>#N/A Requesting Data...3480166061</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2285962243</v>
         <stp/>
         <stp>BDP|12578146028776474412</stp>
         <tr r="C81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849633172</v>
+        <v>#N/A Requesting Data...2912314691</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3235332309</v>
         <stp/>
         <stp>BDP|15261231244487562713</stp>
         <tr r="C66" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4135141179</v>
+        <v>#N/A Requesting Data...1476496290</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289598680</v>
+        <v>#N/A Requesting Data...3617493815</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...843524304</v>
         <stp/>
         <stp>BDP|11158606637492074557</stp>
         <tr r="D51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3868299463</v>
+        <v>#N/A Requesting Data...876967164</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3892050395</v>
+        <v>#N/A Requesting Data...1843064588</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943950605</v>
+        <v>#N/A Requesting Data...3081506648</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4010126655</v>
+        <v>#N/A Requesting Data...3395675419</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4071258601</v>
+        <v>#N/A Requesting Data...1890984260</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4102331391</v>
+        <v>#N/A Requesting Data...3368424793</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191589405</v>
+        <v>#N/A Requesting Data...3617114204</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3932220947</v>
+        <v>#N/A Requesting Data...1092128069</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3861500603</v>
+        <v>#N/A Requesting Data...3246738500</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3975873703</v>
+        <v>#N/A Requesting Data...458456796</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3986534731</v>
         <stp/>
         <stp>BDP|14931566239030452488</stp>
         <tr r="C64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943683142</v>
+        <v>#N/A Requesting Data...2807520311</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4081202524</v>
+        <v>#N/A Requesting Data...2736509534</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4143666588</v>
+        <v>#N/A Requesting Data...3945104133</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2549987255</v>
         <stp/>
         <stp>BDP|11720130691358617769</stp>
         <tr r="D50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4019547470</v>
+        <v>#N/A Requesting Data...1234985714</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176461666</v>
+        <v>#N/A Requesting Data...3420913338</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4221505773</v>
+        <v>#N/A Requesting Data...3771530373</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3987353915</v>
+        <v>#N/A Requesting Data...2724966558</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3893426701</v>
+        <v>#N/A Requesting Data...2248519444</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3786137129</v>
+        <v>#N/A Requesting Data...668625139</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4254361504</v>
+        <v>#N/A Requesting Data...1017674945</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2418873039</v>
         <stp/>
         <stp>BDP|16768894010998168234</stp>
         <tr r="C78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228517414</v>
+        <v>#N/A Requesting Data...2892504167</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1279,395 +1279,395 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3874328867</v>
+        <v>#N/A Requesting Data...3916328120</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3844745788</v>
+        <v>#N/A Requesting Data...1827684661</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3904626165</v>
+        <v>#N/A Requesting Data...4254955252</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3808829636</v>
+        <v>#N/A Requesting Data...1938825224</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3582231531</v>
         <stp/>
         <stp>BDP|8921779427646662792</stp>
         <tr r="C63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3815331561</v>
+        <v>#N/A Requesting Data...3039756223</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4141950530</v>
+        <v>#N/A Requesting Data...3967865260</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4075210444</v>
+        <v>#N/A Requesting Data...3585726186</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922660947</v>
+        <v>#N/A Requesting Data...642073907</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4122333946</v>
+        <v>#N/A Requesting Data...2430746769</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009623268</v>
+        <v>#N/A Requesting Data...4174278695</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217309732</v>
+        <v>#N/A Requesting Data...3534655446</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3984105944</v>
+        <v>#N/A Requesting Data...1708847114</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3831012105</v>
+        <v>#N/A Requesting Data...3356135065</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174479928</v>
+        <v>#N/A Requesting Data...3688740495</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3945310718</v>
+        <v>#N/A Requesting Data...3621742050</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...755090165</v>
         <stp/>
         <stp>BDP|1228635045269913210</stp>
         <tr r="D58" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092658881</v>
+        <v>#N/A Requesting Data...2282542357</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3672817289</v>
         <stp/>
         <stp>BDP|8582355928430667071</stp>
         <tr r="C15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4025346250</v>
+        <v>#N/A Requesting Data...3246771598</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4073935078</v>
+        <v>#N/A Requesting Data...2938443311</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3989548364</v>
+        <v>#N/A Requesting Data...2321530352</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3983626597</v>
+        <v>#N/A Requesting Data...754405768</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4093972753</v>
+        <v>#N/A Requesting Data...2099725972</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3949548634</v>
+        <v>#N/A Requesting Data...4084714324</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1344326271</v>
         <stp/>
         <stp>BDP|8747495145653745050</stp>
         <tr r="C68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2451247167</v>
         <stp/>
         <stp>BDP|1293585490094706218</stp>
         <tr r="C76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2019006444</v>
         <stp/>
         <stp>BDP|7000625624158715023</stp>
         <tr r="C65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972615043</v>
+        <v>#N/A Requesting Data...1532985315</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3577210900</v>
         <stp/>
         <stp>BDP|4043002694661424764</stp>
         <tr r="C80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3917692301</v>
+        <v>#N/A Requesting Data...2724803498</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3872261375</v>
+        <v>#N/A Requesting Data...2511160881</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3909390939</v>
+        <v>#N/A Requesting Data...806686924</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291000810</v>
+        <v>#N/A Requesting Data...3175328748</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4139826941</v>
+        <v>#N/A Requesting Data...2355926841</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3889586583</v>
+        <v>#N/A Requesting Data...2937197325</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4080010622</v>
+        <v>#N/A Requesting Data...4261280231</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4203145581</v>
+        <v>#N/A Requesting Data...3146647787</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4101319738</v>
+        <v>#N/A Requesting Data...1857830682</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4155914467</v>
+        <v>#N/A Requesting Data...801504860</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3864904875</v>
+        <v>#N/A Requesting Data...636840395</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3957593133</v>
+        <v>#N/A Requesting Data...3548074340</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1842678401</v>
         <stp/>
         <stp>BDP|9451317392726401317</stp>
         <tr r="C62" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3978551796</v>
+        <v>#N/A Requesting Data...1710853147</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3989786885</v>
+        <v>#N/A Requesting Data...1595019665</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286681121</v>
+        <v>#N/A Requesting Data...846253603</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4196208773</v>
+        <v>#N/A Requesting Data...3605159997</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292100305</v>
+        <v>#N/A Requesting Data...3196468749</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3888638854</v>
+        <v>#N/A Requesting Data...3288038694</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3952477441</v>
+        <v>#N/A Requesting Data...2515942537</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2964201266</v>
         <stp/>
         <stp>BDP|2495735351850072786</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3899665264</v>
+        <v>#N/A Requesting Data...749436933</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4161298711</v>
+        <v>#N/A Requesting Data...3421143499</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3980321408</v>
+        <v>#N/A Requesting Data...1906024541</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1187183833</v>
         <stp/>
         <stp>BDP|1112019130066735499</stp>
         <tr r="C69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3934423191</v>
+        <v>#N/A Requesting Data...2587329632</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...894819302</v>
         <stp/>
         <stp>BDP|5904043058468966806</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213786091</v>
+        <v>#N/A Requesting Data...3309906183</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1319932341</v>
         <stp/>
         <stp>BDP|3606548583877679962</stp>
         <tr r="C75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4148558078</v>
+        <v>#N/A Requesting Data...2627254929</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...984691178</v>
         <stp/>
         <stp>BDP|1388314034007359610</stp>
         <tr r="C17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290596872</v>
+        <v>#N/A Requesting Data...4075901757</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4167779526</v>
+        <v>#N/A Requesting Data...2236718028</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4233523816</v>
+        <v>#N/A Requesting Data...1346501987</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1676,187 +1676,187 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4144407344</v>
+        <v>#N/A Requesting Data...2157962704</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205037106</v>
+        <v>#N/A Requesting Data...2891127438</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1980309381</v>
         <stp/>
         <stp>BDP|3478533777803090302</stp>
         <tr r="D53" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969138546</v>
+        <v>#N/A Requesting Data...1468610523</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087061882</v>
+        <v>#N/A Requesting Data...3360115448</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990766199</v>
+        <v>#N/A Requesting Data...3435370841</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4285970974</v>
         <stp/>
         <stp>BDP|5596311615892120727</stp>
         <tr r="C71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4209361757</v>
+        <v>#N/A Requesting Data...2135513450</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4072821021</v>
+        <v>#N/A Requesting Data...2472064715</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258766762</v>
+        <v>#N/A Requesting Data...1490198248</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4039191291</v>
+        <v>#N/A Requesting Data...3674741802</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2267798958</v>
         <stp/>
         <stp>BDP|4548559138812342366</stp>
         <tr r="C74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3919089040</v>
         <stp/>
         <stp>BDP|2937347805593295188</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3951131322</v>
+        <v>#N/A Requesting Data...3732918334</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3961588372</v>
+        <v>#N/A Requesting Data...2263912362</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4166952655</v>
+        <v>#N/A Requesting Data...2719305995</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3960242880</v>
+        <v>#N/A Requesting Data...776722768</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4101831033</v>
+        <v>#N/A Requesting Data...1174777946</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4259958613</v>
+        <v>#N/A Requesting Data...2720676392</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2292484712</v>
         <stp/>
         <stp>BDP|698640909269571851</stp>
         <tr r="C67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4201012237</v>
+        <v>#N/A Requesting Data...1249658635</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210760447</v>
+        <v>#N/A Requesting Data...3950113852</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2216602964</v>
         <stp/>
         <stp>BDP|769230224156311022</stp>
         <tr r="D61" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253675707</v>
+        <v>#N/A Requesting Data...2195815701</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4145808945</v>
+        <v>#N/A Requesting Data...2829416338</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969308272</v>
+        <v>#N/A Requesting Data...1165972971</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205002920</v>
+        <v>#N/A Requesting Data...1729932876</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...864084946</v>
         <stp/>
         <stp>BDP|831042661121373939</stp>
         <tr r="C79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3112560139</v>
         <stp/>
         <stp>BDP|259036188629559998</stp>
         <tr r="C77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3104908773</v>
         <stp/>
         <stp>BDP|220174318258124269</stp>
         <tr r="C73" s="3"/>
@@ -2185,17 +2185,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2307,14 +2307,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,79 +2325,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.29</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.1709999999999998</v>
+        <v>2.1720000000000002</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.2108999999999996</v>
+        <v>4.2107999999999999</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47799999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"PX_LAST")</f>
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2434,14 +2434,14 @@
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2464,13 +2464,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.0661300000000002</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2479,13 +2479,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7558600000000002</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2494,13 +2494,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.68045</v>
+        <v>3.7225000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2509,13 +2509,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.6844000000000001</v>
+        <v>3.7353000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2524,13 +2524,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.71827</v>
+        <v>3.7739199999999999</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.7686199999999999</v>
+        <v>3.8290999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.82125</v>
+        <v>3.8860000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2569,13 +2569,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.8702399999999999</v>
+        <v>3.9384000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2584,13 +2584,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.9169</v>
+        <v>3.9870000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2599,13 +2599,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.9617</v>
+        <v>4.0335000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2614,13 +2614,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.5074999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2629,13 +2629,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.4929999999999999</v>
+        <v>2.5413000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2644,13 +2644,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.5350000000000001</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2659,13 +2659,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.5880000000000001</v>
+        <v>2.6625000000000001</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2674,13 +2674,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.6545999999999998</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.7332000000000001</v>
+        <v>2.8197999999999999</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2704,13 +2704,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.8168000000000002</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2719,13 +2719,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.8974000000000002</v>
+        <v>2.9855</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2734,13 +2734,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.9695</v>
+        <v>3.0585</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2749,13 +2749,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.0316000000000001</v>
+        <v>3.1231</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2764,13 +2764,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.772</v>
+        <v>1.79</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2779,13 +2779,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.76</v>
+        <v>1.78705</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2794,13 +2794,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.851</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2809,13 +2809,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>1.9519</v>
+        <v>1.9876</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2824,13 +2824,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.0446499999999999</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2839,13 +2839,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.1310500000000001</v>
+        <v>2.1715499999999999</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2854,13 +2854,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.2108500000000002</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2869,13 +2869,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.2831999999999999</v>
+        <v>2.3243999999999998</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2884,13 +2884,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.3494000000000002</v>
+        <v>2.3908</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2899,13 +2899,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.4079999999999999</v>
+        <v>2.4527999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2914,13 +2914,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>3.9969999999999999</v>
+        <v>4.0236700000000001</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2929,13 +2929,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>3.8639999999999999</v>
+        <v>3.8917000000000002</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2944,13 +2944,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.8422499999999999</v>
+        <v>3.875</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2959,13 +2959,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.86</v>
+        <v>3.89493</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2974,13 +2974,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.8995000000000002</v>
+        <v>3.9365600000000001</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2989,13 +2989,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.9492500000000001</v>
+        <v>3.9884599999999999</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3004,13 +3004,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>4.00725</v>
+        <v>4.0487799999999998</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3019,13 +3019,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>4.0705</v>
+        <v>4.1125499999999997</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3034,13 +3034,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.133</v>
+        <v>4.1765699999999999</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3049,13 +3049,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.194</v>
+        <v>4.2389999999999999</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3064,13 +3064,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.60234500000000002</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -3079,13 +3079,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.71625000000000005</v>
+        <v>0.72375</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -3094,13 +3094,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.79499500000000001</v>
+        <v>0.80625000000000002</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -3109,13 +3109,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.85624999999999996</v>
+        <v>0.87375499999999995</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3124,13 +3124,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.92</v>
+        <v>0.93874999999999997</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.98250000000000004</v>
+        <v>1.0037499999999999</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -3154,13 +3154,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.0489999999999999</v>
+        <v>1.0725</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3169,13 +3169,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.1174999999999999</v>
+        <v>1.1425050000000001</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3184,13 +3184,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.1924999999999999</v>
+        <v>1.2162500000000001</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -3199,13 +3199,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.268745</v>
+        <v>1.2937559999999999</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3214,13 +3214,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.4157299999999999</v>
+        <v>3.4336000000000002</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3229,13 +3229,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.3319999999999999</v>
+        <v>3.363</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3244,13 +3244,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.6051000000000002</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3259,13 +3259,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.6979299999999999</v>
+        <v>3.74</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3274,13 +3274,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.8104300000000002</v>
+        <v>3.8635000000000002</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3289,13 +3289,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.93</v>
+        <v>3.9871799999999999</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3304,13 +3304,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.0425000000000004</v>
+        <v>4.1059299999999999</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3319,13 +3319,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.141</v>
+        <v>4.21</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3334,13 +3334,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.2285000000000004</v>
+        <v>4.3010000000000002</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3349,13 +3349,13 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.3054800000000002</v>
+        <v>4.3796799999999996</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -3364,13 +3364,13 @@
       </c>
       <c r="C62" cm="1">
         <f t="array" ref="C62">_xll.BDP(D62,"px_last")</f>
-        <v>2.012</v>
+        <v>2.032</v>
       </c>
       <c r="D62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -3379,13 +3379,13 @@
       </c>
       <c r="C63" cm="1">
         <f t="array" ref="C63">_xll.BDP(D63,"px_last")</f>
-        <v>2.012</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="D63" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -3394,13 +3394,13 @@
       </c>
       <c r="C64" cm="1">
         <f t="array" ref="C64">_xll.BDP(D64,"px_last")</f>
-        <v>2.0870000000000002</v>
+        <v>2.1219000000000001</v>
       </c>
       <c r="D64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3409,13 +3409,13 @@
       </c>
       <c r="C65" cm="1">
         <f t="array" ref="C65">_xll.BDP(D65,"px_last")</f>
-        <v>2.1713</v>
+        <v>2.2057000000000002</v>
       </c>
       <c r="D65" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -3424,13 +3424,13 @@
       </c>
       <c r="C66" cm="1">
         <f t="array" ref="C66">_xll.BDP(D66,"px_last")</f>
-        <v>2.2549999999999999</v>
+        <v>2.2869999999999999</v>
       </c>
       <c r="D66" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3439,13 +3439,13 @@
       </c>
       <c r="C67" cm="1">
         <f t="array" ref="C67">_xll.BDP(D67,"px_last")</f>
-        <v>2.335</v>
+        <v>2.3668499999999999</v>
       </c>
       <c r="D67" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3454,13 +3454,13 @@
       </c>
       <c r="C68" cm="1">
         <f t="array" ref="C68">_xll.BDP(D68,"px_last")</f>
-        <v>2.4089499999999999</v>
+        <v>2.4405000000000001</v>
       </c>
       <c r="D68" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7</v>
       </c>
@@ -3469,13 +3469,13 @@
       </c>
       <c r="C69" cm="1">
         <f t="array" ref="C69">_xll.BDP(D69,"px_last")</f>
-        <v>2.4710000000000001</v>
+        <v>2.5069499999999998</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="C70" cm="1">
         <f t="array" ref="C70">_xll.BDP(D70,"px_last")</f>
-        <v>2.52765</v>
+        <v>2.5599500000000002</v>
       </c>
       <c r="D70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3499,13 +3499,13 @@
       </c>
       <c r="C71" cm="1">
         <f t="array" ref="C71">_xll.BDP(D71,"px_last")</f>
-        <v>2.57355</v>
+        <v>2.6063999999999998</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -3514,13 +3514,13 @@
       </c>
       <c r="C72" cm="1">
         <f t="array" ref="C72">_xll.BDP(D72,"px_last")</f>
-        <v>4.2590000000000003</v>
+        <v>4.2755999999999998</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -3529,13 +3529,13 @@
       </c>
       <c r="C73" cm="1">
         <f t="array" ref="C73">_xll.BDP(D73,"px_last")</f>
-        <v>3.9565000000000001</v>
+        <v>3.9750000000000001</v>
       </c>
       <c r="D73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -3544,13 +3544,13 @@
       </c>
       <c r="C74" cm="1">
         <f t="array" ref="C74">_xll.BDP(D74,"px_last")</f>
-        <v>3.8488000000000002</v>
+        <v>3.875</v>
       </c>
       <c r="D74" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -3559,13 +3559,13 @@
       </c>
       <c r="C75" cm="1">
         <f t="array" ref="C75">_xll.BDP(D75,"px_last")</f>
-        <v>3.7925</v>
+        <v>3.8222999999999998</v>
       </c>
       <c r="D75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -3574,13 +3574,13 @@
       </c>
       <c r="C76" cm="1">
         <f t="array" ref="C76">_xll.BDP(D76,"px_last")</f>
-        <v>3.7683499999999999</v>
+        <v>3.8035000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3589,13 +3589,13 @@
       </c>
       <c r="C77" cm="1">
         <f t="array" ref="C77">_xll.BDP(D77,"px_last")</f>
-        <v>3.76</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3604,13 +3604,13 @@
       </c>
       <c r="C78" cm="1">
         <f t="array" ref="C78">_xll.BDP(D78,"px_last")</f>
-        <v>3.76</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="D78" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3619,13 +3619,13 @@
       </c>
       <c r="C79" cm="1">
         <f t="array" ref="C79">_xll.BDP(D79,"px_last")</f>
-        <v>3.76</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="D79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3634,13 +3634,13 @@
       </c>
       <c r="C80" cm="1">
         <f t="array" ref="C80">_xll.BDP(D80,"px_last")</f>
-        <v>3.76</v>
+        <v>3.7955000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81">_xll.BDP(D81,"px_last")</f>
-        <v>3.7570000000000001</v>
+        <v>3.7897500000000002</v>
       </c>
       <c r="D81" t="s">
         <v>192</v>
@@ -3668,15 +3668,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3699,13 +3699,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.6442999999999999</v>
+        <v>3.7189000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3714,13 +3714,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.2064000000000004</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3729,13 +3729,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.0942599999999998</v>
+        <v>3.2048800000000002</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3744,13 +3744,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.7968799999999998</v>
+        <v>3.8987799999999999</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3759,13 +3759,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.379</v>
+        <v>2.4344000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3774,13 +3774,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.9373</v>
+        <v>2.976</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3789,13 +3789,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9889000000000001</v>
+        <v>4.0315000000000003</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3804,13 +3804,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.6003999999999996</v>
+        <v>4.6543999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3819,13 +3819,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.1007</v>
+        <v>1.1144000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3834,13 +3834,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.6779999999999999</v>
+        <v>1.696</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3849,13 +3849,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.0004</v>
+        <v>4.0811999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3864,13 +3864,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.9123000000000001</v>
+        <v>5.0242000000000004</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3879,13 +3879,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.6457000000000002</v>
+        <v>2.6943000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3894,13 +3894,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>3.1507000000000001</v>
+        <v>3.2021999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3909,13 +3909,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>3.8482699999999999</v>
+        <v>3.8917700000000002</v>
       </c>
       <c r="D16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>4.1087899999999999</v>
+        <v>4.1555200000000001</v>
       </c>
       <c r="D17" t="s">
         <v>197</v>
@@ -3943,14 +3943,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3961,97 +3961,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.3067000000000002</v>
+        <v>3.3586</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.8165900000000001</v>
+        <v>2.8807499999999999</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.9431</v>
+        <v>1.9682999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.8382000000000001</v>
+        <v>3.8698000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.91279999999999994</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.5038</v>
+        <v>3.5489999999999999</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"px_last")</f>
-        <v>2.3626499999999999</v>
+        <v>2.3729</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">_xll.BDP(C9,"px_last")</f>
-        <v>3.7989600000000001</v>
+        <v>3.8135400000000002</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -4066,22 +4066,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.3140000000000001</v>
+        <v>4.319</v>
       </c>
       <c r="E6" s="9" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.3140000000000001</v>
+        <v>4.319</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -4223,17 +4223,17 @@
       </c>
       <c r="D7" s="9" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.2530000000000001</v>
+        <v>4.258</v>
       </c>
       <c r="E7" s="9" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.2530000000000001</v>
+        <v>4.258</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -4245,17 +4245,17 @@
       </c>
       <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1150000000000002</v>
+        <v>4.12</v>
       </c>
       <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1150000000000002</v>
+        <v>4.12</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9769999999999999</v>
+        <v>3.9929999999999999</v>
       </c>
       <c r="E9" s="9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9769999999999999</v>
+        <v>3.9929999999999999</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4377,17 +4377,17 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.6790000000000003</v>
+        <v>2.677</v>
       </c>
       <c r="E14" s="10" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.6790000000000003</v>
+        <v>2.677</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5640000000000001</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="E15" s="10" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5640000000000001</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.4689999999999999</v>
+        <v>2.488</v>
       </c>
       <c r="E16" s="10" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.4689999999999999</v>
+        <v>2.488</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4443,18 +4443,18 @@
       </c>
       <c r="D17" s="10">
         <f>D16</f>
-        <v>2.4689999999999999</v>
+        <v>2.488</v>
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>2.4689999999999999</v>
+        <v>2.488</v>
       </c>
       <c r="F17" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>3</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>3</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>3</v>
       </c>
@@ -4554,17 +4554,17 @@
       </c>
       <c r="D22" s="11" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9379999999999999</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="E22" s="11" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9379999999999999</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>3</v>
       </c>
@@ -4576,17 +4576,17 @@
       </c>
       <c r="D23" s="11" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.879</v>
+        <v>1.867</v>
       </c>
       <c r="E23" s="11" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.879</v>
+        <v>1.867</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>3</v>
       </c>
@@ -4598,17 +4598,17 @@
       </c>
       <c r="D24" s="11" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7450000000000001</v>
+        <v>1.7730000000000001</v>
       </c>
       <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7450000000000001</v>
+        <v>1.7730000000000001</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>3</v>
       </c>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="D25" s="11">
         <f>D24</f>
-        <v>1.7450000000000001</v>
+        <v>1.7730000000000001</v>
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>1.7450000000000001</v>
+        <v>1.7730000000000001</v>
       </c>
       <c r="F25" s="11" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>4</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>4</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>4</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>4</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -4753,17 +4753,17 @@
       </c>
       <c r="D31" s="12" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1920000000000002</v>
+        <v>4.202</v>
       </c>
       <c r="E31" s="12" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.1920000000000002</v>
+        <v>4.202</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="D32" s="12" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.056</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="E32" s="12" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.056</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -4798,18 +4798,18 @@
       </c>
       <c r="D33" s="12">
         <f>D32</f>
-        <v>4.056</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="E33" s="12" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>3.9910000000000001</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <v>45778</v>
+        <v>45825</v>
       </c>
       <c r="D34" s="3" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
@@ -4831,7 +4831,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -4839,21 +4839,21 @@
         <v>2</v>
       </c>
       <c r="C35" s="4">
-        <v>45825</v>
+        <v>45869</v>
       </c>
       <c r="D35" s="3" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.50600000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E35" s="3" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.50600000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -4861,21 +4861,21 @@
         <v>3</v>
       </c>
       <c r="C36" s="4">
-        <v>45869</v>
+        <v>45919</v>
       </c>
       <c r="D36" s="3" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.53900000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E36" s="3" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.53900000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -4883,21 +4883,21 @@
         <v>4</v>
       </c>
       <c r="C37" s="4">
-        <v>45919</v>
+        <v>45960</v>
       </c>
       <c r="D37" s="3" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.60899999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E37" s="3" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.60899999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -4905,21 +4905,22 @@
         <v>5</v>
       </c>
       <c r="C38" s="4">
-        <v>45960</v>
+        <f>+C37+42</f>
+        <v>46002</v>
       </c>
       <c r="D38" s="3" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.63100000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E38" s="3" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.63100000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -4927,8 +4928,8 @@
         <v>6</v>
       </c>
       <c r="C39" s="4">
-        <f>+C38+42</f>
-        <v>46002</v>
+        <f>C38+42</f>
+        <v>46044</v>
       </c>
       <c r="D39" s="3">
         <v>0.65</v>
@@ -4942,7 +4943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -4950,8 +4951,8 @@
         <v>7</v>
       </c>
       <c r="C40" s="4">
-        <f>C39+42</f>
-        <v>46044</v>
+        <f>+C39+42</f>
+        <v>46086</v>
       </c>
       <c r="D40" s="3">
         <v>0.68</v>
@@ -4965,7 +4966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -4974,7 +4975,7 @@
       </c>
       <c r="C41" s="4">
         <f>+C40+42</f>
-        <v>46086</v>
+        <v>46128</v>
       </c>
       <c r="D41" s="3">
         <v>0.72</v>
@@ -4988,7 +4989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>6</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>6</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>6</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>6</v>
       </c>
@@ -5088,17 +5089,17 @@
       </c>
       <c r="D46" s="6" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6680000000000001</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6680000000000001</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>6</v>
       </c>
@@ -5110,17 +5111,17 @@
       </c>
       <c r="D47" s="6" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.4430000000000001</v>
+        <v>3.448</v>
       </c>
       <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.4430000000000001</v>
+        <v>3.448</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>6</v>
       </c>
@@ -5143,7 +5144,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>6</v>
       </c>
@@ -5155,18 +5156,18 @@
       </c>
       <c r="D49" s="6" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1890000000000001</v>
+        <v>3.2040000000000002</v>
       </c>
       <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1890000000000001</v>
+        <v>3.2040000000000002</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>161</v>
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>7</v>
       </c>
@@ -5178,17 +5179,17 @@
       </c>
       <c r="D50" s="7" cm="1">
         <f t="array" ref="D50">_xll.BDP(F50,"px_last")</f>
-        <v>2.14</v>
+        <v>2.113</v>
       </c>
       <c r="E50" s="7">
         <f>D50</f>
-        <v>2.14</v>
+        <v>2.113</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>7</v>
       </c>
@@ -5200,17 +5201,17 @@
       </c>
       <c r="D51" s="7" cm="1">
         <f t="array" ref="D51">_xll.BDP(F51,"px_last")</f>
-        <v>2.028</v>
+        <v>2.13</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" ref="E51:E65" si="0">D51</f>
-        <v>2.028</v>
+        <v>2.13</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>7</v>
       </c>
@@ -5222,17 +5223,17 @@
       </c>
       <c r="D52" s="7" cm="1">
         <f t="array" ref="D52">_xll.BDP(F52,"px_last")</f>
-        <v>1.9510000000000001</v>
+        <v>1.992</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>1.9510000000000001</v>
+        <v>1.992</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>7</v>
       </c>
@@ -5244,17 +5245,17 @@
       </c>
       <c r="D53" s="7" cm="1">
         <f t="array" ref="D53">_xll.BDP(F53,"px_last")</f>
-        <v>1.9350000000000001</v>
+        <v>1.9020000000000001</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>1.9350000000000001</v>
+        <v>1.9020000000000001</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>7</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>7</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>7</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>7</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>8</v>
       </c>
@@ -5358,17 +5359,17 @@
       </c>
       <c r="D58" s="8" cm="1">
         <f t="array" ref="D58">_xll.BDP(F58,"px_last")</f>
-        <v>4.4409999999999998</v>
+        <v>4.4429999999999996</v>
       </c>
       <c r="E58" s="8">
         <f t="shared" si="0"/>
-        <v>4.4409999999999998</v>
+        <v>4.4429999999999996</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>8</v>
       </c>
@@ -5380,17 +5381,17 @@
       </c>
       <c r="D59" s="8" cm="1">
         <f t="array" ref="D59">_xll.BDP(F59,"px_last")</f>
-        <v>4.601</v>
+        <v>4.6710000000000003</v>
       </c>
       <c r="E59" s="8">
         <f t="shared" si="0"/>
-        <v>4.601</v>
+        <v>4.6710000000000003</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>8</v>
       </c>
@@ -5402,17 +5403,17 @@
       </c>
       <c r="D60" s="8" cm="1">
         <f t="array" ref="D60">_xll.BDP(F60,"px_last")</f>
-        <v>4.2590000000000003</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="E60" s="8">
         <f t="shared" si="0"/>
-        <v>4.2590000000000003</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>8</v>
       </c>
@@ -5424,17 +5425,17 @@
       </c>
       <c r="D61" s="8" cm="1">
         <f t="array" ref="D61">_xll.BDP(F61,"px_last")</f>
-        <v>4.2039999999999997</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="E61" s="8">
         <f t="shared" si="0"/>
-        <v>4.2039999999999997</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>8</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>8</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>8</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>8</v>
       </c>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="167" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9981F660-C42E-4076-8116-28476F303F27}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -845,433 +845,433 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...529496946</v>
+        <v>#N/A Requesting Data...4145568520</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3383064467</v>
+        <v>#N/A Requesting Data...4177689509</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4002704340</v>
+        <v>#N/A Requesting Data...4244768560</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2165580514</v>
+        <v>#N/A Requesting Data...4250999231</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2988212259</v>
+        <v>#N/A Requesting Data...4027603741</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205777891</v>
+        <v>#N/A Requesting Data...4256707297</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1792311589</v>
+        <v>#N/A Requesting Data...4205592678</v>
         <stp/>
         <stp>BDP|11386130649106637983</stp>
         <tr r="D59" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3097236435</v>
+        <v>#N/A Requesting Data...4223648329</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2494703088</v>
+        <v>#N/A Requesting Data...4133085059</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1119562330</v>
+        <v>#N/A Requesting Data...4267016998</v>
         <stp/>
         <stp>BDP|13871096504043191898</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1256064705</v>
+        <v>#N/A Requesting Data...4164832373</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3129422565</v>
+        <v>#N/A Requesting Data...4284209476</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
         <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2220998991</v>
+        <v>#N/A Requesting Data...4172278175</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1963175841</v>
+        <v>#N/A Requesting Data...4135509494</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...892938973</v>
+        <v>#N/A Requesting Data...4247567199</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4193381322</v>
+        <v>#N/A Requesting Data...4200965315</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1205078908</v>
+        <v>#N/A Requesting Data...4215830227</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3865552164</v>
+        <v>#N/A Requesting Data...4172566170</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...397682069</v>
+        <v>#N/A Requesting Data...4148191819</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4043135535</v>
+        <v>#N/A Requesting Data...4182369751</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477152025</v>
+        <v>#N/A Requesting Data...4066838927</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191751679</v>
+        <v>#N/A Requesting Data...4123475744</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1564279291</v>
+        <v>#N/A Requesting Data...4060031690</v>
         <stp/>
         <stp>BDP|17880537498901096542</stp>
         <tr r="C14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3396565329</v>
+        <v>#N/A Requesting Data...4081706409</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243625879</v>
+        <v>#N/A Requesting Data...4187633378</v>
         <stp/>
         <stp>BDP|12231332781916058360</stp>
         <tr r="C72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784976354</v>
+        <v>#N/A Requesting Data...4109719415</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1132645575</v>
+        <v>#N/A Requesting Data...4034976510</v>
         <stp/>
         <stp>BDP|13869588079434430802</stp>
         <tr r="C16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...961819118</v>
+        <v>#N/A Requesting Data...4063603451</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2666437570</v>
+        <v>#N/A Requesting Data...4164529427</v>
         <stp/>
         <stp>BDP|12019636457207532493</stp>
         <tr r="D52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2476153619</v>
+        <v>#N/A Requesting Data...4069005200</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1839393111</v>
+        <v>#N/A Requesting Data...4075130422</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...723081996</v>
+        <v>#N/A Requesting Data...4023583513</v>
         <stp/>
         <stp>BDP|11785014485858726384</stp>
         <tr r="C70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3133567415</v>
+        <v>#N/A Requesting Data...4287701806</v>
         <stp/>
         <stp>BDP|16223409921160501246</stp>
         <tr r="D60" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3128605575</v>
+        <v>#N/A Requesting Data...4235325237</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...948542563</v>
+        <v>#N/A Requesting Data...4245779622</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1733532667</v>
+        <v>#N/A Requesting Data...4118858567</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2172262069</v>
+        <v>#N/A Requesting Data...4228222129</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3480166061</v>
+        <v>#N/A Requesting Data...4088777664</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2285962243</v>
+        <v>#N/A Requesting Data...4159373695</v>
         <stp/>
         <stp>BDP|12578146028776474412</stp>
         <tr r="C81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2912314691</v>
+        <v>#N/A Requesting Data...4291714794</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3235332309</v>
+        <v>#N/A Requesting Data...4171775986</v>
         <stp/>
         <stp>BDP|15261231244487562713</stp>
         <tr r="C66" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1476496290</v>
+        <v>#N/A Requesting Data...4115718079</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617493815</v>
+        <v>#N/A Requesting Data...4076329278</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...843524304</v>
+        <v>#N/A Requesting Data...4251033216</v>
         <stp/>
         <stp>BDP|11158606637492074557</stp>
         <tr r="D51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...876967164</v>
+        <v>#N/A Requesting Data...4220092818</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1843064588</v>
+        <v>#N/A Requesting Data...4184181236</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3081506648</v>
+        <v>#N/A Requesting Data...4127589229</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3395675419</v>
+        <v>#N/A Requesting Data...4211949998</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1890984260</v>
+        <v>#N/A Requesting Data...4114432572</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3368424793</v>
+        <v>#N/A Requesting Data...4263448436</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617114204</v>
+        <v>#N/A Requesting Data...4128220355</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1092128069</v>
+        <v>#N/A Requesting Data...4216286051</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3246738500</v>
+        <v>#N/A Requesting Data...4132645886</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...458456796</v>
+        <v>#N/A Requesting Data...4291408546</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3986534731</v>
+        <v>#N/A Requesting Data...4111217289</v>
         <stp/>
         <stp>BDP|14931566239030452488</stp>
         <tr r="C64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2807520311</v>
+        <v>#N/A Requesting Data...4286149932</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2736509534</v>
+        <v>#N/A Requesting Data...4114591613</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3945104133</v>
+        <v>#N/A Requesting Data...4082607121</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2549987255</v>
+        <v>#N/A Requesting Data...4094647465</v>
         <stp/>
         <stp>BDP|11720130691358617769</stp>
         <tr r="D50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1234985714</v>
+        <v>#N/A Requesting Data...4080591100</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3420913338</v>
+        <v>#N/A Requesting Data...4192391706</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3771530373</v>
+        <v>#N/A Requesting Data...4272879820</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2724966558</v>
+        <v>#N/A Requesting Data...4184485330</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2248519444</v>
+        <v>#N/A Requesting Data...4177364861</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...668625139</v>
+        <v>#N/A Requesting Data...4250209166</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1017674945</v>
+        <v>#N/A Requesting Data...4252774333</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2418873039</v>
+        <v>#N/A Requesting Data...4133898785</v>
         <stp/>
         <stp>BDP|16768894010998168234</stp>
         <tr r="C78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2892504167</v>
+        <v>#N/A Requesting Data...4162921826</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1279,395 +1279,395 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3916328120</v>
+        <v>#N/A Requesting Data...4223894509</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1827684661</v>
+        <v>#N/A Requesting Data...4128675280</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4254955252</v>
+        <v>#N/A Requesting Data...4182561470</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1938825224</v>
+        <v>#N/A Requesting Data...4209870826</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3582231531</v>
+        <v>#N/A Requesting Data...4294331889</v>
         <stp/>
         <stp>BDP|8921779427646662792</stp>
         <tr r="C63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3039756223</v>
+        <v>#N/A Requesting Data...4137087313</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3967865260</v>
+        <v>#N/A Requesting Data...4110420248</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3585726186</v>
+        <v>#N/A Requesting Data...4126917751</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...642073907</v>
+        <v>#N/A Requesting Data...4279061326</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2430746769</v>
+        <v>#N/A Requesting Data...4140533199</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174278695</v>
+        <v>#N/A Requesting Data...4100229817</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3534655446</v>
+        <v>#N/A Requesting Data...4220212982</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1708847114</v>
+        <v>#N/A Requesting Data...4246160197</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
         <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3356135065</v>
+        <v>#N/A Requesting Data...4262122452</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3688740495</v>
+        <v>#N/A Requesting Data...4123700400</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3621742050</v>
+        <v>#N/A Requesting Data...4284355220</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...755090165</v>
+        <v>#N/A Requesting Data...4122225863</v>
         <stp/>
         <stp>BDP|1228635045269913210</stp>
         <tr r="D58" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2282542357</v>
+        <v>#N/A Requesting Data...4113477403</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3672817289</v>
+        <v>#N/A Requesting Data...4285832467</v>
         <stp/>
         <stp>BDP|8582355928430667071</stp>
         <tr r="C15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3246771598</v>
+        <v>#N/A Requesting Data...4152832963</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2938443311</v>
+        <v>#N/A Requesting Data...4210781665</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2321530352</v>
+        <v>#N/A Requesting Data...4290374334</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="D36" s="5"/>
         <tr r="E36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...754405768</v>
+        <v>#N/A Requesting Data...4154185642</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2099725972</v>
+        <v>#N/A Requesting Data...4248786320</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4084714324</v>
+        <v>#N/A Requesting Data...4273050095</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1344326271</v>
+        <v>#N/A Requesting Data...4110420007</v>
         <stp/>
         <stp>BDP|8747495145653745050</stp>
         <tr r="C68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2451247167</v>
+        <v>#N/A Requesting Data...4125543038</v>
         <stp/>
         <stp>BDP|1293585490094706218</stp>
         <tr r="C76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2019006444</v>
+        <v>#N/A Requesting Data...4261982902</v>
         <stp/>
         <stp>BDP|7000625624158715023</stp>
         <tr r="C65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1532985315</v>
+        <v>#N/A Requesting Data...4219877908</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3577210900</v>
+        <v>#N/A Requesting Data...4237161776</v>
         <stp/>
         <stp>BDP|4043002694661424764</stp>
         <tr r="C80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2724803498</v>
+        <v>#N/A Requesting Data...4236944099</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2511160881</v>
+        <v>#N/A Requesting Data...4142421921</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...806686924</v>
+        <v>#N/A Requesting Data...4250672903</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3175328748</v>
+        <v>#N/A Requesting Data...4241134828</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2355926841</v>
+        <v>#N/A Requesting Data...4245457158</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2937197325</v>
+        <v>#N/A Requesting Data...4216102341</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261280231</v>
+        <v>#N/A Requesting Data...4191305560</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3146647787</v>
+        <v>#N/A Requesting Data...4149216759</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1857830682</v>
+        <v>#N/A Requesting Data...4183279887</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...801504860</v>
+        <v>#N/A Requesting Data...4282796416</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...636840395</v>
+        <v>#N/A Requesting Data...4252569819</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3548074340</v>
+        <v>#N/A Requesting Data...4181365351</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1842678401</v>
+        <v>#N/A Requesting Data...4236713255</v>
         <stp/>
         <stp>BDP|9451317392726401317</stp>
         <tr r="C62" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1710853147</v>
+        <v>#N/A Requesting Data...4130381167</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1595019665</v>
+        <v>#N/A Requesting Data...4211106931</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...846253603</v>
+        <v>#N/A Requesting Data...4287642807</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3605159997</v>
+        <v>#N/A Requesting Data...4217778851</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3196468749</v>
+        <v>#N/A Requesting Data...4195119852</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3288038694</v>
+        <v>#N/A Requesting Data...4149657600</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2515942537</v>
+        <v>#N/A Requesting Data...4235974382</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2964201266</v>
+        <v>#N/A Requesting Data...4256983445</v>
         <stp/>
         <stp>BDP|2495735351850072786</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...749436933</v>
+        <v>#N/A Requesting Data...4228399518</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3421143499</v>
+        <v>#N/A Requesting Data...4271651450</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1906024541</v>
+        <v>#N/A Requesting Data...4146323489</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1187183833</v>
+        <v>#N/A Requesting Data...4140506052</v>
         <stp/>
         <stp>BDP|1112019130066735499</stp>
         <tr r="C69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2587329632</v>
+        <v>#N/A Requesting Data...4180168887</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...894819302</v>
+        <v>#N/A Requesting Data...4142996111</v>
         <stp/>
         <stp>BDP|5904043058468966806</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3309906183</v>
+        <v>#N/A Requesting Data...4281881980</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1319932341</v>
+        <v>#N/A Requesting Data...4199087703</v>
         <stp/>
         <stp>BDP|3606548583877679962</stp>
         <tr r="C75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2627254929</v>
+        <v>#N/A Requesting Data...4146922661</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...984691178</v>
+        <v>#N/A Requesting Data...4165943984</v>
         <stp/>
         <stp>BDP|1388314034007359610</stp>
         <tr r="C17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4075901757</v>
+        <v>#N/A Requesting Data...4155897348</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2236718028</v>
+        <v>#N/A Requesting Data...4262009630</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1346501987</v>
+        <v>#N/A Requesting Data...4273193121</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D26" s="5"/>
@@ -1676,187 +1676,187 @@
         <tr r="E27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2157962704</v>
+        <v>#N/A Requesting Data...4197868121</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2891127438</v>
+        <v>#N/A Requesting Data...4261925634</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1980309381</v>
+        <v>#N/A Requesting Data...4237639868</v>
         <stp/>
         <stp>BDP|3478533777803090302</stp>
         <tr r="D53" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1468610523</v>
+        <v>#N/A Requesting Data...4228762340</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3360115448</v>
+        <v>#N/A Requesting Data...4260282021</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3435370841</v>
+        <v>#N/A Requesting Data...4292010770</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4285970974</v>
+        <v>#N/A Requesting Data...4190802690</v>
         <stp/>
         <stp>BDP|5596311615892120727</stp>
         <tr r="C71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2135513450</v>
+        <v>#N/A Requesting Data...4270555534</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2472064715</v>
+        <v>#N/A Requesting Data...4205103291</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1490198248</v>
+        <v>#N/A Requesting Data...4173446311</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3674741802</v>
+        <v>#N/A Requesting Data...4207942357</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2267798958</v>
+        <v>#N/A Requesting Data...4186061469</v>
         <stp/>
         <stp>BDP|4548559138812342366</stp>
         <tr r="C74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3919089040</v>
+        <v>#N/A Requesting Data...4280589543</v>
         <stp/>
         <stp>BDP|2937347805593295188</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3732918334</v>
+        <v>#N/A Requesting Data...4246870024</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2263912362</v>
+        <v>#N/A Requesting Data...4222715587</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2719305995</v>
+        <v>#N/A Requesting Data...4236430346</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...776722768</v>
+        <v>#N/A Requesting Data...4180289834</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="D15" s="5"/>
         <tr r="E15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1174777946</v>
+        <v>#N/A Requesting Data...4180173829</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2720676392</v>
+        <v>#N/A Requesting Data...4176121768</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2292484712</v>
+        <v>#N/A Requesting Data...4277583047</v>
         <stp/>
         <stp>BDP|698640909269571851</stp>
         <tr r="C67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1249658635</v>
+        <v>#N/A Requesting Data...4217249032</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950113852</v>
+        <v>#N/A Requesting Data...4249728198</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2216602964</v>
+        <v>#N/A Requesting Data...4203423469</v>
         <stp/>
         <stp>BDP|769230224156311022</stp>
         <tr r="D61" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2195815701</v>
+        <v>#N/A Requesting Data...4282360005</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2829416338</v>
+        <v>#N/A Requesting Data...4205620306</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1165972971</v>
+        <v>#N/A Requesting Data...4291651090</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1729932876</v>
+        <v>#N/A Requesting Data...4248595954</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...864084946</v>
+        <v>#N/A Requesting Data...4258818251</v>
         <stp/>
         <stp>BDP|831042661121373939</stp>
         <tr r="C79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3112560139</v>
+        <v>#N/A Requesting Data...4220059996</v>
         <stp/>
         <stp>BDP|259036188629559998</stp>
         <tr r="C77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104908773</v>
+        <v>#N/A Requesting Data...4217858610</v>
         <stp/>
         <stp>BDP|220174318258124269</stp>
         <tr r="C73" s="3"/>
@@ -2185,17 +2185,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2307,14 +2307,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,19 +2325,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.2699999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2349,43 +2349,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.1720000000000002</v>
+        <v>2.161</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.2107999999999999</v>
+        <v>4.2107000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47699999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2397,19 +2397,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"PX_LAST")</f>
-        <v>2.246</v>
+        <v>2.262</v>
       </c>
       <c r="C8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2434,14 +2434,14 @@
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2464,13 +2464,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.0750000000000002</v>
+        <v>4.02494</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2479,13 +2479,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.7829999999999999</v>
+        <v>3.6781199999999998</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2494,13 +2494,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.7225000000000001</v>
+        <v>3.5783100000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2509,13 +2509,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.7353000000000001</v>
+        <v>3.573</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2524,13 +2524,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.7739199999999999</v>
+        <v>3.6025</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.8290999999999999</v>
+        <v>3.6524999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.8860000000000001</v>
+        <v>3.7069000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2569,13 +2569,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.9384000000000001</v>
+        <v>3.7593000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2584,13 +2584,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.9870000000000001</v>
+        <v>3.80965</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2599,13 +2599,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>4.0335000000000001</v>
+        <v>3.8576999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2614,13 +2614,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.54</v>
+        <v>2.4811999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2629,13 +2629,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.5413000000000001</v>
+        <v>2.4489999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2644,13 +2644,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.5960000000000001</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2659,13 +2659,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.6625000000000001</v>
+        <v>2.5207999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2674,13 +2674,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.7389999999999999</v>
+        <v>2.577</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2689,13 +2689,13 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.8197999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2704,13 +2704,13 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.9039999999999999</v>
+        <v>2.7290000000000001</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2719,13 +2719,13 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.9855</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2734,13 +2734,13 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.0585</v>
+        <v>2.8736999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2749,13 +2749,13 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.1231</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2764,13 +2764,13 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.79</v>
+        <v>1.7224999999999999</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2779,13 +2779,13 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.78705</v>
+        <v>1.6987000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2794,13 +2794,13 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.8839999999999999</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2809,13 +2809,13 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>1.9876</v>
+        <v>1.8859999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2824,13 +2824,13 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.0830000000000002</v>
+        <v>1.9694</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2839,13 +2839,13 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.1715499999999999</v>
+        <v>2.0573999999999999</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2854,13 +2854,13 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.2509999999999999</v>
+        <v>2.1397499999999998</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2869,13 +2869,13 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.3243999999999998</v>
+        <v>2.2125499999999998</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2884,13 +2884,13 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.3908</v>
+        <v>2.2822</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2899,13 +2899,13 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.4527999999999999</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2914,13 +2914,13 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.0236700000000001</v>
+        <v>4.0034000000000001</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2929,13 +2929,13 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>3.8917000000000002</v>
+        <v>3.8405</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2944,13 +2944,13 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.875</v>
+        <v>3.80884</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2959,13 +2959,13 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.89493</v>
+        <v>3.82</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2974,13 +2974,13 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.9365600000000001</v>
+        <v>3.8538999999999999</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2989,13 +2989,13 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.9884599999999999</v>
+        <v>3.8992499999999999</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3004,13 +3004,13 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>4.0487799999999998</v>
+        <v>3.9535999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3019,13 +3019,13 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>4.1125499999999997</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3034,13 +3034,13 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.1765699999999999</v>
+        <v>4.0724999999999998</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3049,13 +3049,13 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.2389999999999999</v>
+        <v>4.1298899999999996</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3064,13 +3064,13 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.60499999999999998</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -3079,13 +3079,13 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.72375</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
@@ -3094,13 +3094,13 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.80625000000000002</v>
+        <v>0.8075</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -3109,13 +3109,13 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.87375499999999995</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3124,13 +3124,13 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.93874999999999997</v>
+        <v>0.91374999999999995</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.0037499999999999</v>
+        <v>0.96875</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -3154,13 +3154,13 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.0725</v>
+        <v>1.0287500000000001</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3169,13 +3169,13 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.1425050000000001</v>
+        <v>1.0918749999999999</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3184,13 +3184,13 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.2162500000000001</v>
+        <v>1.1587499999999999</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -3199,13 +3199,13 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.2937559999999999</v>
+        <v>1.23</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3214,13 +3214,13 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.4336000000000002</v>
+        <v>3.3479999999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3229,13 +3229,13 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.363</v>
+        <v>3.2367499999999998</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3244,13 +3244,13 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.6349999999999998</v>
+        <v>3.4913599999999998</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3259,13 +3259,13 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.74</v>
+        <v>3.5764499999999999</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3274,13 +3274,13 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.8635000000000002</v>
+        <v>3.6815000000000002</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3289,13 +3289,13 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.9871799999999999</v>
+        <v>3.7976999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3304,13 +3304,13 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>4.1059299999999999</v>
+        <v>3.9089499999999999</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3319,13 +3319,13 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.21</v>
+        <v>4.0065</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3334,13 +3334,13 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.3010000000000002</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3349,13 +3349,13 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.3796799999999996</v>
+        <v>4.1689499999999997</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -3364,13 +3364,13 @@
       </c>
       <c r="C62" cm="1">
         <f t="array" ref="C62">_xll.BDP(D62,"px_last")</f>
-        <v>2.032</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="D62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7</v>
       </c>
@@ -3379,13 +3379,13 @@
       </c>
       <c r="C63" cm="1">
         <f t="array" ref="C63">_xll.BDP(D63,"px_last")</f>
-        <v>2.0379999999999998</v>
+        <v>1.9529000000000001</v>
       </c>
       <c r="D63" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>7</v>
       </c>
@@ -3394,13 +3394,13 @@
       </c>
       <c r="C64" cm="1">
         <f t="array" ref="C64">_xll.BDP(D64,"px_last")</f>
-        <v>2.1219000000000001</v>
+        <v>2.0299</v>
       </c>
       <c r="D64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3409,13 +3409,13 @@
       </c>
       <c r="C65" cm="1">
         <f t="array" ref="C65">_xll.BDP(D65,"px_last")</f>
-        <v>2.2057000000000002</v>
+        <v>2.1126</v>
       </c>
       <c r="D65" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7</v>
       </c>
@@ -3424,13 +3424,13 @@
       </c>
       <c r="C66" cm="1">
         <f t="array" ref="C66">_xll.BDP(D66,"px_last")</f>
-        <v>2.2869999999999999</v>
+        <v>2.1930000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3439,13 +3439,13 @@
       </c>
       <c r="C67" cm="1">
         <f t="array" ref="C67">_xll.BDP(D67,"px_last")</f>
-        <v>2.3668499999999999</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="D67" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3454,13 +3454,13 @@
       </c>
       <c r="C68" cm="1">
         <f t="array" ref="C68">_xll.BDP(D68,"px_last")</f>
-        <v>2.4405000000000001</v>
+        <v>2.343</v>
       </c>
       <c r="D68" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7</v>
       </c>
@@ -3469,13 +3469,13 @@
       </c>
       <c r="C69" cm="1">
         <f t="array" ref="C69">_xll.BDP(D69,"px_last")</f>
-        <v>2.5069499999999998</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7</v>
       </c>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="C70" cm="1">
         <f t="array" ref="C70">_xll.BDP(D70,"px_last")</f>
-        <v>2.5599500000000002</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="D70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3499,13 +3499,13 @@
       </c>
       <c r="C71" cm="1">
         <f t="array" ref="C71">_xll.BDP(D71,"px_last")</f>
-        <v>2.6063999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>8</v>
       </c>
@@ -3514,13 +3514,13 @@
       </c>
       <c r="C72" cm="1">
         <f t="array" ref="C72">_xll.BDP(D72,"px_last")</f>
-        <v>4.2755999999999998</v>
+        <v>4.1825000000000001</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8</v>
       </c>
@@ -3529,13 +3529,13 @@
       </c>
       <c r="C73" cm="1">
         <f t="array" ref="C73">_xll.BDP(D73,"px_last")</f>
-        <v>3.9750000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="D73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>8</v>
       </c>
@@ -3544,13 +3544,13 @@
       </c>
       <c r="C74" cm="1">
         <f t="array" ref="C74">_xll.BDP(D74,"px_last")</f>
-        <v>3.875</v>
+        <v>3.7372000000000001</v>
       </c>
       <c r="D74" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>8</v>
       </c>
@@ -3559,13 +3559,13 @@
       </c>
       <c r="C75" cm="1">
         <f t="array" ref="C75">_xll.BDP(D75,"px_last")</f>
-        <v>3.8222999999999998</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>8</v>
       </c>
@@ -3574,13 +3574,13 @@
       </c>
       <c r="C76" cm="1">
         <f t="array" ref="C76">_xll.BDP(D76,"px_last")</f>
-        <v>3.8035000000000001</v>
+        <v>3.6547499999999999</v>
       </c>
       <c r="D76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3589,13 +3589,13 @@
       </c>
       <c r="C77" cm="1">
         <f t="array" ref="C77">_xll.BDP(D77,"px_last")</f>
-        <v>3.7974999999999999</v>
+        <v>3.6440000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3604,13 +3604,13 @@
       </c>
       <c r="C78" cm="1">
         <f t="array" ref="C78">_xll.BDP(D78,"px_last")</f>
-        <v>3.7949999999999999</v>
+        <v>3.6396000000000002</v>
       </c>
       <c r="D78" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3619,13 +3619,13 @@
       </c>
       <c r="C79" cm="1">
         <f t="array" ref="C79">_xll.BDP(D79,"px_last")</f>
-        <v>3.7959999999999998</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="D79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3634,13 +3634,13 @@
       </c>
       <c r="C80" cm="1">
         <f t="array" ref="C80">_xll.BDP(D80,"px_last")</f>
-        <v>3.7955000000000001</v>
+        <v>3.6356999999999999</v>
       </c>
       <c r="D80" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81">_xll.BDP(D81,"px_last")</f>
-        <v>3.7897500000000002</v>
+        <v>3.6309</v>
       </c>
       <c r="D81" t="s">
         <v>192</v>
@@ -3668,15 +3668,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3699,13 +3699,13 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.7189000000000001</v>
+        <v>3.4975999999999998</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3714,13 +3714,13 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.2960000000000003</v>
+        <v>4.1136999999999997</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3729,13 +3729,13 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.2048800000000002</v>
+        <v>2.99248</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3744,13 +3744,13 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.8987799999999999</v>
+        <v>3.6692</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3759,13 +3759,13 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.4344000000000001</v>
+        <v>2.2907000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3774,13 +3774,13 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.976</v>
+        <v>2.8650000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3789,13 +3789,13 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>4.0315000000000003</v>
+        <v>3.9287999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3804,13 +3804,13 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.6543999999999999</v>
+        <v>4.5152999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3819,13 +3819,13 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.1144000000000001</v>
+        <v>1.0676000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3834,13 +3834,13 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.696</v>
+        <v>1.6005</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3849,13 +3849,13 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>4.0811999999999999</v>
+        <v>3.8443999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3864,13 +3864,13 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>5.0242000000000004</v>
+        <v>4.7619999999999996</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3879,13 +3879,13 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.6943000000000001</v>
+        <v>2.5966</v>
       </c>
       <c r="D14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3894,13 +3894,13 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>3.2021999999999999</v>
+        <v>3.1044999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3909,13 +3909,13 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>3.8917700000000002</v>
+        <v>3.7238000000000002</v>
       </c>
       <c r="D16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>4.1555200000000001</v>
+        <v>3.9873799999999999</v>
       </c>
       <c r="D17" t="s">
         <v>197</v>
@@ -3943,14 +3943,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3961,97 +3961,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.3586</v>
+        <v>3.1775000000000002</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.8807499999999999</v>
+        <v>2.7476699999999998</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.9682999999999999</v>
+        <v>1.9452</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.8698000000000001</v>
+        <v>3.7759</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.92390000000000005</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.5489999999999999</v>
+        <v>3.3727999999999998</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"px_last")</f>
-        <v>2.3729</v>
+        <v>2.3569300000000002</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">_xll.BDP(C9,"px_last")</f>
-        <v>3.8135400000000002</v>
+        <v>3.6670099999999999</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -4066,22 +4066,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.319</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="E6" s="9" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.319</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -4223,17 +4223,17 @@
       </c>
       <c r="D7" s="9" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.258</v>
+        <v>4.2620000000000005</v>
       </c>
       <c r="E7" s="9" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.258</v>
+        <v>4.2620000000000005</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -4245,17 +4245,17 @@
       </c>
       <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.12</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.12</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9929999999999999</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="E9" s="9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9929999999999999</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4377,17 +4377,17 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.677</v>
+        <v>2.694</v>
       </c>
       <c r="E14" s="10" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.677</v>
+        <v>2.694</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5819999999999999</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="E15" s="10" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5819999999999999</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.488</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="E16" s="10" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.488</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4443,18 +4443,18 @@
       </c>
       <c r="D17" s="10">
         <f>D16</f>
-        <v>2.488</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>2.488</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="F17" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>3</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>3</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>3</v>
       </c>
@@ -4554,17 +4554,17 @@
       </c>
       <c r="D22" s="11" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9430000000000001</v>
+        <v>1.921</v>
       </c>
       <c r="E22" s="11" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.9430000000000001</v>
+        <v>1.921</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>3</v>
       </c>
@@ -4576,17 +4576,17 @@
       </c>
       <c r="D23" s="11" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.867</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="E23" s="11" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.867</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>3</v>
       </c>
@@ -4598,17 +4598,17 @@
       </c>
       <c r="D24" s="11" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7730000000000001</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7730000000000001</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>3</v>
       </c>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="D25" s="11">
         <f>D24</f>
-        <v>1.7730000000000001</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>1.7730000000000001</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="F25" s="11" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>4</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>4</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>4</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>4</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -4753,17 +4753,17 @@
       </c>
       <c r="D31" s="12" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.202</v>
+        <v>4.2009999999999996</v>
       </c>
       <c r="E31" s="12" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.202</v>
+        <v>4.2009999999999996</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="D32" s="12" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0940000000000003</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="E32" s="12" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.0940000000000003</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -4798,18 +4798,18 @@
       </c>
       <c r="D33" s="12">
         <f>D32</f>
-        <v>4.0940000000000003</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="E33" s="12" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.0250000000000004</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -4821,17 +4821,17 @@
       </c>
       <c r="D34" s="3" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E34" s="3" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.48</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -4843,17 +4843,17 @@
       </c>
       <c r="D35" s="3" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.50900000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E35" s="3" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.50900000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="D36" s="3" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54900000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E36" s="3" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54900000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="D37" s="3" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.60399999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="E37" s="3" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.60399999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -4910,17 +4910,17 @@
       </c>
       <c r="D38" s="3" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.64600000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E38" s="3" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.64600000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>6</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>6</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>6</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>6</v>
       </c>
@@ -5089,17 +5089,17 @@
       </c>
       <c r="D46" s="6" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6850000000000001</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6850000000000001</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>6</v>
       </c>
@@ -5111,17 +5111,17 @@
       </c>
       <c r="D47" s="6" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.448</v>
+        <v>3.419</v>
       </c>
       <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.448</v>
+        <v>3.419</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>6</v>
       </c>
@@ -5133,18 +5133,18 @@
       </c>
       <c r="D48" s="6" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.347</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="E48" s="6" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.347</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>159</v>
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>6</v>
       </c>
@@ -5156,18 +5156,18 @@
       </c>
       <c r="D49" s="6" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.2040000000000002</v>
+        <v>3.1379999999999999</v>
       </c>
       <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.2040000000000002</v>
+        <v>3.1379999999999999</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>161</v>
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>7</v>
       </c>
@@ -5179,17 +5179,17 @@
       </c>
       <c r="D50" s="7" cm="1">
         <f t="array" ref="D50">_xll.BDP(F50,"px_last")</f>
-        <v>2.113</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="E50" s="7">
         <f>D50</f>
-        <v>2.113</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>7</v>
       </c>
@@ -5201,17 +5201,17 @@
       </c>
       <c r="D51" s="7" cm="1">
         <f t="array" ref="D51">_xll.BDP(F51,"px_last")</f>
-        <v>2.13</v>
+        <v>1.9889999999999999</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" ref="E51:E65" si="0">D51</f>
-        <v>2.13</v>
+        <v>1.9889999999999999</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>7</v>
       </c>
@@ -5223,17 +5223,17 @@
       </c>
       <c r="D52" s="7" cm="1">
         <f t="array" ref="D52">_xll.BDP(F52,"px_last")</f>
-        <v>1.992</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>1.992</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>7</v>
       </c>
@@ -5245,17 +5245,17 @@
       </c>
       <c r="D53" s="7" cm="1">
         <f t="array" ref="D53">_xll.BDP(F53,"px_last")</f>
-        <v>1.9020000000000001</v>
+        <v>1.873</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>1.9020000000000001</v>
+        <v>1.873</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>7</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>7</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>7</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>7</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>8</v>
       </c>
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D58" s="8" cm="1">
         <f t="array" ref="D58">_xll.BDP(F58,"px_last")</f>
-        <v>4.4429999999999996</v>
+        <v>4.4719999999999995</v>
       </c>
       <c r="E58" s="8">
         <f t="shared" si="0"/>
-        <v>4.4429999999999996</v>
+        <v>4.4719999999999995</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>8</v>
       </c>
@@ -5381,17 +5381,17 @@
       </c>
       <c r="D59" s="8" cm="1">
         <f t="array" ref="D59">_xll.BDP(F59,"px_last")</f>
-        <v>4.6710000000000003</v>
+        <v>4.423</v>
       </c>
       <c r="E59" s="8">
         <f t="shared" si="0"/>
-        <v>4.6710000000000003</v>
+        <v>4.423</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>8</v>
       </c>
@@ -5403,17 +5403,17 @@
       </c>
       <c r="D60" s="8" cm="1">
         <f t="array" ref="D60">_xll.BDP(F60,"px_last")</f>
-        <v>4.2809999999999997</v>
+        <v>4.22</v>
       </c>
       <c r="E60" s="8">
         <f t="shared" si="0"/>
-        <v>4.2809999999999997</v>
+        <v>4.22</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>8</v>
       </c>
@@ -5425,17 +5425,17 @@
       </c>
       <c r="D61" s="8" cm="1">
         <f t="array" ref="D61">_xll.BDP(F61,"px_last")</f>
-        <v>4.2190000000000003</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E61" s="8">
         <f t="shared" si="0"/>
-        <v>4.2190000000000003</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>8</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>8</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>8</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>8</v>
       </c>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9981F660-C42E-4076-8116-28476F303F27}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456F0779-16E7-4B2A-B1B2-9DB5C99898E4}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-12440" yWindow="-21710" windowWidth="51820" windowHeight="21100" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -665,9 +665,6 @@
     <t>SD0312FC 21M3M BLC Curncy</t>
   </si>
   <si>
-    <t>NO0BFR JUN2025 Index</t>
-  </si>
-  <si>
     <t>NO0BFR AUG2025 Index</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>NO0BFR NOV2025 Index</t>
+  </si>
+  <si>
+    <t>NO0BFR DEC2025 Index</t>
   </si>
 </sst>
 </file>
@@ -845,433 +845,433 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4145568520</v>
+        <v>#N/A Requesting Data...2170330452</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4177689509</v>
+        <v>#N/A Requesting Data...2669242353</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4244768560</v>
+        <v>#N/A Requesting Data...2583312648</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4250999231</v>
+        <v>#N/A Requesting Data...3574467934</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4027603741</v>
+        <v>#N/A Requesting Data...3447858090</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
+        <tr r="E22" s="5"/>
         <tr r="D22" s="5"/>
-        <tr r="E22" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4256707297</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3397364391</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205592678</v>
+        <v>#N/A Requesting Data...3596930355</v>
         <stp/>
         <stp>BDP|11386130649106637983</stp>
-        <tr r="D59" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4223648329</v>
+        <tr r="D58" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2848522635</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
         <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4133085059</v>
+        <v>#N/A Requesting Data...3666084270</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
+        <tr r="E32" s="5"/>
         <tr r="D32" s="5"/>
-        <tr r="E32" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4267016998</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3189999701</v>
         <stp/>
         <stp>BDP|13871096504043191898</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4164832373</v>
+        <v>#N/A Requesting Data...3891903459</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4284209476</v>
+        <v>#N/A Requesting Data...2645315263</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
+        <tr r="E20" s="5"/>
         <tr r="D20" s="5"/>
-        <tr r="E20" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4172278175</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2392021456</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
+        <tr r="E10" s="5"/>
         <tr r="D10" s="5"/>
-        <tr r="E10" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4135509494</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2725114082</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4247567199</v>
+        <v>#N/A Requesting Data...2781544029</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4200965315</v>
+        <v>#N/A Requesting Data...3931270450</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4215830227</v>
+        <v>#N/A Requesting Data...4045265948</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4172566170</v>
+        <v>#N/A Requesting Data...2136326237</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4148191819</v>
+        <v>#N/A Requesting Data...2637790133</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
         <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4182369751</v>
+        <v>#N/A Requesting Data...3714626400</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4066838927</v>
+        <v>#N/A Requesting Data...3190261762</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4123475744</v>
+        <v>#N/A Requesting Data...3488168156</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
+        <tr r="E29" s="5"/>
         <tr r="D29" s="5"/>
-        <tr r="E29" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4060031690</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3790384237</v>
         <stp/>
         <stp>BDP|17880537498901096542</stp>
         <tr r="C14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4081706409</v>
+        <v>#N/A Requesting Data...3833857534</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
+        <tr r="E16" s="5"/>
         <tr r="D16" s="5"/>
-        <tr r="E16" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4187633378</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3064275450</v>
         <stp/>
         <stp>BDP|12231332781916058360</stp>
         <tr r="C72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4109719415</v>
+        <v>#N/A Requesting Data...3800025287</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4034976510</v>
+        <v>#N/A Requesting Data...3121343736</v>
         <stp/>
         <stp>BDP|13869588079434430802</stp>
         <tr r="C16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063603451</v>
+        <v>#N/A Requesting Data...4173432831</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4164529427</v>
+        <v>#N/A Requesting Data...2899703548</v>
         <stp/>
         <stp>BDP|12019636457207532493</stp>
         <tr r="D52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4069005200</v>
+        <v>#N/A Requesting Data...3192868527</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4075130422</v>
+        <v>#N/A Requesting Data...3060894332</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4023583513</v>
+        <v>#N/A Requesting Data...3555044019</v>
         <stp/>
         <stp>BDP|11785014485858726384</stp>
         <tr r="C70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287701806</v>
+        <v>#N/A Requesting Data...3444157866</v>
         <stp/>
         <stp>BDP|16223409921160501246</stp>
-        <tr r="D60" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4235325237</v>
+        <tr r="D59" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4274977125</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
         <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245779622</v>
+        <v>#N/A Requesting Data...2311434333</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4118858567</v>
+        <v>#N/A Requesting Data...3892509910</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228222129</v>
+        <v>#N/A Requesting Data...3030230156</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4088777664</v>
+        <v>#N/A Requesting Data...3123867223</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4159373695</v>
+        <v>#N/A Requesting Data...4033278589</v>
         <stp/>
         <stp>BDP|12578146028776474412</stp>
         <tr r="C81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291714794</v>
+        <v>#N/A Requesting Data...3930208081</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4171775986</v>
+        <v>#N/A Requesting Data...3940985960</v>
         <stp/>
         <stp>BDP|15261231244487562713</stp>
         <tr r="C66" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4115718079</v>
+        <v>#N/A Requesting Data...4137686333</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4076329278</v>
+        <v>#N/A Requesting Data...3264360375</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251033216</v>
+        <v>#N/A Requesting Data...2393340124</v>
         <stp/>
         <stp>BDP|11158606637492074557</stp>
         <tr r="D51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220092818</v>
+        <v>#N/A Requesting Data...2434681961</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
+        <tr r="E24" s="5"/>
         <tr r="D24" s="5"/>
-        <tr r="E24" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4184181236</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2636296884</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4127589229</v>
+        <v>#N/A Requesting Data...2654429842</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
         <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211949998</v>
+        <v>#N/A Requesting Data...3557627953</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114432572</v>
+        <v>#N/A Requesting Data...3395009730</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263448436</v>
+        <v>#N/A Requesting Data...2777604541</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4128220355</v>
+        <v>#N/A Requesting Data...3759312072</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4216286051</v>
+        <v>#N/A Requesting Data...3391369282</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
         <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4132645886</v>
+        <v>#N/A Requesting Data...2265787129</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291408546</v>
+        <v>#N/A Requesting Data...4133951460</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4111217289</v>
+        <v>#N/A Requesting Data...4048001373</v>
         <stp/>
         <stp>BDP|14931566239030452488</stp>
         <tr r="C64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286149932</v>
+        <v>#N/A Requesting Data...2585421740</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114591613</v>
+        <v>#N/A Requesting Data...2304855083</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
+        <tr r="E12" s="5"/>
         <tr r="D12" s="5"/>
-        <tr r="E12" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4082607121</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2762938325</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4094647465</v>
+        <v>#N/A Requesting Data...2498064753</v>
         <stp/>
         <stp>BDP|11720130691358617769</stp>
         <tr r="D50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4080591100</v>
+        <v>#N/A Requesting Data...2941533751</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4192391706</v>
+        <v>#N/A Requesting Data...2263626072</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4272879820</v>
+        <v>#N/A Requesting Data...3291790414</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4184485330</v>
+        <v>#N/A Requesting Data...3524502110</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4177364861</v>
+        <v>#N/A Requesting Data...2399069558</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
+        <tr r="E46" s="5"/>
         <tr r="D46" s="5"/>
-        <tr r="E46" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4250209166</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2383714160</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252774333</v>
+        <v>#N/A Requesting Data...3476910500</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4133898785</v>
+        <v>#N/A Requesting Data...3944847316</v>
         <stp/>
         <stp>BDP|16768894010998168234</stp>
         <tr r="C78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162921826</v>
+        <v>#N/A Requesting Data...2560964736</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1279,584 +1279,586 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4223894509</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|3231034549499389</stp>
+        <tr r="D61" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2778302244</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4128675280</v>
+        <v>#N/A Requesting Data...2478315887</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4182561470</v>
+        <v>#N/A Requesting Data...3086967010</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4209870826</v>
+        <v>#N/A Requesting Data...3477942800</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294331889</v>
+        <v>#N/A Requesting Data...2816459568</v>
         <stp/>
         <stp>BDP|8921779427646662792</stp>
         <tr r="C63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4137087313</v>
+        <v>#N/A Requesting Data...4020620421</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110420248</v>
+        <v>#N/A Requesting Data...3889503983</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4126917751</v>
+        <v>#N/A Requesting Data...3444575995</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279061326</v>
+        <v>#N/A Requesting Data...3874751312</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4140533199</v>
+        <v>#N/A Requesting Data...2646575712</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4100229817</v>
+        <v>#N/A Requesting Data...2553688653</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220212982</v>
+        <v>#N/A Requesting Data...4113928316</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
+        <tr r="E45" s="5"/>
         <tr r="D45" s="5"/>
-        <tr r="E45" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4246160197</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4092961557</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
+        <tr r="E43" s="5"/>
         <tr r="D43" s="5"/>
-        <tr r="E43" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4262122452</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3846568328</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
+        <tr r="E30" s="5"/>
         <tr r="D30" s="5"/>
-        <tr r="E30" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4123700400</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3862005672</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4284355220</v>
+        <v>#N/A Requesting Data...2773599083</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4122225863</v>
-        <stp/>
-        <stp>BDP|1228635045269913210</stp>
-        <tr r="D58" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4113477403</v>
+        <v>#N/A Requesting Data...3502675840</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4285832467</v>
+        <v>#N/A Requesting Data...4076143642</v>
         <stp/>
         <stp>BDP|8582355928430667071</stp>
         <tr r="C15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4152832963</v>
+        <v>#N/A Requesting Data...3880555618</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210781665</v>
+        <v>#N/A Requesting Data...4056658800</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290374334</v>
+        <v>#N/A Requesting Data...3506122430</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
+        <tr r="E36" s="5"/>
         <tr r="D36" s="5"/>
-        <tr r="E36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4154185642</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3905421600</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4248786320</v>
+        <v>#N/A Requesting Data...4216956265</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
+        <tr r="E6" s="5"/>
         <tr r="D6" s="5"/>
-        <tr r="E6" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4273050095</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3270186205</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110420007</v>
+        <v>#N/A Requesting Data...3515323140</v>
         <stp/>
         <stp>BDP|8747495145653745050</stp>
         <tr r="C68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4125543038</v>
+        <v>#N/A Requesting Data...2718745530</v>
         <stp/>
         <stp>BDP|1293585490094706218</stp>
         <tr r="C76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261982902</v>
+        <v>#N/A Requesting Data...3444182593</v>
         <stp/>
         <stp>BDP|7000625624158715023</stp>
         <tr r="C65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219877908</v>
+        <v>#N/A Requesting Data...3968804586</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4237161776</v>
+        <v>#N/A Requesting Data...2495413377</v>
         <stp/>
         <stp>BDP|4043002694661424764</stp>
         <tr r="C80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236944099</v>
+        <v>#N/A Requesting Data...2788371122</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4142421921</v>
+        <v>#N/A Requesting Data...2835190599</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4250672903</v>
+        <v>#N/A Requesting Data...3400521778</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4241134828</v>
+        <v>#N/A Requesting Data...3659076633</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245457158</v>
+        <v>#N/A Requesting Data...4274352758</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4216102341</v>
+        <v>#N/A Requesting Data...3990960698</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191305560</v>
+        <v>#N/A Requesting Data...3811003713</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149216759</v>
+        <v>#N/A Requesting Data...3039561856</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4183279887</v>
+        <v>#N/A Requesting Data...3527914055</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4282796416</v>
+        <v>#N/A Requesting Data...2567123694</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252569819</v>
+        <v>#N/A Requesting Data...2895421628</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4181365351</v>
+        <v>#N/A Requesting Data...3014069274</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236713255</v>
+        <v>#N/A Requesting Data...3626502394</v>
         <stp/>
         <stp>BDP|9451317392726401317</stp>
         <tr r="C62" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4130381167</v>
+        <v>#N/A Requesting Data...4241860170</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211106931</v>
+        <v>#N/A Requesting Data...3481761180</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287642807</v>
+        <v>#N/A Requesting Data...3375677712</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217778851</v>
+        <v>#N/A Requesting Data...4261894289</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4195119852</v>
+        <v>#N/A Requesting Data...3362213484</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149657600</v>
+        <v>#N/A Requesting Data...3714759410</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4235974382</v>
+        <v>#N/A Requesting Data...4206016299</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4256983445</v>
+        <v>#N/A Requesting Data...2602537280</v>
         <stp/>
         <stp>BDP|2495735351850072786</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228399518</v>
+        <v>#N/A Requesting Data...2697328248</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4271651450</v>
+        <v>#N/A Requesting Data...3620735203</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146323489</v>
+        <v>#N/A Requesting Data...3872668141</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4140506052</v>
+        <v>#N/A Requesting Data...3901991406</v>
         <stp/>
         <stp>BDP|1112019130066735499</stp>
         <tr r="C69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4180168887</v>
+        <v>#N/A Requesting Data...3789463002</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4142996111</v>
+        <v>#N/A Requesting Data...4183245437</v>
         <stp/>
         <stp>BDP|5904043058468966806</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4281881980</v>
+        <v>#N/A Requesting Data...2674108464</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4199087703</v>
+        <v>#N/A Requesting Data...3469854348</v>
         <stp/>
         <stp>BDP|3606548583877679962</stp>
         <tr r="C75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146922661</v>
+        <v>#N/A Requesting Data...2530123620</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4165943984</v>
+        <v>#N/A Requesting Data...4285119459</v>
         <stp/>
         <stp>BDP|1388314034007359610</stp>
         <tr r="C17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4155897348</v>
+        <v>#N/A Requesting Data...3724931870</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262009630</v>
+        <v>#N/A Requesting Data...3632475648</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4273193121</v>
+        <v>#N/A Requesting Data...3675317511</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
+        <tr r="E26" s="5"/>
+        <tr r="D27" s="5"/>
+        <tr r="E27" s="5"/>
         <tr r="D26" s="5"/>
-        <tr r="D27" s="5"/>
-        <tr r="E26" s="5"/>
-        <tr r="E27" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4197868121</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3960077682</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
+        <tr r="E7" s="5"/>
         <tr r="D7" s="5"/>
-        <tr r="E7" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4261925634</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2475107199</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4237639868</v>
+        <v>#N/A Requesting Data...3803274843</v>
         <stp/>
         <stp>BDP|3478533777803090302</stp>
         <tr r="D53" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228762340</v>
+        <v>#N/A Requesting Data...4272773541</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260282021</v>
+        <v>#N/A Requesting Data...2993599549</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292010770</v>
+        <v>#N/A Requesting Data...2670389973</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4190802690</v>
+        <v>#N/A Requesting Data...2473891614</v>
         <stp/>
         <stp>BDP|5596311615892120727</stp>
         <tr r="C71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4270555534</v>
+        <v>#N/A Requesting Data...3577978571</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205103291</v>
+        <v>#N/A Requesting Data...3768416717</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4173446311</v>
+        <v>#N/A Requesting Data...4218060158</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207942357</v>
+        <v>#N/A Requesting Data...3666111752</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4186061469</v>
+        <v>#N/A Requesting Data...2508158046</v>
         <stp/>
         <stp>BDP|4548559138812342366</stp>
         <tr r="C74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280589543</v>
+        <v>#N/A Requesting Data...3448154173</v>
         <stp/>
         <stp>BDP|2937347805593295188</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4246870024</v>
+        <v>#N/A Requesting Data...3709497347</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4222715587</v>
+        <v>#N/A Requesting Data...4037690470</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
+        <tr r="E3" s="5"/>
         <tr r="D3" s="5"/>
-        <tr r="E3" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4236430346</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2861293107</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4180289834</v>
+        <v>#N/A Requesting Data...2743733295</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
+        <tr r="E15" s="5"/>
         <tr r="D15" s="5"/>
-        <tr r="E15" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4180173829</v>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3306961967</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176121768</v>
+        <v>#N/A Requesting Data...3630078164</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277583047</v>
+        <v>#N/A Requesting Data...3553921257</v>
         <stp/>
         <stp>BDP|698640909269571851</stp>
         <tr r="C67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217249032</v>
+        <v>#N/A Requesting Data...4091999666</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
+        <tr r="E13" s="5"/>
         <tr r="D13" s="5"/>
-        <tr r="E13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4249728198</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4141290957</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4203423469</v>
+        <v>#N/A Requesting Data...2850195834</v>
         <stp/>
         <stp>BDP|769230224156311022</stp>
-        <tr r="D61" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4282360005</v>
+        <tr r="D60" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4212441296</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4205620306</v>
+        <v>#N/A Requesting Data...2521738117</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291651090</v>
+        <v>#N/A Requesting Data...2762681897</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4248595954</v>
+        <v>#N/A Requesting Data...3120630552</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258818251</v>
+        <v>#N/A Requesting Data...3130056236</v>
         <stp/>
         <stp>BDP|831042661121373939</stp>
         <tr r="C79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220059996</v>
+        <v>#N/A Requesting Data...3303506843</v>
         <stp/>
         <stp>BDP|259036188629559998</stp>
         <tr r="C77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217858610</v>
+        <v>#N/A Requesting Data...3618244811</v>
         <stp/>
         <stp>BDP|220174318258124269</stp>
         <tr r="C73" s="3"/>
@@ -2186,7 +2188,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2331,7 +2333,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"PX_LAST")</f>
-        <v>4.33</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2355,7 +2357,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>2.161</v>
+        <v>1.925</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2367,7 +2369,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.2107000000000001</v>
+        <v>4.2173999999999996</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2379,7 +2381,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47599999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2403,7 +2405,7 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"PX_LAST")</f>
-        <v>2.262</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="C8" t="s">
         <v>172</v>
@@ -2415,7 +2417,7 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">_xll.BDP(C9,"PX_LAST")</f>
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -2464,7 +2466,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.02494</v>
+        <v>4.0012499999999998</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.6781199999999998</v>
+        <v>3.6672099999999999</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2494,7 +2496,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.5783100000000001</v>
+        <v>3.5685500000000001</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2509,7 +2511,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.573</v>
+        <v>3.5616500000000002</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2524,7 +2526,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.6025</v>
+        <v>3.5928200000000001</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.6524999999999999</v>
+        <v>3.64453</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2554,7 +2556,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7069000000000001</v>
+        <v>3.7025000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2569,7 +2571,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7593000000000001</v>
+        <v>3.7597</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2584,7 +2586,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.80965</v>
+        <v>3.8159000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2599,7 +2601,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.8576999999999999</v>
+        <v>3.87</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2614,7 +2616,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.4811999999999999</v>
+        <v>2.6625000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2629,7 +2631,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.4489999999999998</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2644,7 +2646,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.4820000000000002</v>
+        <v>2.746</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2659,7 +2661,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.5207999999999999</v>
+        <v>2.8098999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2674,7 +2676,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.577</v>
+        <v>2.8784999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2689,7 +2691,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.65</v>
+        <v>2.9510000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2704,7 +2706,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>2.7290000000000001</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2719,7 +2721,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>2.8050000000000002</v>
+        <v>3.1009000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2734,7 +2736,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>2.8736999999999999</v>
+        <v>3.1697000000000002</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2749,7 +2751,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>2.9319999999999999</v>
+        <v>3.2284000000000002</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.7224999999999999</v>
+        <v>1.7998499999999999</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2779,7 +2781,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.6987000000000001</v>
+        <v>1.81375</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2794,7 +2796,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.7829999999999999</v>
+        <v>1.917</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2809,7 +2811,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>1.8859999999999999</v>
+        <v>2.0219499999999999</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2824,7 +2826,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>1.9694</v>
+        <v>2.1154500000000001</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2839,7 +2841,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.0573999999999999</v>
+        <v>2.2012499999999999</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2854,7 +2856,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.1397499999999998</v>
+        <v>2.27955</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.2125499999999998</v>
+        <v>2.3523499999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2884,7 +2886,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.2822</v>
+        <v>2.4193500000000001</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.3410000000000002</v>
+        <v>2.48326</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2914,7 +2916,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>4.0034000000000001</v>
+        <v>3.8101500000000001</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2929,7 +2931,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>3.8405</v>
+        <v>3.6907999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.80884</v>
+        <v>3.6939500000000001</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2959,7 +2961,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.82</v>
+        <v>3.7322500000000001</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2974,7 +2976,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.8538999999999999</v>
+        <v>3.7875000000000001</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2989,7 +2991,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.8992499999999999</v>
+        <v>3.851</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -3004,7 +3006,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9535999999999998</v>
+        <v>3.9209999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -3019,7 +3021,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>4.0129999999999999</v>
+        <v>3.9975299999999998</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -3034,7 +3036,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.0724999999999998</v>
+        <v>4.0670000000000002</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -3049,7 +3051,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.1298899999999996</v>
+        <v>4.1364999999999998</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -3064,7 +3066,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.61250000000000004</v>
+        <v>0.67874999999999996</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -3079,7 +3081,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.73124999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -3094,7 +3096,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.8075</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -3109,7 +3111,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.86250000000000004</v>
+        <v>0.97024999999999995</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -3124,7 +3126,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>0.91374999999999995</v>
+        <v>1.0277499999999999</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>0.96875</v>
+        <v>1.0827500000000001</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3154,7 +3156,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.0287500000000001</v>
+        <v>1.14375</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -3169,7 +3171,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.0918749999999999</v>
+        <v>1.20625</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -3184,7 +3186,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.1587499999999999</v>
+        <v>1.27275</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -3199,7 +3201,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.23</v>
+        <v>1.3452500000000001</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -3214,7 +3216,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.3479999999999999</v>
+        <v>3.3887499999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -3229,7 +3231,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.2367499999999998</v>
+        <v>3.3224999999999998</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -3244,7 +3246,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.4913599999999998</v>
+        <v>3.5937000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -3259,7 +3261,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.5764499999999999</v>
+        <v>3.6766000000000001</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -3274,7 +3276,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.6815000000000002</v>
+        <v>3.7740999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -3289,7 +3291,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.7976999999999999</v>
+        <v>3.879</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -3304,7 +3306,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>3.9089499999999999</v>
+        <v>3.9834000000000001</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -3319,7 +3321,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.0065</v>
+        <v>4.0752499999999996</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -3334,7 +3336,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.0940000000000003</v>
+        <v>4.1585000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -3349,7 +3351,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.1689499999999997</v>
+        <v>4.2309000000000001</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -3364,7 +3366,7 @@
       </c>
       <c r="C62" cm="1">
         <f t="array" ref="C62">_xll.BDP(D62,"px_last")</f>
-        <v>1.9650000000000001</v>
+        <v>1.843</v>
       </c>
       <c r="D62" t="s">
         <v>174</v>
@@ -3379,7 +3381,7 @@
       </c>
       <c r="C63" cm="1">
         <f t="array" ref="C63">_xll.BDP(D63,"px_last")</f>
-        <v>1.9529000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="D63" t="s">
         <v>175</v>
@@ -3394,7 +3396,7 @@
       </c>
       <c r="C64" cm="1">
         <f t="array" ref="C64">_xll.BDP(D64,"px_last")</f>
-        <v>2.0299</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="D64" t="s">
         <v>176</v>
@@ -3409,7 +3411,7 @@
       </c>
       <c r="C65" cm="1">
         <f t="array" ref="C65">_xll.BDP(D65,"px_last")</f>
-        <v>2.1126</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="D65" t="s">
         <v>177</v>
@@ -3424,7 +3426,7 @@
       </c>
       <c r="C66" cm="1">
         <f t="array" ref="C66">_xll.BDP(D66,"px_last")</f>
-        <v>2.1930000000000001</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D66" t="s">
         <v>178</v>
@@ -3439,7 +3441,7 @@
       </c>
       <c r="C67" cm="1">
         <f t="array" ref="C67">_xll.BDP(D67,"px_last")</f>
-        <v>2.2730000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D67" t="s">
         <v>179</v>
@@ -3454,7 +3456,7 @@
       </c>
       <c r="C68" cm="1">
         <f t="array" ref="C68">_xll.BDP(D68,"px_last")</f>
-        <v>2.343</v>
+        <v>2.39</v>
       </c>
       <c r="D68" t="s">
         <v>180</v>
@@ -3469,7 +3471,7 @@
       </c>
       <c r="C69" cm="1">
         <f t="array" ref="C69">_xll.BDP(D69,"px_last")</f>
-        <v>2.4049999999999998</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
@@ -3484,7 +3486,7 @@
       </c>
       <c r="C70" cm="1">
         <f t="array" ref="C70">_xll.BDP(D70,"px_last")</f>
-        <v>2.4620000000000002</v>
+        <v>2.5278999999999998</v>
       </c>
       <c r="D70" t="s">
         <v>182</v>
@@ -3499,7 +3501,7 @@
       </c>
       <c r="C71" cm="1">
         <f t="array" ref="C71">_xll.BDP(D71,"px_last")</f>
-        <v>2.5099999999999998</v>
+        <v>2.5874000000000001</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
@@ -3514,7 +3516,7 @@
       </c>
       <c r="C72" cm="1">
         <f t="array" ref="C72">_xll.BDP(D72,"px_last")</f>
-        <v>4.1825000000000001</v>
+        <v>3.8965000000000001</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
@@ -3529,7 +3531,7 @@
       </c>
       <c r="C73" cm="1">
         <f t="array" ref="C73">_xll.BDP(D73,"px_last")</f>
-        <v>3.86</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="D73" t="s">
         <v>185</v>
@@ -3544,7 +3546,7 @@
       </c>
       <c r="C74" cm="1">
         <f t="array" ref="C74">_xll.BDP(D74,"px_last")</f>
-        <v>3.7372000000000001</v>
+        <v>3.59</v>
       </c>
       <c r="D74" t="s">
         <v>193</v>
@@ -3559,7 +3561,7 @@
       </c>
       <c r="C75" cm="1">
         <f t="array" ref="C75">_xll.BDP(D75,"px_last")</f>
-        <v>3.6819999999999999</v>
+        <v>3.5733999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>186</v>
@@ -3574,7 +3576,7 @@
       </c>
       <c r="C76" cm="1">
         <f t="array" ref="C76">_xll.BDP(D76,"px_last")</f>
-        <v>3.6547499999999999</v>
+        <v>3.5745</v>
       </c>
       <c r="D76" t="s">
         <v>187</v>
@@ -3589,7 +3591,7 @@
       </c>
       <c r="C77" cm="1">
         <f t="array" ref="C77">_xll.BDP(D77,"px_last")</f>
-        <v>3.6440000000000001</v>
+        <v>3.5783999999999998</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
@@ -3604,7 +3606,7 @@
       </c>
       <c r="C78" cm="1">
         <f t="array" ref="C78">_xll.BDP(D78,"px_last")</f>
-        <v>3.6396000000000002</v>
+        <v>3.5905</v>
       </c>
       <c r="D78" t="s">
         <v>189</v>
@@ -3619,7 +3621,7 @@
       </c>
       <c r="C79" cm="1">
         <f t="array" ref="C79">_xll.BDP(D79,"px_last")</f>
-        <v>3.6379999999999999</v>
+        <v>3.6004999999999998</v>
       </c>
       <c r="D79" t="s">
         <v>190</v>
@@ -3634,7 +3636,7 @@
       </c>
       <c r="C80" cm="1">
         <f t="array" ref="C80">_xll.BDP(D80,"px_last")</f>
-        <v>3.6356999999999999</v>
+        <v>3.6105</v>
       </c>
       <c r="D80" t="s">
         <v>191</v>
@@ -3649,7 +3651,7 @@
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81">_xll.BDP(D81,"px_last")</f>
-        <v>3.6309</v>
+        <v>3.6158000000000001</v>
       </c>
       <c r="D81" t="s">
         <v>192</v>
@@ -3699,7 +3701,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.4975999999999998</v>
+        <v>3.4807000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -3714,7 +3716,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.1136999999999997</v>
+        <v>4.1478000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -3729,7 +3731,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>2.99248</v>
+        <v>3.3412299999999999</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -3744,7 +3746,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.6692</v>
+        <v>3.9664100000000002</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -3759,7 +3761,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.2907000000000002</v>
+        <v>2.4801000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3774,7 +3776,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>2.8650000000000002</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3789,7 +3791,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9287999999999998</v>
+        <v>3.9232999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3804,7 +3806,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.5152999999999999</v>
+        <v>4.6093000000000002</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3819,7 +3821,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.0676000000000001</v>
+        <v>1.2149000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3834,7 +3836,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.6005</v>
+        <v>1.7282</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3849,7 +3851,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.8443999999999998</v>
+        <v>3.9340999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3864,7 +3866,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.7619999999999996</v>
+        <v>4.7892000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3879,7 +3881,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.5966</v>
+        <v>2.6791</v>
       </c>
       <c r="D14" t="s">
         <v>194</v>
@@ -3894,7 +3896,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>3.1044999999999998</v>
+        <v>3.2262</v>
       </c>
       <c r="D15" t="s">
         <v>195</v>
@@ -3909,7 +3911,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>3.7238000000000002</v>
+        <v>3.7396400000000001</v>
       </c>
       <c r="D16" t="s">
         <v>196</v>
@@ -3924,7 +3926,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>3.9873799999999999</v>
+        <v>4.0399200000000004</v>
       </c>
       <c r="D17" t="s">
         <v>197</v>
@@ -3940,7 +3942,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3967,7 +3969,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.1775000000000002</v>
+        <v>3.1657999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3979,7 +3981,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>2.7476699999999998</v>
+        <v>3.0423499999999999</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3991,7 +3993,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>1.9452</v>
+        <v>2.0672999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -4003,7 +4005,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.7759</v>
+        <v>3.6892999999999998</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -4015,7 +4017,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>0.93859999999999999</v>
+        <v>1.0454000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -4027,7 +4029,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.3727999999999998</v>
+        <v>3.4983</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -4039,7 +4041,7 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"px_last")</f>
-        <v>2.3569300000000002</v>
+        <v>2.1482199999999998</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
@@ -4051,7 +4053,7 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">_xll.BDP(C9,"px_last")</f>
-        <v>3.6670099999999999</v>
+        <v>3.62174</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -4066,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4157,11 +4159,11 @@
       </c>
       <c r="D4" s="9" cm="1">
         <f t="array" ref="D4">_xll.BDP(F4,"px_last")</f>
-        <v>4.327</v>
+        <v>4.3280000000000003</v>
       </c>
       <c r="E4" s="9" cm="1">
         <f t="array" ref="E4">_xll.BDP(F4,"px_last")</f>
-        <v>4.327</v>
+        <v>4.3280000000000003</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>124</v>
@@ -4201,11 +4203,11 @@
       </c>
       <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">_xll.BDP(F6,"px_last")</f>
-        <v>4.3250000000000002</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="E6" s="9" cm="1">
         <f t="array" ref="E6">_xll.BDP(F6,"px_last")</f>
-        <v>4.3250000000000002</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>126</v>
@@ -4223,11 +4225,11 @@
       </c>
       <c r="D7" s="9" cm="1">
         <f t="array" ref="D7">_xll.BDP(F7,"px_last")</f>
-        <v>4.2620000000000005</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="E7" s="9" cm="1">
         <f t="array" ref="E7">_xll.BDP(F7,"px_last")</f>
-        <v>4.2620000000000005</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>127</v>
@@ -4245,11 +4247,11 @@
       </c>
       <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1040000000000001</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1040000000000001</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>128</v>
@@ -4267,11 +4269,11 @@
       </c>
       <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9569999999999999</v>
+        <v>4.048</v>
       </c>
       <c r="E9" s="9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>3.9569999999999999</v>
+        <v>4.048</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>160</v>
@@ -4377,11 +4379,11 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_xll.BDP(F14,"px_last")</f>
-        <v>2.694</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="E14" s="10" cm="1">
         <f t="array" ref="E14">_xll.BDP(F14,"px_last")</f>
-        <v>2.694</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>133</v>
@@ -4399,11 +4401,11 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5920000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="E15" s="10" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.5920000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -4421,11 +4423,11 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.4569999999999999</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="E16" s="10" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.4569999999999999</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -4443,11 +4445,11 @@
       </c>
       <c r="D17" s="10">
         <f>D16</f>
-        <v>2.4569999999999999</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>2.4569999999999999</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="F17" s="10" t="e">
         <f>NA()</f>
@@ -4554,11 +4556,11 @@
       </c>
       <c r="D22" s="11" cm="1">
         <f t="array" ref="D22">_xll.BDP(F22,"px_last")</f>
-        <v>1.921</v>
+        <v>1.923</v>
       </c>
       <c r="E22" s="11" cm="1">
         <f t="array" ref="E22">_xll.BDP(F22,"px_last")</f>
-        <v>1.921</v>
+        <v>1.923</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>139</v>
@@ -4576,11 +4578,11 @@
       </c>
       <c r="D23" s="11" cm="1">
         <f t="array" ref="D23">_xll.BDP(F23,"px_last")</f>
-        <v>1.8580000000000001</v>
+        <v>1.9220000000000002</v>
       </c>
       <c r="E23" s="11" cm="1">
         <f t="array" ref="E23">_xll.BDP(F23,"px_last")</f>
-        <v>1.8580000000000001</v>
+        <v>1.9220000000000002</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>141</v>
@@ -4598,11 +4600,11 @@
       </c>
       <c r="D24" s="11" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7130000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.7130000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>142</v>
@@ -4620,11 +4622,11 @@
       </c>
       <c r="D25" s="11">
         <f>D24</f>
-        <v>1.7130000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>1.7130000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="F25" s="11" t="e">
         <f>NA()</f>
@@ -4753,11 +4755,11 @@
       </c>
       <c r="D31" s="12" cm="1">
         <f t="array" ref="D31">_xll.BDP(F30,"px_last")</f>
-        <v>4.2009999999999996</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="E31" s="12" cm="1">
         <f t="array" ref="E31">_xll.BDP(F30,"px_last")</f>
-        <v>4.2009999999999996</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>148</v>
@@ -4775,11 +4777,11 @@
       </c>
       <c r="D32" s="12" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1020000000000003</v>
+        <v>3.984</v>
       </c>
       <c r="E32" s="12" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>4.1020000000000003</v>
+        <v>3.984</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>149</v>
@@ -4798,11 +4800,11 @@
       </c>
       <c r="D33" s="12">
         <f>D32</f>
-        <v>4.1020000000000003</v>
+        <v>3.984</v>
       </c>
       <c r="E33" s="12" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>4.0449999999999999</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>NA()</f>
@@ -4821,11 +4823,11 @@
       </c>
       <c r="D34" s="3" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
-        <v>0.47699999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E34" s="3" cm="1">
         <f t="array" ref="E34">_xll.BDP(F34,"px_last")</f>
-        <v>0.47699999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>150</v>
@@ -4843,11 +4845,11 @@
       </c>
       <c r="D35" s="3" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.51500000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="E35" s="3" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.51500000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>151</v>
@@ -4865,11 +4867,11 @@
       </c>
       <c r="D36" s="3" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54400000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E36" s="3" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.54400000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>152</v>
@@ -4887,11 +4889,11 @@
       </c>
       <c r="D37" s="3" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="E37" s="3" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>162</v>
@@ -4910,11 +4912,11 @@
       </c>
       <c r="D38" s="3" cm="1">
         <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.65500000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E38" s="3" cm="1">
         <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.65500000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>163</v>
@@ -5089,11 +5091,11 @@
       </c>
       <c r="D46" s="6" cm="1">
         <f t="array" ref="D46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6579999999999999</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">_xll.BDP(F46,"px_last")</f>
-        <v>3.6579999999999999</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>157</v>
@@ -5111,11 +5113,11 @@
       </c>
       <c r="D47" s="6" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.419</v>
+        <v>3.6059999999999999</v>
       </c>
       <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.419</v>
+        <v>3.6059999999999999</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>158</v>
@@ -5133,11 +5135,11 @@
       </c>
       <c r="D48" s="6" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3010000000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="E48" s="6" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.3010000000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>159</v>
@@ -5156,11 +5158,11 @@
       </c>
       <c r="D49" s="6" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1379999999999999</v>
+        <v>3.331</v>
       </c>
       <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.1379999999999999</v>
+        <v>3.331</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>161</v>
@@ -5179,11 +5181,11 @@
       </c>
       <c r="D50" s="7" cm="1">
         <f t="array" ref="D50">_xll.BDP(F50,"px_last")</f>
-        <v>2.1269999999999998</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="E50" s="7">
         <f>D50</f>
-        <v>2.1269999999999998</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>164</v>
@@ -5201,11 +5203,11 @@
       </c>
       <c r="D51" s="7" cm="1">
         <f t="array" ref="D51">_xll.BDP(F51,"px_last")</f>
-        <v>1.9889999999999999</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" ref="E51:E65" si="0">D51</f>
-        <v>1.9889999999999999</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>165</v>
@@ -5245,11 +5247,11 @@
       </c>
       <c r="D53" s="7" cm="1">
         <f t="array" ref="D53">_xll.BDP(F53,"px_last")</f>
-        <v>1.873</v>
+        <v>1.806</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>1.873</v>
+        <v>1.806</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>167</v>
@@ -5355,15 +5357,15 @@
         <v>1</v>
       </c>
       <c r="C58" s="4">
-        <v>45827</v>
+        <v>45883</v>
       </c>
       <c r="D58" s="8" cm="1">
         <f t="array" ref="D58">_xll.BDP(F58,"px_last")</f>
-        <v>4.4719999999999995</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="E58" s="8">
         <f t="shared" si="0"/>
-        <v>4.4719999999999995</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>200</v>
@@ -5377,15 +5379,15 @@
         <v>2</v>
       </c>
       <c r="C59" s="4">
-        <v>45883</v>
+        <v>45918</v>
       </c>
       <c r="D59" s="8" cm="1">
         <f t="array" ref="D59">_xll.BDP(F59,"px_last")</f>
-        <v>4.423</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E59" s="8">
         <f t="shared" si="0"/>
-        <v>4.423</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>201</v>
@@ -5399,15 +5401,15 @@
         <v>3</v>
       </c>
       <c r="C60" s="4">
-        <v>45918</v>
+        <v>45967</v>
       </c>
       <c r="D60" s="8" cm="1">
         <f t="array" ref="D60">_xll.BDP(F60,"px_last")</f>
-        <v>4.22</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="E60" s="8">
         <f t="shared" si="0"/>
-        <v>4.22</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>202</v>
@@ -5421,15 +5423,16 @@
         <v>4</v>
       </c>
       <c r="C61" s="4">
-        <v>45967</v>
+        <f>+C60+42</f>
+        <v>46009</v>
       </c>
       <c r="D61" s="8" cm="1">
         <f t="array" ref="D61">_xll.BDP(F61,"px_last")</f>
-        <v>4.1500000000000004</v>
+        <v>3.8839999999999999</v>
       </c>
       <c r="E61" s="8">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>3.8839999999999999</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>203</v>
@@ -5444,7 +5447,7 @@
       </c>
       <c r="C62" s="4">
         <f>+C61+42</f>
-        <v>46009</v>
+        <v>46051</v>
       </c>
       <c r="D62" s="8">
         <v>4.1500000000000004</v>
@@ -5467,7 +5470,7 @@
       </c>
       <c r="C63" s="4">
         <f>+C62+42</f>
-        <v>46051</v>
+        <v>46093</v>
       </c>
       <c r="D63" s="8">
         <v>4.05</v>
@@ -5490,7 +5493,7 @@
       </c>
       <c r="C64" s="4">
         <f>+C63+42</f>
-        <v>46093</v>
+        <v>46135</v>
       </c>
       <c r="D64" s="8">
         <v>3.92</v>
@@ -5513,7 +5516,7 @@
       </c>
       <c r="C65" s="4">
         <f>+C64+42</f>
-        <v>46135</v>
+        <v>46177</v>
       </c>
       <c r="D65" s="8">
         <v>3.8</v>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456F0779-16E7-4B2A-B1B2-9DB5C99898E4}"/>
+  <xr:revisionPtr revIDLastSave="778" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2B6B41-36B9-47B6-98E3-F3CDBDA0745E}"/>
   <bookViews>
-    <workbookView xWindow="-12440" yWindow="-21710" windowWidth="51820" windowHeight="21100" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
+    <workbookView xWindow="-12440" yWindow="-21710" windowWidth="51820" windowHeight="21100" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -845,262 +845,262 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2170330452</v>
+        <v>#N/A Requesting Data...2222186077</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2669242353</v>
+        <v>#N/A Requesting Data...4247906809</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2583312648</v>
+        <v>#N/A Requesting Data...3192383267</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3574467934</v>
+        <v>#N/A Requesting Data...2960221993</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3447858090</v>
+        <v>#N/A Requesting Data...3418406748</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
+        <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
-        <tr r="D22" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3397364391</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2130281865</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3596930355</v>
+        <v>#N/A Requesting Data...3591175585</v>
         <stp/>
         <stp>BDP|11386130649106637983</stp>
         <tr r="D58" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2848522635</v>
+        <v>#N/A Requesting Data...4163868658</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
+        <tr r="E11" s="5"/>
         <tr r="D11" s="5"/>
-        <tr r="E11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3666084270</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3159204144</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
+        <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
-        <tr r="D32" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3189999701</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3430105845</v>
         <stp/>
         <stp>BDP|13871096504043191898</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3891903459</v>
+        <v>#N/A Requesting Data...2044268682</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
         <tr r="D2" s="5"/>
         <tr r="E2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2645315263</v>
+        <v>#N/A Requesting Data...3081817226</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
+        <tr r="D20" s="5"/>
         <tr r="E20" s="5"/>
-        <tr r="D20" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2392021456</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3664776235</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
+        <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
-        <tr r="D10" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2725114082</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4227211222</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
         <tr r="D23" s="5"/>
         <tr r="E23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2781544029</v>
+        <v>#N/A Requesting Data...3640935253</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3931270450</v>
+        <v>#N/A Requesting Data...3610362139</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
         <tr r="D38" s="5"/>
         <tr r="E38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4045265948</v>
+        <v>#N/A Requesting Data...3911565845</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2136326237</v>
+        <v>#N/A Requesting Data...2921813008</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2637790133</v>
+        <v>#N/A Requesting Data...4087399796</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
+        <tr r="E4" s="5"/>
         <tr r="D4" s="5"/>
-        <tr r="E4" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3714626400</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3092255328</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190261762</v>
+        <v>#N/A Requesting Data...3355802685</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3488168156</v>
+        <v>#N/A Requesting Data...4171650080</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
+        <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
-        <tr r="D29" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3790384237</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2965191558</v>
         <stp/>
         <stp>BDP|17880537498901096542</stp>
         <tr r="C14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3833857534</v>
+        <v>#N/A Requesting Data...3723526507</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
+        <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
-        <tr r="D16" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3064275450</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3278356642</v>
         <stp/>
         <stp>BDP|12231332781916058360</stp>
         <tr r="C72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3800025287</v>
+        <v>#N/A Requesting Data...3040071022</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3121343736</v>
+        <v>#N/A Requesting Data...3923860359</v>
         <stp/>
         <stp>BDP|13869588079434430802</stp>
         <tr r="C16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4173432831</v>
+        <v>#N/A Requesting Data...4276172721</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2899703548</v>
+        <v>#N/A Requesting Data...4201947549</v>
         <stp/>
         <stp>BDP|12019636457207532493</stp>
         <tr r="D52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3192868527</v>
+        <v>#N/A Requesting Data...2128737365</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060894332</v>
+        <v>#N/A Requesting Data...3879861326</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3555044019</v>
+        <v>#N/A Requesting Data...4233256158</v>
         <stp/>
         <stp>BDP|11785014485858726384</stp>
         <tr r="C70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3444157866</v>
+        <v>#N/A Requesting Data...3190196699</v>
         <stp/>
         <stp>BDP|16223409921160501246</stp>
         <tr r="D59" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4274977125</v>
+        <v>#N/A Requesting Data...3182380494</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
+        <tr r="E28" s="5"/>
         <tr r="D28" s="5"/>
-        <tr r="E28" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2311434333</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2112627164</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3892509910</v>
+        <v>#N/A Requesting Data...3928236019</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3030230156</v>
+        <v>#N/A Requesting Data...3880253425</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3123867223</v>
+        <v>#N/A Requesting Data...3143877643</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
         <tr r="D49" s="5"/>
         <tr r="E49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4033278589</v>
+        <v>#N/A Requesting Data...4161836074</v>
         <stp/>
         <stp>BDP|12578146028776474412</stp>
         <tr r="C81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3930208081</v>
+        <v>#N/A Requesting Data...3596135379</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940985960</v>
+        <v>#N/A Requesting Data...2295802790</v>
         <stp/>
         <stp>BDP|15261231244487562713</stp>
         <tr r="C66" s="3"/>
@@ -1112,166 +1112,166 @@
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3264360375</v>
+        <v>#N/A Requesting Data...3146472932</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2393340124</v>
+        <v>#N/A Requesting Data...4149901103</v>
         <stp/>
         <stp>BDP|11158606637492074557</stp>
         <tr r="D51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2434681961</v>
+        <v>#N/A Requesting Data...3595030549</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
+        <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
-        <tr r="D24" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2636296884</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3193124119</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2654429842</v>
+        <v>#N/A Requesting Data...2650443862</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
+        <tr r="E19" s="5"/>
         <tr r="D19" s="5"/>
-        <tr r="E19" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3557627953</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2987795728</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3395009730</v>
+        <v>#N/A Requesting Data...3411985688</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2777604541</v>
+        <v>#N/A Requesting Data...3337904749</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3759312072</v>
+        <v>#N/A Requesting Data...2296111386</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3391369282</v>
+        <v>#N/A Requesting Data...3406535427</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
+        <tr r="E44" s="5"/>
         <tr r="D44" s="5"/>
-        <tr r="E44" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2265787129</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2770261192</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4133951460</v>
+        <v>#N/A Requesting Data...2616046925</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4048001373</v>
+        <v>#N/A Requesting Data...2315660010</v>
         <stp/>
         <stp>BDP|14931566239030452488</stp>
         <tr r="C64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2585421740</v>
+        <v>#N/A Requesting Data...3884599343</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2304855083</v>
+        <v>#N/A Requesting Data...4263263374</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
+        <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
-        <tr r="D12" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2762938325</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2953609905</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2498064753</v>
+        <v>#N/A Requesting Data...3806206935</v>
         <stp/>
         <stp>BDP|11720130691358617769</stp>
         <tr r="D50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2941533751</v>
+        <v>#N/A Requesting Data...3128310392</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
         <tr r="D5" s="5"/>
         <tr r="E5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2263626072</v>
+        <v>#N/A Requesting Data...2453756385</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3291790414</v>
+        <v>#N/A Requesting Data...3750492143</v>
         <stp/>
         <stp>BDP|14349252700354967503</stp>
         <tr r="D34" s="5"/>
         <tr r="E34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3524502110</v>
+        <v>#N/A Requesting Data...3894470453</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2399069558</v>
+        <v>#N/A Requesting Data...3616211452</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
         <tr r="E46" s="5"/>
         <tr r="D46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2383714160</v>
+        <v>#N/A Requesting Data...2277117274</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
         <tr r="D42" s="5"/>
         <tr r="E42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3476910500</v>
+        <v>#N/A Requesting Data...3549343046</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3944847316</v>
+        <v>#N/A Requesting Data...3188662213</v>
         <stp/>
         <stp>BDP|16768894010998168234</stp>
         <tr r="C78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2560964736</v>
+        <v>#N/A Requesting Data...3003304708</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1279,113 +1279,113 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2915215298</v>
         <stp/>
         <stp>BDP|3231034549499389</stp>
         <tr r="D61" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2778302244</v>
+        <v>#N/A Requesting Data...2548623483</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
         <tr r="D21" s="5"/>
         <tr r="E21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2478315887</v>
+        <v>#N/A Requesting Data...2713494876</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3086967010</v>
+        <v>#N/A Requesting Data...4258098077</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477942800</v>
+        <v>#N/A Requesting Data...3743541878</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2816459568</v>
+        <v>#N/A Requesting Data...3619403750</v>
         <stp/>
         <stp>BDP|8921779427646662792</stp>
         <tr r="C63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020620421</v>
+        <v>#N/A Requesting Data...4069527970</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3889503983</v>
+        <v>#N/A Requesting Data...3560482935</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3444575995</v>
+        <v>#N/A Requesting Data...2822236921</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3874751312</v>
+        <v>#N/A Requesting Data...4092201829</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2646575712</v>
+        <v>#N/A Requesting Data...2239968617</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2553688653</v>
+        <v>#N/A Requesting Data...3430969536</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4113928316</v>
+        <v>#N/A Requesting Data...3093506371</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
+        <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
-        <tr r="D45" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4092961557</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3496092271</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
+        <tr r="D43" s="5"/>
         <tr r="E43" s="5"/>
-        <tr r="D43" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3846568328</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3877463761</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
+        <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
-        <tr r="D30" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3862005672</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3509122052</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2773599083</v>
+        <v>#N/A Requesting Data...3616259360</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3502675840</v>
+        <v>#N/A Requesting Data...2053324177</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
@@ -1397,148 +1397,148 @@
         <tr r="C15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3880555618</v>
+        <v>#N/A Requesting Data...4022715545</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4056658800</v>
+        <v>#N/A Requesting Data...3372424485</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3506122430</v>
+        <v>#N/A Requesting Data...2673421218</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
         <tr r="E36" s="5"/>
         <tr r="D36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3905421600</v>
+        <v>#N/A Requesting Data...3063690067</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4216956265</v>
+        <v>#N/A Requesting Data...2566446433</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
         <tr r="E6" s="5"/>
         <tr r="D6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3270186205</v>
+        <v>#N/A Requesting Data...4134442009</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
         <tr r="D48" s="5"/>
         <tr r="E48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3515323140</v>
+        <v>#N/A Requesting Data...3871520191</v>
         <stp/>
         <stp>BDP|8747495145653745050</stp>
         <tr r="C68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2718745530</v>
+        <v>#N/A Requesting Data...3279574642</v>
         <stp/>
         <stp>BDP|1293585490094706218</stp>
         <tr r="C76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3444182593</v>
+        <v>#N/A Requesting Data...2051984313</v>
         <stp/>
         <stp>BDP|7000625624158715023</stp>
         <tr r="C65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3968804586</v>
+        <v>#N/A Requesting Data...4048829341</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2495413377</v>
+        <v>#N/A Requesting Data...2574974571</v>
         <stp/>
         <stp>BDP|4043002694661424764</stp>
         <tr r="C80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2788371122</v>
+        <v>#N/A Requesting Data...2520493141</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2835190599</v>
+        <v>#N/A Requesting Data...2379025051</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3400521778</v>
+        <v>#N/A Requesting Data...4153327906</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3659076633</v>
+        <v>#N/A Requesting Data...2281222619</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4274352758</v>
+        <v>#N/A Requesting Data...2948199687</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990960698</v>
+        <v>#N/A Requesting Data...1984686573</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3811003713</v>
+        <v>#N/A Requesting Data...2888316049</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3039561856</v>
+        <v>#N/A Requesting Data...2798003438</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3527914055</v>
+        <v>#N/A Requesting Data...2978779802</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2567123694</v>
+        <v>#N/A Requesting Data...2307774135</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2895421628</v>
+        <v>#N/A Requesting Data...2406588481</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3014069274</v>
+        <v>#N/A Requesting Data...3328392057</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626502394</v>
+        <v>#N/A Requesting Data...3145900591</v>
         <stp/>
         <stp>BDP|9451317392726401317</stp>
         <tr r="C62" s="3"/>
@@ -1550,32 +1550,32 @@
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3481761180</v>
+        <v>#N/A Requesting Data...3660036419</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3375677712</v>
+        <v>#N/A Requesting Data...2137842321</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261894289</v>
+        <v>#N/A Requesting Data...3676960650</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3362213484</v>
+        <v>#N/A Requesting Data...2482600945</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
         <tr r="D37" s="5"/>
         <tr r="E37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3714759410</v>
+        <v>#N/A Requesting Data...3174760944</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
@@ -1587,61 +1587,61 @@
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2602537280</v>
+        <v>#N/A Requesting Data...4000924669</v>
         <stp/>
         <stp>BDP|2495735351850072786</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697328248</v>
+        <v>#N/A Requesting Data...3679251823</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3620735203</v>
+        <v>#N/A Requesting Data...3016240510</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3872668141</v>
+        <v>#N/A Requesting Data...4076136132</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3901991406</v>
+        <v>#N/A Requesting Data...2436108350</v>
         <stp/>
         <stp>BDP|1112019130066735499</stp>
         <tr r="C69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3789463002</v>
+        <v>#N/A Requesting Data...2873389921</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4183245437</v>
+        <v>#N/A Requesting Data...3877075936</v>
         <stp/>
         <stp>BDP|5904043058468966806</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2674108464</v>
+        <v>#N/A Requesting Data...3435772137</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3469854348</v>
+        <v>#N/A Requesting Data...2521294502</v>
         <stp/>
         <stp>BDP|3606548583877679962</stp>
         <tr r="C75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2530123620</v>
+        <v>#N/A Requesting Data...3511216843</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
@@ -1654,42 +1654,42 @@
         <tr r="C17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3724931870</v>
+        <v>#N/A Requesting Data...3982277630</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
         <tr r="D35" s="5"/>
         <tr r="E35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3632475648</v>
+        <v>#N/A Requesting Data...4154958501</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3675317511</v>
+        <v>#N/A Requesting Data...2139039632</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
+        <tr r="D27" s="5"/>
         <tr r="E26" s="5"/>
-        <tr r="D27" s="5"/>
         <tr r="E27" s="5"/>
         <tr r="D26" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3960077682</v>
+        <v>#N/A Requesting Data...3381508111</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
         <tr r="E7" s="5"/>
         <tr r="D7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2475107199</v>
+        <v>#N/A Requesting Data...3048052351</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3803274843</v>
+        <v>#N/A Requesting Data...3884784559</v>
         <stp/>
         <stp>BDP|3478533777803090302</stp>
         <tr r="D53" s="5"/>
@@ -1701,80 +1701,80 @@
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2993599549</v>
+        <v>#N/A Requesting Data...4033096076</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2670389973</v>
+        <v>#N/A Requesting Data...2220473494</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2473891614</v>
+        <v>#N/A Requesting Data...3843016426</v>
         <stp/>
         <stp>BDP|5596311615892120727</stp>
         <tr r="C71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3577978571</v>
+        <v>#N/A Requesting Data...2247686525</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3768416717</v>
+        <v>#N/A Requesting Data...4258521821</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4218060158</v>
+        <v>#N/A Requesting Data...2151863582</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3666111752</v>
+        <v>#N/A Requesting Data...3656320858</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2508158046</v>
+        <v>#N/A Requesting Data...2311272102</v>
         <stp/>
         <stp>BDP|4548559138812342366</stp>
         <tr r="C74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3448154173</v>
+        <v>#N/A Requesting Data...3113895538</v>
         <stp/>
         <stp>BDP|2937347805593295188</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3709497347</v>
+        <v>#N/A Requesting Data...2246663742</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4037690470</v>
+        <v>#N/A Requesting Data...2918526338</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
+        <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
-        <tr r="D3" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2861293107</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3372496068</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2743733295</v>
+        <v>#N/A Requesting Data...3231170288</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="E15" s="5"/>
@@ -1783,82 +1783,82 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3306961967</v>
+        <v>#N/A Requesting Data...2223277548</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3630078164</v>
+        <v>#N/A Requesting Data...3761338345</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3553921257</v>
+        <v>#N/A Requesting Data...3882473935</v>
         <stp/>
         <stp>BDP|698640909269571851</stp>
         <tr r="C67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4091999666</v>
+        <v>#N/A Requesting Data...2715699323</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
         <tr r="E13" s="5"/>
         <tr r="D13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4141290957</v>
+        <v>#N/A Requesting Data...3927784907</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2850195834</v>
+        <v>#N/A Requesting Data...3454081405</v>
         <stp/>
         <stp>BDP|769230224156311022</stp>
         <tr r="D60" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212441296</v>
+        <v>#N/A Requesting Data...2409868845</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2521738117</v>
+        <v>#N/A Requesting Data...2891113944</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2762681897</v>
+        <v>#N/A Requesting Data...2845395659</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3120630552</v>
+        <v>#N/A Requesting Data...4062716837</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
         <tr r="D18" s="5"/>
         <tr r="E18" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3130056236</v>
+        <v>#N/A Requesting Data...3143037866</v>
         <stp/>
         <stp>BDP|831042661121373939</stp>
         <tr r="C79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3303506843</v>
+        <v>#N/A Requesting Data...3445206602</v>
         <stp/>
         <stp>BDP|259036188629559998</stp>
         <tr r="C77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3618244811</v>
+        <v>#N/A Requesting Data...4151466098</v>
         <stp/>
         <stp>BDP|220174318258124269</stp>
         <tr r="C73" s="3"/>
@@ -2187,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B73099-8E6F-48A4-AF30-5E878B461D48}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.0012499999999998</v>
+        <v>4.0013199999999998</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.6672099999999999</v>
+        <v>3.6663600000000001</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.5685500000000001</v>
+        <v>3.56785</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.5616500000000002</v>
+        <v>3.5608499999999998</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.5928200000000001</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.64453</v>
+        <v>3.6436999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7025000000000001</v>
+        <v>3.7016499999999999</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7597</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.8159000000000001</v>
+        <v>3.81515</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.87</v>
+        <v>3.8694199999999999</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.97024999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>1.0277499999999999</v>
+        <v>1.0287500000000001</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.0827500000000001</v>
+        <v>1.085</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.14375</v>
+        <v>1.14625</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" ref="C49">_xll.BDP(D49,"px_last")</f>
-        <v>1.20625</v>
+        <v>1.2075</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.27275</v>
+        <v>1.2737499999999999</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.3452500000000001</v>
+        <v>1.3462499999999999</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.3887499999999999</v>
+        <v>3.3889999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.3224999999999998</v>
+        <v>3.3235000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.5937000000000001</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.6766000000000001</v>
+        <v>3.6768700000000001</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.7740999999999998</v>
+        <v>3.7725</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>3.9834000000000001</v>
+        <v>3.9815</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.0752499999999996</v>
+        <v>4.0738000000000003</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.1585000000000001</v>
+        <v>4.1574999999999998</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.2309000000000001</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.4807000000000001</v>
+        <v>3.4799000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.1657999999999999</v>
+        <v>3.1677</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -4068,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5450,11 +5450,11 @@
         <v>46051</v>
       </c>
       <c r="D62" s="8">
-        <v>4.1500000000000004</v>
+        <v>3.85</v>
       </c>
       <c r="E62" s="8">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>3.85</v>
       </c>
       <c r="F62" s="8" t="e">
         <f>NA()</f>
@@ -5473,11 +5473,11 @@
         <v>46093</v>
       </c>
       <c r="D63" s="8">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="E63" s="8">
         <f t="shared" si="0"/>
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="F63" s="8" t="e">
         <f>NA()</f>
@@ -5496,11 +5496,11 @@
         <v>46135</v>
       </c>
       <c r="D64" s="8">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" si="0"/>
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="F64" s="8" t="e">
         <f>NA()</f>
@@ -5519,11 +5519,11 @@
         <v>46177</v>
       </c>
       <c r="D65" s="8">
-        <v>3.8</v>
+        <v>3.51</v>
       </c>
       <c r="E65" s="8">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>3.51</v>
       </c>
       <c r="F65" s="8" t="e">
         <f>NA()</f>

--- a/country_ois_data.xlsx
+++ b/country_ois_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://australiansuper-my.sharepoint.com/personal/mfegan_australiansuper_com/Documents/Documents/GitHub/oisapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="778" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2B6B41-36B9-47B6-98E3-F3CDBDA0745E}"/>
+  <xr:revisionPtr revIDLastSave="1392" documentId="14_{0538FD13-FB73-4238-AD8B-7FB964055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AD1515-4591-42D5-A7A2-2B98C9D344F4}"/>
   <bookViews>
     <workbookView xWindow="-12440" yWindow="-21710" windowWidth="51820" windowHeight="21100" activeTab="5" xr2:uid="{542B501C-811E-4E62-A544-05562678A493}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="203">
   <si>
     <t>Country_ID</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>GB0BFR SEP2025 Index</t>
-  </si>
-  <si>
-    <t>JP0BFR JUN2025 Index</t>
   </si>
   <si>
     <t>JP0BFR JUL2025 Index</t>
@@ -845,433 +842,426 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2222186077</v>
+        <v>#N/A Requesting Data...2168063164</v>
         <stp/>
         <stp>BDP|15069589250559623672</stp>
         <tr r="C40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4247906809</v>
+        <v>#N/A Requesting Data...492078948</v>
         <stp/>
         <stp>BDP|13314064788424893504</stp>
         <tr r="C52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3192383267</v>
+        <v>#N/A Requesting Data...1917161881</v>
         <stp/>
         <stp>BDP|13618082991291238184</stp>
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2960221993</v>
+        <v>#N/A Requesting Data...2918553300</v>
         <stp/>
         <stp>BDP|11457742631856974832</stp>
         <tr r="C4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3418406748</v>
+        <v>#N/A Requesting Data...1602140306</v>
         <stp/>
         <stp>BDP|10172430054709442398</stp>
         <tr r="D22" s="5"/>
         <tr r="E22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2130281865</v>
+        <v>#N/A Requesting Data...1433790532</v>
         <stp/>
         <stp>BDP|17963235506966870805</stp>
         <tr r="C32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3591175585</v>
+        <v>#N/A Requesting Data...3593112945</v>
         <stp/>
         <stp>BDP|11386130649106637983</stp>
         <tr r="D58" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4163868658</v>
+        <v>#N/A Requesting Data...861236828</v>
         <stp/>
         <stp>BDP|17993752260819253749</stp>
+        <tr r="D11" s="5"/>
         <tr r="E11" s="5"/>
-        <tr r="D11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3159204144</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4256839957</v>
         <stp/>
         <stp>BDP|16507722982707017686</stp>
         <tr r="D32" s="5"/>
         <tr r="E32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3430105845</v>
+        <v>#N/A Requesting Data...3906406642</v>
         <stp/>
         <stp>BDP|13871096504043191898</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2044268682</v>
+        <v>#N/A Requesting Data...482392665</v>
         <stp/>
         <stp>BDP|14243868732412382549</stp>
+        <tr r="E2" s="5"/>
         <tr r="D2" s="5"/>
-        <tr r="E2" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3081817226</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...816834785</v>
         <stp/>
         <stp>BDP|16353015412137780839</stp>
+        <tr r="E20" s="5"/>
         <tr r="D20" s="5"/>
-        <tr r="E20" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3664776235</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2159058982</v>
         <stp/>
         <stp>BDP|17235036299821649792</stp>
         <tr r="D10" s="5"/>
         <tr r="E10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4227211222</v>
+        <v>#N/A Requesting Data...3610972544</v>
         <stp/>
         <stp>BDP|14910965180944974889</stp>
+        <tr r="E23" s="5"/>
         <tr r="D23" s="5"/>
-        <tr r="E23" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3640935253</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2459881371</v>
         <stp/>
         <stp>BDP|13581995240576965179</stp>
         <tr r="C29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3610362139</v>
+        <v>#N/A Requesting Data...2175610052</v>
         <stp/>
         <stp>BDP|13450628562303537946</stp>
-        <tr r="D38" s="5"/>
-        <tr r="E38" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3911565845</v>
+        <tr r="E37" s="5"/>
+        <tr r="D37" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3378852661</v>
         <stp/>
         <stp>BDP|10190879005291079072</stp>
         <tr r="C21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2921813008</v>
+        <v>#N/A Requesting Data...3473290463</v>
         <stp/>
         <stp>BDP|14331720559968266007</stp>
         <tr r="C14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087399796</v>
+        <v>#N/A Requesting Data...1183547885</v>
         <stp/>
         <stp>BDP|15040631589470572585</stp>
+        <tr r="D4" s="5"/>
         <tr r="E4" s="5"/>
-        <tr r="D4" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3092255328</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4221754918</v>
         <stp/>
         <stp>BDP|18213198937147609236</stp>
         <tr r="D31" s="5"/>
         <tr r="E31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3355802685</v>
+        <v>#N/A Requesting Data...1962986395</v>
         <stp/>
         <stp>BDP|17961219948166271822</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4171650080</v>
+        <v>#N/A Requesting Data...1694539335</v>
         <stp/>
         <stp>BDP|10649677671818574659</stp>
         <tr r="D29" s="5"/>
         <tr r="E29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2965191558</v>
+        <v>#N/A Requesting Data...866450921</v>
         <stp/>
         <stp>BDP|17880537498901096542</stp>
         <tr r="C14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3723526507</v>
+        <v>#N/A Requesting Data...999978511</v>
         <stp/>
         <stp>BDP|12022931442704056463</stp>
         <tr r="D16" s="5"/>
         <tr r="E16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3278356642</v>
+        <v>#N/A Requesting Data...3502770071</v>
         <stp/>
         <stp>BDP|12231332781916058360</stp>
         <tr r="C72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3040071022</v>
+        <v>#N/A Requesting Data...3292001901</v>
         <stp/>
         <stp>BDP|12173805871336838637</stp>
         <tr r="D47" s="5"/>
         <tr r="E47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3923860359</v>
+        <v>#N/A Requesting Data...2048983290</v>
         <stp/>
         <stp>BDP|13869588079434430802</stp>
         <tr r="C16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4276172721</v>
+        <v>#N/A Requesting Data...514423899</v>
         <stp/>
         <stp>BDP|13330548364894955966</stp>
         <tr r="C41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4201947549</v>
+        <v>#N/A Requesting Data...3144090756</v>
         <stp/>
         <stp>BDP|12019636457207532493</stp>
         <tr r="D52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2128737365</v>
+        <v>#N/A Requesting Data...3303834657</v>
         <stp/>
         <stp>BDP|12179079902591143186</stp>
         <tr r="C12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3879861326</v>
+        <v>#N/A Requesting Data...3559691672</v>
         <stp/>
         <stp>BDP|16292692367861545558</stp>
         <tr r="C18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4233256158</v>
+        <v>#N/A Requesting Data...969630112</v>
         <stp/>
         <stp>BDP|11785014485858726384</stp>
         <tr r="C70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190196699</v>
+        <v>#N/A Requesting Data...556178919</v>
         <stp/>
         <stp>BDP|16223409921160501246</stp>
         <tr r="D59" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3182380494</v>
+        <v>#N/A Requesting Data...3906362084</v>
         <stp/>
         <stp>BDP|12760259422792181258</stp>
+        <tr r="D28" s="5"/>
         <tr r="E28" s="5"/>
-        <tr r="D28" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2112627164</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2609872110</v>
         <stp/>
         <stp>BDP|10791061653740105745</stp>
         <tr r="C30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3928236019</v>
+        <v>#N/A Requesting Data...1251592772</v>
         <stp/>
         <stp>BDP|13523639650086236431</stp>
         <tr r="C61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3880253425</v>
+        <v>#N/A Requesting Data...1180793935</v>
         <stp/>
         <stp>BDP|12598669532554016096</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3143877643</v>
+        <v>#N/A Requesting Data...855513691</v>
         <stp/>
         <stp>BDP|17627982810519040564</stp>
+        <tr r="E49" s="5"/>
         <tr r="D49" s="5"/>
-        <tr r="E49" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4161836074</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4191814886</v>
         <stp/>
         <stp>BDP|12578146028776474412</stp>
         <tr r="C81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3596135379</v>
+        <v>#N/A Requesting Data...3163362028</v>
         <stp/>
         <stp>BDP|13224267566295613154</stp>
         <tr r="C43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2295802790</v>
+        <v>#N/A Requesting Data...774566163</v>
         <stp/>
         <stp>BDP|15261231244487562713</stp>
         <tr r="C66" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4137686333</v>
+        <v>#N/A Requesting Data...3997191083</v>
         <stp/>
         <stp>BDP|11604766150522692267</stp>
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3146472932</v>
+        <v>#N/A Requesting Data...1099786814</v>
         <stp/>
         <stp>BDP|14548673345010714535</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149901103</v>
+        <v>#N/A Requesting Data...562785902</v>
         <stp/>
         <stp>BDP|11158606637492074557</stp>
         <tr r="D51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3595030549</v>
+        <v>#N/A Requesting Data...2066159175</v>
         <stp/>
         <stp>BDP|16519351746943283161</stp>
         <tr r="D24" s="5"/>
         <tr r="E24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3193124119</v>
+        <v>#N/A Requesting Data...2996549158</v>
         <stp/>
         <stp>BDP|14508280388598847582</stp>
         <tr r="C60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2650443862</v>
+        <v>#N/A Requesting Data...3130000096</v>
         <stp/>
         <stp>BDP|12020131044262362611</stp>
+        <tr r="D19" s="5"/>
         <tr r="E19" s="5"/>
-        <tr r="D19" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2987795728</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1524968775</v>
         <stp/>
         <stp>BDP|17380369873625804625</stp>
         <tr r="C8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3411985688</v>
+        <v>#N/A Requesting Data...821488915</v>
         <stp/>
         <stp>BDP|14308145928326891177</stp>
         <tr r="C38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3337904749</v>
+        <v>#N/A Requesting Data...2184839220</v>
         <stp/>
         <stp>BDP|14600363379055911570</stp>
         <tr r="D8" s="5"/>
         <tr r="E8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2296111386</v>
+        <v>#N/A Requesting Data...2326458523</v>
         <stp/>
         <stp>BDP|14146731792252026984</stp>
         <tr r="C17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3406535427</v>
+        <v>#N/A Requesting Data...2663859988</v>
         <stp/>
         <stp>BDP|15973363636994595008</stp>
+        <tr r="D44" s="5"/>
         <tr r="E44" s="5"/>
-        <tr r="D44" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2770261192</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...647844365</v>
         <stp/>
         <stp>BDP|15655740702117759490</stp>
         <tr r="C33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2616046925</v>
+        <v>#N/A Requesting Data...2279107877</v>
         <stp/>
         <stp>BDP|12176658203785741794</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2315660010</v>
+        <v>#N/A Requesting Data...2070152090</v>
         <stp/>
         <stp>BDP|14931566239030452488</stp>
         <tr r="C64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3884599343</v>
+        <v>#N/A Requesting Data...1273433211</v>
         <stp/>
         <stp>BDP|15263835158636160853</stp>
         <tr r="C57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263263374</v>
+        <v>#N/A Requesting Data...3041375309</v>
         <stp/>
         <stp>BDP|12999530766604991364</stp>
         <tr r="D12" s="5"/>
         <tr r="E12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2953609905</v>
+        <v>#N/A Requesting Data...3714582419</v>
         <stp/>
         <stp>BDP|13031724255435792221</stp>
         <tr r="C16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3806206935</v>
+        <v>#N/A Requesting Data...1550290796</v>
         <stp/>
         <stp>BDP|11720130691358617769</stp>
         <tr r="D50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3128310392</v>
+        <v>#N/A Requesting Data...1742912910</v>
         <stp/>
         <stp>BDP|16916632102892061507</stp>
+        <tr r="E5" s="5"/>
         <tr r="D5" s="5"/>
-        <tr r="E5" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2453756385</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3694190371</v>
         <stp/>
         <stp>BDP|13408865559549678055</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3750492143</v>
-        <stp/>
-        <stp>BDP|14349252700354967503</stp>
-        <tr r="D34" s="5"/>
-        <tr r="E34" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3894470453</v>
+        <v>#N/A Requesting Data...1575811907</v>
         <stp/>
         <stp>BDP|14189769581989163534</stp>
         <tr r="C59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3616211452</v>
+        <v>#N/A Requesting Data...3813800389</v>
         <stp/>
         <stp>BDP|16342172468001333441</stp>
+        <tr r="D46" s="5"/>
         <tr r="E46" s="5"/>
-        <tr r="D46" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2277117274</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1982791296</v>
         <stp/>
         <stp>BDP|10999721970057311390</stp>
+        <tr r="E42" s="5"/>
         <tr r="D42" s="5"/>
-        <tr r="E42" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3549343046</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...570785459</v>
         <stp/>
         <stp>BDP|16209572489416235868</stp>
         <tr r="C15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3188662213</v>
+        <v>#N/A Requesting Data...4252827335</v>
         <stp/>
         <stp>BDP|16768894010998168234</stp>
         <tr r="C78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3003304708</v>
+        <v>#N/A Requesting Data...2432817451</v>
         <stp/>
         <stp>BDP|10229167920552222459</stp>
         <tr r="C51" s="3"/>
@@ -1279,502 +1269,506 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2915215298</v>
+        <v>#N/A Requesting Data...3387368699</v>
         <stp/>
         <stp>BDP|3231034549499389</stp>
         <tr r="D61" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2548623483</v>
+        <v>#N/A Requesting Data...971266822</v>
         <stp/>
         <stp>BDP|3168257691200843456</stp>
+        <tr r="E21" s="5"/>
         <tr r="D21" s="5"/>
-        <tr r="E21" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2713494876</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...950741125</v>
         <stp/>
         <stp>BDP|3255846679415785542</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258098077</v>
+        <v>#N/A Requesting Data...2295682882</v>
         <stp/>
         <stp>BDP|4774423417048783598</stp>
         <tr r="C20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3743541878</v>
+        <v>#N/A Requesting Data...3001154662</v>
         <stp/>
         <stp>BDP|8075269712970250779</stp>
         <tr r="C6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3619403750</v>
+        <v>#N/A Requesting Data...1595373678</v>
         <stp/>
         <stp>BDP|8921779427646662792</stp>
         <tr r="C63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4069527970</v>
+        <v>#N/A Requesting Data...1131902381</v>
         <stp/>
         <stp>BDP|3423663124293640848</stp>
         <tr r="C31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3560482935</v>
+        <v>#N/A Requesting Data...2607970818</v>
         <stp/>
         <stp>BDP|8688313553613174048</stp>
         <tr r="C4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2822236921</v>
+        <v>#N/A Requesting Data...1010254757</v>
         <stp/>
         <stp>BDP|5645623362738180016</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092201829</v>
+        <v>#N/A Requesting Data...739909242</v>
         <stp/>
         <stp>BDP|5570546647061570849</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2239968617</v>
+        <v>#N/A Requesting Data...1223239568</v>
         <stp/>
         <stp>BDP|8007397760792550287</stp>
         <tr r="E33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3430969536</v>
+        <v>#N/A Requesting Data...3414900077</v>
         <stp/>
         <stp>BDP|1168475002491007903</stp>
         <tr r="C36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3093506371</v>
+        <v>#N/A Requesting Data...1399597725</v>
         <stp/>
         <stp>BDP|4467535990755087376</stp>
         <tr r="D45" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3496092271</v>
+        <v>#N/A Requesting Data...3324086791</v>
         <stp/>
         <stp>BDP|9277308895689252447</stp>
+        <tr r="E43" s="5"/>
         <tr r="D43" s="5"/>
-        <tr r="E43" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3877463761</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3694019070</v>
         <stp/>
         <stp>BDP|1539738094354854418</stp>
         <tr r="D30" s="5"/>
         <tr r="E30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3509122052</v>
+        <v>#N/A Requesting Data...2752751470</v>
         <stp/>
         <stp>BDP|1131361358339230114</stp>
         <tr r="C47" s="3"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3616259360</v>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3792261214</v>
         <stp/>
         <stp>BDP|4846450109088599768</stp>
         <tr r="C53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2053324177</v>
+        <v>#N/A Requesting Data...719420487</v>
         <stp/>
         <stp>BDP|9536813431913123934</stp>
         <tr r="C58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4076143642</v>
+        <v>#N/A Requesting Data...3259473497</v>
         <stp/>
         <stp>BDP|8582355928430667071</stp>
         <tr r="C15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4022715545</v>
+        <v>#N/A Requesting Data...1339905163</v>
         <stp/>
         <stp>BDP|3898001883484594611</stp>
         <tr r="C35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3372424485</v>
+        <v>#N/A Requesting Data...2846822038</v>
         <stp/>
         <stp>BDP|5885362565539787010</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2673421218</v>
+        <v>#N/A Requesting Data...3595934732</v>
         <stp/>
         <stp>BDP|7587735482847087601</stp>
-        <tr r="E36" s="5"/>
-        <tr r="D36" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3063690067</v>
+        <tr r="D35" s="5"/>
+        <tr r="E35" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1915030247</v>
         <stp/>
         <stp>BDP|6236127211185992933</stp>
         <tr r="C26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2566446433</v>
+        <v>#N/A Requesting Data...3876682215</v>
         <stp/>
         <stp>BDP|1865551498531408611</stp>
+        <tr r="D6" s="5"/>
         <tr r="E6" s="5"/>
-        <tr r="D6" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4134442009</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3832542968</v>
         <stp/>
         <stp>BDP|4921992853360614200</stp>
+        <tr r="E48" s="5"/>
         <tr r="D48" s="5"/>
-        <tr r="E48" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3871520191</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1911439490</v>
         <stp/>
         <stp>BDP|8747495145653745050</stp>
         <tr r="C68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3279574642</v>
+        <v>#N/A Requesting Data...1684338508</v>
         <stp/>
         <stp>BDP|1293585490094706218</stp>
         <tr r="C76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2051984313</v>
+        <v>#N/A Requesting Data...576881176</v>
         <stp/>
         <stp>BDP|7000625624158715023</stp>
         <tr r="C65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4048829341</v>
+        <v>#N/A Requesting Data...3132812250</v>
         <stp/>
         <stp>BDP|5039719481610533143</stp>
         <tr r="C9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2574974571</v>
+        <v>#N/A Requesting Data...2292504846</v>
         <stp/>
         <stp>BDP|4043002694661424764</stp>
         <tr r="C80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2520493141</v>
+        <v>#N/A Requesting Data...3726966514</v>
         <stp/>
         <stp>BDP|5915010276855709373</stp>
         <tr r="C7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2379025051</v>
+        <v>#N/A Requesting Data...2901152230</v>
         <stp/>
         <stp>BDP|1148845041579981012</stp>
         <tr r="C11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4153327906</v>
+        <v>#N/A Requesting Data...2153015876</v>
         <stp/>
         <stp>BDP|5998521350922025367</stp>
         <tr r="C8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2281222619</v>
+        <v>#N/A Requesting Data...2323423454</v>
         <stp/>
         <stp>BDP|1901608740050235790</stp>
         <tr r="C34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2948199687</v>
+        <v>#N/A Requesting Data...1653151439</v>
         <stp/>
         <stp>BDP|6432486938546814260</stp>
         <tr r="C46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1984686573</v>
+        <v>#N/A Requesting Data...3052229221</v>
         <stp/>
         <stp>BDP|5966479929060362629</stp>
         <tr r="C10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2888316049</v>
+        <v>#N/A Requesting Data...2265705963</v>
         <stp/>
         <stp>BDP|4224650820402433742</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2798003438</v>
+        <v>#N/A Requesting Data...1428695216</v>
         <stp/>
         <stp>BDP|7202465476417497635</stp>
         <tr r="C23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2978779802</v>
+        <v>#N/A Requesting Data...2608804105</v>
         <stp/>
         <stp>BDP|7872051566850626764</stp>
         <tr r="C55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2307774135</v>
+        <v>#N/A Requesting Data...2098653897</v>
         <stp/>
         <stp>BDP|7423372765115928149</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2406588481</v>
+        <v>#N/A Requesting Data...971900346</v>
         <stp/>
         <stp>BDP|3446712449146367077</stp>
         <tr r="C19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3328392057</v>
+        <v>#N/A Requesting Data...1891985171</v>
         <stp/>
         <stp>BDP|3440791936035757411</stp>
         <tr r="C49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3145900591</v>
+        <v>#N/A Requesting Data...1778331440</v>
         <stp/>
         <stp>BDP|9451317392726401317</stp>
         <tr r="C62" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4241860170</v>
+        <v>#N/A Requesting Data...3696894042</v>
         <stp/>
         <stp>BDP|6251401915352132756</stp>
         <tr r="C9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3660036419</v>
+        <v>#N/A Requesting Data...2307239550</v>
         <stp/>
         <stp>BDP|7168357954443316432</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2137842321</v>
+        <v>#N/A Requesting Data...3358182510</v>
         <stp/>
         <stp>BDP|8402756243698222514</stp>
         <tr r="C25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3676960650</v>
+        <v>#N/A Requesting Data...2482973881</v>
         <stp/>
         <stp>BDP|3387655909526269476</stp>
         <tr r="C6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2482600945</v>
+        <v>#N/A Requesting Data...1840266717</v>
         <stp/>
         <stp>BDP|5347784287029030441</stp>
-        <tr r="D37" s="5"/>
-        <tr r="E37" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3174760944</v>
+        <tr r="D36" s="5"/>
+        <tr r="E36" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2700638349</v>
         <stp/>
         <stp>BDP|2969137651901510073</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4206016299</v>
+        <v>#N/A Requesting Data...1088657692</v>
         <stp/>
         <stp>BDP|5323695846857179738</stp>
         <tr r="C13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000924669</v>
+        <v>#N/A Requesting Data...2180523988</v>
         <stp/>
         <stp>BDP|2495735351850072786</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3679251823</v>
+        <v>#N/A Requesting Data...614066655</v>
         <stp/>
         <stp>BDP|7480544373677446545</stp>
         <tr r="C13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3016240510</v>
+        <v>#N/A Requesting Data...2614127730</v>
         <stp/>
         <stp>BDP|5201753001705263071</stp>
         <tr r="C11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4076136132</v>
+        <v>#N/A Requesting Data...790095769</v>
         <stp/>
         <stp>BDP|6549930852342397895</stp>
         <tr r="C12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2436108350</v>
+        <v>#N/A Requesting Data...4278737798</v>
         <stp/>
         <stp>BDP|1112019130066735499</stp>
         <tr r="C69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2873389921</v>
+        <v>#N/A Requesting Data...3811992204</v>
         <stp/>
         <stp>BDP|3934759908463109794</stp>
         <tr r="C37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3877075936</v>
+        <v>#N/A Requesting Data...4209993626</v>
         <stp/>
         <stp>BDP|5904043058468966806</stp>
         <tr r="B8" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3435772137</v>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3462521852</v>
         <stp/>
         <stp>BDP|7624348775657787426</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2521294502</v>
+        <v>#N/A Requesting Data...3633021738</v>
         <stp/>
         <stp>BDP|3606548583877679962</stp>
         <tr r="C75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3511216843</v>
+        <v>#N/A Requesting Data...2743233872</v>
         <stp/>
         <stp>BDP|3591145557994463349</stp>
         <tr r="D9" s="5"/>
         <tr r="E9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4285119459</v>
+        <v>#N/A Requesting Data...2922517220</v>
         <stp/>
         <stp>BDP|1388314034007359610</stp>
         <tr r="C17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3982277630</v>
+        <v>#N/A Requesting Data...1700083284</v>
         <stp/>
         <stp>BDP|1998769851627217486</stp>
-        <tr r="D35" s="5"/>
-        <tr r="E35" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4154958501</v>
+        <tr r="D34" s="5"/>
+        <tr r="E34" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3656667553</v>
         <stp/>
         <stp>BDP|6183309598605110824</stp>
         <tr r="C39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2139039632</v>
+        <v>#N/A Requesting Data...3197607519</v>
         <stp/>
         <stp>BDP|7837391765843840050</stp>
         <tr r="D27" s="5"/>
+        <tr r="D26" s="5"/>
         <tr r="E26" s="5"/>
         <tr r="E27" s="5"/>
-        <tr r="D26" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3381508111</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4206483343</v>
         <stp/>
         <stp>BDP|2395260216674779485</stp>
+        <tr r="D7" s="5"/>
         <tr r="E7" s="5"/>
-        <tr r="D7" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3048052351</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1428800916</v>
         <stp/>
         <stp>BDP|9665112723548495332</stp>
         <tr r="C24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3884784559</v>
+        <v>#N/A Requesting Data...4292457205</v>
         <stp/>
         <stp>BDP|3478533777803090302</stp>
         <tr r="D53" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4272773541</v>
+        <v>#N/A Requesting Data...2604127499</v>
         <stp/>
         <stp>BDP|3230607456270798297</stp>
         <tr r="C5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4033096076</v>
+        <v>#N/A Requesting Data...3830336561</v>
         <stp/>
         <stp>BDP|2105687467981177153</stp>
         <tr r="C44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2220473494</v>
+        <v>#N/A Requesting Data...3444003732</v>
         <stp/>
         <stp>BDP|2421354020764184587</stp>
         <tr r="C50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3843016426</v>
+        <v>#N/A Requesting Data...3565895175</v>
         <stp/>
         <stp>BDP|5596311615892120727</stp>
         <tr r="C71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2247686525</v>
+        <v>#N/A Requesting Data...1257143375</v>
         <stp/>
         <stp>BDP|8273995829753405216</stp>
         <tr r="C7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258521821</v>
+        <v>#N/A Requesting Data...4227902336</v>
         <stp/>
         <stp>BDP|7508454856150631456</stp>
         <tr r="C5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2151863582</v>
+        <v>#N/A Requesting Data...1642220049</v>
         <stp/>
         <stp>BDP|5505150612390185687</stp>
         <tr r="C45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3656320858</v>
+        <v>#N/A Requesting Data...2888220961</v>
         <stp/>
         <stp>BDP|1605636527583713587</stp>
         <tr r="C48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2311272102</v>
+        <v>#N/A Requesting Data...3640045990</v>
         <stp/>
         <stp>BDP|4548559138812342366</stp>
         <tr r="C74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3113895538</v>
+        <v>#N/A Requesting Data...4160832188</v>
         <stp/>
         <stp>BDP|2937347805593295188</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2246663742</v>
+        <v>#N/A Requesting Data...722581260</v>
         <stp/>
         <stp>BDP|4538603146850280534</stp>
         <tr r="C56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2918526338</v>
+        <v>#N/A Requesting Data...2517843158</v>
         <stp/>
         <stp>BDP|8080913302287438541</stp>
         <tr r="D3" s="5"/>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3372496068</v>
+        <v>#N/A Requesting Data...4146114571</v>
         <stp/>
         <stp>BDP|8407664048841913809</stp>
         <tr r="C28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3231170288</v>
+        <v>#N/A Requesting Data...3747935075</v>
         <stp/>
         <stp>BDP|2066371026720159040</stp>
         <tr r="E15" s="5"/>
@@ -1783,82 +1777,82 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2223277548</v>
+        <v>#N/A Requesting Data...2440353760</v>
         <stp/>
         <stp>BDP|17304079940669980</stp>
         <tr r="D14" s="5"/>
         <tr r="E14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3761338345</v>
+        <v>#N/A Requesting Data...2374338299</v>
         <stp/>
         <stp>BDP|45289348326139634</stp>
         <tr r="C42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3882473935</v>
+        <v>#N/A Requesting Data...1182340816</v>
         <stp/>
         <stp>BDP|698640909269571851</stp>
         <tr r="C67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2715699323</v>
+        <v>#N/A Requesting Data...1090976273</v>
         <stp/>
         <stp>BDP|105132919362263580</stp>
+        <tr r="D13" s="5"/>
         <tr r="E13" s="5"/>
-        <tr r="D13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3927784907</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2240989803</v>
         <stp/>
         <stp>BDP|996299142117591774</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3454081405</v>
+        <v>#N/A Requesting Data...2433746005</v>
         <stp/>
         <stp>BDP|769230224156311022</stp>
         <tr r="D60" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2409868845</v>
+        <v>#N/A Requesting Data...3332044241</v>
         <stp/>
         <stp>BDP|237388433427146662</stp>
         <tr r="C54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2891113944</v>
+        <v>#N/A Requesting Data...2741685645</v>
         <stp/>
         <stp>BDP|463066615765454579</stp>
         <tr r="C22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2845395659</v>
+        <v>#N/A Requesting Data...1762585209</v>
         <stp/>
         <stp>BDP|839032199100094812</stp>
         <tr r="C27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4062716837</v>
+        <v>#N/A Requesting Data...2594462491</v>
         <stp/>
         <stp>BDP|461181934342228316</stp>
+        <tr r="E18" s="5"/>
         <tr r="D18" s="5"/>
-        <tr r="E18" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3143037866</v>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...803399147</v>
         <stp/>
         <stp>BDP|831042661121373939</stp>
         <tr r="C79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3445206602</v>
+        <v>#N/A Requesting Data...2104532965</v>
         <stp/>
         <stp>BDP|259036188629559998</stp>
         <tr r="C77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4151466098</v>
+        <v>#N/A Requesting Data...1416297735</v>
         <stp/>
         <stp>BDP|220174318258124269</stp>
         <tr r="C73" s="3"/>
@@ -2188,7 +2182,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2279,10 +2273,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2290,10 +2284,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2339,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"PX_LAST")</f>
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2357,7 +2351,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"PX_LAST")</f>
-        <v>1.925</v>
+        <v>1.923</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2369,7 +2363,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"PX_LAST")</f>
-        <v>4.2173999999999996</v>
+        <v>4.2171000000000003</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2381,7 +2375,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"PX_LAST")</f>
-        <v>0.47899999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2405,10 +2399,10 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"PX_LAST")</f>
-        <v>2.0059999999999998</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2420,7 +2414,7 @@
         <v>4.25</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2460,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>4.0013199999999998</v>
+        <v>4.0434599999999996</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -2481,7 +2475,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>3.6663600000000001</v>
+        <v>3.68465</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2496,7 +2490,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.56785</v>
+        <v>3.5709</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2511,7 +2505,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.5608499999999998</v>
+        <v>3.5546500000000001</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2526,7 +2520,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>3.5920000000000001</v>
+        <v>3.5767199999999999</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2541,7 +2535,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.6436999999999999</v>
+        <v>3.6204999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2556,7 +2550,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.7016499999999999</v>
+        <v>3.6713499999999999</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -2571,7 +2565,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>3.7589999999999999</v>
+        <v>3.7235</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -2586,7 +2580,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>3.81515</v>
+        <v>3.7745000000000002</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2601,7 +2595,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>3.8694199999999999</v>
+        <v>3.8247</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2616,7 +2610,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>2.6625000000000001</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2631,7 +2625,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>2.6859999999999999</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2646,7 +2640,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.746</v>
+        <v>2.73</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -2661,7 +2655,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>2.8098999999999998</v>
+        <v>2.7854000000000001</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>2.8784999999999998</v>
+        <v>2.8485999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -2691,7 +2685,7 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>2.9510000000000001</v>
+        <v>2.919</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2706,7 +2700,7 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xll.BDP(D18,"px_last")</f>
-        <v>3.0259999999999998</v>
+        <v>2.9912000000000001</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2721,7 +2715,7 @@
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xll.BDP(D19,"px_last")</f>
-        <v>3.1009000000000002</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2736,7 +2730,7 @@
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xll.BDP(D20,"px_last")</f>
-        <v>3.1697000000000002</v>
+        <v>3.1282999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2751,7 +2745,7 @@
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">_xll.BDP(D21,"px_last")</f>
-        <v>3.2284000000000002</v>
+        <v>3.1846999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -2766,7 +2760,7 @@
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">_xll.BDP(D22,"px_last")</f>
-        <v>1.7998499999999999</v>
+        <v>1.8218000000000001</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -2781,7 +2775,7 @@
       </c>
       <c r="C23" cm="1">
         <f t="array" ref="C23">_xll.BDP(D23,"px_last")</f>
-        <v>1.81375</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -2796,7 +2790,7 @@
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">_xll.BDP(D24,"px_last")</f>
-        <v>1.917</v>
+        <v>1.946</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -2811,7 +2805,7 @@
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25">_xll.BDP(D25,"px_last")</f>
-        <v>2.0219499999999999</v>
+        <v>2.0474000000000001</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2826,7 +2820,7 @@
       </c>
       <c r="C26" cm="1">
         <f t="array" ref="C26">_xll.BDP(D26,"px_last")</f>
-        <v>2.1154500000000001</v>
+        <v>2.1355499999999998</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2841,7 +2835,7 @@
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27">_xll.BDP(D27,"px_last")</f>
-        <v>2.2012499999999999</v>
+        <v>2.2211500000000002</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2856,7 +2850,7 @@
       </c>
       <c r="C28" cm="1">
         <f t="array" ref="C28">_xll.BDP(D28,"px_last")</f>
-        <v>2.27955</v>
+        <v>2.2934000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2871,7 +2865,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" ref="C29">_xll.BDP(D29,"px_last")</f>
-        <v>2.3523499999999999</v>
+        <v>2.3647499999999999</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2886,7 +2880,7 @@
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30">_xll.BDP(D30,"px_last")</f>
-        <v>2.4193500000000001</v>
+        <v>2.4298999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2901,7 +2895,7 @@
       </c>
       <c r="C31" cm="1">
         <f t="array" ref="C31">_xll.BDP(D31,"px_last")</f>
-        <v>2.48326</v>
+        <v>2.4897</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2916,7 +2910,7 @@
       </c>
       <c r="C32" cm="1">
         <f t="array" ref="C32">_xll.BDP(D32,"px_last")</f>
-        <v>3.8101500000000001</v>
+        <v>3.8105000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2931,7 +2925,7 @@
       </c>
       <c r="C33" cm="1">
         <f t="array" ref="C33">_xll.BDP(D33,"px_last")</f>
-        <v>3.6907999999999999</v>
+        <v>3.68513</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2946,7 +2940,7 @@
       </c>
       <c r="C34" cm="1">
         <f t="array" ref="C34">_xll.BDP(D34,"px_last")</f>
-        <v>3.6939500000000001</v>
+        <v>3.6775000000000002</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2961,7 +2955,7 @@
       </c>
       <c r="C35" cm="1">
         <f t="array" ref="C35">_xll.BDP(D35,"px_last")</f>
-        <v>3.7322500000000001</v>
+        <v>3.7094999999999998</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2976,7 +2970,7 @@
       </c>
       <c r="C36" cm="1">
         <f t="array" ref="C36">_xll.BDP(D36,"px_last")</f>
-        <v>3.7875000000000001</v>
+        <v>3.75685</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -2991,7 +2985,7 @@
       </c>
       <c r="C37" cm="1">
         <f t="array" ref="C37">_xll.BDP(D37,"px_last")</f>
-        <v>3.851</v>
+        <v>3.8161399999999999</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -3006,7 +3000,7 @@
       </c>
       <c r="C38" cm="1">
         <f t="array" ref="C38">_xll.BDP(D38,"px_last")</f>
-        <v>3.9209999999999998</v>
+        <v>3.8835000000000002</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -3021,7 +3015,7 @@
       </c>
       <c r="C39" cm="1">
         <f t="array" ref="C39">_xll.BDP(D39,"px_last")</f>
-        <v>3.9975299999999998</v>
+        <v>3.9543599999999999</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -3036,7 +3030,7 @@
       </c>
       <c r="C40" cm="1">
         <f t="array" ref="C40">_xll.BDP(D40,"px_last")</f>
-        <v>4.0670000000000002</v>
+        <v>4.0254200000000004</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -3051,7 +3045,7 @@
       </c>
       <c r="C41" cm="1">
         <f t="array" ref="C41">_xll.BDP(D41,"px_last")</f>
-        <v>4.1364999999999998</v>
+        <v>4.0925000000000002</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
@@ -3066,7 +3060,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" ref="C42">_xll.BDP(D42,"px_last")</f>
-        <v>0.67874999999999996</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -3081,7 +3075,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" ref="C43">_xll.BDP(D43,"px_last")</f>
-        <v>0.82</v>
+        <v>0.8125</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
@@ -3096,7 +3090,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" ref="C44">_xll.BDP(D44,"px_last")</f>
-        <v>0.90500000000000003</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -3111,7 +3105,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" ref="C45">_xll.BDP(D45,"px_last")</f>
-        <v>0.97</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -3126,7 +3120,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" ref="C46">_xll.BDP(D46,"px_last")</f>
-        <v>1.0287500000000001</v>
+        <v>1.02125</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" ref="C47">_xll.BDP(D47,"px_last")</f>
-        <v>1.085</v>
+        <v>1.08</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3156,7 +3150,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" ref="C48">_xll.BDP(D48,"px_last")</f>
-        <v>1.14625</v>
+        <v>1.14375</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -3186,7 +3180,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" ref="C50">_xll.BDP(D50,"px_last")</f>
-        <v>1.2737499999999999</v>
+        <v>1.2762500000000001</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -3201,7 +3195,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" ref="C51">_xll.BDP(D51,"px_last")</f>
-        <v>1.3462499999999999</v>
+        <v>1.35</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -3216,7 +3210,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" ref="C52">_xll.BDP(D52,"px_last")</f>
-        <v>3.3889999999999998</v>
+        <v>3.3635299999999999</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -3231,7 +3225,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" ref="C53">_xll.BDP(D53,"px_last")</f>
-        <v>3.3235000000000001</v>
+        <v>3.2917200000000002</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -3246,7 +3240,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54">_xll.BDP(D54,"px_last")</f>
-        <v>3.5939999999999999</v>
+        <v>3.5657000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -3261,7 +3255,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" ref="C55">_xll.BDP(D55,"px_last")</f>
-        <v>3.6768700000000001</v>
+        <v>3.6404999999999998</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -3276,7 +3270,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" ref="C56">_xll.BDP(D56,"px_last")</f>
-        <v>3.7725</v>
+        <v>3.7349999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -3291,7 +3285,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" ref="C57">_xll.BDP(D57,"px_last")</f>
-        <v>3.879</v>
+        <v>3.839</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -3306,7 +3300,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" ref="C58">_xll.BDP(D58,"px_last")</f>
-        <v>3.9815</v>
+        <v>3.9394999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -3321,7 +3315,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" ref="C59">_xll.BDP(D59,"px_last")</f>
-        <v>4.0738000000000003</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -3336,7 +3330,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" ref="C60">_xll.BDP(D60,"px_last")</f>
-        <v>4.1574999999999998</v>
+        <v>4.1124999999999998</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
@@ -3351,7 +3345,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" ref="C61">_xll.BDP(D61,"px_last")</f>
-        <v>4.2290000000000001</v>
+        <v>4.18377</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
@@ -3366,10 +3360,10 @@
       </c>
       <c r="C62" cm="1">
         <f t="array" ref="C62">_xll.BDP(D62,"px_last")</f>
-        <v>1.843</v>
+        <v>1.8574999999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3381,10 +3375,10 @@
       </c>
       <c r="C63" cm="1">
         <f t="array" ref="C63">_xll.BDP(D63,"px_last")</f>
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3396,10 +3390,10 @@
       </c>
       <c r="C64" cm="1">
         <f t="array" ref="C64">_xll.BDP(D64,"px_last")</f>
-        <v>2.0059999999999998</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3411,10 +3405,10 @@
       </c>
       <c r="C65" cm="1">
         <f t="array" ref="C65">_xll.BDP(D65,"px_last")</f>
-        <v>2.1269999999999998</v>
+        <v>2.1617999999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3426,10 +3420,10 @@
       </c>
       <c r="C66" cm="1">
         <f t="array" ref="C66">_xll.BDP(D66,"px_last")</f>
-        <v>2.2200000000000002</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3441,10 +3435,10 @@
       </c>
       <c r="C67" cm="1">
         <f t="array" ref="C67">_xll.BDP(D67,"px_last")</f>
-        <v>2.2999999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -3456,10 +3450,10 @@
       </c>
       <c r="C68" cm="1">
         <f t="array" ref="C68">_xll.BDP(D68,"px_last")</f>
-        <v>2.39</v>
+        <v>2.4319999999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -3471,10 +3465,10 @@
       </c>
       <c r="C69" cm="1">
         <f t="array" ref="C69">_xll.BDP(D69,"px_last")</f>
-        <v>2.4660000000000002</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3486,10 +3480,10 @@
       </c>
       <c r="C70" cm="1">
         <f t="array" ref="C70">_xll.BDP(D70,"px_last")</f>
-        <v>2.5278999999999998</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3501,10 +3495,10 @@
       </c>
       <c r="C71" cm="1">
         <f t="array" ref="C71">_xll.BDP(D71,"px_last")</f>
-        <v>2.5874000000000001</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3516,10 +3510,10 @@
       </c>
       <c r="C72" cm="1">
         <f t="array" ref="C72">_xll.BDP(D72,"px_last")</f>
-        <v>3.8965000000000001</v>
+        <v>3.8938999999999999</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -3531,10 +3525,10 @@
       </c>
       <c r="C73" cm="1">
         <f t="array" ref="C73">_xll.BDP(D73,"px_last")</f>
-        <v>3.6549999999999998</v>
+        <v>3.6674000000000002</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -3546,10 +3540,10 @@
       </c>
       <c r="C74" cm="1">
         <f t="array" ref="C74">_xll.BDP(D74,"px_last")</f>
-        <v>3.59</v>
+        <v>3.6110000000000002</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -3561,10 +3555,10 @@
       </c>
       <c r="C75" cm="1">
         <f t="array" ref="C75">_xll.BDP(D75,"px_last")</f>
-        <v>3.5733999999999999</v>
+        <v>3.5895000000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -3576,10 +3570,10 @@
       </c>
       <c r="C76" cm="1">
         <f t="array" ref="C76">_xll.BDP(D76,"px_last")</f>
-        <v>3.5745</v>
+        <v>3.5879500000000002</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -3591,10 +3585,10 @@
       </c>
       <c r="C77" cm="1">
         <f t="array" ref="C77">_xll.BDP(D77,"px_last")</f>
-        <v>3.5783999999999998</v>
+        <v>3.5924999999999998</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -3606,10 +3600,10 @@
       </c>
       <c r="C78" cm="1">
         <f t="array" ref="C78">_xll.BDP(D78,"px_last")</f>
-        <v>3.5905</v>
+        <v>3.5992000000000002</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -3621,10 +3615,10 @@
       </c>
       <c r="C79" cm="1">
         <f t="array" ref="C79">_xll.BDP(D79,"px_last")</f>
-        <v>3.6004999999999998</v>
+        <v>3.6101999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -3636,10 +3630,10 @@
       </c>
       <c r="C80" cm="1">
         <f t="array" ref="C80">_xll.BDP(D80,"px_last")</f>
-        <v>3.6105</v>
+        <v>3.6198999999999999</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -3651,10 +3645,10 @@
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81">_xll.BDP(D81,"px_last")</f>
-        <v>3.6158000000000001</v>
+        <v>3.6263999999999998</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3666,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE34D6BF-AAFB-495B-A8B4-E2034395BF7C}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H58" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3701,7 +3695,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xll.BDP(D2,"px_last")</f>
-        <v>3.4799000000000002</v>
+        <v>3.4401999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -3716,7 +3710,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.BDP(D3,"px_last")</f>
-        <v>4.1478000000000002</v>
+        <v>4.0662000000000003</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -3731,7 +3725,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.BDP(D4,"px_last")</f>
-        <v>3.3412299999999999</v>
+        <v>3.29806</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -3746,7 +3740,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.BDP(D5,"px_last")</f>
-        <v>3.9664100000000002</v>
+        <v>3.9053800000000001</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -3761,7 +3755,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.BDP(D6,"px_last")</f>
-        <v>2.4801000000000002</v>
+        <v>2.4799000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -3776,7 +3770,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xll.BDP(D7,"px_last")</f>
-        <v>3.0230000000000001</v>
+        <v>3.0268000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -3791,7 +3785,7 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xll.BDP(D8,"px_last")</f>
-        <v>3.9232999999999998</v>
+        <v>3.8755000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3806,7 +3800,7 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.BDP(D9,"px_last")</f>
-        <v>4.6093000000000002</v>
+        <v>4.5496999999999996</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3821,7 +3815,7 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.BDP(D10,"px_last")</f>
-        <v>1.2149000000000001</v>
+        <v>1.2139</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -3836,7 +3830,7 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.BDP(D11,"px_last")</f>
-        <v>1.7282</v>
+        <v>1.7495000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3851,7 +3845,7 @@
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BDP(D12,"px_last")</f>
-        <v>3.9340999999999999</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -3866,7 +3860,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.BDP(D13,"px_last")</f>
-        <v>4.7892000000000001</v>
+        <v>4.7337999999999996</v>
       </c>
       <c r="D13" t="s">
         <v>111</v>
@@ -3881,10 +3875,10 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.BDP(D14,"px_last")</f>
-        <v>2.6791</v>
+        <v>2.7126000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3896,10 +3890,10 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.BDP(D15,"px_last")</f>
-        <v>3.2262</v>
+        <v>3.2482000000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3911,10 +3905,10 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xll.BDP(D16,"px_last")</f>
-        <v>3.7396400000000001</v>
+        <v>3.7559300000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -3926,10 +3920,10 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xll.BDP(D17,"px_last")</f>
-        <v>4.0399200000000004</v>
+        <v>4.0526099999999996</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3963,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">_xll.BDP(C2,"px_last")</f>
-        <v>3.1677</v>
+        <v>3.1518000000000002</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -3981,7 +3975,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.BDP(C3,"px_last")</f>
-        <v>3.0423499999999999</v>
+        <v>3.0259</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -3993,7 +3987,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xll.BDP(C4,"px_last")</f>
-        <v>2.0672999999999999</v>
+        <v>2.1503000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -4005,7 +3999,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.BDP(C5,"px_last")</f>
-        <v>3.6892999999999998</v>
+        <v>3.6753999999999998</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -4017,7 +4011,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">_xll.BDP(C6,"px_last")</f>
-        <v>1.0454000000000001</v>
+        <v>1.046</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -4029,7 +4023,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.BDP(C7,"px_last")</f>
-        <v>3.4983</v>
+        <v>3.4441999999999999</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -4041,10 +4035,10 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">_xll.BDP(C8,"px_last")</f>
-        <v>2.1482199999999998</v>
+        <v>2.1603699999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4053,10 +4047,10 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">_xll.BDP(C9,"px_last")</f>
-        <v>3.62174</v>
+        <v>3.6834600000000002</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4068,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E3683-39FC-4099-9F68-780D55727912}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43:R43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,11 +4241,11 @@
       </c>
       <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1550000000000002</v>
+        <v>4.2160000000000002</v>
       </c>
       <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xll.BDP(F8,"px_last")</f>
-        <v>4.1550000000000002</v>
+        <v>4.2160000000000002</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>128</v>
@@ -4269,14 +4263,14 @@
       </c>
       <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">_xll.BDP(F9,"px_last")</f>
-        <v>4.048</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="E9" s="9" cm="1">
         <f t="array" ref="E9">_xll.BDP(F9,"px_last")</f>
-        <v>4.048</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4401,11 +4395,11 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_xll.BDP(F15,"px_last")</f>
-        <v>2.74</v>
+        <v>2.734</v>
       </c>
       <c r="E15" s="10" cm="1">
         <f t="array" ref="E15">_xll.BDP(F15,"px_last")</f>
-        <v>2.74</v>
+        <v>2.734</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -4423,11 +4417,11 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_xll.BDP(F16,"px_last")</f>
-        <v>2.6909999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="E16" s="10" cm="1">
         <f t="array" ref="E16">_xll.BDP(F16,"px_last")</f>
-        <v>2.6909999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -4445,11 +4439,11 @@
       </c>
       <c r="D17" s="10">
         <f>D16</f>
-        <v>2.6909999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>2.6909999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="F17" s="10" t="e">
         <f>NA()</f>
@@ -4600,11 +4594,11 @@
       </c>
       <c r="D24" s="11" cm="1">
         <f t="array" ref="D24">_xll.BDP(F24,"px_last")</f>
-        <v>1.8820000000000001</v>
+        <v>1.887</v>
       </c>
       <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">_xll.BDP(F24,"px_last")</f>
-        <v>1.8820000000000001</v>
+        <v>1.887</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>142</v>
@@ -4622,11 +4616,11 @@
       </c>
       <c r="D25" s="11">
         <f>D24</f>
-        <v>1.8820000000000001</v>
+        <v>1.887</v>
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>1.8820000000000001</v>
+        <v>1.887</v>
       </c>
       <c r="F25" s="11" t="e">
         <f>NA()</f>
@@ -4777,11 +4771,11 @@
       </c>
       <c r="D32" s="12" cm="1">
         <f t="array" ref="D32">_xll.BDP(F31,"px_last")</f>
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="E32" s="12" cm="1">
         <f t="array" ref="E32">_xll.BDP(F31,"px_last")</f>
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>149</v>
@@ -4800,11 +4794,11 @@
       </c>
       <c r="D33" s="12">
         <f>D32</f>
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="E33" s="12" cm="1">
         <f t="array" ref="E33">_xll.BDP(F32,"px_last")</f>
-        <v>3.9489999999999998</v>
+        <v>3.9529999999999998</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>NA()</f>
@@ -4819,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <v>45825</v>
+        <v>45869</v>
       </c>
       <c r="D34" s="3" cm="1">
         <f t="array" ref="D34">_xll.BDP(F34,"px_last")</f>
@@ -4841,15 +4835,15 @@
         <v>2</v>
       </c>
       <c r="C35" s="4">
-        <v>45869</v>
+        <v>45919</v>
       </c>
       <c r="D35" s="3" cm="1">
         <f t="array" ref="D35">_xll.BDP(F35,"px_last")</f>
-        <v>0.48</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="E35" s="3" cm="1">
         <f t="array" ref="E35">_xll.BDP(F35,"px_last")</f>
-        <v>0.48</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>151</v>
@@ -4863,18 +4857,18 @@
         <v>3</v>
       </c>
       <c r="C36" s="4">
-        <v>45919</v>
+        <v>45960</v>
       </c>
       <c r="D36" s="3" cm="1">
         <f t="array" ref="D36">_xll.BDP(F36,"px_last")</f>
-        <v>0.51400000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E36" s="3" cm="1">
         <f t="array" ref="E36">_xll.BDP(F36,"px_last")</f>
-        <v>0.51400000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4885,15 +4879,15 @@
         <v>4</v>
       </c>
       <c r="C37" s="4">
-        <v>45960</v>
+        <v>46002</v>
       </c>
       <c r="D37" s="3" cm="1">
         <f t="array" ref="D37">_xll.BDP(F37,"px_last")</f>
-        <v>0.63</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E37" s="3" cm="1">
         <f t="array" ref="E37">_xll.BDP(F37,"px_last")</f>
-        <v>0.63</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>162</v>
@@ -4907,19 +4901,18 @@
         <v>5</v>
       </c>
       <c r="C38" s="4">
-        <f>+C37+42</f>
-        <v>46002</v>
-      </c>
-      <c r="D38" s="3" cm="1">
-        <f t="array" ref="D38">_xll.BDP(F38,"px_last")</f>
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="E38" s="3" cm="1">
-        <f t="array" ref="E38">_xll.BDP(F38,"px_last")</f>
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>46044</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="E38" s="3">
+        <f>D38</f>
+        <v>0.74</v>
+      </c>
+      <c r="F38" s="3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4930,15 +4923,14 @@
         <v>6</v>
       </c>
       <c r="C39" s="4">
-        <f>C38+42</f>
-        <v>46044</v>
+        <v>46086</v>
       </c>
       <c r="D39" s="3">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="E39" s="3">
-        <f>D39</f>
-        <v>0.65</v>
+        <f t="shared" ref="E39:E41" si="0">D39</f>
+        <v>0.79</v>
       </c>
       <c r="F39" s="3" t="e">
         <f>NA()</f>
@@ -4953,15 +4945,14 @@
         <v>7</v>
       </c>
       <c r="C40" s="4">
-        <f>+C39+42</f>
-        <v>46086</v>
+        <v>46128</v>
       </c>
       <c r="D40" s="3">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="E40" s="3">
-        <f>D40</f>
-        <v>0.68</v>
+        <f t="shared" si="0"/>
+        <v>0.81</v>
       </c>
       <c r="F40" s="3" t="e">
         <f>NA()</f>
@@ -4977,14 +4968,14 @@
       </c>
       <c r="C41" s="4">
         <f>+C40+42</f>
-        <v>46128</v>
+        <v>46170</v>
       </c>
       <c r="D41" s="3">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="E41" s="3">
-        <f>D41</f>
-        <v>0.72</v>
+        <f t="shared" si="0"/>
+        <v>0.84</v>
       </c>
       <c r="F41" s="3" t="e">
         <f>NA()</f>
@@ -5010,7 +5001,7 @@
         <v>4.3239999999999998</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5032,7 +5023,7 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -5054,7 +5045,7 @@
         <v>4.0709999999999997</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -5076,7 +5067,7 @@
         <v>3.8380000000000001</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -5098,7 +5089,7 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -5113,14 +5104,14 @@
       </c>
       <c r="D47" s="6" cm="1">
         <f t="array" ref="D47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6059999999999999</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">_xll.BDP(F47,"px_last")</f>
-        <v>3.6059999999999999</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -5135,14 +5126,14 @@
       </c>
       <c r="D48" s="6" cm="1">
         <f t="array" ref="D48">_xll.BDP(F48,"px_last")</f>
-        <v>3.5150000000000001</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="E48" s="6" cm="1">
         <f t="array" ref="E48">_xll.BDP(F48,"px_last")</f>
-        <v>3.5150000000000001</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I48" s="5"/>
     </row>
@@ -5158,14 +5149,14 @@
       </c>
       <c r="D49" s="6" cm="1">
         <f t="array" ref="D49">_xll.BDP(F49,"px_last")</f>
-        <v>3.331</v>
+        <v>3.306</v>
       </c>
       <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">_xll.BDP(F49,"px_last")</f>
-        <v>3.331</v>
+        <v>3.306</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I49" s="5"/>
     </row>
@@ -5188,7 +5179,7 @@
         <v>2.0390000000000001</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -5203,14 +5194,14 @@
       </c>
       <c r="D51" s="7" cm="1">
         <f t="array" ref="D51">_xll.BDP(F51,"px_last")</f>
-        <v>1.9649999999999999</v>
+        <v>1.958</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" ref="E51:E65" si="0">D51</f>
-        <v>1.9649999999999999</v>
+        <f t="shared" ref="E51:E65" si="1">D51</f>
+        <v>1.958</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -5225,14 +5216,14 @@
       </c>
       <c r="D52" s="7" cm="1">
         <f t="array" ref="D52">_xll.BDP(F52,"px_last")</f>
-        <v>1.8839999999999999</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8839999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.9039999999999999</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -5247,14 +5238,14 @@
       </c>
       <c r="D53" s="7" cm="1">
         <f t="array" ref="D53">_xll.BDP(F53,"px_last")</f>
-        <v>1.806</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="0"/>
-        <v>1.806</v>
+        <f t="shared" si="1"/>
+        <v>1.8420000000000001</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -5272,7 +5263,7 @@
         <v>1.9</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="F54" s="7" t="e">
@@ -5295,7 +5286,7 @@
         <v>1.9</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="F55" s="7" t="e">
@@ -5318,7 +5309,7 @@
         <v>1.94</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.94</v>
       </c>
       <c r="F56" s="7" t="e">
@@ -5341,7 +5332,7 @@
         <v>1.96</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
       <c r="F57" s="7" t="e">
@@ -5361,14 +5352,14 @@
       </c>
       <c r="D58" s="8" cm="1">
         <f t="array" ref="D58">_xll.BDP(F58,"px_last")</f>
-        <v>4.2320000000000002</v>
+        <v>4.234</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2320000000000002</v>
+        <f t="shared" si="1"/>
+        <v>4.234</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -5383,14 +5374,14 @@
       </c>
       <c r="D59" s="8" cm="1">
         <f t="array" ref="D59">_xll.BDP(F59,"px_last")</f>
-        <v>4.0199999999999996</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <f t="shared" si="1"/>
+        <v>4.0049999999999999</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -5405,14 +5396,14 @@
       </c>
       <c r="D60" s="8" cm="1">
         <f t="array" ref="D60">_xll.BDP(F60,"px_last")</f>
-        <v>3.9849999999999999</v>
+        <v>3.9859999999999998</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="0"/>
-        <v>3.9849999999999999</v>
+        <f t="shared" si="1"/>
+        <v>3.9859999999999998</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -5428,14 +5419,14 @@
       </c>
       <c r="D61" s="8" cm="1">
         <f t="array" ref="D61">_xll.BDP(F61,"px_last")</f>
-        <v>3.8839999999999999</v>
+        <v>3.89</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8839999999999999</v>
+        <f t="shared" si="1"/>
+        <v>3.89</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -5453,7 +5444,7 @@
         <v>3.85</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.85</v>
       </c>
       <c r="F62" s="8" t="e">
@@ -5476,7 +5467,7 @@
         <v>3.7</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
       <c r="F63" s="8" t="e">
@@ -5499,7 +5490,7 @@
         <v>3.6</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="F64" s="8" t="e">
@@ -5522,7 +5513,7 @@
         <v>3.51</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.51</v>
       </c>
       <c r="F65" s="8" t="e">
